--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -16,20 +16,17 @@
     <sheet name="Data OECD" sheetId="16" r:id="rId2"/>
     <sheet name="Data NonOECD" sheetId="17" r:id="rId3"/>
     <sheet name="IESS data" sheetId="15" r:id="rId4"/>
-    <sheet name="Global CCS Database" sheetId="13" r:id="rId5"/>
-    <sheet name="BAU Calculations" sheetId="14" r:id="rId6"/>
-    <sheet name="BFoCPAbS" sheetId="12" r:id="rId7"/>
+    <sheet name="BAU Calculations" sheetId="14" r:id="rId5"/>
+    <sheet name="BFoCPAbS" sheetId="12" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Global CCS Database'!$A$7:$H$36</definedName>
     <definedName name="Region">'BAU Calculations'!$B$2</definedName>
     <definedName name="Unit.GW">[1]Conversions!$F$55</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -66,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
   <si>
     <t>Source:</t>
   </si>
@@ -114,282 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve"> dimensionless (fraction of potential achieved)</t>
-  </si>
-  <si>
-    <t>Facility Name</t>
-  </si>
-  <si>
-    <t>Facility Category</t>
-  </si>
-  <si>
-    <t>Facility Status</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Operational</t>
-  </si>
-  <si>
-    <t>Facility Industry</t>
-  </si>
-  <si>
-    <t>Facility Short Description</t>
-  </si>
-  <si>
-    <t>Pilot and demonstration CCS facilities</t>
-  </si>
-  <si>
-    <t>Natural Gas Processing</t>
-  </si>
-  <si>
-    <t>Power Generation</t>
-  </si>
-  <si>
-    <t>Filtered to include only:</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Large-scale facilities, pilot and demonstration facilities</t>
-  </si>
-  <si>
-    <t>Early development, advanced development, operational, operating (not "completed," which means it is no longer sequestering CO2)</t>
-  </si>
-  <si>
-    <t>Air Products Steam Methane Reformer</t>
-  </si>
-  <si>
-    <t>Large-scale CCS facilities</t>
-  </si>
-  <si>
-    <t>Operating</t>
-  </si>
-  <si>
-    <t>Hydrogen Production</t>
-  </si>
-  <si>
-    <t>Air Products retrofitted each of its two steam methane reformers SMRs, located within an existing refinery at Port Arthur, Texas, to separate CO2 from the process gas stream. Carbon dioxide capture capacity is at around 1 Mtpa when both plants are fully operational. The captured CO2 is transported to oil fields in Texas for enhanced oil recovery. More than 4 million tonnes of CO2 has been captured since the facilities became operational in 2013.</t>
-  </si>
-  <si>
-    <t>Arkalon CO2 Compression Facility</t>
-  </si>
-  <si>
-    <t>Ethanol Production</t>
-  </si>
-  <si>
-    <t>Chaparral Energy owns and operates a CO2 compression and processing facility at the Arkalon Energy ethanol plant in Kansas, US. In 2015, approximately 190,000 tonnes of CO2 from this source was used for enhanced oil recovery purposes at the Booker and Farnsworth Oil Units in Texas both of which are operated by Chaparral Energy.</t>
-  </si>
-  <si>
-    <t>Core Energy CO2-EOR</t>
-  </si>
-  <si>
-    <t>Core Energy has been operating a CO2-EOR program in Otsego County, Michigan, since 2003.  The CO2 is sourced from a gas processing facility that removes CO2 produced from the Antrim shale gas fields. Core Energy captures around 350,000 tonnes of CO2 out of an estimated total produced CO2 of around 500,000 tonnes. Core Energy reports that as of end 2016, its CO2-EOR operations had injected over two million tonnes of CO2.</t>
-  </si>
-  <si>
-    <t>PCS Nitrogen</t>
-  </si>
-  <si>
-    <t>Fertiliser Production</t>
-  </si>
-  <si>
-    <t>Denbury Resources sources CO2 from an industrial facility in Louisiana, United States, to support its CO2-EOR operations in the Gulf Coast region. Capture began in 2013 and the Institute estimates that annual uptake is in the range of 200,000 to 300,000 tonnes of CO2 per annum.</t>
-  </si>
-  <si>
-    <t>Illinois Industrial Carbon Capture and Storage</t>
-  </si>
-  <si>
-    <t>Illinois Industrial CCS integrates new build compression and dehydration facilities to an existing corn-to-ethanol plant in Decatur, Illinois. The new facilities, when combined with existing facilities constructed under the now completed Illinois Basin Decatur Project, can achieve a total CO2 injection capacity of approximately 1 Mtpa. Injection operations commenced in April 2017. The captured CO2 is transported to a nearby injection well for dedicated geological storage.</t>
-  </si>
-  <si>
-    <t>NET Power Clean Energy Large-scale Pilot Plant</t>
-  </si>
-  <si>
-    <t>In 2016, NET Power LLC commenced construction on a 50 MWth 25 MWe first-of-a-kind natural gas-fired power plant located near Houston, Texas, in order to test at large pilot-scale NET Power’s proprietary Allam Cycle Technology which uses CO2 as a working fluid in an oxy-fuel, supercritical CO2 power cycle to generate electricity. In March 2018, Net Power has announced that it has successfully fired up its natural-gas plant.</t>
-  </si>
-  <si>
-    <t>Lake Charles Methanol</t>
-  </si>
-  <si>
-    <t>Advanced Development</t>
-  </si>
-  <si>
-    <t>2022 (Institute estimate)</t>
-  </si>
-  <si>
-    <t>Chemical Production</t>
-  </si>
-  <si>
-    <t>Lake Charles Methanol is a proposed gasification facility in Louisiana, planning to capture over 4 Mtpa of CO2 from synthetic gas syngas. The syngas to be further converted to make methanol and other products would be produced during the conversion of petroleum coke sourced from oil refineries in the Gulf Coast region. The captured CO2 would most likely be used in Denbury Resources enhanced oil recovery assets in the Houston area, Texas. The Institute estimates an operations date of 2022.</t>
-  </si>
-  <si>
-    <t>OXY and White Energy Ethanol EOR Facility</t>
-  </si>
-  <si>
-    <t>Early Development</t>
-  </si>
-  <si>
-    <t>Occidental Petroleum Corporation and White Energy proposes to capture CO2 from White Energy’s two ethanol facilities in Hereford and Plainview, Texas. The captured CO2 will be stored via EOR operations at Occidental’s oil fields in Permian Basin.</t>
-  </si>
-  <si>
-    <t>OXY and Carbon Engineering Direct Air Capture and EOR Facility</t>
-  </si>
-  <si>
-    <t>middle 2020s</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Oxy Low Carbon Ventures, LLC and Carbon Engineering proposes a joint project of the world’s largest DAC and sequestration facility, with a capacity of 0.5 million tonnes per annum (Mtpa) CO2 capture capacity. The captured CO2 is planned to be used in Occidental’s EOR operations in the Permian Basin.</t>
-  </si>
-  <si>
-    <t>Petra Nova Carbon Capture</t>
-  </si>
-  <si>
-    <t>Petra Nova Carbon Capture, operational since January 2017, is the worlds largest post-combustion CO2 capture system presently in operation. Production unit 8 of the W. A. Parish power plant near Houston, Texas, was retrofitted with a 1.4 Mtpa post-combustion CO2 capture facility. The captured CO2 is transported via pipeline to an oil field near Houston for enhanced oil recovery.</t>
-  </si>
-  <si>
-    <t>Bonanza BioEnergy CCUS EOR</t>
-  </si>
-  <si>
-    <t>PetroSantander, Inc. owns and operates the dehydration, compression, transport and CO2 injection sites for CO2 sourced from the Bonanza BioEnergy ethanol plant in Kansas, US. The project began operation in 2012 and captures approximately 100,000 tonnes of CO2 annually, which is used for enhanced oil recovery purposes in the nearby Stewart oil field.</t>
-  </si>
-  <si>
-    <t>Project ECO2S: Early CO2 Storage Complex in Kemper County</t>
-  </si>
-  <si>
-    <t>Under evaluation</t>
-  </si>
-  <si>
-    <t>Project ECO2S aims to establish a CO2 storage site with a storage capacity of approximately one billion metric tons in a 12,000-hectare storage complex near the Kemper County Energy Facility in Kemper County, Mississippi which could serve as a regional CO2 storage hub for regional power and industrial CO2 point sources.</t>
-  </si>
-  <si>
-    <t>Dry Fork Integrated Commercial Carbon Capture and Storage (CCS)</t>
-  </si>
-  <si>
-    <t>The Basin Electric Power Cooperative aims to capture 3.0 Mtpa CO2 from the 385 MW Dry Fork coal-fired power station in Wyoming, USA. They are targeting adjacent geological storage formations currently being studied by Wyoming CarbonSAFE. The Cooperative is also considering EOR as a potential CO2 storage pathway, utilising nearby CO2 pipeline networks and EOR operations.</t>
-  </si>
-  <si>
-    <t>Bell Creek - Incidental CO2 Storage Associated with a Commercial EOR Project</t>
-  </si>
-  <si>
-    <t>The Bell Creek project is a collaboration between the Plains CO2 Reduction PCOR Partnership and Denbury Onshore LLC to study incidental CO2 storage associated with a Denbury-operated commercial EOR project. The PCOR Partnership is conducting site characterization, modeling and predictive simulation, and monitoring, verification, and accounting MVA to study the interrelationship of commercial CO2 EOR operations and incidental CO2 storage and to evaluate how EOR injection strategies affect associated storage. As of June 2017, EOR operations have resulted in approximately 4.0 million tonnes of associated CO2 storage at the site.</t>
-  </si>
-  <si>
-    <t>Century Plant</t>
-  </si>
-  <si>
-    <t>The Century Plant natural gas treatment facility in Texas, when fully operational, has a CO2 capture capacity of around 8.4 Mtpa. Captured CO2 is transported via a pipeline system to oil fields for enhanced oil recovery.</t>
-  </si>
-  <si>
-    <t>Coffeyville Gasification Plant</t>
-  </si>
-  <si>
-    <t>The Coffeyville Resources Nitrogen Fertilizers fertiliser plant in Coffeyville, Kansas, has been retrofitted with CO2 compression and dehydration facilities and since 2013 has been delivering CO2 to the North Burbank Oil Unit in Osage County, Oklahoma, for enhanced oil recovery. Carbon dioxide capture capacity of the compression facilities is around 1 Mtpa.</t>
-  </si>
-  <si>
-    <t>Cranfield Project</t>
-  </si>
-  <si>
-    <t>The Cranfield Project in Mississippi, US, involved the monitoring of large-scale CO2 injection into a saline formation of the Cranfield oil unit operated by Denbury Resources. The naturally occurring CO2 was sourced from Jackson Dome. Up to January 2015, the Cranfield Project had monitored around 4.7 million tonnes of CO2 stored under the SECARB Phase III Development Program.</t>
-  </si>
-  <si>
-    <t>Great Plains Synfuels Plant and Weyburn-Midale</t>
-  </si>
-  <si>
-    <t>Synthetic Natural Gas</t>
-  </si>
-  <si>
-    <t>The Great Plains Synfuels plant, located in North Dakota, produces high purity CO2 as part of its coal gasification process. Carbon dioxide capture capacity of the plant is approximately 3 Mtpa. The captured CO2 is transported via pipeline to the Weyburn Oil Unit and the Midale Oil Unit in Saskatchewan, Canada, for use in enhanced oil recovery. Around 35 million tonnes of CO2 has been captured and transported to date.</t>
-  </si>
-  <si>
-    <t>Integrated Midcontinent Stacked Carbon Storage Hub</t>
-  </si>
-  <si>
-    <t>2025 - 2035</t>
-  </si>
-  <si>
-    <t>Various</t>
-  </si>
-  <si>
-    <t>The Integrated Midcontinent Stacked Carbon Storage Hub involves developing a commercial scale CO2 storage hub in Nebraska and Kansas. The storage hub will form part of an integrated CO2 collection, transportation and storage infrastructure which will enable the collection of CO2 from the dense concentration of  ethanol plants, power plants and refinery.</t>
-  </si>
-  <si>
-    <t>Enid Fertilizer</t>
-  </si>
-  <si>
-    <t>The Koch Nitrogen Company facility in Enid, Oklahoma produces nitrogen fertilisers which result in a high purity, high concentration CO2 off-gas. The CO2 off-gas is processed at compression, cooling and dehydration facilities owned by Chaparral Energy and Merit Energy. The processed CO2 of up to around 0.7 Mtpa is transported to depleted oil fields in southern Oklahoma for enhanced oil recovery.</t>
-  </si>
-  <si>
-    <t>Lost Cabin Gas Plant</t>
-  </si>
-  <si>
-    <t>The Lost Cabin Gas plant, located in Wyoming, supplies CO2 to compression facilities adjacent to the plant to enable CO2 transport by pipeline. Carbon dioxide capture capacity is around 0.9 Mtpa, and since 2013, CO2 has been delivered via a new build pipeline to the Bell Creek oil field in Montana for enhanced oil recovery.</t>
-  </si>
-  <si>
-    <t>Project Tundra</t>
-  </si>
-  <si>
-    <t>2025 - 2026</t>
-  </si>
-  <si>
-    <t>The Minnkota Power Cooperative is planning the retrofit of a 3.1 to 3.6 Mtpa CO2 capture plant to the Milton R. Young coal-fired power station in North Dakota USA. Carbon dioxide will be captured from Unit 2 of the power station which generates  455 megawatts of electric (MWe). They are initially targeting dedicated geological storage sites. The North Dakota CarbonSAFE Storage Hub  is studying the future potential for the utilisation of CO2 from this facility for EOR.</t>
-  </si>
-  <si>
-    <t>Michigan Basin Large Scale Injection Test</t>
-  </si>
-  <si>
-    <t>The project is designed to inject and monitor approximately one million tonnes of CO2 within a series of formations currently being used for enhanced oil recovery operations. Carbon dioxide injection associated with the Large-scale Injection Test began in March 2013. As of early 2019, the project had successfully injected and monitored the storage of more than 1,100,000 tonnes of new CO2.</t>
-  </si>
-  <si>
-    <t>Shute Creek Gas Processing Plant</t>
-  </si>
-  <si>
-    <t>The Shute Creek gas treating facility, located in Wyoming, began operation in 1986. After a plant expansion was completed in 2010, annual CO2 capture capacity is now at around 7 Mtpa. The captured CO2 is distributed via pipeline systems to a number of depleted oil fields in Wyoming and Colorado for use in enhanced oil recovery.</t>
-  </si>
-  <si>
-    <t>Farnsworth Unit EOR Field Project - Development Phase</t>
-  </si>
-  <si>
-    <t>Ethanol Production and Fertiliser Production</t>
-  </si>
-  <si>
-    <t>The Southwest Regional Partnership on Carbon Sequestration SWP monitors activities on active CO2-EOR injection well patterns. The SWP Phase III project intends to track the injection of over 0.2 Mtpa of CO2 over multiple years until at least one million tonnes of CO2 has been injected. As of April 2017, purchased CO2 totalled approximately 640,000 tonnes, with net CO2 storage placed at around 595,000 tonnes.</t>
-  </si>
-  <si>
-    <t>Terrell Natural Gas Processing Plant (formerly Val Verde Natural Gas Plants)</t>
-  </si>
-  <si>
-    <t>The Terrell gas processing facility is one of the original Val Verde natural gas processing plants in west Texas, that began capturing CO2 as part of gas processing since the early 1970s. Captured CO2 is transported via the Val Verde pipeline to McCamey, Texas, where it connects with the Canyon Reef Carriers CRC pipeline and the Pecos pipeline. The CO2 is then distributed to mature oil fields for enhanced oil recovery. The Terrell facility has a CO2 capture capacity of around 0.4-0.5 Mtpa.</t>
-  </si>
-  <si>
-    <t>Fuel Cell Carbon Capture Pilot Plant</t>
-  </si>
-  <si>
-    <t>This pilot plant will utilise FuelCell Energy’s commercial DFC3000® carbonate fuel cell power system to concentrate and capture a portion of the CO2 emissions from the exhaust flue gases at the Plant Barry power station in Alabama, US for natural gas-fired generation.</t>
-  </si>
-  <si>
-    <t>CarbonSAFE Illinois – Macon County</t>
-  </si>
-  <si>
-    <t>This project seeks to establish a 50+ million tonne commercial geological storage hub in Illinois, USA. Adjacent power plants, such as Prairie State Generation (816 MWe, coal-fired power plant, 10 Mtpa CO2) which has been awarded a full-scale FEED study,  and regional ethanol plants are potential CO2 sources.</t>
-  </si>
-  <si>
-    <t>Wabash CO2 Sequestration</t>
-  </si>
-  <si>
-    <t>Wabash Valley Resources LLC aims to develop an ammonia plant with near-zero CO2 emissions using a repurposed integrated gasification combined cycle (IGCC) plant in Indiana, USA. The facility will capture 1.5 to 1.75 Mtpa CO2 for dedicated geological storage in the Wabash CarbonSAFE CO2 storage hub.</t>
-  </si>
-  <si>
-    <t>Global CCS Institute Database (as of 4/30/2020)</t>
-  </si>
-  <si>
-    <t>Tons/Yr</t>
-  </si>
-  <si>
-    <t>Start Year</t>
   </si>
   <si>
     <t>Industry (all other)</t>
@@ -914,7 +635,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -928,9 +649,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -941,9 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6080,138 +5796,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="ETP 2017 data"/>
-      <sheetName val="CSA-ACP Calculations"/>
-      <sheetName val="CSA-BTCS"/>
-      <sheetName val="CSA-ACP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="15">
-          <cell r="A15">
-            <v>0</v>
-          </cell>
-          <cell r="B15">
-            <v>1000000</v>
-          </cell>
-          <cell r="C15">
-            <v>2000000</v>
-          </cell>
-          <cell r="D15">
-            <v>3000000</v>
-          </cell>
-          <cell r="E15">
-            <v>4000000</v>
-          </cell>
-          <cell r="F15">
-            <v>5000000</v>
-          </cell>
-          <cell r="G15">
-            <v>6000000</v>
-          </cell>
-          <cell r="H15">
-            <v>7000000</v>
-          </cell>
-          <cell r="I15">
-            <v>8000000</v>
-          </cell>
-          <cell r="J15">
-            <v>9000000</v>
-          </cell>
-          <cell r="K15">
-            <v>10000000</v>
-          </cell>
-          <cell r="L15">
-            <v>50000000</v>
-          </cell>
-          <cell r="M15">
-            <v>90000000</v>
-          </cell>
-          <cell r="N15">
-            <v>130000000</v>
-          </cell>
-          <cell r="O15">
-            <v>170000000</v>
-          </cell>
-          <cell r="P15">
-            <v>210000000.00000003</v>
-          </cell>
-          <cell r="Q15">
-            <v>272000000</v>
-          </cell>
-          <cell r="R15">
-            <v>334000000</v>
-          </cell>
-          <cell r="S15">
-            <v>396000000</v>
-          </cell>
-          <cell r="T15">
-            <v>458000000</v>
-          </cell>
-          <cell r="U15">
-            <v>520000000</v>
-          </cell>
-          <cell r="V15">
-            <v>552000000</v>
-          </cell>
-          <cell r="W15">
-            <v>584000000</v>
-          </cell>
-          <cell r="X15">
-            <v>616000000</v>
-          </cell>
-          <cell r="Y15">
-            <v>648000000</v>
-          </cell>
-          <cell r="Z15">
-            <v>679999999.99999988</v>
-          </cell>
-          <cell r="AA15">
-            <v>710000000</v>
-          </cell>
-          <cell r="AB15">
-            <v>740000000</v>
-          </cell>
-          <cell r="AC15">
-            <v>770000000</v>
-          </cell>
-          <cell r="AD15">
-            <v>800000000</v>
-          </cell>
-          <cell r="AE15">
-            <v>830000000.00000012</v>
-          </cell>
-          <cell r="AF15">
-            <v>778000000</v>
-          </cell>
-          <cell r="AG15">
-            <v>726000000</v>
-          </cell>
-          <cell r="AH15">
-            <v>674000000</v>
-          </cell>
-          <cell r="AI15">
-            <v>622000000</v>
-          </cell>
-          <cell r="AJ15">
-            <v>570000000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6522,66 +6106,66 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>203</v>
+      <c r="B3" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="51">
+      <c r="B5" s="48">
         <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
-        <v>196</v>
+      <c r="B7" s="49" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="16" t="s">
-        <v>198</v>
+      <c r="B10" s="14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="51">
+      <c r="B12" s="48">
         <v>2015</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -6679,8 +6263,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>191</v>
+      <c r="A1" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6716,65 +6300,65 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="46">
         <f t="shared" ref="B3:G3" si="0">D23/D25</f>
         <v>0.21803644250297027</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="46">
         <f t="shared" si="0"/>
         <v>0.45387106293645746</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="46">
         <f t="shared" si="0"/>
         <v>0.57375467270212188</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="46">
         <f t="shared" si="0"/>
         <v>0.59382245522742239</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="46">
         <f t="shared" si="0"/>
         <v>0.60434543955945319</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="46">
         <f t="shared" si="0"/>
         <v>0.56028199067132201</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="46">
         <f t="shared" ref="B4:G4" si="1">SUM(D22,D24)/D25</f>
         <v>0.78196355749702962</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="46">
         <f t="shared" si="1"/>
         <v>0.54612893706354271</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="46">
         <f t="shared" si="1"/>
         <v>0.42624532729787801</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="46">
         <f t="shared" si="1"/>
         <v>0.40617754477257761</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="46">
         <f t="shared" si="1"/>
         <v>0.39565456044054664</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="46">
         <f t="shared" si="1"/>
         <v>0.43971800932867816</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
-        <v>190</v>
+      <c r="A6" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6807,29 +6391,29 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="48">
+        <v>97</v>
+      </c>
+      <c r="B8" s="45">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
         <v>0.29305349924260793</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="45">
         <f t="shared" si="2"/>
         <v>0.33275814655315439</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="45">
         <f t="shared" si="2"/>
         <v>0.27778376598364735</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="45">
         <f t="shared" si="2"/>
         <v>0.32736698959883581</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="45">
         <f t="shared" si="2"/>
         <v>0.35934243065340959</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="45">
         <f t="shared" si="2"/>
         <v>0.38367083769308907</v>
       </c>
@@ -6837,87 +6421,87 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="49">
+        <v>96</v>
+      </c>
+      <c r="B9" s="46">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
         <v>8.8852453196402434E-2</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="46">
         <f t="shared" si="3"/>
         <v>0.11760289017955526</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="46">
         <f t="shared" si="3"/>
         <v>0.16029232107960878</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="46">
         <f t="shared" si="3"/>
         <v>0.17273948243196502</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="46">
         <f t="shared" si="3"/>
         <v>0.19873531530551919</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="46">
         <f t="shared" si="3"/>
         <v>0.21792159249022533</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="48">
+        <v>95</v>
+      </c>
+      <c r="B10" s="45">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
         <v>2.4929787372755252E-3</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <f t="shared" si="4"/>
         <v>0.16235589840065001</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="45">
         <f t="shared" si="4"/>
         <v>0.28012369548232957</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="45">
         <f t="shared" si="4"/>
         <v>0.29779009961409042</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="45">
         <f t="shared" si="4"/>
         <v>0.28793480415473521</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="45">
         <f t="shared" si="4"/>
         <v>0.25804018454667765</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="49">
+        <v>94</v>
+      </c>
+      <c r="B11" s="46">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
         <v>0.60906693840985171</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="46">
         <f t="shared" si="5"/>
         <v>0.38103420834619267</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="46">
         <f t="shared" si="5"/>
         <v>0.27591691183820882</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="46">
         <f t="shared" si="5"/>
         <v>0.1994127226137235</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="46">
         <f t="shared" si="5"/>
         <v>0.15396517468671694</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="46">
         <f t="shared" si="5"/>
         <v>0.14036492570317538</v>
       </c>
@@ -6927,8 +6511,8 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
-        <v>185</v>
+      <c r="A13" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -6956,620 +6540,620 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="49">
+        <v>92</v>
+      </c>
+      <c r="B15" s="46">
         <f>B31/SUM(B31:B33)</f>
         <v>0.99031037400420396</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="46">
         <f>C31/SUM(C31:C33)</f>
         <v>0.38683189211801422</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="46">
         <f>D31/SUM(D31:D33)</f>
         <v>0.35477104291503592</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="46">
         <f>E31/SUM(E31:E33)</f>
         <v>0.28108145583275146</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="49">
+        <v>91</v>
+      </c>
+      <c r="B16" s="46">
         <f>B32/SUM(B31:B33)</f>
         <v>9.6896259957961056E-3</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="46">
         <f>C32/SUM(C31:C33)</f>
         <v>0.59862093333506916</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="46">
         <f>D32/SUM(D31:D33)</f>
         <v>0.57372188670355717</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="46">
         <f>E32/SUM(E31:E33)</f>
         <v>0.43585744423879202</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="49">
+        <v>90</v>
+      </c>
+      <c r="B17" s="46">
         <f>B33/SUM(B31:B33)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="46">
         <f>C33/SUM(C31:C33)</f>
         <v>1.4547174546916692E-2</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="46">
         <f>D33/SUM(D31:D33)</f>
         <v>7.1507070381406954E-2</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="46">
         <f>E33/SUM(E31:E33)</f>
         <v>0.28306109992845646</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
       <c r="I17" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46">
+      <c r="A21" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43">
         <v>2014</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="43">
         <v>2025</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="43">
         <v>2030</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="43">
         <v>2035</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="43">
         <v>2040</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="43">
         <v>2045</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="43">
         <v>2050</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="43">
         <v>2055</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="43">
         <v>2060</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="44">
-        <v>0</v>
-      </c>
-      <c r="D22" s="44">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
         <v>32.40429913151911</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="41">
         <v>93.876808800194539</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="41">
         <v>151.71633290315154</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="41">
         <v>187.21216357345642</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="41">
         <v>237.97861280972978</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="41">
         <v>268.62433402842748</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="41">
         <v>301.62694877193803</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="41">
         <v>338.82942754525209</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="44">
-        <v>0</v>
-      </c>
-      <c r="D23" s="44">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
         <v>16.985652732884223</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="41">
         <v>136.39566547228313</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="41">
         <v>386.88874151414149</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="41">
         <v>571.47749466737059</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="41">
         <v>803.61468594996381</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="41">
         <v>817.9399604957988</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="41">
         <v>895.52328791931473</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="41">
         <v>858.4271853516816</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="44">
-        <v>0</v>
-      </c>
-      <c r="D24" s="44">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="41">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
         <v>28.512863545240073</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="41">
         <v>70.243854285306412</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="41">
         <v>135.70532325157922</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="41">
         <v>203.68131583846389</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="41">
         <v>288.13409446059916</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="41">
         <v>373.30765230696636</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="41">
         <v>469.46789166999571</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="41">
         <v>556.22745588473765</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="44"/>
-      <c r="B25" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="42">
-        <v>0</v>
-      </c>
-      <c r="D25" s="42">
+      <c r="A25" s="41"/>
+      <c r="B25" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="39">
+        <v>0</v>
+      </c>
+      <c r="D25" s="39">
         <v>77.902815409643409</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="39">
         <v>300.51632855778405</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="39">
         <v>674.31039766887227</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="39">
         <v>962.37097407929093</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="39">
         <v>1329.7273932202929</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="39">
         <v>1459.8719468311924</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="39">
         <v>1666.6181283612484</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="39">
         <v>1753.4840687816713</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="34"/>
-      <c r="B29" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="35"/>
-      <c r="B30" s="40">
+      <c r="A30" s="32"/>
+      <c r="B30" s="37">
         <v>2020</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="37">
         <v>2030</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="37">
         <v>2040</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="37">
         <v>2050</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="37">
         <v>2060</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="37">
         <v>2020</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="37">
         <v>2030</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="37">
         <v>2040</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="37">
         <v>2050</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="37">
         <v>2060</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="39">
+      <c r="A31" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="36">
         <v>9.0692000334624094E-3</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="36">
         <v>5.1350318772354832E-2</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="36">
         <v>0.31707111991587944</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="36">
         <v>0.43250423067250798</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="36">
         <v>0.30164318885759717</v>
       </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39">
+      <c r="G31" s="36">
+        <v>0</v>
+      </c>
+      <c r="H31" s="36">
         <v>0.25314566757024587</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="36">
         <v>1.6159505949355208</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="36">
         <v>1.3631258357215936</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="36">
         <v>1.1836798147928469</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="39">
+      <c r="A32" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="36">
         <v>8.8736984598062219E-5</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="36">
         <v>7.9464429838640188E-2</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="36">
         <v>0.51275504235816094</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="36">
         <v>0.67066035375720856</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="36">
         <v>0.29118624343037608</v>
       </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39">
+      <c r="G32" s="36">
+        <v>0</v>
+      </c>
+      <c r="H32" s="36">
         <v>7.2967083539768385E-2</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="36">
         <v>0.51828833623970194</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="36">
         <v>1.0630754575373591</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="36">
         <v>1.7581577119173859</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="39">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39">
+      <c r="A33" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="36">
+        <v>0</v>
+      </c>
+      <c r="C33" s="36">
         <v>1.9310766910432609E-3</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="36">
         <v>6.3908335644987324E-2</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="36">
         <v>0.43555033858482695</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="36">
         <v>0.83998846288335016</v>
       </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
-      <c r="H33" s="39">
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
+      <c r="H33" s="36">
         <v>1.0989011883988391E-2</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="36">
         <v>0.18918889400984115</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="36">
         <v>0.73816487009111909</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="36">
         <v>1.3736678542573124</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="38" t="s">
-        <v>171</v>
+      <c r="A35" s="35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A36" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="36"/>
+      <c r="A36" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
+      <c r="A37" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32">
         <v>2014</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="32">
         <v>2015</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="32">
         <v>2020</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="32">
         <v>2025</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="32">
         <v>2030</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="32">
         <v>2035</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="32">
         <v>2040</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="32">
         <v>2045</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="32">
         <v>2050</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="32">
         <v>2055</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="32">
         <v>2060</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="33">
-        <v>0</v>
-      </c>
-      <c r="C39" s="33">
-        <v>0</v>
-      </c>
-      <c r="D39" s="33">
-        <v>0</v>
-      </c>
-      <c r="E39" s="33">
+      <c r="A39" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="30">
+        <v>0</v>
+      </c>
+      <c r="C39" s="30">
+        <v>0</v>
+      </c>
+      <c r="D39" s="30">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30">
         <v>9.4041235044908286E-2</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="30">
         <v>0.19875544489630168</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="30">
         <v>0.23517493229217079</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="30">
         <v>0.38600636209402522</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="30">
         <v>0.52098845994441834</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="30">
         <v>0.65724216697011595</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="30">
         <v>0.65648081566706651</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="30">
         <v>0.74110405537417889</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="33">
-        <v>0</v>
-      </c>
-      <c r="C40" s="33">
-        <v>0</v>
-      </c>
-      <c r="D40" s="33">
+      <c r="A40" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="30">
+        <v>0</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0</v>
+      </c>
+      <c r="D40" s="30">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="30">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="30">
         <v>9.6974692137267671E-2</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="30">
         <v>0.23715594352755537</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="30">
         <v>0.3511315333305714</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="30">
         <v>0.41745893995374145</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="30">
         <v>0.44203226671215384</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="30">
         <v>0.46148047621402866</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="30">
         <v>0.50590832725411927</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="33">
-        <v>0</v>
-      </c>
-      <c r="C41" s="33">
-        <v>0</v>
-      </c>
-      <c r="D41" s="33">
+      <c r="A41" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="30">
+        <v>0</v>
+      </c>
+      <c r="C41" s="30">
+        <v>0</v>
+      </c>
+      <c r="D41" s="30">
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="30">
         <v>0.19545034357588661</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="30">
         <v>0.22759059210128213</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="30">
         <v>0.23359443209375855</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="30">
         <v>0.23513238065241418</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="30">
         <v>0.22322462476598964</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="30">
         <v>0.24045024764053377</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="30">
         <v>0.27864135643363158</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="30">
         <v>0.28914007666781549</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="33">
-        <v>0</v>
-      </c>
-      <c r="C42" s="33">
-        <v>0</v>
-      </c>
-      <c r="D42" s="33">
+      <c r="A42" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="30">
+        <v>0</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0</v>
+      </c>
+      <c r="D42" s="30">
         <v>1.5376939060841825E-4</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="30">
         <v>2.0968106357788581E-3</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="30">
         <v>3.7324232950562601E-3</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="30">
         <v>4.980874224401988E-3</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="30">
         <v>3.1726764386671349E-3</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="30">
         <v>3.2295440099746402E-5</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="30">
         <v>4.2133278740787309E-6</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="30">
         <v>2.8577172778101513E-5</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="30">
         <v>7.283691725614275E-5</v>
       </c>
     </row>
@@ -7597,8 +7181,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>191</v>
+      <c r="A1" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7634,65 +7218,65 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="46">
         <f t="shared" ref="B3:G3" si="0">D23/D25</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="46">
         <f t="shared" si="0"/>
         <v>0.18309937593197775</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="46">
         <f t="shared" si="0"/>
         <v>0.33562779707770829</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="46">
         <f t="shared" si="0"/>
         <v>0.41029460344152446</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="46">
         <f t="shared" si="0"/>
         <v>0.43562759311159638</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="46">
         <f t="shared" si="0"/>
         <v>0.37730512812328371</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="46">
         <f t="shared" ref="B4:G4" si="1">SUM(D22,D24)/D25</f>
         <v>0.95506356699399775</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="46">
         <f t="shared" si="1"/>
         <v>0.81690062406802222</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="46">
         <f t="shared" si="1"/>
         <v>0.66437220292229171</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="46">
         <f t="shared" si="1"/>
         <v>0.58970539655847543</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="46">
         <f t="shared" si="1"/>
         <v>0.56437240688840373</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="46">
         <f t="shared" si="1"/>
         <v>0.62269487187671635</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="46"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
-        <v>190</v>
+      <c r="A6" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7725,29 +7309,29 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="48">
+        <v>97</v>
+      </c>
+      <c r="B8" s="45">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
         <v>0.29900648346859349</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="45">
         <f t="shared" si="2"/>
         <v>0.30366522968423609</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="45">
         <f t="shared" si="2"/>
         <v>0.2325252012134289</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="45">
         <f t="shared" si="2"/>
         <v>0.23905776935811326</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="45">
         <f t="shared" si="2"/>
         <v>0.2459021549943784</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="45">
         <f t="shared" si="2"/>
         <v>0.2585937965046165</v>
       </c>
@@ -7755,87 +7339,87 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="49">
+        <v>96</v>
+      </c>
+      <c r="B9" s="46">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
         <v>7.0343727016078286E-2</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="46">
         <f t="shared" si="3"/>
         <v>0.19475053037197726</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="46">
         <f t="shared" si="3"/>
         <v>0.29710364351198437</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="46">
         <f t="shared" si="3"/>
         <v>0.39589799738148052</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="46">
         <f t="shared" si="3"/>
         <v>0.45168536782870344</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="46">
         <f t="shared" si="3"/>
         <v>0.47287986290994544</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="48">
+        <v>95</v>
+      </c>
+      <c r="B10" s="45">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
         <v>2.5436202178825617E-3</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <f t="shared" si="4"/>
         <v>0.14816118459942337</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="45">
         <f t="shared" si="4"/>
         <v>0.23448389226788868</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="45">
         <f t="shared" si="4"/>
         <v>0.21745942386528264</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="45">
         <f t="shared" si="4"/>
         <v>0.19703709553805757</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="45">
         <f t="shared" si="4"/>
         <v>0.17391885026730866</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="49">
+        <v>94</v>
+      </c>
+      <c r="B11" s="46">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
         <v>0.62143930688964777</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="46">
         <f t="shared" si="5"/>
         <v>0.34772053394796387</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="46">
         <f t="shared" si="5"/>
         <v>0.23096250861234377</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="46">
         <f t="shared" si="5"/>
         <v>0.14561993775879004</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="46">
         <f t="shared" si="5"/>
         <v>0.10536013846376642</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="46">
         <f t="shared" si="5"/>
         <v>9.4605832572315834E-2</v>
       </c>
@@ -7845,8 +7429,8 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
-        <v>185</v>
+      <c r="A13" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7874,620 +7458,620 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="49">
+        <v>92</v>
+      </c>
+      <c r="B15" s="46">
         <f>G31</f>
         <v>0</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="46">
         <f t="shared" ref="C15:E17" si="6">H31/SUM(H31:H33)</f>
         <v>0.75094732617802884</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="46">
         <f t="shared" si="6"/>
         <v>0.69550281589091678</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="46">
         <f t="shared" si="6"/>
         <v>0.43077373646242967</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="49">
+        <v>91</v>
+      </c>
+      <c r="B16" s="46">
         <f>G32</f>
         <v>0</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="46">
         <f t="shared" si="6"/>
         <v>0.86911001722361103</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="46">
         <f t="shared" si="6"/>
         <v>0.73258659654232261</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="46">
         <f t="shared" si="6"/>
         <v>0.59019079310588696</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="49">
+        <v>90</v>
+      </c>
+      <c r="B17" s="46">
         <f>G33</f>
         <v>0</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="46">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="46">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="46">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
       <c r="I17" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46">
+      <c r="A21" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43">
         <v>2014</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="43">
         <v>2025</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="43">
         <v>2030</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="43">
         <v>2035</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="43">
         <v>2040</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="43">
         <v>2045</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="43">
         <v>2050</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="43">
         <v>2055</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="43">
         <v>2060</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="44">
-        <v>0</v>
-      </c>
-      <c r="D22" s="44">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
         <v>617.46579618378519</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="41">
         <v>1081.7934339086667</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="41">
         <v>1514.8251281587777</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="41">
         <v>1927.6720378022803</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="41">
         <v>2198.1141550802454</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="41">
         <v>2676.6122372335317</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="41">
         <v>2950.0831196290765</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="41">
         <v>3224.4254691476872</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="44">
-        <v>0</v>
-      </c>
-      <c r="D23" s="44">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
         <v>30.093162117441675</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="41">
         <v>271.04287232984956</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="41">
         <v>917.06120698826567</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="41">
         <v>1785.9710678442866</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="41">
         <v>2435.3512473822343</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="41">
         <v>2350.0625653690722</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="41">
         <v>2648.502745099659</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="41">
         <v>3279.952284652592</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="44">
-        <v>0</v>
-      </c>
-      <c r="D24" s="44">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="41">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
         <v>22.123971659459748</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="41">
         <v>127.4684241858147</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="41">
         <v>300.48927549386389</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="41">
         <v>639.25613520056368</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="41">
         <v>956.97764084208234</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="41">
         <v>1201.8717773452677</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="41">
         <v>1637.288722767227</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="41">
         <v>1812.7160215516324</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="44"/>
-      <c r="B25" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="42">
-        <v>0</v>
-      </c>
-      <c r="D25" s="42">
+      <c r="A25" s="41"/>
+      <c r="B25" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="39">
+        <v>0</v>
+      </c>
+      <c r="D25" s="39">
         <v>669.68292996068658</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="39">
         <v>1480.304730424331</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="39">
         <v>2732.3756106409073</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="39">
         <v>4352.8992408471313</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="39">
         <v>5590.4430433045618</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="39">
         <v>6228.5465799478716</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="39">
         <v>7235.8745874959623</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="39">
         <v>8317.093775351912</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="34"/>
-      <c r="B29" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="35"/>
-      <c r="B30" s="40">
+      <c r="A30" s="32"/>
+      <c r="B30" s="37">
         <v>2020</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="37">
         <v>2030</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="37">
         <v>2040</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="37">
         <v>2050</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="37">
         <v>2060</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="37">
         <v>2020</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="37">
         <v>2030</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="37">
         <v>2040</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="37">
         <v>2050</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="37">
         <v>2060</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="39">
+      <c r="A31" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="36">
         <v>9.0692000334624094E-3</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="36">
         <v>5.1350318772354832E-2</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="36">
         <v>0.31707111991587944</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="36">
         <v>0.43250423067250798</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="36">
         <v>0.30164318885759717</v>
       </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39">
+      <c r="G31" s="36">
+        <v>0</v>
+      </c>
+      <c r="H31" s="36">
         <v>0.25314566757024587</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="36">
         <v>1.6159505949355208</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="36">
         <v>1.3631258357215936</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="36">
         <v>1.1836798147928469</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="39">
+      <c r="A32" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="36">
         <v>8.8736984598062219E-5</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="36">
         <v>7.9464429838640188E-2</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="36">
         <v>0.51275504235816094</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="36">
         <v>0.67066035375720856</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="36">
         <v>0.29118624343037608</v>
       </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39">
+      <c r="G32" s="36">
+        <v>0</v>
+      </c>
+      <c r="H32" s="36">
         <v>7.2967083539768385E-2</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="36">
         <v>0.51828833623970194</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="36">
         <v>1.0630754575373591</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="36">
         <v>1.7581577119173859</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="39">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39">
+      <c r="A33" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="36">
+        <v>0</v>
+      </c>
+      <c r="C33" s="36">
         <v>1.9310766910432609E-3</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="36">
         <v>6.3908335644987324E-2</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="36">
         <v>0.43555033858482695</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="36">
         <v>0.83998846288335016</v>
       </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
-      <c r="H33" s="39">
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
+      <c r="H33" s="36">
         <v>1.0989011883988391E-2</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="36">
         <v>0.18918889400984115</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="36">
         <v>0.73816487009111909</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="36">
         <v>1.3736678542573124</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="38" t="s">
-        <v>171</v>
+      <c r="A35" s="35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A36" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="36"/>
+      <c r="A36" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="33"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
+      <c r="A37" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32">
         <v>2014</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="32">
         <v>2015</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="32">
         <v>2020</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="32">
         <v>2025</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="32">
         <v>2030</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="32">
         <v>2035</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="32">
         <v>2040</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="32">
         <v>2045</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="32">
         <v>2050</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="32">
         <v>2055</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="32">
         <v>2060</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="33">
-        <v>0</v>
-      </c>
-      <c r="C39" s="33">
-        <v>0</v>
-      </c>
-      <c r="D39" s="33">
-        <v>0</v>
-      </c>
-      <c r="E39" s="33">
+      <c r="A39" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="30">
+        <v>0</v>
+      </c>
+      <c r="C39" s="30">
+        <v>0</v>
+      </c>
+      <c r="D39" s="30">
+        <v>0</v>
+      </c>
+      <c r="E39" s="30">
         <v>9.4041235044908286E-2</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="30">
         <v>0.19875544489630168</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="30">
         <v>0.23517493229217079</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="30">
         <v>0.38600636209402522</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="30">
         <v>0.52098845994441834</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="30">
         <v>0.65724216697011595</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="30">
         <v>0.65648081566706651</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="30">
         <v>0.74110405537417889</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="33">
-        <v>0</v>
-      </c>
-      <c r="C40" s="33">
-        <v>0</v>
-      </c>
-      <c r="D40" s="33">
+      <c r="A40" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="30">
+        <v>0</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0</v>
+      </c>
+      <c r="D40" s="30">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="30">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="30">
         <v>9.6974692137267671E-2</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="30">
         <v>0.23715594352755537</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="30">
         <v>0.3511315333305714</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="30">
         <v>0.41745893995374145</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="30">
         <v>0.44203226671215384</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="30">
         <v>0.46148047621402866</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="30">
         <v>0.50590832725411927</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="33">
-        <v>0</v>
-      </c>
-      <c r="C41" s="33">
-        <v>0</v>
-      </c>
-      <c r="D41" s="33">
+      <c r="A41" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="30">
+        <v>0</v>
+      </c>
+      <c r="C41" s="30">
+        <v>0</v>
+      </c>
+      <c r="D41" s="30">
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="30">
         <v>0.19545034357588661</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="30">
         <v>0.22759059210128213</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="30">
         <v>0.23359443209375855</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="30">
         <v>0.23513238065241418</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="30">
         <v>0.22322462476598964</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="30">
         <v>0.24045024764053377</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="30">
         <v>0.27864135643363158</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="30">
         <v>0.28914007666781549</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="33">
-        <v>0</v>
-      </c>
-      <c r="C42" s="33">
-        <v>0</v>
-      </c>
-      <c r="D42" s="33">
+      <c r="A42" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="30">
+        <v>0</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0</v>
+      </c>
+      <c r="D42" s="30">
         <v>1.5376939060841825E-4</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="30">
         <v>2.0968106357788581E-3</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="30">
         <v>3.7324232950562601E-3</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="30">
         <v>4.980874224401988E-3</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="30">
         <v>3.1726764386671349E-3</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="30">
         <v>3.2295440099746402E-5</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="30">
         <v>4.2133278740787309E-6</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="30">
         <v>2.8577172778101513E-5</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="30">
         <v>7.283691725614275E-5</v>
       </c>
     </row>
@@ -8530,107 +8114,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.65" x14ac:dyDescent="0.45">
-      <c r="B1" s="30">
+      <c r="B1" s="27">
         <v>2012</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="27">
         <v>2017</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="27">
         <v>2022</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="27">
         <v>2027</v>
       </c>
-      <c r="F1" s="30">
+      <c r="F1" s="27">
         <v>2032</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="27">
         <v>2037</v>
       </c>
-      <c r="H1" s="30">
+      <c r="H1" s="27">
         <v>2042</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="27">
         <v>2047</v>
       </c>
-      <c r="M1" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>153</v>
+      <c r="M1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="A2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25">
         <v>1</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="25">
         <v>5</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>15</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>20</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="25">
         <v>30</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="25">
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" s="27">
+        <v>60</v>
+      </c>
+      <c r="L2" s="24">
         <v>2012</v>
       </c>
-      <c r="M2" s="26">
-        <v>0</v>
-      </c>
-      <c r="N2" s="26">
+      <c r="M2" s="23">
+        <v>0</v>
+      </c>
+      <c r="N2" s="23">
         <f t="shared" ref="N2:N9" si="0">M2*$B$17</f>
         <v>0</v>
       </c>
-      <c r="O2" s="26">
-        <v>0</v>
-      </c>
-      <c r="P2" s="26">
+      <c r="O2" s="23">
+        <v>0</v>
+      </c>
+      <c r="P2" s="23">
         <f t="shared" ref="P2:P9" si="1">O2*$B$17</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="26">
-        <v>0</v>
-      </c>
-      <c r="R2" s="26">
+      <c r="Q2" s="23">
+        <v>0</v>
+      </c>
+      <c r="R2" s="23">
         <f t="shared" ref="R2:R9" si="2">Q2*$B$17</f>
         <v>0</v>
       </c>
@@ -8643,63 +8227,63 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25">
         <f t="shared" ref="B3:I3" si="4">B2*1000</f>
         <v>0</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="25">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="25">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="25">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="25">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="25">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="25">
         <f t="shared" si="4"/>
         <v>35000</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="27">
+        <v>59</v>
+      </c>
+      <c r="L3" s="24">
         <v>2017</v>
       </c>
-      <c r="M3" s="26">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26">
+      <c r="M3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="26">
-        <v>0</v>
-      </c>
-      <c r="P3" s="26">
+      <c r="O3" s="23">
+        <v>0</v>
+      </c>
+      <c r="P3" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="23">
         <v>3000</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="23">
         <f t="shared" si="2"/>
         <v>23690563.339058191</v>
       </c>
@@ -8712,54 +8296,54 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="A4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25">
         <v>1</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="25">
         <v>2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="25">
         <v>5</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="25">
         <v>7</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="25">
         <v>8</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="24">
         <v>2022</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="23">
         <v>1000</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="23">
         <f t="shared" si="0"/>
         <v>7896854.4463527296</v>
       </c>
-      <c r="O4" s="26">
-        <v>0</v>
-      </c>
-      <c r="P4" s="26">
+      <c r="O4" s="23">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="23">
         <v>15000</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="23">
         <f t="shared" si="2"/>
         <v>118452816.69529094</v>
       </c>
@@ -8772,63 +8356,63 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25">
         <f t="shared" ref="B5:I5" si="5">B4*1000</f>
         <v>0</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="25">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <f t="shared" si="5"/>
         <v>7000</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="25">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="27">
+        <v>59</v>
+      </c>
+      <c r="L5" s="24">
         <v>2027</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="23">
         <v>5000</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="23">
         <f t="shared" si="0"/>
         <v>39484272.231763646</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="23">
         <v>1000</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="23">
         <f t="shared" si="1"/>
         <v>7896854.4463527296</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="23">
         <v>30000</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="23">
         <f t="shared" si="2"/>
         <v>236905633.39058188</v>
       </c>
@@ -8841,54 +8425,54 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
         <v>3</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="25">
         <v>15</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>30</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <v>40</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="25">
         <v>55</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="25">
         <v>70</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="25">
         <v>80</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="24">
         <v>2032</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="23">
         <v>15000</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="23">
         <f t="shared" si="0"/>
         <v>118452816.69529094</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="23">
         <v>2000</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="23">
         <f t="shared" si="1"/>
         <v>15793708.892705459</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="23">
         <v>40000</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="23">
         <f t="shared" si="2"/>
         <v>315874177.85410917</v>
       </c>
@@ -8901,63 +8485,63 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25">
         <f t="shared" ref="B7:I7" si="6">B6*1000</f>
         <v>0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="25">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="25">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="25">
         <f t="shared" si="6"/>
         <v>30000</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="25">
         <f t="shared" si="6"/>
         <v>55000</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="25">
         <f t="shared" si="6"/>
         <v>70000</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="25">
         <f t="shared" si="6"/>
         <v>80000</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L7" s="27">
+        <v>59</v>
+      </c>
+      <c r="L7" s="24">
         <v>2037</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="23">
         <v>20000</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="23">
         <f t="shared" si="0"/>
         <v>157937088.92705458</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="23">
         <v>5000</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="23">
         <f t="shared" si="1"/>
         <v>39484272.231763646</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="23">
         <v>55000</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="23">
         <f t="shared" si="2"/>
         <v>434326994.54940015</v>
       </c>
@@ -8970,54 +8554,54 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="A8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
         <v>5</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="25">
         <v>30</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="25">
         <v>45</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="25">
         <v>60</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="25">
         <v>70</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="25">
         <v>85</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="25">
         <v>90</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="24">
         <v>2042</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="23">
         <v>30000</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="23">
         <f t="shared" si="0"/>
         <v>236905633.39058188</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="23">
         <v>7000</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="23">
         <f t="shared" si="1"/>
         <v>55277981.124469109</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="23">
         <v>70000</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="23">
         <f t="shared" si="2"/>
         <v>552779811.24469101</v>
       </c>
@@ -9030,63 +8614,63 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25">
         <f t="shared" ref="B9:I9" si="7">B8*1000</f>
         <v>0</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="25">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="25">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <f t="shared" si="7"/>
         <v>45000</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="25">
         <f t="shared" si="7"/>
         <v>70000</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="25">
         <f t="shared" si="7"/>
         <v>85000</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="25">
         <f t="shared" si="7"/>
         <v>90000</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="27">
+        <v>59</v>
+      </c>
+      <c r="L9" s="24">
         <v>2047</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="23">
         <v>35000</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="23">
         <f t="shared" si="0"/>
         <v>276389905.62234551</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="23">
         <v>8000</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="23">
         <f t="shared" si="1"/>
         <v>63174835.570821837</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="23">
         <v>80000</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="23">
         <f t="shared" si="2"/>
         <v>631748355.70821834</v>
       </c>
@@ -9100,34 +8684,34 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>395.1</v>
@@ -9144,7 +8728,7 @@
     </row>
     <row r="14" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>3.29</v>
@@ -9161,7 +8745,7 @@
     </row>
     <row r="15" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <f>B14*10^6</f>
@@ -9182,55 +8766,55 @@
     </row>
     <row r="16" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="23">
+        <v>48</v>
+      </c>
+      <c r="B16" s="20">
         <f>B15/B13</f>
         <v>8327.0058213110606</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <f>C15/C13</f>
         <v>6555.090655509066</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <f>D15/D13</f>
         <v>8072.4876441515653</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <f>E15/E13</f>
         <v>8632.8336644392257</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="25">
+        <v>47</v>
+      </c>
+      <c r="B17" s="22">
         <f>AVERAGE(B16:E16)</f>
         <v>7896.8544463527296</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="25"/>
+      <c r="A18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="22"/>
     </row>
     <row r="19" spans="1:40" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
-        <v>137</v>
+      <c r="A19" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A20" s="24"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>2012</v>
       </c>
       <c r="C22">
@@ -9249,7 +8833,7 @@
         <f t="shared" si="8"/>
         <v>2016</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <f t="shared" si="8"/>
         <v>2017</v>
       </c>
@@ -9269,7 +8853,7 @@
         <f t="shared" si="8"/>
         <v>2021</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <f t="shared" si="8"/>
         <v>2022</v>
       </c>
@@ -9289,7 +8873,7 @@
         <f t="shared" si="8"/>
         <v>2026</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <f t="shared" si="8"/>
         <v>2027</v>
       </c>
@@ -9309,7 +8893,7 @@
         <f t="shared" si="8"/>
         <v>2031</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="11">
         <f t="shared" si="8"/>
         <v>2032</v>
       </c>
@@ -9329,7 +8913,7 @@
         <f t="shared" si="8"/>
         <v>2036</v>
       </c>
-      <c r="AA22" s="12">
+      <c r="AA22" s="11">
         <f t="shared" si="8"/>
         <v>2037</v>
       </c>
@@ -9349,7 +8933,7 @@
         <f t="shared" si="8"/>
         <v>2041</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AF22" s="11">
         <f t="shared" si="8"/>
         <v>2042</v>
       </c>
@@ -9369,7 +8953,7 @@
         <f t="shared" si="8"/>
         <v>2046</v>
       </c>
-      <c r="AK22" s="12">
+      <c r="AK22" s="11">
         <f t="shared" si="8"/>
         <v>2047</v>
       </c>
@@ -9388,9 +8972,9 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="12">
+        <v>43</v>
+      </c>
+      <c r="B23" s="11">
         <f>N2</f>
         <v>0</v>
       </c>
@@ -9410,7 +8994,7 @@
         <f>FORECAST(F22,$N$2:$N$3,$L$2:$L$3)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <f>N3</f>
         <v>0</v>
       </c>
@@ -9430,7 +9014,7 @@
         <f>FORECAST(K22,$N$3:$N$4,$L$3:$L$4)</f>
         <v>6317483.5570821762</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <f>N4</f>
         <v>7896854.4463527296</v>
       </c>
@@ -9450,7 +9034,7 @@
         <f>FORECAST(P22,$N$4:$N$5,$L$4:$L$5)</f>
         <v>33166788.67468071</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="11">
         <f>N5</f>
         <v>39484272.231763646</v>
       </c>
@@ -9470,7 +9054,7 @@
         <f>FORECAST(U22,$N$5:$N$6,$L$5:$L$6)</f>
         <v>102659107.80258942</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23" s="11">
         <f>N6</f>
         <v>118452816.69529094</v>
       </c>
@@ -9490,7 +9074,7 @@
         <f>FORECAST(Z22,$N$6:$N$7,$L$6:$L$7)</f>
         <v>150040234.48070145</v>
       </c>
-      <c r="AA23" s="12">
+      <c r="AA23" s="11">
         <f>N7</f>
         <v>157937088.92705458</v>
       </c>
@@ -9510,7 +9094,7 @@
         <f>FORECAST(AE22,$N$7:$N$8,$L$7:$L$8)</f>
         <v>221111924.49787521</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AF23" s="11">
         <f>N8</f>
         <v>236905633.39058188</v>
       </c>
@@ -9530,7 +9114,7 @@
         <f>FORECAST(AJ22,$N$8:$N$9,$L$8:$L$9)</f>
         <v>268493051.17599297</v>
       </c>
-      <c r="AK23" s="12">
+      <c r="AK23" s="11">
         <f>N9</f>
         <v>276389905.62234551</v>
       </c>
@@ -9549,9 +9133,9 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="12">
+        <v>42</v>
+      </c>
+      <c r="B24" s="11">
         <f>P2</f>
         <v>0</v>
       </c>
@@ -9571,7 +9155,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -9591,7 +9175,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -9611,7 +9195,7 @@
         <f>FORECAST(P22,$P$4:$P$5,$L$4:$L$5)</f>
         <v>6317483.5570821762</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="11">
         <f>P5</f>
         <v>7896854.4463527296</v>
       </c>
@@ -9631,7 +9215,7 @@
         <f>FORECAST(U22,$P$5:$P$6,$L$5:$L$6)</f>
         <v>14214338.003434658</v>
       </c>
-      <c r="V24" s="12">
+      <c r="V24" s="11">
         <f>P6</f>
         <v>15793708.892705459</v>
       </c>
@@ -9651,7 +9235,7 @@
         <f>FORECAST(Z22,$P$6:$P$7,$L$6:$L$7)</f>
         <v>34746159.563951492</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24" s="11">
         <f>P7</f>
         <v>39484272.231763646</v>
       </c>
@@ -9671,7 +9255,7 @@
         <f>FORECAST(AE22,$P$7:$P$8,$L$7:$L$8)</f>
         <v>52119239.345928192</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AF24" s="11">
         <f>P8</f>
         <v>55277981.124469109</v>
       </c>
@@ -9691,7 +9275,7 @@
         <f>FORECAST(AJ22,$P$8:$P$9,$L$8:$L$9)</f>
         <v>61595464.68155098</v>
       </c>
-      <c r="AK24" s="12">
+      <c r="AK24" s="11">
         <f>P9</f>
         <v>63174835.570821837</v>
       </c>
@@ -9710,9 +9294,9 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="12">
+        <v>41</v>
+      </c>
+      <c r="B25" s="11">
         <f>R2</f>
         <v>0</v>
       </c>
@@ -9732,7 +9316,7 @@
         <f>FORECAST(F22,$R$2:$R$3,$L$2:$L$3)</f>
         <v>18952450.671247482</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f>R3</f>
         <v>23690563.339058191</v>
       </c>
@@ -9752,7 +9336,7 @@
         <f>FORECAST(K22,$R$3:$R$4,$L$3:$L$4)</f>
         <v>99500366.024040222</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <f>R4</f>
         <v>118452816.69529094</v>
       </c>
@@ -9772,7 +9356,7 @@
         <f>FORECAST(P22,$R$4:$R$5,$L$4:$L$5)</f>
         <v>213215070.0515213</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="11">
         <f>R5</f>
         <v>236905633.39058188</v>
       </c>
@@ -9792,7 +9376,7 @@
         <f>FORECAST(U22,$R$5:$R$6,$L$5:$L$6)</f>
         <v>300080468.96140671</v>
       </c>
-      <c r="V25" s="12">
+      <c r="V25" s="11">
         <f>R6</f>
         <v>315874177.85410917</v>
       </c>
@@ -9812,7 +9396,7 @@
         <f>FORECAST(Z22,$R$6:$R$7,$L$6:$L$7)</f>
         <v>410636431.21034241</v>
       </c>
-      <c r="AA25" s="12">
+      <c r="AA25" s="11">
         <f>R7</f>
         <v>434326994.54940015</v>
       </c>
@@ -9832,7 +9416,7 @@
         <f>FORECAST(AE22,$R$7:$R$8,$L$7:$L$8)</f>
         <v>529089247.90563965</v>
       </c>
-      <c r="AF25" s="12">
+      <c r="AF25" s="11">
         <f>R8</f>
         <v>552779811.24469101</v>
       </c>
@@ -9852,7 +9436,7 @@
         <f>FORECAST(AJ22,$R$8:$R$9,$L$8:$L$9)</f>
         <v>615954646.81551361</v>
       </c>
-      <c r="AK25" s="12">
+      <c r="AK25" s="11">
         <f>R9</f>
         <v>631748355.70821834</v>
       </c>
@@ -9871,9 +9455,9 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="12">
+        <v>40</v>
+      </c>
+      <c r="B26" s="11">
         <f>T2</f>
         <v>0</v>
       </c>
@@ -9893,7 +9477,7 @@
         <f>FORECAST(F22,$T$2:$T$3,$L$2:$L$3)</f>
         <v>31587417.785409927</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <f>T3</f>
         <v>39484272.231763646</v>
       </c>
@@ -9913,7 +9497,7 @@
         <f>FORECAST(K22,$T$3:$T$4,$L$3:$L$4)</f>
         <v>197421361.15882874</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <f>T4</f>
         <v>236905633.39058188</v>
       </c>
@@ -9933,7 +9517,7 @@
         <f>FORECAST(P22,$T$4:$T$5,$L$4:$L$5)</f>
         <v>331667886.74681091</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="11">
         <f>T5</f>
         <v>355358450.08587283</v>
       </c>
@@ -9953,7 +9537,7 @@
         <f>FORECAST(U22,$T$5:$T$6,$L$5:$L$6)</f>
         <v>450120703.44210052</v>
       </c>
-      <c r="V26" s="12">
+      <c r="V26" s="11">
         <f>T6</f>
         <v>473811266.78116375</v>
       </c>
@@ -9973,7 +9557,7 @@
         <f>FORECAST(Z22,$T$6:$T$7,$L$6:$L$7)</f>
         <v>536986102.35198593</v>
       </c>
-      <c r="AA26" s="12">
+      <c r="AA26" s="11">
         <f>T7</f>
         <v>552779811.24469101</v>
       </c>
@@ -9993,7 +9577,7 @@
         <f>FORECAST(AE22,$T$7:$T$8,$L$7:$L$8)</f>
         <v>647542064.60092926</v>
       </c>
-      <c r="AF26" s="12">
+      <c r="AF26" s="11">
         <f>T8</f>
         <v>671232627.93998206</v>
       </c>
@@ -10013,7 +9597,7 @@
         <f>FORECAST(AJ22,$T$8:$T$9,$L$8:$L$9)</f>
         <v>702820045.7253933</v>
       </c>
-      <c r="AK26" s="12">
+      <c r="AK26" s="11">
         <f>T9</f>
         <v>710716900.17174566</v>
       </c>
@@ -10032,7 +9616,7 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <f t="shared" ref="E27:AN27" si="11">E24</f>
@@ -10181,151 +9765,115 @@
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="23">
-        <f>'[2]CSA-ACP Calculations'!A15</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="23">
-        <f>'[2]CSA-ACP Calculations'!B15</f>
-        <v>1000000</v>
-      </c>
-      <c r="G28" s="23">
-        <f>'[2]CSA-ACP Calculations'!C15</f>
-        <v>2000000</v>
-      </c>
-      <c r="H28" s="23">
-        <f>'[2]CSA-ACP Calculations'!D15</f>
-        <v>3000000</v>
-      </c>
-      <c r="I28" s="23">
-        <f>'[2]CSA-ACP Calculations'!E15</f>
-        <v>4000000</v>
-      </c>
-      <c r="J28" s="23">
-        <f>'[2]CSA-ACP Calculations'!F15</f>
-        <v>5000000</v>
-      </c>
-      <c r="K28" s="23">
-        <f>'[2]CSA-ACP Calculations'!G15</f>
-        <v>6000000</v>
-      </c>
-      <c r="L28" s="23">
-        <f>'[2]CSA-ACP Calculations'!H15</f>
-        <v>7000000</v>
-      </c>
-      <c r="M28" s="23">
-        <f>'[2]CSA-ACP Calculations'!I15</f>
-        <v>8000000</v>
-      </c>
-      <c r="N28" s="23">
-        <f>'[2]CSA-ACP Calculations'!J15</f>
-        <v>9000000</v>
-      </c>
-      <c r="O28" s="23">
-        <f>'[2]CSA-ACP Calculations'!K15</f>
-        <v>10000000</v>
-      </c>
-      <c r="P28" s="23">
-        <f>'[2]CSA-ACP Calculations'!L15</f>
-        <v>50000000</v>
-      </c>
-      <c r="Q28" s="23">
-        <f>'[2]CSA-ACP Calculations'!M15</f>
-        <v>90000000</v>
-      </c>
-      <c r="R28" s="23">
-        <f>'[2]CSA-ACP Calculations'!N15</f>
-        <v>130000000</v>
-      </c>
-      <c r="S28" s="23">
-        <f>'[2]CSA-ACP Calculations'!O15</f>
-        <v>170000000</v>
-      </c>
-      <c r="T28" s="23">
-        <f>'[2]CSA-ACP Calculations'!P15</f>
-        <v>210000000.00000003</v>
-      </c>
-      <c r="U28" s="23">
-        <f>'[2]CSA-ACP Calculations'!Q15</f>
-        <v>272000000</v>
-      </c>
-      <c r="V28" s="23">
-        <f>'[2]CSA-ACP Calculations'!R15</f>
-        <v>334000000</v>
-      </c>
-      <c r="W28" s="23">
-        <f>'[2]CSA-ACP Calculations'!S15</f>
-        <v>396000000</v>
-      </c>
-      <c r="X28" s="23">
-        <f>'[2]CSA-ACP Calculations'!T15</f>
-        <v>458000000</v>
-      </c>
-      <c r="Y28" s="23">
-        <f>'[2]CSA-ACP Calculations'!U15</f>
-        <v>520000000</v>
-      </c>
-      <c r="Z28" s="23">
-        <f>'[2]CSA-ACP Calculations'!V15</f>
-        <v>552000000</v>
-      </c>
-      <c r="AA28" s="23">
-        <f>'[2]CSA-ACP Calculations'!W15</f>
-        <v>584000000</v>
-      </c>
-      <c r="AB28" s="23">
-        <f>'[2]CSA-ACP Calculations'!X15</f>
-        <v>616000000</v>
-      </c>
-      <c r="AC28" s="23">
-        <f>'[2]CSA-ACP Calculations'!Y15</f>
-        <v>648000000</v>
-      </c>
-      <c r="AD28" s="23">
-        <f>'[2]CSA-ACP Calculations'!Z15</f>
-        <v>679999999.99999988</v>
-      </c>
-      <c r="AE28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AA15</f>
-        <v>710000000</v>
-      </c>
-      <c r="AF28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AB15</f>
-        <v>740000000</v>
-      </c>
-      <c r="AG28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AC15</f>
-        <v>770000000</v>
-      </c>
-      <c r="AH28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AD15</f>
-        <v>800000000</v>
-      </c>
-      <c r="AI28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AE15</f>
-        <v>830000000.00000012</v>
-      </c>
-      <c r="AJ28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AF15</f>
-        <v>778000000</v>
-      </c>
-      <c r="AK28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AG15</f>
-        <v>726000000</v>
-      </c>
-      <c r="AL28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AH15</f>
-        <v>674000000</v>
-      </c>
-      <c r="AM28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AI15</f>
-        <v>622000000</v>
-      </c>
-      <c r="AN28" s="23">
-        <f>'[2]CSA-ACP Calculations'!AJ15</f>
-        <v>570000000</v>
+        <v>38</v>
+      </c>
+      <c r="E28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="J28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="K28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="L28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="M28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="N28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="O28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="P28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Q28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="R28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="S28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="T28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="U28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="V28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="W28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="X28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Y28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AD28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AE28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AF28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AG28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AH28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AI28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AJ28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AK28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AL28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AM28" s="20" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AN28" s="20" t="e">
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -10336,954 +9884,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="35.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.46484375" customWidth="1"/>
-    <col min="4" max="4" width="8.9296875" customWidth="1"/>
-    <col min="5" max="5" width="9.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="86.46484375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1000000</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" ref="I8:I13" si="0">E8</f>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2009</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="12">
-        <v>190000</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2003</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="12">
-        <v>350000</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="0"/>
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="12">
-        <v>250000</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2017</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1000000</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2018</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="12">
-        <v>4000000</v>
-      </c>
-      <c r="I14" s="12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2021</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <f>E15</f>
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="12">
-        <v>500000</v>
-      </c>
-      <c r="I16" s="12">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2017</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="12">
-        <v>1400000</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" ref="I17:I25" si="1">E17</f>
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2012</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="12">
-        <v>100000</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" si="1"/>
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2026</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="1"/>
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2025</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="12">
-        <v>3000000</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" si="1"/>
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2010</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="13">
-        <f>4000000/7</f>
-        <v>571428.57142857148</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="1"/>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2010</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="12">
-        <v>8400000</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" si="1"/>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="12">
-        <v>1000000</v>
-      </c>
-      <c r="I23" s="12">
-        <f t="shared" si="1"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="9">
-        <v>2009</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="13">
-        <f>4700000/6</f>
-        <v>783333.33333333337</v>
-      </c>
-      <c r="I24" s="12">
-        <f t="shared" si="1"/>
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2000</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="12">
-        <v>3000000</v>
-      </c>
-      <c r="I25" s="12">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1982</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="12">
-        <v>700000</v>
-      </c>
-      <c r="I27" s="12">
-        <f>E27</f>
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="12">
-        <v>900000</v>
-      </c>
-      <c r="I28" s="12">
-        <f>E28</f>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A29" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="12">
-        <v>3400000</v>
-      </c>
-      <c r="I29" s="12">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A30" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="13">
-        <f>1100000/6</f>
-        <v>183333.33333333334</v>
-      </c>
-      <c r="I30" s="12">
-        <f t="shared" ref="I30:I36" si="2">E30</f>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1986</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="12">
-        <v>7000000</v>
-      </c>
-      <c r="I31" s="12">
-        <f t="shared" si="2"/>
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2013</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="12">
-        <v>200000</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="2"/>
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="9">
-        <v>1972</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="12">
-        <v>450000</v>
-      </c>
-      <c r="I33" s="12">
-        <f t="shared" si="2"/>
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="9">
-        <v>2025</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="12">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
-        <f t="shared" si="2"/>
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A36" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="9">
-        <v>2022</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="12">
-        <v>1625000</v>
-      </c>
-      <c r="I36" s="12">
-        <f t="shared" si="2"/>
-        <v>2022</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A7:H36"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
@@ -11295,34 +9898,34 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="32"/>
+        <v>69</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="C3" s="32"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2018</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="29">
         <v>2019</v>
       </c>
       <c r="D5">
@@ -11421,293 +10024,293 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="14">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12">
         <f t="shared" ref="B6" si="0">C6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <f t="shared" ref="C6" si="1">D6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <f t="shared" ref="D6" si="2">E6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <f t="shared" ref="E6" si="3">F6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <f t="shared" ref="F6" si="4">G6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <f t="shared" ref="G6" si="5">H6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <f>I6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <f>IF(Region="OECD",'Data OECD'!B3,'Data NonOECD'!B3)</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="12">
         <f>$N6+($S6-$N6)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(J$1)-COLUMN($N$1))</f>
         <v>6.1076639015393328E-2</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <f t="shared" ref="K6:M6" si="6">$N6+($S6-$N6)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(K$1)-COLUMN($N$1))</f>
         <v>9.1582323244539438E-2</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="12">
         <f t="shared" si="6"/>
         <v>0.12208800747368553</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <f t="shared" si="6"/>
         <v>0.15259369170283166</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="12">
         <f>IF(Region="OECD",'Data OECD'!C3,'Data NonOECD'!C3)</f>
         <v>0.18309937593197775</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="12">
         <f>$S6+($X6-$S6)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(O$1)-COLUMN($S$1))</f>
         <v>0.27589435198665535</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="12">
         <f t="shared" ref="P6:R6" si="7">$S6+($X6-$S6)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(P$1)-COLUMN($S$1))</f>
         <v>0.29082771325941859</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="12">
         <f t="shared" si="7"/>
         <v>0.30576107453218182</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="12">
         <f t="shared" si="7"/>
         <v>0.32069443580494505</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="12">
         <f>IF(Region="OECD",'Data OECD'!D3,'Data NonOECD'!D3)</f>
         <v>0.33562779707770829</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="12">
         <f>$X6+($AC6-$X6)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(T$1)-COLUMN($X$1))</f>
         <v>0.39002821170546692</v>
       </c>
-      <c r="U6" s="14">
+      <c r="U6" s="12">
         <f t="shared" ref="U6:W6" si="8">$X6+($AC6-$X6)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(U$1)-COLUMN($X$1))</f>
         <v>0.39509480963948129</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="12">
         <f t="shared" si="8"/>
         <v>0.40016140757349572</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="12">
         <f t="shared" si="8"/>
         <v>0.40522800550751009</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="12">
         <f>IF(Region="OECD",'Data OECD'!E3,'Data NonOECD'!E3)</f>
         <v>0.41029460344152446</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="12">
         <f>$AC6+($AH6-$AC6)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(Y$1)-COLUMN($AC$1))</f>
         <v>0.48228556510224652</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="Z6" s="12">
         <f t="shared" ref="Z6:AB6" si="9">$AC6+($AH6-$AC6)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(Z$1)-COLUMN($AC$1))</f>
         <v>0.47062107210458398</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AA6" s="12">
         <f t="shared" si="9"/>
         <v>0.45895657910692145</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AB6" s="12">
         <f t="shared" si="9"/>
         <v>0.44729208610925891</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AC6" s="12">
         <f>IF(Region="OECD",'Data OECD'!F3,'Data NonOECD'!F3)</f>
         <v>0.43562759311159638</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AD6" s="12">
         <f>($AH$6-$AC$6)/5+AC6</f>
         <v>0.42396310011393384</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AE6" s="12">
         <f t="shared" ref="AE6:AG6" si="10">($AH$6-$AC$6)/5+AD6</f>
         <v>0.41229860711627131</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="12">
         <f t="shared" si="10"/>
         <v>0.40063411411860878</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="12">
         <f t="shared" si="10"/>
         <v>0.38896962112094624</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH6" s="12">
         <f>IF(Region="OECD",'Data OECD'!G3,'Data NonOECD'!G3)</f>
         <v>0.37730512812328371</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="14">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12">
         <f>1-B6</f>
         <v>0.95506356699399775</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <f t="shared" ref="C7:AH7" si="11">1-C6</f>
         <v>0.95506356699399775</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="12">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="12">
         <f t="shared" si="11"/>
         <v>0.93892336098460671</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <f t="shared" si="11"/>
         <v>0.90841767675546059</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="12">
         <f t="shared" si="11"/>
         <v>0.87791199252631447</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <f t="shared" si="11"/>
         <v>0.84740630829716834</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <f t="shared" si="11"/>
         <v>0.81690062406802222</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <f t="shared" si="11"/>
         <v>0.72410564801334465</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="12">
         <f t="shared" si="11"/>
         <v>0.70917228674058141</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="12">
         <f t="shared" si="11"/>
         <v>0.69423892546781818</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="12">
         <f t="shared" si="11"/>
         <v>0.67930556419505495</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="12">
         <f t="shared" si="11"/>
         <v>0.66437220292229171</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="12">
         <f t="shared" si="11"/>
         <v>0.60997178829453302</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="12">
         <f t="shared" si="11"/>
         <v>0.60490519036051871</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="12">
         <f t="shared" si="11"/>
         <v>0.59983859242650428</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="12">
         <f t="shared" si="11"/>
         <v>0.59477199449248985</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="12">
         <f t="shared" si="11"/>
         <v>0.58970539655847554</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="12">
         <f t="shared" si="11"/>
         <v>0.51771443489775348</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="12">
         <f t="shared" si="11"/>
         <v>0.52937892789541596</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AA7" s="12">
         <f t="shared" si="11"/>
         <v>0.54104342089307855</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AB7" s="12">
         <f t="shared" si="11"/>
         <v>0.55270791389074114</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AC7" s="12">
         <f t="shared" si="11"/>
         <v>0.56437240688840362</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AD7" s="12">
         <f t="shared" si="11"/>
         <v>0.5760368998860661</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AE7" s="12">
         <f t="shared" si="11"/>
         <v>0.58770139288372869</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="12">
         <f t="shared" si="11"/>
         <v>0.59936588588139128</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="12">
         <f t="shared" si="11"/>
         <v>0.61103037887905376</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AH7" s="12">
         <f t="shared" si="11"/>
         <v>0.62269487187671624</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="C8" s="32"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="C9" s="32"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="C10" s="32"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
-        <v>120</v>
+      <c r="A11" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -11846,137 +10449,137 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="14">
+        <v>17</v>
+      </c>
+      <c r="B13" s="12">
         <f>B6*'IESS data'!H$24</f>
         <v>0</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <f>C6*'IESS data'!I$24</f>
         <v>0</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <f>D6*'IESS data'!J$24</f>
         <v>0</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f>E6*'IESS data'!K$24</f>
         <v>0</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <f>F6*'IESS data'!L$24</f>
         <v>0</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <f>G6*'IESS data'!M$24</f>
         <v>70971.294157325261</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <f>H6*'IESS data'!N$24</f>
         <v>141942.58831467194</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <f>I6*'IESS data'!O$24</f>
         <v>212913.8824719972</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f>J6*'IESS data'!P$24</f>
         <v>385850.66270159103</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <f>K6*'IESS data'!Q$24</f>
         <v>723212.27652095421</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="12">
         <f>L6*'IESS data'!R$24</f>
         <v>1156933.4695979012</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="12">
         <f>M6*'IESS data'!S$24</f>
         <v>1687014.2419323989</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <f>N6*'IESS data'!T$24</f>
         <v>2313454.5935245547</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="12">
         <f>O6*'IESS data'!U$24</f>
         <v>3921655.5723768934</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="12">
         <f>P6*'IESS data'!V$24</f>
         <v>4593248.2411504723</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="12">
         <f>Q6*'IESS data'!W$24</f>
         <v>6277831.822447083</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="12">
         <f>R6*'IESS data'!X$24</f>
         <v>8103927.3001819439</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="12">
         <f>S6*'IESS data'!Y$24</f>
         <v>10071534.674356382</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="12">
         <f>T6*'IESS data'!Z$24</f>
         <v>13551982.478360808</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="12">
         <f>U6*'IESS data'!AA$24</f>
         <v>15600031.021162115</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="12">
         <f>V6*'IESS data'!AB$24</f>
         <v>17064088.509540111</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="12">
         <f>W6*'IESS data'!AC$24</f>
         <v>18560154.147056125</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="12">
         <f>X6*'IESS data'!AD$24</f>
         <v>20088227.933711011</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="12">
         <f>Y6*'IESS data'!AE$24</f>
         <v>25136356.80065022</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="12">
         <f>Z6*'IESS data'!AF$24</f>
         <v>26014982.740574609</v>
       </c>
-      <c r="AA13" s="14">
+      <c r="AA13" s="12">
         <f>AA6*'IESS data'!AG$24</f>
         <v>26095055.777303733</v>
       </c>
-      <c r="AB13" s="14">
+      <c r="AB13" s="12">
         <f>AB6*'IESS data'!AH$24</f>
         <v>26138283.692676004</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="12">
         <f>AC6*'IESS data'!AI$24</f>
         <v>26144666.486690842</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AD13" s="12">
         <f>AD6*'IESS data'!AJ$24</f>
         <v>26114204.159348674</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AE13" s="12">
         <f>AE6*'IESS data'!AK$24</f>
         <v>26046896.710649315</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="12">
         <f>AF6*'IESS data'!AL$24</f>
         <v>25309994.283504982</v>
       </c>
-      <c r="AG13" s="14">
+      <c r="AG13" s="12">
         <f>AG6*'IESS data'!AM$24</f>
         <v>24573091.856360648</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AH13" s="12">
         <f>AH6*'IESS data'!AN$24</f>
         <v>23836189.429216314</v>
       </c>
@@ -11984,400 +10587,400 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="12">
         <f>B7*'IESS data'!H$24</f>
         <v>0</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <f>C7*'IESS data'!I$24</f>
         <v>0</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f>D7*'IESS data'!J$24</f>
         <v>0</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <f>E7*'IESS data'!K$24</f>
         <v>0</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <f>F7*'IESS data'!L$24</f>
         <v>0</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <f>G7*'IESS data'!M$24</f>
         <v>1508399.5951129803</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <f>H7*'IESS data'!N$24</f>
         <v>3016799.1902264161</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <f>I7*'IESS data'!O$24</f>
         <v>4525198.7853393964</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f>J7*'IESS data'!P$24</f>
         <v>5931632.8943805853</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <f>K7*'IESS data'!Q$24</f>
         <v>7173642.1698317761</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <f>L7*'IESS data'!R$24</f>
         <v>8319291.8660253631</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <f>M7*'IESS data'!S$24</f>
         <v>9368581.9829611704</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <f>N7*'IESS data'!T$24</f>
         <v>10321512.520639798</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="12">
         <f>O7*'IESS data'!U$24</f>
         <v>10292682.431057764</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="12">
         <f>P7*'IESS data'!V$24</f>
         <v>11200460.651554987</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="12">
         <f>Q7*'IESS data'!W$24</f>
         <v>14253989.738071183</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="12">
         <f>R7*'IESS data'!X$24</f>
         <v>17166006.928146761</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="12">
         <f>S7*'IESS data'!Y$24</f>
         <v>19936512.22178467</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="12">
         <f>T7*'IESS data'!Z$24</f>
         <v>21194177.085590683</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="12">
         <f>U7*'IESS data'!AA$24</f>
         <v>23884241.210601531</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="12">
         <f>V7*'IESS data'!AB$24</f>
         <v>25578925.500765294</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="12">
         <f>W7*'IESS data'!AC$24</f>
         <v>27241601.641789887</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="12">
         <f>X7*'IESS data'!AD$24</f>
         <v>28872269.63367657</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="12">
         <f>Y7*'IESS data'!AE$24</f>
         <v>26982882.545277972</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="Z14" s="12">
         <f>Z7*'IESS data'!AF$24</f>
         <v>29262998.383894496</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AA14" s="12">
         <f>AA7*'IESS data'!AG$24</f>
         <v>30762296.236435376</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="12">
         <f>AB7*'IESS data'!AH$24</f>
         <v>32298439.210333891</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="12">
         <f>AC7*'IESS data'!AI$24</f>
         <v>33871427.305589356</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AD14" s="12">
         <f>AD7*'IESS data'!AJ$24</f>
         <v>35481260.522202305</v>
       </c>
-      <c r="AE14" s="14">
+      <c r="AE14" s="12">
         <f>AE7*'IESS data'!AK$24</f>
         <v>37127938.860172525</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="12">
         <f>AF7*'IESS data'!AL$24</f>
         <v>37864841.287316859</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AG14" s="12">
         <f>AG7*'IESS data'!AM$24</f>
         <v>38601743.714461192</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AH14" s="12">
         <f>AH7*'IESS data'!AN$24</f>
         <v>39338646.141605519</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B22">
@@ -12482,863 +11085,863 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="14">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
+        <v>30</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
         <f t="shared" ref="J23:AH23" si="12">TREND($G13:$AH13,$G$12:$AH$12,J$22)</f>
         <v>489789.42736721039</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="12">
         <f t="shared" si="12"/>
         <v>1735437.701789856</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="12">
         <f t="shared" si="12"/>
         <v>2981085.9762125015</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="12">
         <f t="shared" si="12"/>
         <v>4226734.2506351471</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="12">
         <f t="shared" si="12"/>
         <v>5472382.5250577927</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="12">
         <f t="shared" si="12"/>
         <v>6718030.7994804382</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="12">
         <f t="shared" si="12"/>
         <v>7963679.0739030838</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="12">
         <f t="shared" si="12"/>
         <v>9209327.3483257294</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="12">
         <f t="shared" si="12"/>
         <v>10454975.622748375</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="12">
         <f t="shared" si="12"/>
         <v>11700623.897171021</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T23" s="12">
         <f t="shared" si="12"/>
         <v>12946272.171593666</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="12">
         <f t="shared" si="12"/>
         <v>14191920.446016312</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="12">
         <f t="shared" si="12"/>
         <v>15437568.720438957</v>
       </c>
-      <c r="W23" s="14">
+      <c r="W23" s="12">
         <f t="shared" si="12"/>
         <v>16683216.994861603</v>
       </c>
-      <c r="X23" s="14">
+      <c r="X23" s="12">
         <f t="shared" si="12"/>
         <v>17928865.269284248</v>
       </c>
-      <c r="Y23" s="14">
+      <c r="Y23" s="12">
         <f t="shared" si="12"/>
         <v>19174513.543706417</v>
       </c>
-      <c r="Z23" s="14">
+      <c r="Z23" s="12">
         <f t="shared" si="12"/>
         <v>20420161.818129063</v>
       </c>
-      <c r="AA23" s="14">
+      <c r="AA23" s="12">
         <f t="shared" si="12"/>
         <v>21665810.092551708</v>
       </c>
-      <c r="AB23" s="14">
+      <c r="AB23" s="12">
         <f t="shared" si="12"/>
         <v>22911458.366974354</v>
       </c>
-      <c r="AC23" s="14">
+      <c r="AC23" s="12">
         <f t="shared" si="12"/>
         <v>24157106.641396999</v>
       </c>
-      <c r="AD23" s="14">
+      <c r="AD23" s="12">
         <f t="shared" si="12"/>
         <v>25402754.915819645</v>
       </c>
-      <c r="AE23" s="14">
+      <c r="AE23" s="12">
         <f t="shared" si="12"/>
         <v>26648403.19024229</v>
       </c>
-      <c r="AF23" s="14">
+      <c r="AF23" s="12">
         <f t="shared" si="12"/>
         <v>27894051.464664936</v>
       </c>
-      <c r="AG23" s="14">
+      <c r="AG23" s="12">
         <f t="shared" si="12"/>
         <v>29139699.739087582</v>
       </c>
-      <c r="AH23" s="14">
+      <c r="AH23" s="12">
         <f t="shared" si="12"/>
         <v>30385348.013510227</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="14">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14">
+        <v>31</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
         <f>TREND($G14:$AH14,$G$12:$AH$12,G$22)</f>
         <v>1029812.0291905403</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <f t="shared" ref="H24:AH24" si="13">TREND($G14:$AH14,$G$12:$AH$12,H$22)</f>
         <v>2518022.7790250778</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="12">
         <f t="shared" si="13"/>
         <v>4006233.5288600922</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="12">
         <f t="shared" si="13"/>
         <v>5494444.2786946297</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="12">
         <f t="shared" si="13"/>
         <v>6982655.0285291672</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="12">
         <f t="shared" si="13"/>
         <v>8470865.7783641815</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="12">
         <f t="shared" si="13"/>
         <v>9959076.528198719</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="12">
         <f t="shared" si="13"/>
         <v>11447287.278033257</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="12">
         <f t="shared" si="13"/>
         <v>12935498.027868271</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="12">
         <f t="shared" si="13"/>
         <v>14423708.777702808</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="12">
         <f t="shared" si="13"/>
         <v>15911919.527537346</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="12">
         <f t="shared" si="13"/>
         <v>17400130.27737236</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="12">
         <f t="shared" si="13"/>
         <v>18888341.027206898</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T24" s="12">
         <f t="shared" si="13"/>
         <v>20376551.777041435</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24" s="12">
         <f t="shared" si="13"/>
         <v>21864762.526875973</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="12">
         <f t="shared" si="13"/>
         <v>23352973.276710987</v>
       </c>
-      <c r="W24" s="14">
+      <c r="W24" s="12">
         <f t="shared" si="13"/>
         <v>24841184.026545525</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X24" s="12">
         <f t="shared" si="13"/>
         <v>26329394.776380062</v>
       </c>
-      <c r="Y24" s="14">
+      <c r="Y24" s="12">
         <f t="shared" si="13"/>
         <v>27817605.526215076</v>
       </c>
-      <c r="Z24" s="14">
+      <c r="Z24" s="12">
         <f t="shared" si="13"/>
         <v>29305816.276049614</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="AA24" s="12">
         <f t="shared" si="13"/>
         <v>30794027.025884151</v>
       </c>
-      <c r="AB24" s="14">
+      <c r="AB24" s="12">
         <f t="shared" si="13"/>
         <v>32282237.775719166</v>
       </c>
-      <c r="AC24" s="14">
+      <c r="AC24" s="12">
         <f t="shared" si="13"/>
         <v>33770448.525553703</v>
       </c>
-      <c r="AD24" s="14">
+      <c r="AD24" s="12">
         <f t="shared" si="13"/>
         <v>35258659.275388241</v>
       </c>
-      <c r="AE24" s="14">
+      <c r="AE24" s="12">
         <f t="shared" si="13"/>
         <v>36746870.025223255</v>
       </c>
-      <c r="AF24" s="14">
+      <c r="AF24" s="12">
         <f t="shared" si="13"/>
         <v>38235080.775057793</v>
       </c>
-      <c r="AG24" s="14">
+      <c r="AG24" s="12">
         <f t="shared" si="13"/>
         <v>39723291.52489233</v>
       </c>
-      <c r="AH24" s="14">
+      <c r="AH24" s="12">
         <f t="shared" si="13"/>
         <v>41211502.274727345</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
-      <c r="AD37" s="14"/>
-      <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="14"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A43" s="16" t="s">
-        <v>119</v>
+      <c r="A43" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -13376,7 +11979,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>2018</v>
@@ -13480,735 +12083,735 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="14">
+        <v>19</v>
+      </c>
+      <c r="B45" s="12">
         <v>378452000000000</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="12">
         <v>395780000000000</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="12">
         <v>361708000000000</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="12">
         <v>404767000000000</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="12">
         <v>433227000000000</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="12">
         <v>454315000000000</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="12">
         <v>472172000000000</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="12">
         <v>488578000000000</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="12">
         <v>504203000000000</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="12">
         <v>525003000000000</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="12">
         <v>544172000000000</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="12">
         <v>562284000000000</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="12">
         <v>581193000000000</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="12">
         <v>600044000000000</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="12">
         <v>624320000000000</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q45" s="12">
         <v>647373000000000</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="12">
         <v>670252000000000</v>
       </c>
-      <c r="S45" s="14">
+      <c r="S45" s="12">
         <v>692210000000000</v>
       </c>
-      <c r="T45" s="14">
+      <c r="T45" s="12">
         <v>713530000000000</v>
       </c>
-      <c r="U45" s="14">
+      <c r="U45" s="12">
         <v>740912000000000</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V45" s="12">
         <v>767901000000000</v>
       </c>
-      <c r="W45" s="14">
+      <c r="W45" s="12">
         <v>794835000000000</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X45" s="12">
         <v>821995000000000</v>
       </c>
-      <c r="Y45" s="14">
+      <c r="Y45" s="12">
         <v>849667000000000</v>
       </c>
-      <c r="Z45" s="14">
+      <c r="Z45" s="12">
         <v>884656000000000</v>
       </c>
-      <c r="AA45" s="14">
+      <c r="AA45" s="12">
         <v>920281000000000</v>
       </c>
-      <c r="AB45" s="14">
+      <c r="AB45" s="12">
         <v>956637000000000</v>
       </c>
-      <c r="AC45" s="14">
+      <c r="AC45" s="12">
         <v>993738000000000</v>
       </c>
-      <c r="AD45" s="14">
+      <c r="AD45" s="12">
         <v>1031550000000000</v>
       </c>
-      <c r="AE45" s="14">
+      <c r="AE45" s="12">
         <v>1077640000000000</v>
       </c>
-      <c r="AF45" s="14">
+      <c r="AF45" s="12">
         <v>1124280000000000</v>
       </c>
-      <c r="AG45" s="14">
+      <c r="AG45" s="12">
         <v>1171380000000000</v>
       </c>
-      <c r="AH45" s="14">
+      <c r="AH45" s="12">
         <v>1218880000000000</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A46" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="14">
+      <c r="A46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="12">
         <v>1204390000000000</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="12">
         <v>1207600000000000</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="12">
         <v>1133200000000000</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="12">
         <v>1213040000000000</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="12">
         <v>1255580000000000</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="12">
         <v>1273550000000000</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="12">
         <v>1296710000000000</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="12">
         <v>1307740000000000</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="12">
         <v>1307470000000000</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="12">
         <v>1306610000000000</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="12">
         <v>1323400000000000</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="12">
         <v>1358980000000000</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="12">
         <v>1392580000000000</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="12">
         <v>1429020000000000</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="12">
         <v>1465320000000000</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46" s="12">
         <v>1507770000000000</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="12">
         <v>1524440000000000</v>
       </c>
-      <c r="S46" s="14">
+      <c r="S46" s="12">
         <v>1541210000000000</v>
       </c>
-      <c r="T46" s="14">
+      <c r="T46" s="12">
         <v>1556420000000000</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U46" s="12">
         <v>1572910000000000</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V46" s="12">
         <v>1591040000000000</v>
       </c>
-      <c r="W46" s="14">
+      <c r="W46" s="12">
         <v>1605140000000000</v>
       </c>
-      <c r="X46" s="14">
+      <c r="X46" s="12">
         <v>1616660000000000</v>
       </c>
-      <c r="Y46" s="14">
+      <c r="Y46" s="12">
         <v>1627290000000000</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="Z46" s="12">
         <v>1637340000000000</v>
       </c>
-      <c r="AA46" s="14">
+      <c r="AA46" s="12">
         <v>1639770000000000</v>
       </c>
-      <c r="AB46" s="14">
+      <c r="AB46" s="12">
         <v>1642610000000000</v>
       </c>
-      <c r="AC46" s="14">
+      <c r="AC46" s="12">
         <v>1645810000000000</v>
       </c>
-      <c r="AD46" s="14">
+      <c r="AD46" s="12">
         <v>1648600000000000</v>
       </c>
-      <c r="AE46" s="14">
+      <c r="AE46" s="12">
         <v>1651600000000000</v>
       </c>
-      <c r="AF46" s="14">
+      <c r="AF46" s="12">
         <v>1655440000000000</v>
       </c>
-      <c r="AG46" s="14">
+      <c r="AG46" s="12">
         <v>1658990000000000</v>
       </c>
-      <c r="AH46" s="14">
+      <c r="AH46" s="12">
         <v>1662420000000000</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="14">
+        <v>21</v>
+      </c>
+      <c r="B47" s="12">
         <v>200189000000000</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="12">
         <v>209359000000000</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="12">
         <v>209301000000000</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="12">
         <v>224093000000000</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="12">
         <v>235979000000000</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="12">
         <v>243110000000000</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="12">
         <v>249732000000000</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="12">
         <v>256169000000000</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="12">
         <v>262563000000000</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="12">
         <v>268969000000000</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="12">
         <v>272124000000000</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="12">
         <v>275262000000000</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="12">
         <v>278381000000000</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="12">
         <v>281484000000000</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="12">
         <v>284576000000000</v>
       </c>
-      <c r="Q47" s="14">
+      <c r="Q47" s="12">
         <v>288948000000000</v>
       </c>
-      <c r="R47" s="14">
+      <c r="R47" s="12">
         <v>293324000000000</v>
       </c>
-      <c r="S47" s="14">
+      <c r="S47" s="12">
         <v>297697000000000</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="12">
         <v>302068000000000</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="12">
         <v>306439000000000</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="12">
         <v>310759000000000</v>
       </c>
-      <c r="W47" s="14">
+      <c r="W47" s="12">
         <v>315086000000000</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X47" s="12">
         <v>319425000000000</v>
       </c>
-      <c r="Y47" s="14">
+      <c r="Y47" s="12">
         <v>323774000000000</v>
       </c>
-      <c r="Z47" s="14">
+      <c r="Z47" s="12">
         <v>328138000000000</v>
       </c>
-      <c r="AA47" s="14">
+      <c r="AA47" s="12">
         <v>331514000000000</v>
       </c>
-      <c r="AB47" s="14">
+      <c r="AB47" s="12">
         <v>334896000000000</v>
       </c>
-      <c r="AC47" s="14">
+      <c r="AC47" s="12">
         <v>338286000000000</v>
       </c>
-      <c r="AD47" s="14">
+      <c r="AD47" s="12">
         <v>341683000000000</v>
       </c>
-      <c r="AE47" s="14">
+      <c r="AE47" s="12">
         <v>345090000000000</v>
       </c>
-      <c r="AF47" s="14">
+      <c r="AF47" s="12">
         <v>348508000000000</v>
       </c>
-      <c r="AG47" s="14">
+      <c r="AG47" s="12">
         <v>351938000000000</v>
       </c>
-      <c r="AH47" s="14">
+      <c r="AH47" s="12">
         <v>355381000000000</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="14">
+        <v>22</v>
+      </c>
+      <c r="B48" s="12">
         <v>39219700000000</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="12">
         <v>41270200000000</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="12">
         <v>40575500000000</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="12">
         <v>44351400000000</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="12">
         <v>47288900000000</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="12">
         <v>49901500000000</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="12">
         <v>52412500000000</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="12">
         <v>54918700000000</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="12">
         <v>57462400000000</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="12">
         <v>60062500000000</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="12">
         <v>63935300000000</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="12">
         <v>67955400000000</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="12">
         <v>72122500000000</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="12">
         <v>76441900000000</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P48" s="12">
         <v>80915300000000</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q48" s="12">
         <v>85545000000000</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R48" s="12">
         <v>90332600000000</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S48" s="12">
         <v>95280300000000</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="12">
         <v>100390000000000</v>
       </c>
-      <c r="U48" s="14">
+      <c r="U48" s="12">
         <v>105663000000000</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V48" s="12">
         <v>110938000000000</v>
       </c>
-      <c r="W48" s="14">
+      <c r="W48" s="12">
         <v>116361000000000</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X48" s="12">
         <v>121932000000000</v>
       </c>
-      <c r="Y48" s="14">
+      <c r="Y48" s="12">
         <v>127655000000000</v>
       </c>
-      <c r="Z48" s="14">
+      <c r="Z48" s="12">
         <v>133529000000000</v>
       </c>
-      <c r="AA48" s="14">
+      <c r="AA48" s="12">
         <v>139555000000000</v>
       </c>
-      <c r="AB48" s="14">
+      <c r="AB48" s="12">
         <v>145735000000000</v>
       </c>
-      <c r="AC48" s="14">
+      <c r="AC48" s="12">
         <v>152072000000000</v>
       </c>
-      <c r="AD48" s="14">
+      <c r="AD48" s="12">
         <v>158563000000000</v>
       </c>
-      <c r="AE48" s="14">
+      <c r="AE48" s="12">
         <v>165212000000000</v>
       </c>
-      <c r="AF48" s="14">
+      <c r="AF48" s="12">
         <v>172020000000000</v>
       </c>
-      <c r="AG48" s="14">
+      <c r="AG48" s="12">
         <v>178988000000000</v>
       </c>
-      <c r="AH48" s="14">
+      <c r="AH48" s="12">
         <v>186117000000000</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A49" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="14">
+      <c r="A49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="12">
         <v>1025250000000000</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="12">
         <v>1071830000000000</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>1051140000000000</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="12">
         <v>1141180000000000</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="12">
         <v>1209920000000000</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="12">
         <v>1276700000000000</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="12">
         <v>1339460000000000</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="12">
         <v>1400530000000000</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="12">
         <v>1463430000000000</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="12">
         <v>1526160000000000</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="12">
         <v>1592520000000000</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="12">
         <v>1658960000000000</v>
       </c>
-      <c r="N49" s="14">
+      <c r="N49" s="12">
         <v>1725200000000000</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49" s="12">
         <v>1778450000000000</v>
       </c>
-      <c r="P49" s="14">
+      <c r="P49" s="12">
         <v>1831510000000000</v>
       </c>
-      <c r="Q49" s="14">
+      <c r="Q49" s="12">
         <v>1890190000000000</v>
       </c>
-      <c r="R49" s="14">
+      <c r="R49" s="12">
         <v>1948650000000000</v>
       </c>
-      <c r="S49" s="14">
+      <c r="S49" s="12">
         <v>2007350000000000</v>
       </c>
-      <c r="T49" s="14">
+      <c r="T49" s="12">
         <v>2081920000000000</v>
       </c>
-      <c r="U49" s="14">
+      <c r="U49" s="12">
         <v>2156430000000000</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="12">
         <v>2240650000000000</v>
       </c>
-      <c r="W49" s="14">
+      <c r="W49" s="12">
         <v>2324710000000000</v>
       </c>
-      <c r="X49" s="14">
+      <c r="X49" s="12">
         <v>2408890000000000</v>
       </c>
-      <c r="Y49" s="14">
+      <c r="Y49" s="12">
         <v>2482570000000000</v>
       </c>
-      <c r="Z49" s="14">
+      <c r="Z49" s="12">
         <v>2556470000000000</v>
       </c>
-      <c r="AA49" s="14">
+      <c r="AA49" s="12">
         <v>2620080000000000</v>
       </c>
-      <c r="AB49" s="14">
+      <c r="AB49" s="12">
         <v>2683510000000000</v>
       </c>
-      <c r="AC49" s="14">
+      <c r="AC49" s="12">
         <v>2747080000000000</v>
       </c>
-      <c r="AD49" s="14">
+      <c r="AD49" s="12">
         <v>2814270000000000</v>
       </c>
-      <c r="AE49" s="14">
+      <c r="AE49" s="12">
         <v>2881610000000000</v>
       </c>
-      <c r="AF49" s="14">
+      <c r="AF49" s="12">
         <v>2948570000000000</v>
       </c>
-      <c r="AG49" s="14">
+      <c r="AG49" s="12">
         <v>3015710000000000</v>
       </c>
-      <c r="AH49" s="14">
+      <c r="AH49" s="12">
         <v>3082660000000000</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="14">
-        <v>0</v>
-      </c>
-      <c r="C50" s="14">
-        <v>0</v>
-      </c>
-      <c r="D50" s="14">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14">
-        <v>0</v>
-      </c>
-      <c r="F50" s="14">
-        <v>0</v>
-      </c>
-      <c r="G50" s="14">
-        <v>0</v>
-      </c>
-      <c r="H50" s="14">
-        <v>0</v>
-      </c>
-      <c r="I50" s="14">
-        <v>0</v>
-      </c>
-      <c r="J50" s="14">
-        <v>0</v>
-      </c>
-      <c r="K50" s="14">
-        <v>0</v>
-      </c>
-      <c r="L50" s="14">
-        <v>0</v>
-      </c>
-      <c r="M50" s="14">
-        <v>0</v>
-      </c>
-      <c r="N50" s="14">
-        <v>0</v>
-      </c>
-      <c r="O50" s="14">
-        <v>0</v>
-      </c>
-      <c r="P50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>0</v>
-      </c>
-      <c r="R50" s="14">
-        <v>0</v>
-      </c>
-      <c r="S50" s="14">
-        <v>0</v>
-      </c>
-      <c r="T50" s="14">
-        <v>0</v>
-      </c>
-      <c r="U50" s="14">
-        <v>0</v>
-      </c>
-      <c r="V50" s="14">
-        <v>0</v>
-      </c>
-      <c r="W50" s="14">
-        <v>0</v>
-      </c>
-      <c r="X50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="14">
+        <v>24</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="12">
+        <v>0</v>
+      </c>
+      <c r="L50" s="12">
+        <v>0</v>
+      </c>
+      <c r="M50" s="12">
+        <v>0</v>
+      </c>
+      <c r="N50" s="12">
+        <v>0</v>
+      </c>
+      <c r="O50" s="12">
+        <v>0</v>
+      </c>
+      <c r="P50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>0</v>
+      </c>
+      <c r="R50" s="12">
+        <v>0</v>
+      </c>
+      <c r="S50" s="12">
+        <v>0</v>
+      </c>
+      <c r="T50" s="12">
+        <v>0</v>
+      </c>
+      <c r="U50" s="12">
+        <v>0</v>
+      </c>
+      <c r="V50" s="12">
+        <v>0</v>
+      </c>
+      <c r="W50" s="12">
+        <v>0</v>
+      </c>
+      <c r="X50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="14">
+        <v>25</v>
+      </c>
+      <c r="B51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="O51" s="14">
+      <c r="O51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="R51" s="14">
+      <c r="R51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="S51" s="14">
+      <c r="S51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="T51" s="14">
+      <c r="T51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="U51" s="14">
+      <c r="U51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="W51" s="14">
+      <c r="W51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="X51" s="14">
+      <c r="X51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="Y51" s="14">
+      <c r="Y51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="Z51" s="14">
+      <c r="Z51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="AA51" s="14">
+      <c r="AA51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="AB51" s="14">
+      <c r="AB51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="AC51" s="14">
+      <c r="AC51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="AD51" s="14">
+      <c r="AD51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="AE51" s="14">
+      <c r="AE51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="AF51" s="14">
+      <c r="AF51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="AG51" s="14">
+      <c r="AG51" s="12">
         <v>-302644000000000</v>
       </c>
-      <c r="AH51" s="14">
+      <c r="AH51" s="12">
         <v>-302644000000000</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -14311,8 +12914,8 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A54" s="15" t="s">
-        <v>121</v>
+      <c r="A54" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -14451,137 +13054,137 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="17">
+        <v>17</v>
+      </c>
+      <c r="B56" s="15">
         <f>B23*10^6/B46</f>
         <v>0</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="15">
         <f t="shared" ref="C56:AH56" si="14">C23*10^6/C46</f>
         <v>0</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="15">
         <f t="shared" si="14"/>
         <v>3.7460853967372895E-4</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="15">
         <f t="shared" si="14"/>
         <v>1.328198698762336E-3</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="15">
         <f t="shared" si="14"/>
         <v>2.2525963247789797E-3</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="15">
         <f t="shared" si="14"/>
         <v>3.1102255004747288E-3</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="15">
         <f t="shared" si="14"/>
         <v>3.929671921941858E-3</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="15">
         <f t="shared" si="14"/>
         <v>4.7011453999807129E-3</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P56" s="15">
         <f t="shared" si="14"/>
         <v>5.4347712949410938E-3</v>
       </c>
-      <c r="Q56" s="17">
+      <c r="Q56" s="15">
         <f t="shared" si="14"/>
         <v>6.1079125783944027E-3</v>
       </c>
-      <c r="R56" s="17">
+      <c r="R56" s="15">
         <f t="shared" si="14"/>
         <v>6.8582401555642566E-3</v>
       </c>
-      <c r="S56" s="17">
+      <c r="S56" s="15">
         <f t="shared" si="14"/>
         <v>7.5918427061665962E-3</v>
       </c>
-      <c r="T56" s="17">
+      <c r="T56" s="15">
         <f t="shared" si="14"/>
         <v>8.3179811179460977E-3</v>
       </c>
-      <c r="U56" s="17">
+      <c r="U56" s="15">
         <f t="shared" si="14"/>
         <v>9.0227161414297777E-3</v>
       </c>
-      <c r="V56" s="17">
+      <c r="V56" s="15">
         <f t="shared" si="14"/>
         <v>9.7028162211125792E-3</v>
       </c>
-      <c r="W56" s="17">
+      <c r="W56" s="15">
         <f t="shared" si="14"/>
         <v>1.0393621113959906E-2</v>
       </c>
-      <c r="X56" s="17">
+      <c r="X56" s="15">
         <f t="shared" si="14"/>
         <v>1.1090065486425254E-2</v>
       </c>
-      <c r="Y56" s="17">
+      <c r="Y56" s="15">
         <f t="shared" si="14"/>
         <v>1.1783095541487024E-2</v>
       </c>
-      <c r="Z56" s="17">
+      <c r="Z56" s="15">
         <f t="shared" si="14"/>
         <v>1.2471546421713916E-2</v>
       </c>
-      <c r="AA56" s="17">
+      <c r="AA56" s="15">
         <f t="shared" si="14"/>
         <v>1.3212712814938502E-2</v>
       </c>
-      <c r="AB56" s="17">
+      <c r="AB56" s="15">
         <f t="shared" si="14"/>
         <v>1.394820338788535E-2</v>
       </c>
-      <c r="AC56" s="17">
+      <c r="AC56" s="15">
         <f t="shared" si="14"/>
         <v>1.4677943773216228E-2</v>
       </c>
-      <c r="AD56" s="17">
+      <c r="AD56" s="15">
         <f t="shared" si="14"/>
         <v>1.54086830740141E-2</v>
       </c>
-      <c r="AE56" s="17">
+      <c r="AE56" s="15">
         <f t="shared" si="14"/>
         <v>1.6134901423009378E-2</v>
       </c>
-      <c r="AF56" s="17">
+      <c r="AF56" s="15">
         <f t="shared" si="14"/>
         <v>1.6849932020891689E-2</v>
       </c>
-      <c r="AG56" s="17">
+      <c r="AG56" s="15">
         <f t="shared" si="14"/>
         <v>1.7564722957394308E-2</v>
       </c>
-      <c r="AH56" s="17">
+      <c r="AH56" s="15">
         <f t="shared" si="14"/>
         <v>1.8277780593057246E-2</v>
       </c>
@@ -14589,177 +13192,177 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="18">
+        <v>16</v>
+      </c>
+      <c r="B57" s="16">
         <f>B24*10^6/B49</f>
         <v>0</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="16">
         <f t="shared" ref="C57:AH57" si="15">C24*10^6/C49</f>
         <v>0</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="16">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="16">
         <f t="shared" si="15"/>
         <v>8.0662021554832016E-4</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="16">
         <f t="shared" si="15"/>
         <v>1.8798790400796422E-3</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="16">
         <f t="shared" si="15"/>
         <v>2.8605124694651971E-3</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="16">
         <f t="shared" si="15"/>
         <v>3.7544975015508975E-3</v>
       </c>
-      <c r="K57" s="18">
+      <c r="K57" s="16">
         <f t="shared" si="15"/>
         <v>4.5753099468792049E-3</v>
       </c>
-      <c r="L57" s="18">
+      <c r="L57" s="16">
         <f t="shared" si="15"/>
         <v>5.3191581759501807E-3</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="16">
         <f t="shared" si="15"/>
         <v>6.0032047356167227E-3</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N57" s="16">
         <f t="shared" si="15"/>
         <v>6.6353392522798841E-3</v>
       </c>
-      <c r="O57" s="18">
+      <c r="O57" s="16">
         <f t="shared" si="15"/>
         <v>7.2734673608300885E-3</v>
       </c>
-      <c r="P57" s="18">
+      <c r="P57" s="16">
         <f t="shared" si="15"/>
         <v>7.8753098687437181E-3</v>
       </c>
-      <c r="Q57" s="18">
+      <c r="Q57" s="16">
         <f t="shared" si="15"/>
         <v>8.4181587710956806E-3</v>
       </c>
-      <c r="R57" s="18">
+      <c r="R57" s="16">
         <f t="shared" si="15"/>
         <v>8.9293255727669711E-3</v>
       </c>
-      <c r="S57" s="18">
+      <c r="S57" s="16">
         <f t="shared" si="15"/>
         <v>9.4095902693635391E-3</v>
       </c>
-      <c r="T57" s="18">
+      <c r="T57" s="16">
         <f t="shared" si="15"/>
         <v>9.7873846147025021E-3</v>
       </c>
-      <c r="U57" s="18">
+      <c r="U57" s="16">
         <f t="shared" si="15"/>
         <v>1.0139333308698159E-2</v>
       </c>
-      <c r="V57" s="18">
+      <c r="V57" s="16">
         <f t="shared" si="15"/>
         <v>1.0422410138446874E-2</v>
       </c>
-      <c r="W57" s="18">
+      <c r="W57" s="16">
         <f t="shared" si="15"/>
         <v>1.0685713068101193E-2</v>
       </c>
-      <c r="X57" s="18">
+      <c r="X57" s="16">
         <f t="shared" si="15"/>
         <v>1.0930094265981453E-2</v>
       </c>
-      <c r="Y57" s="18">
+      <c r="Y57" s="16">
         <f t="shared" si="15"/>
         <v>1.1205164618204151E-2</v>
       </c>
-      <c r="Z57" s="18">
+      <c r="Z57" s="16">
         <f t="shared" si="15"/>
         <v>1.146339142491389E-2</v>
       </c>
-      <c r="AA57" s="18">
+      <c r="AA57" s="16">
         <f t="shared" si="15"/>
         <v>1.175308655685481E-2</v>
       </c>
-      <c r="AB57" s="18">
+      <c r="AB57" s="16">
         <f t="shared" si="15"/>
         <v>1.2029855590521058E-2</v>
       </c>
-      <c r="AC57" s="18">
+      <c r="AC57" s="16">
         <f t="shared" si="15"/>
         <v>1.2293216260740022E-2</v>
       </c>
-      <c r="AD57" s="18">
+      <c r="AD57" s="16">
         <f t="shared" si="15"/>
         <v>1.2528527566789342E-2</v>
       </c>
-      <c r="AE57" s="18">
+      <c r="AE57" s="16">
         <f t="shared" si="15"/>
         <v>1.2752201035262669E-2</v>
       </c>
-      <c r="AF57" s="18">
+      <c r="AF57" s="16">
         <f t="shared" si="15"/>
         <v>1.2967330188890815E-2</v>
       </c>
-      <c r="AG57" s="18">
+      <c r="AG57" s="16">
         <f t="shared" si="15"/>
         <v>1.3172119177537737E-2</v>
       </c>
-      <c r="AH57" s="18">
+      <c r="AH57" s="16">
         <f t="shared" si="15"/>
         <v>1.3368812089146174E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="16" t="s">
-        <v>128</v>
+      <c r="A75" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17">
         <v>2018</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C76" s="17">
         <v>2050</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="20">
-        <v>0</v>
-      </c>
-      <c r="C77" s="21">
+      <c r="A77" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="18">
+        <v>0</v>
+      </c>
+      <c r="C77" s="19">
         <f>AH56</f>
         <v>1.8277780593057246E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="21">
-        <v>0</v>
-      </c>
-      <c r="C78" s="21">
+      <c r="A78" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="19">
+        <v>0</v>
+      </c>
+      <c r="C78" s="19">
         <f>AH57</f>
         <v>1.3368812089146174E-2</v>
       </c>
@@ -14775,7 +13378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>

--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -9,31 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="19418" windowHeight="10418"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data OECD" sheetId="16" r:id="rId2"/>
     <sheet name="Data NonOECD" sheetId="17" r:id="rId3"/>
     <sheet name="IESS data" sheetId="15" r:id="rId4"/>
-    <sheet name="BAU Calculations" sheetId="14" r:id="rId5"/>
-    <sheet name="BFoCPAbS" sheetId="12" r:id="rId6"/>
+    <sheet name="Global CCS Database" sheetId="13" r:id="rId5"/>
+    <sheet name="BAU Calculations" sheetId="14" r:id="rId6"/>
+    <sheet name="BFoCPAbS" sheetId="12" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Global CCS Database'!$A$7:$H$36</definedName>
     <definedName name="Region">'BAU Calculations'!$B$2</definedName>
     <definedName name="Unit.GW">[1]Conversions!$F$55</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="221">
   <si>
     <t>Source:</t>
   </si>
@@ -113,6 +113,282 @@
     <t xml:space="preserve"> dimensionless (fraction of potential achieved)</t>
   </si>
   <si>
+    <t>Facility Name</t>
+  </si>
+  <si>
+    <t>Facility Category</t>
+  </si>
+  <si>
+    <t>Facility Status</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Facility Industry</t>
+  </si>
+  <si>
+    <t>Facility Short Description</t>
+  </si>
+  <si>
+    <t>Pilot and demonstration CCS facilities</t>
+  </si>
+  <si>
+    <t>Natural Gas Processing</t>
+  </si>
+  <si>
+    <t>Power Generation</t>
+  </si>
+  <si>
+    <t>Filtered to include only:</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Large-scale facilities, pilot and demonstration facilities</t>
+  </si>
+  <si>
+    <t>Early development, advanced development, operational, operating (not "completed," which means it is no longer sequestering CO2)</t>
+  </si>
+  <si>
+    <t>Air Products Steam Methane Reformer</t>
+  </si>
+  <si>
+    <t>Large-scale CCS facilities</t>
+  </si>
+  <si>
+    <t>Operating</t>
+  </si>
+  <si>
+    <t>Hydrogen Production</t>
+  </si>
+  <si>
+    <t>Air Products retrofitted each of its two steam methane reformers SMRs, located within an existing refinery at Port Arthur, Texas, to separate CO2 from the process gas stream. Carbon dioxide capture capacity is at around 1 Mtpa when both plants are fully operational. The captured CO2 is transported to oil fields in Texas for enhanced oil recovery. More than 4 million tonnes of CO2 has been captured since the facilities became operational in 2013.</t>
+  </si>
+  <si>
+    <t>Arkalon CO2 Compression Facility</t>
+  </si>
+  <si>
+    <t>Ethanol Production</t>
+  </si>
+  <si>
+    <t>Chaparral Energy owns and operates a CO2 compression and processing facility at the Arkalon Energy ethanol plant in Kansas, US. In 2015, approximately 190,000 tonnes of CO2 from this source was used for enhanced oil recovery purposes at the Booker and Farnsworth Oil Units in Texas both of which are operated by Chaparral Energy.</t>
+  </si>
+  <si>
+    <t>Core Energy CO2-EOR</t>
+  </si>
+  <si>
+    <t>Core Energy has been operating a CO2-EOR program in Otsego County, Michigan, since 2003.  The CO2 is sourced from a gas processing facility that removes CO2 produced from the Antrim shale gas fields. Core Energy captures around 350,000 tonnes of CO2 out of an estimated total produced CO2 of around 500,000 tonnes. Core Energy reports that as of end 2016, its CO2-EOR operations had injected over two million tonnes of CO2.</t>
+  </si>
+  <si>
+    <t>PCS Nitrogen</t>
+  </si>
+  <si>
+    <t>Fertiliser Production</t>
+  </si>
+  <si>
+    <t>Denbury Resources sources CO2 from an industrial facility in Louisiana, United States, to support its CO2-EOR operations in the Gulf Coast region. Capture began in 2013 and the Institute estimates that annual uptake is in the range of 200,000 to 300,000 tonnes of CO2 per annum.</t>
+  </si>
+  <si>
+    <t>Illinois Industrial Carbon Capture and Storage</t>
+  </si>
+  <si>
+    <t>Illinois Industrial CCS integrates new build compression and dehydration facilities to an existing corn-to-ethanol plant in Decatur, Illinois. The new facilities, when combined with existing facilities constructed under the now completed Illinois Basin Decatur Project, can achieve a total CO2 injection capacity of approximately 1 Mtpa. Injection operations commenced in April 2017. The captured CO2 is transported to a nearby injection well for dedicated geological storage.</t>
+  </si>
+  <si>
+    <t>NET Power Clean Energy Large-scale Pilot Plant</t>
+  </si>
+  <si>
+    <t>In 2016, NET Power LLC commenced construction on a 50 MWth 25 MWe first-of-a-kind natural gas-fired power plant located near Houston, Texas, in order to test at large pilot-scale NET Power’s proprietary Allam Cycle Technology which uses CO2 as a working fluid in an oxy-fuel, supercritical CO2 power cycle to generate electricity. In March 2018, Net Power has announced that it has successfully fired up its natural-gas plant.</t>
+  </si>
+  <si>
+    <t>Lake Charles Methanol</t>
+  </si>
+  <si>
+    <t>Advanced Development</t>
+  </si>
+  <si>
+    <t>2022 (Institute estimate)</t>
+  </si>
+  <si>
+    <t>Chemical Production</t>
+  </si>
+  <si>
+    <t>Lake Charles Methanol is a proposed gasification facility in Louisiana, planning to capture over 4 Mtpa of CO2 from synthetic gas syngas. The syngas to be further converted to make methanol and other products would be produced during the conversion of petroleum coke sourced from oil refineries in the Gulf Coast region. The captured CO2 would most likely be used in Denbury Resources enhanced oil recovery assets in the Houston area, Texas. The Institute estimates an operations date of 2022.</t>
+  </si>
+  <si>
+    <t>OXY and White Energy Ethanol EOR Facility</t>
+  </si>
+  <si>
+    <t>Early Development</t>
+  </si>
+  <si>
+    <t>Occidental Petroleum Corporation and White Energy proposes to capture CO2 from White Energy’s two ethanol facilities in Hereford and Plainview, Texas. The captured CO2 will be stored via EOR operations at Occidental’s oil fields in Permian Basin.</t>
+  </si>
+  <si>
+    <t>OXY and Carbon Engineering Direct Air Capture and EOR Facility</t>
+  </si>
+  <si>
+    <t>middle 2020s</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Oxy Low Carbon Ventures, LLC and Carbon Engineering proposes a joint project of the world’s largest DAC and sequestration facility, with a capacity of 0.5 million tonnes per annum (Mtpa) CO2 capture capacity. The captured CO2 is planned to be used in Occidental’s EOR operations in the Permian Basin.</t>
+  </si>
+  <si>
+    <t>Petra Nova Carbon Capture</t>
+  </si>
+  <si>
+    <t>Petra Nova Carbon Capture, operational since January 2017, is the worlds largest post-combustion CO2 capture system presently in operation. Production unit 8 of the W. A. Parish power plant near Houston, Texas, was retrofitted with a 1.4 Mtpa post-combustion CO2 capture facility. The captured CO2 is transported via pipeline to an oil field near Houston for enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Bonanza BioEnergy CCUS EOR</t>
+  </si>
+  <si>
+    <t>PetroSantander, Inc. owns and operates the dehydration, compression, transport and CO2 injection sites for CO2 sourced from the Bonanza BioEnergy ethanol plant in Kansas, US. The project began operation in 2012 and captures approximately 100,000 tonnes of CO2 annually, which is used for enhanced oil recovery purposes in the nearby Stewart oil field.</t>
+  </si>
+  <si>
+    <t>Project ECO2S: Early CO2 Storage Complex in Kemper County</t>
+  </si>
+  <si>
+    <t>Under evaluation</t>
+  </si>
+  <si>
+    <t>Project ECO2S aims to establish a CO2 storage site with a storage capacity of approximately one billion metric tons in a 12,000-hectare storage complex near the Kemper County Energy Facility in Kemper County, Mississippi which could serve as a regional CO2 storage hub for regional power and industrial CO2 point sources.</t>
+  </si>
+  <si>
+    <t>Dry Fork Integrated Commercial Carbon Capture and Storage (CCS)</t>
+  </si>
+  <si>
+    <t>The Basin Electric Power Cooperative aims to capture 3.0 Mtpa CO2 from the 385 MW Dry Fork coal-fired power station in Wyoming, USA. They are targeting adjacent geological storage formations currently being studied by Wyoming CarbonSAFE. The Cooperative is also considering EOR as a potential CO2 storage pathway, utilising nearby CO2 pipeline networks and EOR operations.</t>
+  </si>
+  <si>
+    <t>Bell Creek - Incidental CO2 Storage Associated with a Commercial EOR Project</t>
+  </si>
+  <si>
+    <t>The Bell Creek project is a collaboration between the Plains CO2 Reduction PCOR Partnership and Denbury Onshore LLC to study incidental CO2 storage associated with a Denbury-operated commercial EOR project. The PCOR Partnership is conducting site characterization, modeling and predictive simulation, and monitoring, verification, and accounting MVA to study the interrelationship of commercial CO2 EOR operations and incidental CO2 storage and to evaluate how EOR injection strategies affect associated storage. As of June 2017, EOR operations have resulted in approximately 4.0 million tonnes of associated CO2 storage at the site.</t>
+  </si>
+  <si>
+    <t>Century Plant</t>
+  </si>
+  <si>
+    <t>The Century Plant natural gas treatment facility in Texas, when fully operational, has a CO2 capture capacity of around 8.4 Mtpa. Captured CO2 is transported via a pipeline system to oil fields for enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Coffeyville Gasification Plant</t>
+  </si>
+  <si>
+    <t>The Coffeyville Resources Nitrogen Fertilizers fertiliser plant in Coffeyville, Kansas, has been retrofitted with CO2 compression and dehydration facilities and since 2013 has been delivering CO2 to the North Burbank Oil Unit in Osage County, Oklahoma, for enhanced oil recovery. Carbon dioxide capture capacity of the compression facilities is around 1 Mtpa.</t>
+  </si>
+  <si>
+    <t>Cranfield Project</t>
+  </si>
+  <si>
+    <t>The Cranfield Project in Mississippi, US, involved the monitoring of large-scale CO2 injection into a saline formation of the Cranfield oil unit operated by Denbury Resources. The naturally occurring CO2 was sourced from Jackson Dome. Up to January 2015, the Cranfield Project had monitored around 4.7 million tonnes of CO2 stored under the SECARB Phase III Development Program.</t>
+  </si>
+  <si>
+    <t>Great Plains Synfuels Plant and Weyburn-Midale</t>
+  </si>
+  <si>
+    <t>Synthetic Natural Gas</t>
+  </si>
+  <si>
+    <t>The Great Plains Synfuels plant, located in North Dakota, produces high purity CO2 as part of its coal gasification process. Carbon dioxide capture capacity of the plant is approximately 3 Mtpa. The captured CO2 is transported via pipeline to the Weyburn Oil Unit and the Midale Oil Unit in Saskatchewan, Canada, for use in enhanced oil recovery. Around 35 million tonnes of CO2 has been captured and transported to date.</t>
+  </si>
+  <si>
+    <t>Integrated Midcontinent Stacked Carbon Storage Hub</t>
+  </si>
+  <si>
+    <t>2025 - 2035</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>The Integrated Midcontinent Stacked Carbon Storage Hub involves developing a commercial scale CO2 storage hub in Nebraska and Kansas. The storage hub will form part of an integrated CO2 collection, transportation and storage infrastructure which will enable the collection of CO2 from the dense concentration of  ethanol plants, power plants and refinery.</t>
+  </si>
+  <si>
+    <t>Enid Fertilizer</t>
+  </si>
+  <si>
+    <t>The Koch Nitrogen Company facility in Enid, Oklahoma produces nitrogen fertilisers which result in a high purity, high concentration CO2 off-gas. The CO2 off-gas is processed at compression, cooling and dehydration facilities owned by Chaparral Energy and Merit Energy. The processed CO2 of up to around 0.7 Mtpa is transported to depleted oil fields in southern Oklahoma for enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Lost Cabin Gas Plant</t>
+  </si>
+  <si>
+    <t>The Lost Cabin Gas plant, located in Wyoming, supplies CO2 to compression facilities adjacent to the plant to enable CO2 transport by pipeline. Carbon dioxide capture capacity is around 0.9 Mtpa, and since 2013, CO2 has been delivered via a new build pipeline to the Bell Creek oil field in Montana for enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Project Tundra</t>
+  </si>
+  <si>
+    <t>2025 - 2026</t>
+  </si>
+  <si>
+    <t>The Minnkota Power Cooperative is planning the retrofit of a 3.1 to 3.6 Mtpa CO2 capture plant to the Milton R. Young coal-fired power station in North Dakota USA. Carbon dioxide will be captured from Unit 2 of the power station which generates  455 megawatts of electric (MWe). They are initially targeting dedicated geological storage sites. The North Dakota CarbonSAFE Storage Hub  is studying the future potential for the utilisation of CO2 from this facility for EOR.</t>
+  </si>
+  <si>
+    <t>Michigan Basin Large Scale Injection Test</t>
+  </si>
+  <si>
+    <t>The project is designed to inject and monitor approximately one million tonnes of CO2 within a series of formations currently being used for enhanced oil recovery operations. Carbon dioxide injection associated with the Large-scale Injection Test began in March 2013. As of early 2019, the project had successfully injected and monitored the storage of more than 1,100,000 tonnes of new CO2.</t>
+  </si>
+  <si>
+    <t>Shute Creek Gas Processing Plant</t>
+  </si>
+  <si>
+    <t>The Shute Creek gas treating facility, located in Wyoming, began operation in 1986. After a plant expansion was completed in 2010, annual CO2 capture capacity is now at around 7 Mtpa. The captured CO2 is distributed via pipeline systems to a number of depleted oil fields in Wyoming and Colorado for use in enhanced oil recovery.</t>
+  </si>
+  <si>
+    <t>Farnsworth Unit EOR Field Project - Development Phase</t>
+  </si>
+  <si>
+    <t>Ethanol Production and Fertiliser Production</t>
+  </si>
+  <si>
+    <t>The Southwest Regional Partnership on Carbon Sequestration SWP monitors activities on active CO2-EOR injection well patterns. The SWP Phase III project intends to track the injection of over 0.2 Mtpa of CO2 over multiple years until at least one million tonnes of CO2 has been injected. As of April 2017, purchased CO2 totalled approximately 640,000 tonnes, with net CO2 storage placed at around 595,000 tonnes.</t>
+  </si>
+  <si>
+    <t>Terrell Natural Gas Processing Plant (formerly Val Verde Natural Gas Plants)</t>
+  </si>
+  <si>
+    <t>The Terrell gas processing facility is one of the original Val Verde natural gas processing plants in west Texas, that began capturing CO2 as part of gas processing since the early 1970s. Captured CO2 is transported via the Val Verde pipeline to McCamey, Texas, where it connects with the Canyon Reef Carriers CRC pipeline and the Pecos pipeline. The CO2 is then distributed to mature oil fields for enhanced oil recovery. The Terrell facility has a CO2 capture capacity of around 0.4-0.5 Mtpa.</t>
+  </si>
+  <si>
+    <t>Fuel Cell Carbon Capture Pilot Plant</t>
+  </si>
+  <si>
+    <t>This pilot plant will utilise FuelCell Energy’s commercial DFC3000® carbonate fuel cell power system to concentrate and capture a portion of the CO2 emissions from the exhaust flue gases at the Plant Barry power station in Alabama, US for natural gas-fired generation.</t>
+  </si>
+  <si>
+    <t>CarbonSAFE Illinois – Macon County</t>
+  </si>
+  <si>
+    <t>This project seeks to establish a 50+ million tonne commercial geological storage hub in Illinois, USA. Adjacent power plants, such as Prairie State Generation (816 MWe, coal-fired power plant, 10 Mtpa CO2) which has been awarded a full-scale FEED study,  and regional ethanol plants are potential CO2 sources.</t>
+  </si>
+  <si>
+    <t>Wabash CO2 Sequestration</t>
+  </si>
+  <si>
+    <t>Wabash Valley Resources LLC aims to develop an ammonia plant with near-zero CO2 emissions using a repurposed integrated gasification combined cycle (IGCC) plant in Indiana, USA. The facility will capture 1.5 to 1.75 Mtpa CO2 for dedicated geological storage in the Wabash CarbonSAFE CO2 storage hub.</t>
+  </si>
+  <si>
+    <t>Global CCS Institute Database (as of 4/30/2020)</t>
+  </si>
+  <si>
+    <t>Tons/Yr</t>
+  </si>
+  <si>
+    <t>Start Year</t>
+  </si>
+  <si>
     <t>Industry (all other)</t>
   </si>
   <si>
@@ -177,9 +453,6 @@
   </si>
   <si>
     <t>Industry Sector</t>
-  </si>
-  <si>
-    <t>CSA-ACP</t>
   </si>
   <si>
     <t>CSA-BTCS</t>
@@ -411,6 +684,60 @@
   </si>
   <si>
     <t>Fraction CCS by Sector</t>
+  </si>
+  <si>
+    <t>CO2 captured per MW for BAU Case</t>
+  </si>
+  <si>
+    <t>Anand Rao &amp; Piyush Kumar</t>
+  </si>
+  <si>
+    <t>Cost Implications of Carbon Capture and Storage for the Coal Power Plants in India</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S187661021401162X</t>
+  </si>
+  <si>
+    <t>Section 4 (Results), Table 3, Page 437</t>
+  </si>
+  <si>
+    <t>Energy Procedia, Vol 54, 2014, Pp 431-438</t>
+  </si>
+  <si>
+    <t>IEA has three CCS scenarios, corresponding to packages of actions (not all CCS) leading to different levels of warming:</t>
+  </si>
+  <si>
+    <t>Reference Technology Scenario (RTS) that includes NDCs for current Paris agreement,</t>
+  </si>
+  <si>
+    <t>2 deg scenario (2DS) and Beyond (B2DS)</t>
+  </si>
+  <si>
+    <t>BAU Tons CO2 sequestered:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We estimate the CO2 sequestered on a MW basis, based on an Indian study which simulates the CO2 captured for </t>
+  </si>
+  <si>
+    <t>Energy Technology Perspectives : ETP 2017 Data Visualization</t>
+  </si>
+  <si>
+    <t>http://www.iea.org/etp/explore/</t>
+  </si>
+  <si>
+    <t>Emissions Reductions tab, "Download data files" button, in Excel "EmissionsTech web" tab, India, CCS</t>
+  </si>
+  <si>
+    <t>IEA CCS Scenarios</t>
+  </si>
+  <si>
+    <t>four representative thermal plants in India, with and without CCS.</t>
+  </si>
+  <si>
+    <t>Hence, we use the Level 1 trajectory of MW CCS capacity in IESS to represent the BAU case as currently there are no CCS-related policies in India.</t>
+  </si>
+  <si>
+    <t>There is no RTS scenario for India in IEA's ETP as there is currently no CCS commitment to NDCs.</t>
   </si>
 </sst>
 </file>
@@ -635,7 +962,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -649,7 +976,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -660,6 +989,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1300,150 +1632,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>CSA-ACP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'[2]CSA-ACP Calculations'!$A$15:$AJ$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>90000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>130000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>170000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>210000000.00000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>272000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>334000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>396000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>458000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>520000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>552000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>584000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>616000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>648000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>679999999.99999988</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>710000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>740000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>770000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>800000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>830000000.00000012</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>778000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>726000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>674000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>622000000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>570000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B2CA-4F1A-817D-72B7B9AB7A97}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
           <c:tx>
             <c:v>L4 - IESS</c:v>
           </c:tx>
@@ -1825,7 +2015,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3002,7 +3191,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5543,13 +5731,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>690561</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6083,143 +6271,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="103.46484375" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" customWidth="1"/>
-    <col min="5" max="5" width="18.46484375" customWidth="1"/>
+    <col min="2" max="2" width="103.73046875" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="75.73046875" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="48">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="51">
         <v>2017</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D5" s="51">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="48">
+      <c r="D9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="51">
         <v>2015</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D13" s="51">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+      <c r="D14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="4"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B36" s="3"/>
@@ -6227,21 +6490,26 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="2"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B40" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6249,13 +6517,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="45.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="4" width="12.1328125" customWidth="1"/>
     <col min="5" max="5" width="11.3984375" customWidth="1"/>
@@ -6263,8 +6531,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>99</v>
+      <c r="A1" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6300,65 +6568,65 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="49">
         <f t="shared" ref="B3:G3" si="0">D23/D25</f>
         <v>0.21803644250297027</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="49">
         <f t="shared" si="0"/>
         <v>0.45387106293645746</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="49">
         <f t="shared" si="0"/>
         <v>0.57375467270212188</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="49">
         <f t="shared" si="0"/>
         <v>0.59382245522742239</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="49">
         <f t="shared" si="0"/>
         <v>0.60434543955945319</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="49">
         <f t="shared" si="0"/>
         <v>0.56028199067132201</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="49">
         <f t="shared" ref="B4:G4" si="1">SUM(D22,D24)/D25</f>
         <v>0.78196355749702962</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="49">
         <f t="shared" si="1"/>
         <v>0.54612893706354271</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="49">
         <f t="shared" si="1"/>
         <v>0.42624532729787801</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="49">
         <f t="shared" si="1"/>
         <v>0.40617754477257761</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="49">
         <f t="shared" si="1"/>
         <v>0.39565456044054664</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="49">
         <f t="shared" si="1"/>
         <v>0.43971800932867816</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>98</v>
+      <c r="A6" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6391,29 +6659,29 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="45">
+        <v>188</v>
+      </c>
+      <c r="B8" s="48">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
         <v>0.29305349924260793</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="48">
         <f t="shared" si="2"/>
         <v>0.33275814655315439</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="48">
         <f t="shared" si="2"/>
         <v>0.27778376598364735</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="48">
         <f t="shared" si="2"/>
         <v>0.32736698959883581</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="48">
         <f t="shared" si="2"/>
         <v>0.35934243065340959</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="48">
         <f t="shared" si="2"/>
         <v>0.38367083769308907</v>
       </c>
@@ -6421,87 +6689,87 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="46">
+        <v>187</v>
+      </c>
+      <c r="B9" s="49">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
         <v>8.8852453196402434E-2</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="49">
         <f t="shared" si="3"/>
         <v>0.11760289017955526</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="49">
         <f t="shared" si="3"/>
         <v>0.16029232107960878</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="49">
         <f t="shared" si="3"/>
         <v>0.17273948243196502</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="49">
         <f t="shared" si="3"/>
         <v>0.19873531530551919</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="49">
         <f t="shared" si="3"/>
         <v>0.21792159249022533</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="45">
+        <v>186</v>
+      </c>
+      <c r="B10" s="48">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
         <v>2.4929787372755252E-3</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="48">
         <f t="shared" si="4"/>
         <v>0.16235589840065001</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="48">
         <f t="shared" si="4"/>
         <v>0.28012369548232957</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="48">
         <f t="shared" si="4"/>
         <v>0.29779009961409042</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="48">
         <f t="shared" si="4"/>
         <v>0.28793480415473521</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="48">
         <f t="shared" si="4"/>
         <v>0.25804018454667765</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="46">
+        <v>185</v>
+      </c>
+      <c r="B11" s="49">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
         <v>0.60906693840985171</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="49">
         <f t="shared" si="5"/>
         <v>0.38103420834619267</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="49">
         <f t="shared" si="5"/>
         <v>0.27591691183820882</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="49">
         <f t="shared" si="5"/>
         <v>0.1994127226137235</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="49">
         <f t="shared" si="5"/>
         <v>0.15396517468671694</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="49">
         <f t="shared" si="5"/>
         <v>0.14036492570317538</v>
       </c>
@@ -6511,8 +6779,8 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
-        <v>93</v>
+      <c r="A13" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -6540,620 +6808,620 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="46">
+        <v>183</v>
+      </c>
+      <c r="B15" s="49">
         <f>B31/SUM(B31:B33)</f>
         <v>0.99031037400420396</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="49">
         <f>C31/SUM(C31:C33)</f>
         <v>0.38683189211801422</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="49">
         <f>D31/SUM(D31:D33)</f>
         <v>0.35477104291503592</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="49">
         <f>E31/SUM(E31:E33)</f>
         <v>0.28108145583275146</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="46">
+        <v>182</v>
+      </c>
+      <c r="B16" s="49">
         <f>B32/SUM(B31:B33)</f>
         <v>9.6896259957961056E-3</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="49">
         <f>C32/SUM(C31:C33)</f>
         <v>0.59862093333506916</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="49">
         <f>D32/SUM(D31:D33)</f>
         <v>0.57372188670355717</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="49">
         <f>E32/SUM(E31:E33)</f>
         <v>0.43585744423879202</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="46">
+        <v>181</v>
+      </c>
+      <c r="B17" s="49">
         <f>B33/SUM(B31:B33)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="49">
         <f>C33/SUM(C31:C33)</f>
         <v>1.4547174546916692E-2</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="49">
         <f>D33/SUM(D31:D33)</f>
         <v>7.1507070381406954E-2</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="49">
         <f>E33/SUM(E31:E33)</f>
         <v>0.28306109992845646</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
       <c r="I17" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43">
+      <c r="A21" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46">
         <v>2014</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="46">
         <v>2025</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="46">
         <v>2030</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="46">
         <v>2035</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="46">
         <v>2040</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="46">
         <v>2045</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="46">
         <v>2050</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="46">
         <v>2055</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="46">
         <v>2060</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="41">
-        <v>0</v>
-      </c>
-      <c r="D22" s="41">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="44">
+        <v>0</v>
+      </c>
+      <c r="D22" s="44">
         <v>32.40429913151911</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="44">
         <v>93.876808800194539</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="44">
         <v>151.71633290315154</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="44">
         <v>187.21216357345642</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="44">
         <v>237.97861280972978</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="44">
         <v>268.62433402842748</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="44">
         <v>301.62694877193803</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="44">
         <v>338.82942754525209</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="41">
-        <v>0</v>
-      </c>
-      <c r="D23" s="41">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0</v>
+      </c>
+      <c r="D23" s="44">
         <v>16.985652732884223</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="44">
         <v>136.39566547228313</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="44">
         <v>386.88874151414149</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="44">
         <v>571.47749466737059</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="44">
         <v>803.61468594996381</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="44">
         <v>817.9399604957988</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="44">
         <v>895.52328791931473</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="44">
         <v>858.4271853516816</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="41">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0</v>
+      </c>
+      <c r="D24" s="44">
         <v>28.512863545240073</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="44">
         <v>70.243854285306412</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="44">
         <v>135.70532325157922</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="44">
         <v>203.68131583846389</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="44">
         <v>288.13409446059916</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="44">
         <v>373.30765230696636</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="44">
         <v>469.46789166999571</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="44">
         <v>556.22745588473765</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="41"/>
-      <c r="B25" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="39">
-        <v>0</v>
-      </c>
-      <c r="D25" s="39">
+      <c r="A25" s="44"/>
+      <c r="B25" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="42">
+        <v>0</v>
+      </c>
+      <c r="D25" s="42">
         <v>77.902815409643409</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="42">
         <v>300.51632855778405</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="42">
         <v>674.31039766887227</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="42">
         <v>962.37097407929093</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="42">
         <v>1329.7273932202929</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="42">
         <v>1459.8719468311924</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="42">
         <v>1666.6181283612484</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="42">
         <v>1753.4840687816713</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="31"/>
-      <c r="B29" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="32"/>
-      <c r="B30" s="37">
+      <c r="A30" s="35"/>
+      <c r="B30" s="40">
         <v>2020</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="40">
         <v>2030</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="40">
         <v>2040</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="40">
         <v>2050</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="40">
         <v>2060</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="40">
         <v>2020</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="40">
         <v>2030</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="40">
         <v>2040</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="40">
         <v>2050</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="40">
         <v>2060</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="36">
+      <c r="A31" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="39">
         <v>9.0692000334624094E-3</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="39">
         <v>5.1350318772354832E-2</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="39">
         <v>0.31707111991587944</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="39">
         <v>0.43250423067250798</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="39">
         <v>0.30164318885759717</v>
       </c>
-      <c r="G31" s="36">
-        <v>0</v>
-      </c>
-      <c r="H31" s="36">
+      <c r="G31" s="39">
+        <v>0</v>
+      </c>
+      <c r="H31" s="39">
         <v>0.25314566757024587</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="39">
         <v>1.6159505949355208</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="39">
         <v>1.3631258357215936</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="39">
         <v>1.1836798147928469</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="36">
+      <c r="A32" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="39">
         <v>8.8736984598062219E-5</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="39">
         <v>7.9464429838640188E-2</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="39">
         <v>0.51275504235816094</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="39">
         <v>0.67066035375720856</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="39">
         <v>0.29118624343037608</v>
       </c>
-      <c r="G32" s="36">
-        <v>0</v>
-      </c>
-      <c r="H32" s="36">
+      <c r="G32" s="39">
+        <v>0</v>
+      </c>
+      <c r="H32" s="39">
         <v>7.2967083539768385E-2</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="39">
         <v>0.51828833623970194</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="39">
         <v>1.0630754575373591</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="39">
         <v>1.7581577119173859</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="36">
-        <v>0</v>
-      </c>
-      <c r="C33" s="36">
+      <c r="A33" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="39">
+        <v>0</v>
+      </c>
+      <c r="C33" s="39">
         <v>1.9310766910432609E-3</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="39">
         <v>6.3908335644987324E-2</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="39">
         <v>0.43555033858482695</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="39">
         <v>0.83998846288335016</v>
       </c>
-      <c r="G33" s="36">
-        <v>0</v>
-      </c>
-      <c r="H33" s="36">
+      <c r="G33" s="39">
+        <v>0</v>
+      </c>
+      <c r="H33" s="39">
         <v>1.0989011883988391E-2</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="39">
         <v>0.18918889400984115</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="39">
         <v>0.73816487009111909</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="39">
         <v>1.3736678542573124</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
-        <v>79</v>
+      <c r="A35" s="38" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A36" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="33"/>
+      <c r="A36" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
+      <c r="A37" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35">
         <v>2014</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="35">
         <v>2015</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="35">
         <v>2020</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="35">
         <v>2025</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="35">
         <v>2030</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="35">
         <v>2035</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="35">
         <v>2040</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="35">
         <v>2045</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="35">
         <v>2050</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="35">
         <v>2055</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="35">
         <v>2060</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="30">
-        <v>0</v>
-      </c>
-      <c r="C39" s="30">
-        <v>0</v>
-      </c>
-      <c r="D39" s="30">
-        <v>0</v>
-      </c>
-      <c r="E39" s="30">
+      <c r="A39" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="33">
+        <v>0</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0</v>
+      </c>
+      <c r="E39" s="33">
         <v>9.4041235044908286E-2</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="33">
         <v>0.19875544489630168</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="33">
         <v>0.23517493229217079</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="33">
         <v>0.38600636209402522</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="33">
         <v>0.52098845994441834</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="33">
         <v>0.65724216697011595</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="33">
         <v>0.65648081566706651</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="33">
         <v>0.74110405537417889</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="30">
-        <v>0</v>
-      </c>
-      <c r="C40" s="30">
-        <v>0</v>
-      </c>
-      <c r="D40" s="30">
+      <c r="A40" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="33">
+        <v>0</v>
+      </c>
+      <c r="C40" s="33">
+        <v>0</v>
+      </c>
+      <c r="D40" s="33">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="33">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="33">
         <v>9.6974692137267671E-2</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="33">
         <v>0.23715594352755537</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="33">
         <v>0.3511315333305714</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="33">
         <v>0.41745893995374145</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="33">
         <v>0.44203226671215384</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="33">
         <v>0.46148047621402866</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="33">
         <v>0.50590832725411927</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="30">
-        <v>0</v>
-      </c>
-      <c r="C41" s="30">
-        <v>0</v>
-      </c>
-      <c r="D41" s="30">
+      <c r="A41" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="33">
+        <v>0</v>
+      </c>
+      <c r="C41" s="33">
+        <v>0</v>
+      </c>
+      <c r="D41" s="33">
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="33">
         <v>0.19545034357588661</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="33">
         <v>0.22759059210128213</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="33">
         <v>0.23359443209375855</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="33">
         <v>0.23513238065241418</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="33">
         <v>0.22322462476598964</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="33">
         <v>0.24045024764053377</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="33">
         <v>0.27864135643363158</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="33">
         <v>0.28914007666781549</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="30">
-        <v>0</v>
-      </c>
-      <c r="C42" s="30">
-        <v>0</v>
-      </c>
-      <c r="D42" s="30">
+      <c r="A42" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="33">
+        <v>0</v>
+      </c>
+      <c r="C42" s="33">
+        <v>0</v>
+      </c>
+      <c r="D42" s="33">
         <v>1.5376939060841825E-4</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="33">
         <v>2.0968106357788581E-3</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="33">
         <v>3.7324232950562601E-3</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="33">
         <v>4.980874224401988E-3</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="33">
         <v>3.1726764386671349E-3</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="33">
         <v>3.2295440099746402E-5</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="33">
         <v>4.2133278740787309E-6</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="33">
         <v>2.8577172778101513E-5</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="33">
         <v>7.283691725614275E-5</v>
       </c>
     </row>
@@ -7181,8 +7449,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>99</v>
+      <c r="A1" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7218,65 +7486,65 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="49">
         <f t="shared" ref="B3:G3" si="0">D23/D25</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="49">
         <f t="shared" si="0"/>
         <v>0.18309937593197775</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="49">
         <f t="shared" si="0"/>
         <v>0.33562779707770829</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="49">
         <f t="shared" si="0"/>
         <v>0.41029460344152446</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="49">
         <f t="shared" si="0"/>
         <v>0.43562759311159638</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="49">
         <f t="shared" si="0"/>
         <v>0.37730512812328371</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="49">
         <f t="shared" ref="B4:G4" si="1">SUM(D22,D24)/D25</f>
         <v>0.95506356699399775</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="49">
         <f t="shared" si="1"/>
         <v>0.81690062406802222</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="49">
         <f t="shared" si="1"/>
         <v>0.66437220292229171</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="49">
         <f t="shared" si="1"/>
         <v>0.58970539655847543</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="49">
         <f t="shared" si="1"/>
         <v>0.56437240688840373</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="49">
         <f t="shared" si="1"/>
         <v>0.62269487187671635</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>98</v>
+      <c r="A6" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7309,29 +7577,29 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="45">
+        <v>188</v>
+      </c>
+      <c r="B8" s="48">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
         <v>0.29900648346859349</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="48">
         <f t="shared" si="2"/>
         <v>0.30366522968423609</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="48">
         <f t="shared" si="2"/>
         <v>0.2325252012134289</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="48">
         <f t="shared" si="2"/>
         <v>0.23905776935811326</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="48">
         <f t="shared" si="2"/>
         <v>0.2459021549943784</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="48">
         <f t="shared" si="2"/>
         <v>0.2585937965046165</v>
       </c>
@@ -7339,87 +7607,87 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="46">
+        <v>187</v>
+      </c>
+      <c r="B9" s="49">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
         <v>7.0343727016078286E-2</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="49">
         <f t="shared" si="3"/>
         <v>0.19475053037197726</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="49">
         <f t="shared" si="3"/>
         <v>0.29710364351198437</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="49">
         <f t="shared" si="3"/>
         <v>0.39589799738148052</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="49">
         <f t="shared" si="3"/>
         <v>0.45168536782870344</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="49">
         <f t="shared" si="3"/>
         <v>0.47287986290994544</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="45">
+        <v>186</v>
+      </c>
+      <c r="B10" s="48">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
         <v>2.5436202178825617E-3</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="48">
         <f t="shared" si="4"/>
         <v>0.14816118459942337</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="48">
         <f t="shared" si="4"/>
         <v>0.23448389226788868</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="48">
         <f t="shared" si="4"/>
         <v>0.21745942386528264</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="48">
         <f t="shared" si="4"/>
         <v>0.19703709553805757</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="48">
         <f t="shared" si="4"/>
         <v>0.17391885026730866</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="46">
+        <v>185</v>
+      </c>
+      <c r="B11" s="49">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
         <v>0.62143930688964777</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="49">
         <f t="shared" si="5"/>
         <v>0.34772053394796387</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="49">
         <f t="shared" si="5"/>
         <v>0.23096250861234377</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="49">
         <f t="shared" si="5"/>
         <v>0.14561993775879004</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="49">
         <f t="shared" si="5"/>
         <v>0.10536013846376642</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="49">
         <f t="shared" si="5"/>
         <v>9.4605832572315834E-2</v>
       </c>
@@ -7429,8 +7697,8 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
-        <v>93</v>
+      <c r="A13" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7458,620 +7726,620 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="46">
+        <v>183</v>
+      </c>
+      <c r="B15" s="49">
         <f>G31</f>
         <v>0</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="49">
         <f t="shared" ref="C15:E17" si="6">H31/SUM(H31:H33)</f>
         <v>0.75094732617802884</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="49">
         <f t="shared" si="6"/>
         <v>0.69550281589091678</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="49">
         <f t="shared" si="6"/>
         <v>0.43077373646242967</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="46">
+        <v>182</v>
+      </c>
+      <c r="B16" s="49">
         <f>G32</f>
         <v>0</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="49">
         <f t="shared" si="6"/>
         <v>0.86911001722361103</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="49">
         <f t="shared" si="6"/>
         <v>0.73258659654232261</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="49">
         <f t="shared" si="6"/>
         <v>0.59019079310588696</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="46">
+        <v>181</v>
+      </c>
+      <c r="B17" s="49">
         <f>G33</f>
         <v>0</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="49">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
       <c r="I17" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43">
+      <c r="A21" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46">
         <v>2014</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="46">
         <v>2025</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="46">
         <v>2030</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="46">
         <v>2035</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="46">
         <v>2040</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="46">
         <v>2045</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="46">
         <v>2050</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="46">
         <v>2055</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="46">
         <v>2060</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="41">
-        <v>0</v>
-      </c>
-      <c r="D22" s="41">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="44">
+        <v>0</v>
+      </c>
+      <c r="D22" s="44">
         <v>617.46579618378519</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="44">
         <v>1081.7934339086667</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="44">
         <v>1514.8251281587777</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="44">
         <v>1927.6720378022803</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="44">
         <v>2198.1141550802454</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="44">
         <v>2676.6122372335317</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="44">
         <v>2950.0831196290765</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="44">
         <v>3224.4254691476872</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="41">
-        <v>0</v>
-      </c>
-      <c r="D23" s="41">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0</v>
+      </c>
+      <c r="D23" s="44">
         <v>30.093162117441675</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="44">
         <v>271.04287232984956</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="44">
         <v>917.06120698826567</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="44">
         <v>1785.9710678442866</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="44">
         <v>2435.3512473822343</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="44">
         <v>2350.0625653690722</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="44">
         <v>2648.502745099659</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="44">
         <v>3279.952284652592</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="41">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0</v>
+      </c>
+      <c r="D24" s="44">
         <v>22.123971659459748</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="44">
         <v>127.4684241858147</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="44">
         <v>300.48927549386389</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="44">
         <v>639.25613520056368</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="44">
         <v>956.97764084208234</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="44">
         <v>1201.8717773452677</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="44">
         <v>1637.288722767227</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="44">
         <v>1812.7160215516324</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="41"/>
-      <c r="B25" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="39">
-        <v>0</v>
-      </c>
-      <c r="D25" s="39">
+      <c r="A25" s="44"/>
+      <c r="B25" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="42">
+        <v>0</v>
+      </c>
+      <c r="D25" s="42">
         <v>669.68292996068658</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="42">
         <v>1480.304730424331</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="42">
         <v>2732.3756106409073</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="42">
         <v>4352.8992408471313</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="42">
         <v>5590.4430433045618</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="42">
         <v>6228.5465799478716</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="42">
         <v>7235.8745874959623</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="42">
         <v>8317.093775351912</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>83</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="31"/>
-      <c r="B29" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="32"/>
-      <c r="B30" s="37">
+      <c r="A30" s="35"/>
+      <c r="B30" s="40">
         <v>2020</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="40">
         <v>2030</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="40">
         <v>2040</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="40">
         <v>2050</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="40">
         <v>2060</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="40">
         <v>2020</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="40">
         <v>2030</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="40">
         <v>2040</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="40">
         <v>2050</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="40">
         <v>2060</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="36">
+      <c r="A31" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="39">
         <v>9.0692000334624094E-3</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="39">
         <v>5.1350318772354832E-2</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="39">
         <v>0.31707111991587944</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="39">
         <v>0.43250423067250798</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="39">
         <v>0.30164318885759717</v>
       </c>
-      <c r="G31" s="36">
-        <v>0</v>
-      </c>
-      <c r="H31" s="36">
+      <c r="G31" s="39">
+        <v>0</v>
+      </c>
+      <c r="H31" s="39">
         <v>0.25314566757024587</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="39">
         <v>1.6159505949355208</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="39">
         <v>1.3631258357215936</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="39">
         <v>1.1836798147928469</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="36">
+      <c r="A32" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="39">
         <v>8.8736984598062219E-5</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="39">
         <v>7.9464429838640188E-2</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="39">
         <v>0.51275504235816094</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="39">
         <v>0.67066035375720856</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="39">
         <v>0.29118624343037608</v>
       </c>
-      <c r="G32" s="36">
-        <v>0</v>
-      </c>
-      <c r="H32" s="36">
+      <c r="G32" s="39">
+        <v>0</v>
+      </c>
+      <c r="H32" s="39">
         <v>7.2967083539768385E-2</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="39">
         <v>0.51828833623970194</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="39">
         <v>1.0630754575373591</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="39">
         <v>1.7581577119173859</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="36">
-        <v>0</v>
-      </c>
-      <c r="C33" s="36">
+      <c r="A33" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="39">
+        <v>0</v>
+      </c>
+      <c r="C33" s="39">
         <v>1.9310766910432609E-3</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="39">
         <v>6.3908335644987324E-2</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="39">
         <v>0.43555033858482695</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="39">
         <v>0.83998846288335016</v>
       </c>
-      <c r="G33" s="36">
-        <v>0</v>
-      </c>
-      <c r="H33" s="36">
+      <c r="G33" s="39">
+        <v>0</v>
+      </c>
+      <c r="H33" s="39">
         <v>1.0989011883988391E-2</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="39">
         <v>0.18918889400984115</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="39">
         <v>0.73816487009111909</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="39">
         <v>1.3736678542573124</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
-        <v>79</v>
+      <c r="A35" s="38" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A36" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="33"/>
+      <c r="A36" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
+      <c r="A37" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35">
         <v>2014</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="35">
         <v>2015</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="35">
         <v>2020</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="35">
         <v>2025</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="35">
         <v>2030</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="35">
         <v>2035</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="35">
         <v>2040</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="35">
         <v>2045</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="35">
         <v>2050</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="35">
         <v>2055</v>
       </c>
-      <c r="L38" s="32">
+      <c r="L38" s="35">
         <v>2060</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="30">
-        <v>0</v>
-      </c>
-      <c r="C39" s="30">
-        <v>0</v>
-      </c>
-      <c r="D39" s="30">
-        <v>0</v>
-      </c>
-      <c r="E39" s="30">
+      <c r="A39" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="33">
+        <v>0</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0</v>
+      </c>
+      <c r="E39" s="33">
         <v>9.4041235044908286E-2</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="33">
         <v>0.19875544489630168</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="33">
         <v>0.23517493229217079</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="33">
         <v>0.38600636209402522</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="33">
         <v>0.52098845994441834</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="33">
         <v>0.65724216697011595</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="33">
         <v>0.65648081566706651</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="33">
         <v>0.74110405537417889</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="30">
-        <v>0</v>
-      </c>
-      <c r="C40" s="30">
-        <v>0</v>
-      </c>
-      <c r="D40" s="30">
+      <c r="A40" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="33">
+        <v>0</v>
+      </c>
+      <c r="C40" s="33">
+        <v>0</v>
+      </c>
+      <c r="D40" s="33">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="33">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="33">
         <v>9.6974692137267671E-2</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="33">
         <v>0.23715594352755537</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="33">
         <v>0.3511315333305714</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="33">
         <v>0.41745893995374145</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="33">
         <v>0.44203226671215384</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="33">
         <v>0.46148047621402866</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="33">
         <v>0.50590832725411927</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="30">
-        <v>0</v>
-      </c>
-      <c r="C41" s="30">
-        <v>0</v>
-      </c>
-      <c r="D41" s="30">
+      <c r="A41" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="33">
+        <v>0</v>
+      </c>
+      <c r="C41" s="33">
+        <v>0</v>
+      </c>
+      <c r="D41" s="33">
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="33">
         <v>0.19545034357588661</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="33">
         <v>0.22759059210128213</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="33">
         <v>0.23359443209375855</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="33">
         <v>0.23513238065241418</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="33">
         <v>0.22322462476598964</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="33">
         <v>0.24045024764053377</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="33">
         <v>0.27864135643363158</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="33">
         <v>0.28914007666781549</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A42" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="30">
-        <v>0</v>
-      </c>
-      <c r="C42" s="30">
-        <v>0</v>
-      </c>
-      <c r="D42" s="30">
+      <c r="A42" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="33">
+        <v>0</v>
+      </c>
+      <c r="C42" s="33">
+        <v>0</v>
+      </c>
+      <c r="D42" s="33">
         <v>1.5376939060841825E-4</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="33">
         <v>2.0968106357788581E-3</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="33">
         <v>3.7324232950562601E-3</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="33">
         <v>4.980874224401988E-3</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="33">
         <v>3.1726764386671349E-3</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="33">
         <v>3.2295440099746402E-5</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="33">
         <v>4.2133278740787309E-6</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="33">
         <v>2.8577172778101513E-5</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="33">
         <v>7.283691725614275E-5</v>
       </c>
     </row>
@@ -8082,10 +8350,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8114,107 +8382,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.65" x14ac:dyDescent="0.45">
-      <c r="B1" s="27">
+      <c r="B1" s="30">
         <v>2012</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="30">
         <v>2017</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="30">
         <v>2022</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="30">
         <v>2027</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="30">
         <v>2032</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="30">
         <v>2037</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="30">
         <v>2042</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="30">
         <v>2047</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>61</v>
+      <c r="M1" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="A2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
         <v>1</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="28">
         <v>5</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="28">
         <v>15</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="28">
         <v>20</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="28">
         <v>30</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="28">
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="24">
+        <v>151</v>
+      </c>
+      <c r="L2" s="27">
         <v>2012</v>
       </c>
-      <c r="M2" s="23">
-        <v>0</v>
-      </c>
-      <c r="N2" s="23">
+      <c r="M2" s="26">
+        <v>0</v>
+      </c>
+      <c r="N2" s="26">
         <f t="shared" ref="N2:N9" si="0">M2*$B$17</f>
         <v>0</v>
       </c>
-      <c r="O2" s="23">
-        <v>0</v>
-      </c>
-      <c r="P2" s="23">
+      <c r="O2" s="26">
+        <v>0</v>
+      </c>
+      <c r="P2" s="26">
         <f t="shared" ref="P2:P9" si="1">O2*$B$17</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="23">
-        <v>0</v>
-      </c>
-      <c r="R2" s="23">
+      <c r="Q2" s="26">
+        <v>0</v>
+      </c>
+      <c r="R2" s="26">
         <f t="shared" ref="R2:R9" si="2">Q2*$B$17</f>
         <v>0</v>
       </c>
@@ -8227,63 +8495,63 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28">
         <f t="shared" ref="B3:I3" si="4">B2*1000</f>
         <v>0</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="28">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="28">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="28">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="28">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="28">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="28">
         <f t="shared" si="4"/>
         <v>35000</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="24">
+        <v>150</v>
+      </c>
+      <c r="L3" s="27">
         <v>2017</v>
       </c>
-      <c r="M3" s="23">
-        <v>0</v>
-      </c>
-      <c r="N3" s="23">
+      <c r="M3" s="26">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="23">
-        <v>0</v>
-      </c>
-      <c r="P3" s="23">
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="26">
         <v>3000</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="26">
         <f t="shared" si="2"/>
         <v>23690563.339058191</v>
       </c>
@@ -8296,54 +8564,54 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="25">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="A4" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="28">
         <v>2</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="28">
         <v>5</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="28">
         <v>7</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="28">
         <v>8</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="27">
         <v>2022</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="26">
         <v>1000</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="26">
         <f t="shared" si="0"/>
         <v>7896854.4463527296</v>
       </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23">
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="26">
         <v>15000</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="26">
         <f t="shared" si="2"/>
         <v>118452816.69529094</v>
       </c>
@@ -8356,63 +8624,63 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28">
         <f t="shared" ref="B5:I5" si="5">B4*1000</f>
         <v>0</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="28">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="28">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="28">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="28">
         <f t="shared" si="5"/>
         <v>7000</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="28">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="24">
+        <v>150</v>
+      </c>
+      <c r="L5" s="27">
         <v>2027</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="26">
         <v>5000</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="26">
         <f t="shared" si="0"/>
         <v>39484272.231763646</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="26">
         <v>1000</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="26">
         <f t="shared" si="1"/>
         <v>7896854.4463527296</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="26">
         <v>30000</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="26">
         <f t="shared" si="2"/>
         <v>236905633.39058188</v>
       </c>
@@ -8425,54 +8693,54 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="25">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="A6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
         <v>3</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="28">
         <v>15</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="28">
         <v>30</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="28">
         <v>40</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="28">
         <v>55</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="28">
         <v>70</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="28">
         <v>80</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="27">
         <v>2032</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="26">
         <v>15000</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="26">
         <f t="shared" si="0"/>
         <v>118452816.69529094</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="26">
         <v>2000</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="26">
         <f t="shared" si="1"/>
         <v>15793708.892705459</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="26">
         <v>40000</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="26">
         <f t="shared" si="2"/>
         <v>315874177.85410917</v>
       </c>
@@ -8485,63 +8753,63 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28">
         <f t="shared" ref="B7:I7" si="6">B6*1000</f>
         <v>0</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="28">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="28">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="28">
         <f t="shared" si="6"/>
         <v>30000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="28">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="28">
         <f t="shared" si="6"/>
         <v>55000</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="28">
         <f t="shared" si="6"/>
         <v>70000</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="28">
         <f t="shared" si="6"/>
         <v>80000</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="24">
+        <v>150</v>
+      </c>
+      <c r="L7" s="27">
         <v>2037</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="26">
         <v>20000</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="26">
         <f t="shared" si="0"/>
         <v>157937088.92705458</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="26">
         <v>5000</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="26">
         <f t="shared" si="1"/>
         <v>39484272.231763646</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="26">
         <v>55000</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="26">
         <f t="shared" si="2"/>
         <v>434326994.54940015</v>
       </c>
@@ -8554,54 +8822,54 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="A8" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28">
         <v>5</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="28">
         <v>30</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="28">
         <v>45</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="28">
         <v>60</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="28">
         <v>70</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="28">
         <v>85</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="28">
         <v>90</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="27">
         <v>2042</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="26">
         <v>30000</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="26">
         <f t="shared" si="0"/>
         <v>236905633.39058188</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="26">
         <v>7000</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="26">
         <f t="shared" si="1"/>
         <v>55277981.124469109</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="26">
         <v>70000</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="26">
         <f t="shared" si="2"/>
         <v>552779811.24469101</v>
       </c>
@@ -8614,63 +8882,63 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28">
         <f t="shared" ref="B9:I9" si="7">B8*1000</f>
         <v>0</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="28">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="28">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="28">
         <f t="shared" si="7"/>
         <v>45000</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="28">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="28">
         <f t="shared" si="7"/>
         <v>70000</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="28">
         <f t="shared" si="7"/>
         <v>85000</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="28">
         <f t="shared" si="7"/>
         <v>90000</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="24">
+        <v>150</v>
+      </c>
+      <c r="L9" s="27">
         <v>2047</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="26">
         <v>35000</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="26">
         <f t="shared" si="0"/>
         <v>276389905.62234551</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="26">
         <v>8000</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="26">
         <f t="shared" si="1"/>
         <v>63174835.570821837</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="26">
         <v>80000</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="26">
         <f t="shared" si="2"/>
         <v>631748355.70821834</v>
       </c>
@@ -8684,34 +8952,34 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B13">
         <v>395.1</v>
@@ -8728,7 +8996,7 @@
     </row>
     <row r="14" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>3.29</v>
@@ -8745,7 +9013,7 @@
     </row>
     <row r="15" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <f>B14*10^6</f>
@@ -8766,55 +9034,55 @@
     </row>
     <row r="16" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="20">
+        <v>139</v>
+      </c>
+      <c r="B16" s="23">
         <f>B15/B13</f>
         <v>8327.0058213110606</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="23">
         <f>C15/C13</f>
         <v>6555.090655509066</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="23">
         <f>D15/D13</f>
         <v>8072.4876441515653</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="23">
         <f>E15/E13</f>
         <v>8632.8336644392257</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="22">
+        <v>138</v>
+      </c>
+      <c r="B17" s="25">
         <f>AVERAGE(B16:E16)</f>
         <v>7896.8544463527296</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="22"/>
+      <c r="A18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:40" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="21" t="s">
-        <v>45</v>
+      <c r="A19" s="24" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>2012</v>
       </c>
       <c r="C22">
@@ -8833,7 +9101,7 @@
         <f t="shared" si="8"/>
         <v>2016</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="12">
         <f t="shared" si="8"/>
         <v>2017</v>
       </c>
@@ -8853,7 +9121,7 @@
         <f t="shared" si="8"/>
         <v>2021</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="12">
         <f t="shared" si="8"/>
         <v>2022</v>
       </c>
@@ -8873,7 +9141,7 @@
         <f t="shared" si="8"/>
         <v>2026</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="12">
         <f t="shared" si="8"/>
         <v>2027</v>
       </c>
@@ -8893,7 +9161,7 @@
         <f t="shared" si="8"/>
         <v>2031</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V22" s="12">
         <f t="shared" si="8"/>
         <v>2032</v>
       </c>
@@ -8913,7 +9181,7 @@
         <f t="shared" si="8"/>
         <v>2036</v>
       </c>
-      <c r="AA22" s="11">
+      <c r="AA22" s="12">
         <f t="shared" si="8"/>
         <v>2037</v>
       </c>
@@ -8933,7 +9201,7 @@
         <f t="shared" si="8"/>
         <v>2041</v>
       </c>
-      <c r="AF22" s="11">
+      <c r="AF22" s="12">
         <f t="shared" si="8"/>
         <v>2042</v>
       </c>
@@ -8953,7 +9221,7 @@
         <f t="shared" si="8"/>
         <v>2046</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AK22" s="12">
         <f t="shared" si="8"/>
         <v>2047</v>
       </c>
@@ -8972,9 +9240,9 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="11">
+        <v>134</v>
+      </c>
+      <c r="B23" s="12">
         <f>N2</f>
         <v>0</v>
       </c>
@@ -8994,7 +9262,7 @@
         <f>FORECAST(F22,$N$2:$N$3,$L$2:$L$3)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="12">
         <f>N3</f>
         <v>0</v>
       </c>
@@ -9014,7 +9282,7 @@
         <f>FORECAST(K22,$N$3:$N$4,$L$3:$L$4)</f>
         <v>6317483.5570821762</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="12">
         <f>N4</f>
         <v>7896854.4463527296</v>
       </c>
@@ -9034,7 +9302,7 @@
         <f>FORECAST(P22,$N$4:$N$5,$L$4:$L$5)</f>
         <v>33166788.67468071</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="12">
         <f>N5</f>
         <v>39484272.231763646</v>
       </c>
@@ -9054,7 +9322,7 @@
         <f>FORECAST(U22,$N$5:$N$6,$L$5:$L$6)</f>
         <v>102659107.80258942</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="12">
         <f>N6</f>
         <v>118452816.69529094</v>
       </c>
@@ -9074,7 +9342,7 @@
         <f>FORECAST(Z22,$N$6:$N$7,$L$6:$L$7)</f>
         <v>150040234.48070145</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AA23" s="12">
         <f>N7</f>
         <v>157937088.92705458</v>
       </c>
@@ -9094,7 +9362,7 @@
         <f>FORECAST(AE22,$N$7:$N$8,$L$7:$L$8)</f>
         <v>221111924.49787521</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AF23" s="12">
         <f>N8</f>
         <v>236905633.39058188</v>
       </c>
@@ -9114,7 +9382,7 @@
         <f>FORECAST(AJ22,$N$8:$N$9,$L$8:$L$9)</f>
         <v>268493051.17599297</v>
       </c>
-      <c r="AK23" s="11">
+      <c r="AK23" s="12">
         <f>N9</f>
         <v>276389905.62234551</v>
       </c>
@@ -9133,9 +9401,9 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="11">
+        <v>133</v>
+      </c>
+      <c r="B24" s="12">
         <f>P2</f>
         <v>0</v>
       </c>
@@ -9155,7 +9423,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -9175,7 +9443,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -9195,7 +9463,7 @@
         <f>FORECAST(P22,$P$4:$P$5,$L$4:$L$5)</f>
         <v>6317483.5570821762</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="12">
         <f>P5</f>
         <v>7896854.4463527296</v>
       </c>
@@ -9215,7 +9483,7 @@
         <f>FORECAST(U22,$P$5:$P$6,$L$5:$L$6)</f>
         <v>14214338.003434658</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="12">
         <f>P6</f>
         <v>15793708.892705459</v>
       </c>
@@ -9235,7 +9503,7 @@
         <f>FORECAST(Z22,$P$6:$P$7,$L$6:$L$7)</f>
         <v>34746159.563951492</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AA24" s="12">
         <f>P7</f>
         <v>39484272.231763646</v>
       </c>
@@ -9255,7 +9523,7 @@
         <f>FORECAST(AE22,$P$7:$P$8,$L$7:$L$8)</f>
         <v>52119239.345928192</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AF24" s="12">
         <f>P8</f>
         <v>55277981.124469109</v>
       </c>
@@ -9275,7 +9543,7 @@
         <f>FORECAST(AJ22,$P$8:$P$9,$L$8:$L$9)</f>
         <v>61595464.68155098</v>
       </c>
-      <c r="AK24" s="11">
+      <c r="AK24" s="12">
         <f>P9</f>
         <v>63174835.570821837</v>
       </c>
@@ -9294,9 +9562,9 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="11">
+        <v>132</v>
+      </c>
+      <c r="B25" s="12">
         <f>R2</f>
         <v>0</v>
       </c>
@@ -9316,7 +9584,7 @@
         <f>FORECAST(F22,$R$2:$R$3,$L$2:$L$3)</f>
         <v>18952450.671247482</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="12">
         <f>R3</f>
         <v>23690563.339058191</v>
       </c>
@@ -9336,7 +9604,7 @@
         <f>FORECAST(K22,$R$3:$R$4,$L$3:$L$4)</f>
         <v>99500366.024040222</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="12">
         <f>R4</f>
         <v>118452816.69529094</v>
       </c>
@@ -9356,7 +9624,7 @@
         <f>FORECAST(P22,$R$4:$R$5,$L$4:$L$5)</f>
         <v>213215070.0515213</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="12">
         <f>R5</f>
         <v>236905633.39058188</v>
       </c>
@@ -9376,7 +9644,7 @@
         <f>FORECAST(U22,$R$5:$R$6,$L$5:$L$6)</f>
         <v>300080468.96140671</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V25" s="12">
         <f>R6</f>
         <v>315874177.85410917</v>
       </c>
@@ -9396,7 +9664,7 @@
         <f>FORECAST(Z22,$R$6:$R$7,$L$6:$L$7)</f>
         <v>410636431.21034241</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA25" s="12">
         <f>R7</f>
         <v>434326994.54940015</v>
       </c>
@@ -9416,7 +9684,7 @@
         <f>FORECAST(AE22,$R$7:$R$8,$L$7:$L$8)</f>
         <v>529089247.90563965</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AF25" s="12">
         <f>R8</f>
         <v>552779811.24469101</v>
       </c>
@@ -9436,7 +9704,7 @@
         <f>FORECAST(AJ22,$R$8:$R$9,$L$8:$L$9)</f>
         <v>615954646.81551361</v>
       </c>
-      <c r="AK25" s="11">
+      <c r="AK25" s="12">
         <f>R9</f>
         <v>631748355.70821834</v>
       </c>
@@ -9455,9 +9723,9 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="11">
+        <v>131</v>
+      </c>
+      <c r="B26" s="12">
         <f>T2</f>
         <v>0</v>
       </c>
@@ -9477,7 +9745,7 @@
         <f>FORECAST(F22,$T$2:$T$3,$L$2:$L$3)</f>
         <v>31587417.785409927</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="12">
         <f>T3</f>
         <v>39484272.231763646</v>
       </c>
@@ -9497,7 +9765,7 @@
         <f>FORECAST(K22,$T$3:$T$4,$L$3:$L$4)</f>
         <v>197421361.15882874</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="12">
         <f>T4</f>
         <v>236905633.39058188</v>
       </c>
@@ -9517,7 +9785,7 @@
         <f>FORECAST(P22,$T$4:$T$5,$L$4:$L$5)</f>
         <v>331667886.74681091</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="12">
         <f>T5</f>
         <v>355358450.08587283</v>
       </c>
@@ -9537,7 +9805,7 @@
         <f>FORECAST(U22,$T$5:$T$6,$L$5:$L$6)</f>
         <v>450120703.44210052</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="12">
         <f>T6</f>
         <v>473811266.78116375</v>
       </c>
@@ -9557,7 +9825,7 @@
         <f>FORECAST(Z22,$T$6:$T$7,$L$6:$L$7)</f>
         <v>536986102.35198593</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA26" s="12">
         <f>T7</f>
         <v>552779811.24469101</v>
       </c>
@@ -9577,7 +9845,7 @@
         <f>FORECAST(AE22,$T$7:$T$8,$L$7:$L$8)</f>
         <v>647542064.60092926</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AF26" s="12">
         <f>T8</f>
         <v>671232627.93998206</v>
       </c>
@@ -9597,7 +9865,7 @@
         <f>FORECAST(AJ22,$T$8:$T$9,$L$8:$L$9)</f>
         <v>702820045.7253933</v>
       </c>
-      <c r="AK26" s="11">
+      <c r="AK26" s="12">
         <f>T9</f>
         <v>710716900.17174566</v>
       </c>
@@ -9616,7 +9884,7 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <f t="shared" ref="E27:AN27" si="11">E24</f>
@@ -9761,119 +10029,6 @@
       <c r="AN27">
         <f t="shared" si="11"/>
         <v>63174835.570821837</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="K28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="M28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="N28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="O28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AE28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AF28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AG28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AH28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AI28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AJ28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AK28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AL28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AM28" s="20" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AN28" s="20" t="e">
-        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -9884,48 +10039,995 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI78"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="52.9296875" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="86.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" ref="I8:I13" si="0">E8</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2009</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="12">
+        <v>190000</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2003</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12">
+        <v>350000</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="12">
+        <v>250000</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="12">
+        <v>4000000</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <f>E15</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="12">
+        <v>500000</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1400000</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" ref="I17:I25" si="1">E17</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2012</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="12">
+        <v>100000</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2026</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2025</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="13">
+        <f>4000000/7</f>
+        <v>571428.57142857148</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2010</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="12">
+        <v>8400000</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2009</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="13">
+        <f>4700000/6</f>
+        <v>783333.33333333337</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1982</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="12">
+        <v>700000</v>
+      </c>
+      <c r="I27" s="12">
+        <f>E27</f>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="12">
+        <v>900000</v>
+      </c>
+      <c r="I28" s="12">
+        <f>E28</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3400000</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="13">
+        <f>1100000/6</f>
+        <v>183333.33333333334</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" ref="I30:I36" si="2">E30</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1986</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="12">
+        <v>7000000</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="2"/>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="12">
+        <v>200000</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1972</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="12">
+        <v>450000</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="2"/>
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2025</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2022</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1625000</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A7:H36"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="29"/>
+        <v>160</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="C3" s="29"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="29"/>
+        <v>191</v>
+      </c>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2018</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="32">
         <v>2019</v>
       </c>
       <c r="D5">
@@ -10024,293 +11126,293 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="12">
+        <v>122</v>
+      </c>
+      <c r="B6" s="14">
         <f t="shared" ref="B6" si="0">C6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="14">
         <f t="shared" ref="C6" si="1">D6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <f t="shared" ref="D6" si="2">E6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <f t="shared" ref="E6" si="3">F6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <f t="shared" ref="F6" si="4">G6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <f t="shared" ref="G6" si="5">H6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="14">
         <f>I6</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="14">
         <f>IF(Region="OECD",'Data OECD'!B3,'Data NonOECD'!B3)</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="14">
         <f>$N6+($S6-$N6)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(J$1)-COLUMN($N$1))</f>
         <v>6.1076639015393328E-2</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="14">
         <f t="shared" ref="K6:M6" si="6">$N6+($S6-$N6)/(COLUMN($S$1)-COLUMN($N$1))*(COLUMN(K$1)-COLUMN($N$1))</f>
         <v>9.1582323244539438E-2</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="14">
         <f t="shared" si="6"/>
         <v>0.12208800747368553</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="14">
         <f t="shared" si="6"/>
         <v>0.15259369170283166</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="14">
         <f>IF(Region="OECD",'Data OECD'!C3,'Data NonOECD'!C3)</f>
         <v>0.18309937593197775</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="14">
         <f>$S6+($X6-$S6)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(O$1)-COLUMN($S$1))</f>
         <v>0.27589435198665535</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="14">
         <f t="shared" ref="P6:R6" si="7">$S6+($X6-$S6)/(COLUMN($X$1)-COLUMN($S$1))*(COLUMN(P$1)-COLUMN($S$1))</f>
         <v>0.29082771325941859</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="14">
         <f t="shared" si="7"/>
         <v>0.30576107453218182</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="14">
         <f t="shared" si="7"/>
         <v>0.32069443580494505</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="14">
         <f>IF(Region="OECD",'Data OECD'!D3,'Data NonOECD'!D3)</f>
         <v>0.33562779707770829</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="14">
         <f>$X6+($AC6-$X6)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(T$1)-COLUMN($X$1))</f>
         <v>0.39002821170546692</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="14">
         <f t="shared" ref="U6:W6" si="8">$X6+($AC6-$X6)/(COLUMN($AC$1)-COLUMN($X$1))*(COLUMN(U$1)-COLUMN($X$1))</f>
         <v>0.39509480963948129</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="14">
         <f t="shared" si="8"/>
         <v>0.40016140757349572</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="14">
         <f t="shared" si="8"/>
         <v>0.40522800550751009</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="14">
         <f>IF(Region="OECD",'Data OECD'!E3,'Data NonOECD'!E3)</f>
         <v>0.41029460344152446</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="14">
         <f>$AC6+($AH6-$AC6)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(Y$1)-COLUMN($AC$1))</f>
         <v>0.48228556510224652</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="14">
         <f t="shared" ref="Z6:AB6" si="9">$AC6+($AH6-$AC6)/(COLUMN($AH$1)-COLUMN($AC$1))*(COLUMN(Z$1)-COLUMN($AC$1))</f>
         <v>0.47062107210458398</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="14">
         <f t="shared" si="9"/>
         <v>0.45895657910692145</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="14">
         <f t="shared" si="9"/>
         <v>0.44729208610925891</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="14">
         <f>IF(Region="OECD",'Data OECD'!F3,'Data NonOECD'!F3)</f>
         <v>0.43562759311159638</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="14">
         <f>($AH$6-$AC$6)/5+AC6</f>
         <v>0.42396310011393384</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="14">
         <f t="shared" ref="AE6:AG6" si="10">($AH$6-$AC$6)/5+AD6</f>
         <v>0.41229860711627131</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="14">
         <f t="shared" si="10"/>
         <v>0.40063411411860878</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="14">
         <f t="shared" si="10"/>
         <v>0.38896962112094624</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="14">
         <f>IF(Region="OECD",'Data OECD'!G3,'Data NonOECD'!G3)</f>
         <v>0.37730512812328371</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12">
+        <v>123</v>
+      </c>
+      <c r="B7" s="14">
         <f>1-B6</f>
         <v>0.95506356699399775</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <f t="shared" ref="C7:AH7" si="11">1-C6</f>
         <v>0.95506356699399775</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="14">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="14">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="14">
         <f t="shared" si="11"/>
         <v>0.95506356699399775</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="14">
         <f t="shared" si="11"/>
         <v>0.93892336098460671</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="14">
         <f t="shared" si="11"/>
         <v>0.90841767675546059</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="14">
         <f t="shared" si="11"/>
         <v>0.87791199252631447</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="14">
         <f t="shared" si="11"/>
         <v>0.84740630829716834</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="14">
         <f t="shared" si="11"/>
         <v>0.81690062406802222</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="14">
         <f t="shared" si="11"/>
         <v>0.72410564801334465</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="14">
         <f t="shared" si="11"/>
         <v>0.70917228674058141</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="14">
         <f t="shared" si="11"/>
         <v>0.69423892546781818</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="14">
         <f t="shared" si="11"/>
         <v>0.67930556419505495</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="14">
         <f t="shared" si="11"/>
         <v>0.66437220292229171</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="14">
         <f t="shared" si="11"/>
         <v>0.60997178829453302</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="14">
         <f t="shared" si="11"/>
         <v>0.60490519036051871</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="14">
         <f t="shared" si="11"/>
         <v>0.59983859242650428</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="14">
         <f t="shared" si="11"/>
         <v>0.59477199449248985</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="14">
         <f t="shared" si="11"/>
         <v>0.58970539655847554</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="14">
         <f t="shared" si="11"/>
         <v>0.51771443489775348</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="14">
         <f t="shared" si="11"/>
         <v>0.52937892789541596</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="14">
         <f t="shared" si="11"/>
         <v>0.54104342089307855</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="14">
         <f t="shared" si="11"/>
         <v>0.55270791389074114</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AC7" s="14">
         <f t="shared" si="11"/>
         <v>0.56437240688840362</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AD7" s="14">
         <f t="shared" si="11"/>
         <v>0.5760368998860661</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="14">
         <f t="shared" si="11"/>
         <v>0.58770139288372869</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="14">
         <f t="shared" si="11"/>
         <v>0.59936588588139128</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AG7" s="14">
         <f t="shared" si="11"/>
         <v>0.61103037887905376</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="14">
         <f t="shared" si="11"/>
         <v>0.62269487187671624</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="C8" s="29"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="C9" s="29"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="C10" s="29"/>
+      <c r="C10" s="32"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
-        <v>28</v>
+      <c r="A11" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -10449,137 +11551,137 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12">
+        <v>109</v>
+      </c>
+      <c r="B13" s="14">
         <f>B6*'IESS data'!H$24</f>
         <v>0</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <f>C6*'IESS data'!I$24</f>
         <v>0</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <f>D6*'IESS data'!J$24</f>
         <v>0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <f>E6*'IESS data'!K$24</f>
         <v>0</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="14">
         <f>F6*'IESS data'!L$24</f>
         <v>0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="14">
         <f>G6*'IESS data'!M$24</f>
         <v>70971.294157325261</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="14">
         <f>H6*'IESS data'!N$24</f>
         <v>141942.58831467194</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="14">
         <f>I6*'IESS data'!O$24</f>
         <v>212913.8824719972</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="14">
         <f>J6*'IESS data'!P$24</f>
         <v>385850.66270159103</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="14">
         <f>K6*'IESS data'!Q$24</f>
         <v>723212.27652095421</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="14">
         <f>L6*'IESS data'!R$24</f>
         <v>1156933.4695979012</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="14">
         <f>M6*'IESS data'!S$24</f>
         <v>1687014.2419323989</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="14">
         <f>N6*'IESS data'!T$24</f>
         <v>2313454.5935245547</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="14">
         <f>O6*'IESS data'!U$24</f>
         <v>3921655.5723768934</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="14">
         <f>P6*'IESS data'!V$24</f>
         <v>4593248.2411504723</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="14">
         <f>Q6*'IESS data'!W$24</f>
         <v>6277831.822447083</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="14">
         <f>R6*'IESS data'!X$24</f>
         <v>8103927.3001819439</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="14">
         <f>S6*'IESS data'!Y$24</f>
         <v>10071534.674356382</v>
       </c>
-      <c r="T13" s="12">
+      <c r="T13" s="14">
         <f>T6*'IESS data'!Z$24</f>
         <v>13551982.478360808</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="14">
         <f>U6*'IESS data'!AA$24</f>
         <v>15600031.021162115</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="14">
         <f>V6*'IESS data'!AB$24</f>
         <v>17064088.509540111</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="14">
         <f>W6*'IESS data'!AC$24</f>
         <v>18560154.147056125</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="14">
         <f>X6*'IESS data'!AD$24</f>
         <v>20088227.933711011</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="14">
         <f>Y6*'IESS data'!AE$24</f>
         <v>25136356.80065022</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="14">
         <f>Z6*'IESS data'!AF$24</f>
         <v>26014982.740574609</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="14">
         <f>AA6*'IESS data'!AG$24</f>
         <v>26095055.777303733</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AB13" s="14">
         <f>AB6*'IESS data'!AH$24</f>
         <v>26138283.692676004</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AC13" s="14">
         <f>AC6*'IESS data'!AI$24</f>
         <v>26144666.486690842</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AD13" s="14">
         <f>AD6*'IESS data'!AJ$24</f>
         <v>26114204.159348674</v>
       </c>
-      <c r="AE13" s="12">
+      <c r="AE13" s="14">
         <f>AE6*'IESS data'!AK$24</f>
         <v>26046896.710649315</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AF13" s="14">
         <f>AF6*'IESS data'!AL$24</f>
         <v>25309994.283504982</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="14">
         <f>AG6*'IESS data'!AM$24</f>
         <v>24573091.856360648</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AH13" s="14">
         <f>AH6*'IESS data'!AN$24</f>
         <v>23836189.429216314</v>
       </c>
@@ -10587,400 +11689,400 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="12">
+        <v>108</v>
+      </c>
+      <c r="B14" s="14">
         <f>B7*'IESS data'!H$24</f>
         <v>0</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <f>C7*'IESS data'!I$24</f>
         <v>0</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="14">
         <f>D7*'IESS data'!J$24</f>
         <v>0</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="14">
         <f>E7*'IESS data'!K$24</f>
         <v>0</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <f>F7*'IESS data'!L$24</f>
         <v>0</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="14">
         <f>G7*'IESS data'!M$24</f>
         <v>1508399.5951129803</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="14">
         <f>H7*'IESS data'!N$24</f>
         <v>3016799.1902264161</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="14">
         <f>I7*'IESS data'!O$24</f>
         <v>4525198.7853393964</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="14">
         <f>J7*'IESS data'!P$24</f>
         <v>5931632.8943805853</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="14">
         <f>K7*'IESS data'!Q$24</f>
         <v>7173642.1698317761</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="14">
         <f>L7*'IESS data'!R$24</f>
         <v>8319291.8660253631</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="14">
         <f>M7*'IESS data'!S$24</f>
         <v>9368581.9829611704</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="14">
         <f>N7*'IESS data'!T$24</f>
         <v>10321512.520639798</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="14">
         <f>O7*'IESS data'!U$24</f>
         <v>10292682.431057764</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="14">
         <f>P7*'IESS data'!V$24</f>
         <v>11200460.651554987</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="14">
         <f>Q7*'IESS data'!W$24</f>
         <v>14253989.738071183</v>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="14">
         <f>R7*'IESS data'!X$24</f>
         <v>17166006.928146761</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="14">
         <f>S7*'IESS data'!Y$24</f>
         <v>19936512.22178467</v>
       </c>
-      <c r="T14" s="12">
+      <c r="T14" s="14">
         <f>T7*'IESS data'!Z$24</f>
         <v>21194177.085590683</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="14">
         <f>U7*'IESS data'!AA$24</f>
         <v>23884241.210601531</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="14">
         <f>V7*'IESS data'!AB$24</f>
         <v>25578925.500765294</v>
       </c>
-      <c r="W14" s="12">
+      <c r="W14" s="14">
         <f>W7*'IESS data'!AC$24</f>
         <v>27241601.641789887</v>
       </c>
-      <c r="X14" s="12">
+      <c r="X14" s="14">
         <f>X7*'IESS data'!AD$24</f>
         <v>28872269.63367657</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="14">
         <f>Y7*'IESS data'!AE$24</f>
         <v>26982882.545277972</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z14" s="14">
         <f>Z7*'IESS data'!AF$24</f>
         <v>29262998.383894496</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="14">
         <f>AA7*'IESS data'!AG$24</f>
         <v>30762296.236435376</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AB14" s="14">
         <f>AB7*'IESS data'!AH$24</f>
         <v>32298439.210333891</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AC14" s="14">
         <f>AC7*'IESS data'!AI$24</f>
         <v>33871427.305589356</v>
       </c>
-      <c r="AD14" s="12">
+      <c r="AD14" s="14">
         <f>AD7*'IESS data'!AJ$24</f>
         <v>35481260.522202305</v>
       </c>
-      <c r="AE14" s="12">
+      <c r="AE14" s="14">
         <f>AE7*'IESS data'!AK$24</f>
         <v>37127938.860172525</v>
       </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="14">
         <f>AF7*'IESS data'!AL$24</f>
         <v>37864841.287316859</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="14">
         <f>AG7*'IESS data'!AM$24</f>
         <v>38601743.714461192</v>
       </c>
-      <c r="AH14" s="12">
+      <c r="AH14" s="14">
         <f>AH7*'IESS data'!AN$24</f>
         <v>39338646.141605519</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
+        <v>192</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
+        <v>125</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
+        <v>127</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B22">
@@ -11085,863 +12187,863 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
+        <v>122</v>
+      </c>
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
         <f t="shared" ref="J23:AH23" si="12">TREND($G13:$AH13,$G$12:$AH$12,J$22)</f>
         <v>489789.42736721039</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="14">
         <f t="shared" si="12"/>
         <v>1735437.701789856</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="14">
         <f t="shared" si="12"/>
         <v>2981085.9762125015</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="14">
         <f t="shared" si="12"/>
         <v>4226734.2506351471</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="14">
         <f t="shared" si="12"/>
         <v>5472382.5250577927</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="14">
         <f t="shared" si="12"/>
         <v>6718030.7994804382</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="14">
         <f t="shared" si="12"/>
         <v>7963679.0739030838</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="14">
         <f t="shared" si="12"/>
         <v>9209327.3483257294</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="14">
         <f t="shared" si="12"/>
         <v>10454975.622748375</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="14">
         <f t="shared" si="12"/>
         <v>11700623.897171021</v>
       </c>
-      <c r="T23" s="12">
+      <c r="T23" s="14">
         <f t="shared" si="12"/>
         <v>12946272.171593666</v>
       </c>
-      <c r="U23" s="12">
+      <c r="U23" s="14">
         <f t="shared" si="12"/>
         <v>14191920.446016312</v>
       </c>
-      <c r="V23" s="12">
+      <c r="V23" s="14">
         <f t="shared" si="12"/>
         <v>15437568.720438957</v>
       </c>
-      <c r="W23" s="12">
+      <c r="W23" s="14">
         <f t="shared" si="12"/>
         <v>16683216.994861603</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="14">
         <f t="shared" si="12"/>
         <v>17928865.269284248</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Y23" s="14">
         <f t="shared" si="12"/>
         <v>19174513.543706417</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="Z23" s="14">
         <f t="shared" si="12"/>
         <v>20420161.818129063</v>
       </c>
-      <c r="AA23" s="12">
+      <c r="AA23" s="14">
         <f t="shared" si="12"/>
         <v>21665810.092551708</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AB23" s="14">
         <f t="shared" si="12"/>
         <v>22911458.366974354</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AC23" s="14">
         <f t="shared" si="12"/>
         <v>24157106.641396999</v>
       </c>
-      <c r="AD23" s="12">
+      <c r="AD23" s="14">
         <f t="shared" si="12"/>
         <v>25402754.915819645</v>
       </c>
-      <c r="AE23" s="12">
+      <c r="AE23" s="14">
         <f t="shared" si="12"/>
         <v>26648403.19024229</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AF23" s="14">
         <f t="shared" si="12"/>
         <v>27894051.464664936</v>
       </c>
-      <c r="AG23" s="12">
+      <c r="AG23" s="14">
         <f t="shared" si="12"/>
         <v>29139699.739087582</v>
       </c>
-      <c r="AH23" s="12">
+      <c r="AH23" s="14">
         <f t="shared" si="12"/>
         <v>30385348.013510227</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="12">
-        <v>0</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
+        <v>123</v>
+      </c>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
         <f>TREND($G14:$AH14,$G$12:$AH$12,G$22)</f>
         <v>1029812.0291905403</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="14">
         <f t="shared" ref="H24:AH24" si="13">TREND($G14:$AH14,$G$12:$AH$12,H$22)</f>
         <v>2518022.7790250778</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="14">
         <f t="shared" si="13"/>
         <v>4006233.5288600922</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="14">
         <f t="shared" si="13"/>
         <v>5494444.2786946297</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="14">
         <f t="shared" si="13"/>
         <v>6982655.0285291672</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="14">
         <f t="shared" si="13"/>
         <v>8470865.7783641815</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="14">
         <f t="shared" si="13"/>
         <v>9959076.528198719</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="14">
         <f t="shared" si="13"/>
         <v>11447287.278033257</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="14">
         <f t="shared" si="13"/>
         <v>12935498.027868271</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="14">
         <f t="shared" si="13"/>
         <v>14423708.777702808</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="14">
         <f t="shared" si="13"/>
         <v>15911919.527537346</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="14">
         <f t="shared" si="13"/>
         <v>17400130.27737236</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="14">
         <f t="shared" si="13"/>
         <v>18888341.027206898</v>
       </c>
-      <c r="T24" s="12">
+      <c r="T24" s="14">
         <f t="shared" si="13"/>
         <v>20376551.777041435</v>
       </c>
-      <c r="U24" s="12">
+      <c r="U24" s="14">
         <f t="shared" si="13"/>
         <v>21864762.526875973</v>
       </c>
-      <c r="V24" s="12">
+      <c r="V24" s="14">
         <f t="shared" si="13"/>
         <v>23352973.276710987</v>
       </c>
-      <c r="W24" s="12">
+      <c r="W24" s="14">
         <f t="shared" si="13"/>
         <v>24841184.026545525</v>
       </c>
-      <c r="X24" s="12">
+      <c r="X24" s="14">
         <f t="shared" si="13"/>
         <v>26329394.776380062</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="Y24" s="14">
         <f t="shared" si="13"/>
         <v>27817605.526215076</v>
       </c>
-      <c r="Z24" s="12">
+      <c r="Z24" s="14">
         <f t="shared" si="13"/>
         <v>29305816.276049614</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24" s="14">
         <f t="shared" si="13"/>
         <v>30794027.025884151</v>
       </c>
-      <c r="AB24" s="12">
+      <c r="AB24" s="14">
         <f t="shared" si="13"/>
         <v>32282237.775719166</v>
       </c>
-      <c r="AC24" s="12">
+      <c r="AC24" s="14">
         <f t="shared" si="13"/>
         <v>33770448.525553703</v>
       </c>
-      <c r="AD24" s="12">
+      <c r="AD24" s="14">
         <f t="shared" si="13"/>
         <v>35258659.275388241</v>
       </c>
-      <c r="AE24" s="12">
+      <c r="AE24" s="14">
         <f t="shared" si="13"/>
         <v>36746870.025223255</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AF24" s="14">
         <f t="shared" si="13"/>
         <v>38235080.775057793</v>
       </c>
-      <c r="AG24" s="12">
+      <c r="AG24" s="14">
         <f t="shared" si="13"/>
         <v>39723291.52489233</v>
       </c>
-      <c r="AH24" s="12">
+      <c r="AH24" s="14">
         <f t="shared" si="13"/>
         <v>41211502.274727345</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="14"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="12"/>
-      <c r="AF36" s="12"/>
-      <c r="AG36" s="12"/>
-      <c r="AH36" s="12"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
+      <c r="AH39" s="14"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
-      <c r="AG41" s="12"/>
-      <c r="AH41" s="12"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A43" s="14" t="s">
-        <v>27</v>
+      <c r="A43" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -11979,7 +13081,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B44">
         <v>2018</v>
@@ -12083,735 +13185,735 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="12">
+        <v>111</v>
+      </c>
+      <c r="B45" s="14">
         <v>378452000000000</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="14">
         <v>395780000000000</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="14">
         <v>361708000000000</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="14">
         <v>404767000000000</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="14">
         <v>433227000000000</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="14">
         <v>454315000000000</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="14">
         <v>472172000000000</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="14">
         <v>488578000000000</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="14">
         <v>504203000000000</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="14">
         <v>525003000000000</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="14">
         <v>544172000000000</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="14">
         <v>562284000000000</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="14">
         <v>581193000000000</v>
       </c>
-      <c r="O45" s="12">
+      <c r="O45" s="14">
         <v>600044000000000</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P45" s="14">
         <v>624320000000000</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q45" s="14">
         <v>647373000000000</v>
       </c>
-      <c r="R45" s="12">
+      <c r="R45" s="14">
         <v>670252000000000</v>
       </c>
-      <c r="S45" s="12">
+      <c r="S45" s="14">
         <v>692210000000000</v>
       </c>
-      <c r="T45" s="12">
+      <c r="T45" s="14">
         <v>713530000000000</v>
       </c>
-      <c r="U45" s="12">
+      <c r="U45" s="14">
         <v>740912000000000</v>
       </c>
-      <c r="V45" s="12">
+      <c r="V45" s="14">
         <v>767901000000000</v>
       </c>
-      <c r="W45" s="12">
+      <c r="W45" s="14">
         <v>794835000000000</v>
       </c>
-      <c r="X45" s="12">
+      <c r="X45" s="14">
         <v>821995000000000</v>
       </c>
-      <c r="Y45" s="12">
+      <c r="Y45" s="14">
         <v>849667000000000</v>
       </c>
-      <c r="Z45" s="12">
+      <c r="Z45" s="14">
         <v>884656000000000</v>
       </c>
-      <c r="AA45" s="12">
+      <c r="AA45" s="14">
         <v>920281000000000</v>
       </c>
-      <c r="AB45" s="12">
+      <c r="AB45" s="14">
         <v>956637000000000</v>
       </c>
-      <c r="AC45" s="12">
+      <c r="AC45" s="14">
         <v>993738000000000</v>
       </c>
-      <c r="AD45" s="12">
+      <c r="AD45" s="14">
         <v>1031550000000000</v>
       </c>
-      <c r="AE45" s="12">
+      <c r="AE45" s="14">
         <v>1077640000000000</v>
       </c>
-      <c r="AF45" s="12">
+      <c r="AF45" s="14">
         <v>1124280000000000</v>
       </c>
-      <c r="AG45" s="12">
+      <c r="AG45" s="14">
         <v>1171380000000000</v>
       </c>
-      <c r="AH45" s="12">
+      <c r="AH45" s="14">
         <v>1218880000000000</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A46" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="12">
+      <c r="A46" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="14">
         <v>1204390000000000</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="14">
         <v>1207600000000000</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="14">
         <v>1133200000000000</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="14">
         <v>1213040000000000</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="14">
         <v>1255580000000000</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="14">
         <v>1273550000000000</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="14">
         <v>1296710000000000</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="14">
         <v>1307740000000000</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="14">
         <v>1307470000000000</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="14">
         <v>1306610000000000</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="14">
         <v>1323400000000000</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="14">
         <v>1358980000000000</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="14">
         <v>1392580000000000</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="14">
         <v>1429020000000000</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="14">
         <v>1465320000000000</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="14">
         <v>1507770000000000</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R46" s="14">
         <v>1524440000000000</v>
       </c>
-      <c r="S46" s="12">
+      <c r="S46" s="14">
         <v>1541210000000000</v>
       </c>
-      <c r="T46" s="12">
+      <c r="T46" s="14">
         <v>1556420000000000</v>
       </c>
-      <c r="U46" s="12">
+      <c r="U46" s="14">
         <v>1572910000000000</v>
       </c>
-      <c r="V46" s="12">
+      <c r="V46" s="14">
         <v>1591040000000000</v>
       </c>
-      <c r="W46" s="12">
+      <c r="W46" s="14">
         <v>1605140000000000</v>
       </c>
-      <c r="X46" s="12">
+      <c r="X46" s="14">
         <v>1616660000000000</v>
       </c>
-      <c r="Y46" s="12">
+      <c r="Y46" s="14">
         <v>1627290000000000</v>
       </c>
-      <c r="Z46" s="12">
+      <c r="Z46" s="14">
         <v>1637340000000000</v>
       </c>
-      <c r="AA46" s="12">
+      <c r="AA46" s="14">
         <v>1639770000000000</v>
       </c>
-      <c r="AB46" s="12">
+      <c r="AB46" s="14">
         <v>1642610000000000</v>
       </c>
-      <c r="AC46" s="12">
+      <c r="AC46" s="14">
         <v>1645810000000000</v>
       </c>
-      <c r="AD46" s="12">
+      <c r="AD46" s="14">
         <v>1648600000000000</v>
       </c>
-      <c r="AE46" s="12">
+      <c r="AE46" s="14">
         <v>1651600000000000</v>
       </c>
-      <c r="AF46" s="12">
+      <c r="AF46" s="14">
         <v>1655440000000000</v>
       </c>
-      <c r="AG46" s="12">
+      <c r="AG46" s="14">
         <v>1658990000000000</v>
       </c>
-      <c r="AH46" s="12">
+      <c r="AH46" s="14">
         <v>1662420000000000</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="12">
+        <v>113</v>
+      </c>
+      <c r="B47" s="14">
         <v>200189000000000</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="14">
         <v>209359000000000</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="14">
         <v>209301000000000</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="14">
         <v>224093000000000</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="14">
         <v>235979000000000</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="14">
         <v>243110000000000</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="14">
         <v>249732000000000</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="14">
         <v>256169000000000</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="14">
         <v>262563000000000</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="14">
         <v>268969000000000</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="14">
         <v>272124000000000</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="14">
         <v>275262000000000</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="14">
         <v>278381000000000</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O47" s="14">
         <v>281484000000000</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P47" s="14">
         <v>284576000000000</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q47" s="14">
         <v>288948000000000</v>
       </c>
-      <c r="R47" s="12">
+      <c r="R47" s="14">
         <v>293324000000000</v>
       </c>
-      <c r="S47" s="12">
+      <c r="S47" s="14">
         <v>297697000000000</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="14">
         <v>302068000000000</v>
       </c>
-      <c r="U47" s="12">
+      <c r="U47" s="14">
         <v>306439000000000</v>
       </c>
-      <c r="V47" s="12">
+      <c r="V47" s="14">
         <v>310759000000000</v>
       </c>
-      <c r="W47" s="12">
+      <c r="W47" s="14">
         <v>315086000000000</v>
       </c>
-      <c r="X47" s="12">
+      <c r="X47" s="14">
         <v>319425000000000</v>
       </c>
-      <c r="Y47" s="12">
+      <c r="Y47" s="14">
         <v>323774000000000</v>
       </c>
-      <c r="Z47" s="12">
+      <c r="Z47" s="14">
         <v>328138000000000</v>
       </c>
-      <c r="AA47" s="12">
+      <c r="AA47" s="14">
         <v>331514000000000</v>
       </c>
-      <c r="AB47" s="12">
+      <c r="AB47" s="14">
         <v>334896000000000</v>
       </c>
-      <c r="AC47" s="12">
+      <c r="AC47" s="14">
         <v>338286000000000</v>
       </c>
-      <c r="AD47" s="12">
+      <c r="AD47" s="14">
         <v>341683000000000</v>
       </c>
-      <c r="AE47" s="12">
+      <c r="AE47" s="14">
         <v>345090000000000</v>
       </c>
-      <c r="AF47" s="12">
+      <c r="AF47" s="14">
         <v>348508000000000</v>
       </c>
-      <c r="AG47" s="12">
+      <c r="AG47" s="14">
         <v>351938000000000</v>
       </c>
-      <c r="AH47" s="12">
+      <c r="AH47" s="14">
         <v>355381000000000</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="12">
+        <v>114</v>
+      </c>
+      <c r="B48" s="14">
         <v>39219700000000</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="14">
         <v>41270200000000</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="14">
         <v>40575500000000</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="14">
         <v>44351400000000</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="14">
         <v>47288900000000</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="14">
         <v>49901500000000</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="14">
         <v>52412500000000</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="14">
         <v>54918700000000</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="14">
         <v>57462400000000</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="14">
         <v>60062500000000</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="14">
         <v>63935300000000</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="14">
         <v>67955400000000</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="14">
         <v>72122500000000</v>
       </c>
-      <c r="O48" s="12">
+      <c r="O48" s="14">
         <v>76441900000000</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P48" s="14">
         <v>80915300000000</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="Q48" s="14">
         <v>85545000000000</v>
       </c>
-      <c r="R48" s="12">
+      <c r="R48" s="14">
         <v>90332600000000</v>
       </c>
-      <c r="S48" s="12">
+      <c r="S48" s="14">
         <v>95280300000000</v>
       </c>
-      <c r="T48" s="12">
+      <c r="T48" s="14">
         <v>100390000000000</v>
       </c>
-      <c r="U48" s="12">
+      <c r="U48" s="14">
         <v>105663000000000</v>
       </c>
-      <c r="V48" s="12">
+      <c r="V48" s="14">
         <v>110938000000000</v>
       </c>
-      <c r="W48" s="12">
+      <c r="W48" s="14">
         <v>116361000000000</v>
       </c>
-      <c r="X48" s="12">
+      <c r="X48" s="14">
         <v>121932000000000</v>
       </c>
-      <c r="Y48" s="12">
+      <c r="Y48" s="14">
         <v>127655000000000</v>
       </c>
-      <c r="Z48" s="12">
+      <c r="Z48" s="14">
         <v>133529000000000</v>
       </c>
-      <c r="AA48" s="12">
+      <c r="AA48" s="14">
         <v>139555000000000</v>
       </c>
-      <c r="AB48" s="12">
+      <c r="AB48" s="14">
         <v>145735000000000</v>
       </c>
-      <c r="AC48" s="12">
+      <c r="AC48" s="14">
         <v>152072000000000</v>
       </c>
-      <c r="AD48" s="12">
+      <c r="AD48" s="14">
         <v>158563000000000</v>
       </c>
-      <c r="AE48" s="12">
+      <c r="AE48" s="14">
         <v>165212000000000</v>
       </c>
-      <c r="AF48" s="12">
+      <c r="AF48" s="14">
         <v>172020000000000</v>
       </c>
-      <c r="AG48" s="12">
+      <c r="AG48" s="14">
         <v>178988000000000</v>
       </c>
-      <c r="AH48" s="12">
+      <c r="AH48" s="14">
         <v>186117000000000</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="12">
+      <c r="A49" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="14">
         <v>1025250000000000</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="14">
         <v>1071830000000000</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="14">
         <v>1051140000000000</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="14">
         <v>1141180000000000</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="14">
         <v>1209920000000000</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="14">
         <v>1276700000000000</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="14">
         <v>1339460000000000</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="14">
         <v>1400530000000000</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="14">
         <v>1463430000000000</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="14">
         <v>1526160000000000</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="14">
         <v>1592520000000000</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="14">
         <v>1658960000000000</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="14">
         <v>1725200000000000</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="14">
         <v>1778450000000000</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="14">
         <v>1831510000000000</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q49" s="14">
         <v>1890190000000000</v>
       </c>
-      <c r="R49" s="12">
+      <c r="R49" s="14">
         <v>1948650000000000</v>
       </c>
-      <c r="S49" s="12">
+      <c r="S49" s="14">
         <v>2007350000000000</v>
       </c>
-      <c r="T49" s="12">
+      <c r="T49" s="14">
         <v>2081920000000000</v>
       </c>
-      <c r="U49" s="12">
+      <c r="U49" s="14">
         <v>2156430000000000</v>
       </c>
-      <c r="V49" s="12">
+      <c r="V49" s="14">
         <v>2240650000000000</v>
       </c>
-      <c r="W49" s="12">
+      <c r="W49" s="14">
         <v>2324710000000000</v>
       </c>
-      <c r="X49" s="12">
+      <c r="X49" s="14">
         <v>2408890000000000</v>
       </c>
-      <c r="Y49" s="12">
+      <c r="Y49" s="14">
         <v>2482570000000000</v>
       </c>
-      <c r="Z49" s="12">
+      <c r="Z49" s="14">
         <v>2556470000000000</v>
       </c>
-      <c r="AA49" s="12">
+      <c r="AA49" s="14">
         <v>2620080000000000</v>
       </c>
-      <c r="AB49" s="12">
+      <c r="AB49" s="14">
         <v>2683510000000000</v>
       </c>
-      <c r="AC49" s="12">
+      <c r="AC49" s="14">
         <v>2747080000000000</v>
       </c>
-      <c r="AD49" s="12">
+      <c r="AD49" s="14">
         <v>2814270000000000</v>
       </c>
-      <c r="AE49" s="12">
+      <c r="AE49" s="14">
         <v>2881610000000000</v>
       </c>
-      <c r="AF49" s="12">
+      <c r="AF49" s="14">
         <v>2948570000000000</v>
       </c>
-      <c r="AG49" s="12">
+      <c r="AG49" s="14">
         <v>3015710000000000</v>
       </c>
-      <c r="AH49" s="12">
+      <c r="AH49" s="14">
         <v>3082660000000000</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="12">
-        <v>0</v>
-      </c>
-      <c r="C50" s="12">
-        <v>0</v>
-      </c>
-      <c r="D50" s="12">
-        <v>0</v>
-      </c>
-      <c r="E50" s="12">
-        <v>0</v>
-      </c>
-      <c r="F50" s="12">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0</v>
-      </c>
-      <c r="H50" s="12">
-        <v>0</v>
-      </c>
-      <c r="I50" s="12">
-        <v>0</v>
-      </c>
-      <c r="J50" s="12">
-        <v>0</v>
-      </c>
-      <c r="K50" s="12">
-        <v>0</v>
-      </c>
-      <c r="L50" s="12">
-        <v>0</v>
-      </c>
-      <c r="M50" s="12">
-        <v>0</v>
-      </c>
-      <c r="N50" s="12">
-        <v>0</v>
-      </c>
-      <c r="O50" s="12">
-        <v>0</v>
-      </c>
-      <c r="P50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="12">
-        <v>0</v>
-      </c>
-      <c r="R50" s="12">
-        <v>0</v>
-      </c>
-      <c r="S50" s="12">
-        <v>0</v>
-      </c>
-      <c r="T50" s="12">
-        <v>0</v>
-      </c>
-      <c r="U50" s="12">
-        <v>0</v>
-      </c>
-      <c r="V50" s="12">
-        <v>0</v>
-      </c>
-      <c r="W50" s="12">
-        <v>0</v>
-      </c>
-      <c r="X50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="12">
+        <v>116</v>
+      </c>
+      <c r="B50" s="14">
+        <v>0</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <v>0</v>
+      </c>
+      <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
+        <v>0</v>
+      </c>
+      <c r="K50" s="14">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
+        <v>0</v>
+      </c>
+      <c r="M50" s="14">
+        <v>0</v>
+      </c>
+      <c r="N50" s="14">
+        <v>0</v>
+      </c>
+      <c r="O50" s="14">
+        <v>0</v>
+      </c>
+      <c r="P50" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>0</v>
+      </c>
+      <c r="R50" s="14">
+        <v>0</v>
+      </c>
+      <c r="S50" s="14">
+        <v>0</v>
+      </c>
+      <c r="T50" s="14">
+        <v>0</v>
+      </c>
+      <c r="U50" s="14">
+        <v>0</v>
+      </c>
+      <c r="V50" s="14">
+        <v>0</v>
+      </c>
+      <c r="W50" s="14">
+        <v>0</v>
+      </c>
+      <c r="X50" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="12">
+        <v>117</v>
+      </c>
+      <c r="B51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="O51" s="12">
+      <c r="O51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="P51" s="12">
+      <c r="P51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="Q51" s="12">
+      <c r="Q51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="R51" s="12">
+      <c r="R51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="S51" s="12">
+      <c r="S51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="T51" s="12">
+      <c r="T51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="U51" s="12">
+      <c r="U51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="V51" s="12">
+      <c r="V51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="W51" s="12">
+      <c r="W51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="X51" s="12">
+      <c r="X51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="Y51" s="12">
+      <c r="Y51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="Z51" s="12">
+      <c r="Z51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="AA51" s="12">
+      <c r="AA51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="AB51" s="12">
+      <c r="AB51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="AC51" s="12">
+      <c r="AC51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="AD51" s="12">
+      <c r="AD51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="AE51" s="12">
+      <c r="AE51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="AF51" s="12">
+      <c r="AF51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="AG51" s="12">
+      <c r="AG51" s="14">
         <v>-302644000000000</v>
       </c>
-      <c r="AH51" s="12">
+      <c r="AH51" s="14">
         <v>-302644000000000</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -12914,8 +14016,8 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A54" s="13" t="s">
-        <v>29</v>
+      <c r="A54" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -13054,137 +14156,137 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="15">
+        <v>109</v>
+      </c>
+      <c r="B56" s="17">
         <f>B23*10^6/B46</f>
         <v>0</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="17">
         <f t="shared" ref="C56:AH56" si="14">C23*10^6/C46</f>
         <v>0</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="17">
         <f t="shared" si="14"/>
         <v>3.7460853967372895E-4</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="17">
         <f t="shared" si="14"/>
         <v>1.328198698762336E-3</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L56" s="17">
         <f t="shared" si="14"/>
         <v>2.2525963247789797E-3</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="17">
         <f t="shared" si="14"/>
         <v>3.1102255004747288E-3</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N56" s="17">
         <f t="shared" si="14"/>
         <v>3.929671921941858E-3</v>
       </c>
-      <c r="O56" s="15">
+      <c r="O56" s="17">
         <f t="shared" si="14"/>
         <v>4.7011453999807129E-3</v>
       </c>
-      <c r="P56" s="15">
+      <c r="P56" s="17">
         <f t="shared" si="14"/>
         <v>5.4347712949410938E-3</v>
       </c>
-      <c r="Q56" s="15">
+      <c r="Q56" s="17">
         <f t="shared" si="14"/>
         <v>6.1079125783944027E-3</v>
       </c>
-      <c r="R56" s="15">
+      <c r="R56" s="17">
         <f t="shared" si="14"/>
         <v>6.8582401555642566E-3</v>
       </c>
-      <c r="S56" s="15">
+      <c r="S56" s="17">
         <f t="shared" si="14"/>
         <v>7.5918427061665962E-3</v>
       </c>
-      <c r="T56" s="15">
+      <c r="T56" s="17">
         <f t="shared" si="14"/>
         <v>8.3179811179460977E-3</v>
       </c>
-      <c r="U56" s="15">
+      <c r="U56" s="17">
         <f t="shared" si="14"/>
         <v>9.0227161414297777E-3</v>
       </c>
-      <c r="V56" s="15">
+      <c r="V56" s="17">
         <f t="shared" si="14"/>
         <v>9.7028162211125792E-3</v>
       </c>
-      <c r="W56" s="15">
+      <c r="W56" s="17">
         <f t="shared" si="14"/>
         <v>1.0393621113959906E-2</v>
       </c>
-      <c r="X56" s="15">
+      <c r="X56" s="17">
         <f t="shared" si="14"/>
         <v>1.1090065486425254E-2</v>
       </c>
-      <c r="Y56" s="15">
+      <c r="Y56" s="17">
         <f t="shared" si="14"/>
         <v>1.1783095541487024E-2</v>
       </c>
-      <c r="Z56" s="15">
+      <c r="Z56" s="17">
         <f t="shared" si="14"/>
         <v>1.2471546421713916E-2</v>
       </c>
-      <c r="AA56" s="15">
+      <c r="AA56" s="17">
         <f t="shared" si="14"/>
         <v>1.3212712814938502E-2</v>
       </c>
-      <c r="AB56" s="15">
+      <c r="AB56" s="17">
         <f t="shared" si="14"/>
         <v>1.394820338788535E-2</v>
       </c>
-      <c r="AC56" s="15">
+      <c r="AC56" s="17">
         <f t="shared" si="14"/>
         <v>1.4677943773216228E-2</v>
       </c>
-      <c r="AD56" s="15">
+      <c r="AD56" s="17">
         <f t="shared" si="14"/>
         <v>1.54086830740141E-2</v>
       </c>
-      <c r="AE56" s="15">
+      <c r="AE56" s="17">
         <f t="shared" si="14"/>
         <v>1.6134901423009378E-2</v>
       </c>
-      <c r="AF56" s="15">
+      <c r="AF56" s="17">
         <f t="shared" si="14"/>
         <v>1.6849932020891689E-2</v>
       </c>
-      <c r="AG56" s="15">
+      <c r="AG56" s="17">
         <f t="shared" si="14"/>
         <v>1.7564722957394308E-2</v>
       </c>
-      <c r="AH56" s="15">
+      <c r="AH56" s="17">
         <f t="shared" si="14"/>
         <v>1.8277780593057246E-2</v>
       </c>
@@ -13192,177 +14294,177 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="16">
+        <v>108</v>
+      </c>
+      <c r="B57" s="18">
         <f>B24*10^6/B49</f>
         <v>0</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="18">
         <f t="shared" ref="C57:AH57" si="15">C24*10^6/C49</f>
         <v>0</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="18">
         <f t="shared" si="15"/>
         <v>8.0662021554832016E-4</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="18">
         <f t="shared" si="15"/>
         <v>1.8798790400796422E-3</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="18">
         <f t="shared" si="15"/>
         <v>2.8605124694651971E-3</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="18">
         <f t="shared" si="15"/>
         <v>3.7544975015508975E-3</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="18">
         <f t="shared" si="15"/>
         <v>4.5753099468792049E-3</v>
       </c>
-      <c r="L57" s="16">
+      <c r="L57" s="18">
         <f t="shared" si="15"/>
         <v>5.3191581759501807E-3</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M57" s="18">
         <f t="shared" si="15"/>
         <v>6.0032047356167227E-3</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N57" s="18">
         <f t="shared" si="15"/>
         <v>6.6353392522798841E-3</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="18">
         <f t="shared" si="15"/>
         <v>7.2734673608300885E-3</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57" s="18">
         <f t="shared" si="15"/>
         <v>7.8753098687437181E-3</v>
       </c>
-      <c r="Q57" s="16">
+      <c r="Q57" s="18">
         <f t="shared" si="15"/>
         <v>8.4181587710956806E-3</v>
       </c>
-      <c r="R57" s="16">
+      <c r="R57" s="18">
         <f t="shared" si="15"/>
         <v>8.9293255727669711E-3</v>
       </c>
-      <c r="S57" s="16">
+      <c r="S57" s="18">
         <f t="shared" si="15"/>
         <v>9.4095902693635391E-3</v>
       </c>
-      <c r="T57" s="16">
+      <c r="T57" s="18">
         <f t="shared" si="15"/>
         <v>9.7873846147025021E-3</v>
       </c>
-      <c r="U57" s="16">
+      <c r="U57" s="18">
         <f t="shared" si="15"/>
         <v>1.0139333308698159E-2</v>
       </c>
-      <c r="V57" s="16">
+      <c r="V57" s="18">
         <f t="shared" si="15"/>
         <v>1.0422410138446874E-2</v>
       </c>
-      <c r="W57" s="16">
+      <c r="W57" s="18">
         <f t="shared" si="15"/>
         <v>1.0685713068101193E-2</v>
       </c>
-      <c r="X57" s="16">
+      <c r="X57" s="18">
         <f t="shared" si="15"/>
         <v>1.0930094265981453E-2</v>
       </c>
-      <c r="Y57" s="16">
+      <c r="Y57" s="18">
         <f t="shared" si="15"/>
         <v>1.1205164618204151E-2</v>
       </c>
-      <c r="Z57" s="16">
+      <c r="Z57" s="18">
         <f t="shared" si="15"/>
         <v>1.146339142491389E-2</v>
       </c>
-      <c r="AA57" s="16">
+      <c r="AA57" s="18">
         <f t="shared" si="15"/>
         <v>1.175308655685481E-2</v>
       </c>
-      <c r="AB57" s="16">
+      <c r="AB57" s="18">
         <f t="shared" si="15"/>
         <v>1.2029855590521058E-2</v>
       </c>
-      <c r="AC57" s="16">
+      <c r="AC57" s="18">
         <f t="shared" si="15"/>
         <v>1.2293216260740022E-2</v>
       </c>
-      <c r="AD57" s="16">
+      <c r="AD57" s="18">
         <f t="shared" si="15"/>
         <v>1.2528527566789342E-2</v>
       </c>
-      <c r="AE57" s="16">
+      <c r="AE57" s="18">
         <f t="shared" si="15"/>
         <v>1.2752201035262669E-2</v>
       </c>
-      <c r="AF57" s="16">
+      <c r="AF57" s="18">
         <f t="shared" si="15"/>
         <v>1.2967330188890815E-2</v>
       </c>
-      <c r="AG57" s="16">
+      <c r="AG57" s="18">
         <f t="shared" si="15"/>
         <v>1.3172119177537737E-2</v>
       </c>
-      <c r="AH57" s="16">
+      <c r="AH57" s="18">
         <f t="shared" si="15"/>
         <v>1.3368812089146174E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="14" t="s">
-        <v>36</v>
+      <c r="A75" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19">
         <v>2018</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="19">
         <v>2050</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="18">
-        <v>0</v>
-      </c>
-      <c r="C77" s="19">
+      <c r="A77" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="20">
+        <v>0</v>
+      </c>
+      <c r="C77" s="21">
         <f>AH56</f>
         <v>1.8277780593057246E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="19">
-        <v>0</v>
-      </c>
-      <c r="C78" s="19">
+      <c r="A78" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="21">
+        <v>0</v>
+      </c>
+      <c r="C78" s="21">
         <f>AH57</f>
         <v>1.3368812089146174E-2</v>
       </c>
@@ -13378,7 +14480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -13386,12 +14488,12 @@
   <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.796875" customWidth="1"/>
+    <col min="1" max="1" width="44.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">

--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\ccs\BFoCPAbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,17 +18,18 @@
     <sheet name="IESS data" sheetId="15" r:id="rId4"/>
     <sheet name="Global CCS Database" sheetId="13" r:id="rId5"/>
     <sheet name="BAU Calculations" sheetId="14" r:id="rId6"/>
-    <sheet name="BFoCPAbS" sheetId="12" r:id="rId7"/>
+    <sheet name="BFoCPAbS-electricity" sheetId="12" r:id="rId7"/>
+    <sheet name="BFoCPAbS-industry" sheetId="18" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Global CCS Database'!$A$7:$H$36</definedName>
     <definedName name="Region">'BAU Calculations'!$B$2</definedName>
     <definedName name="Unit.GW">[1]Conversions!$F$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="251">
   <si>
     <t>Source:</t>
   </si>
@@ -420,9 +421,6 @@
   </si>
   <si>
     <t>Total Pollutant Emissions by Sector[geoengineering sector,CO2] : MostRecentRun</t>
-  </si>
-  <si>
-    <t>EPS-US 2.1.1 BAU Model Run Result (grams CO2)</t>
   </si>
   <si>
     <t>CCS Capacity by Year (tons CO2)</t>
@@ -738,6 +736,99 @@
   </si>
   <si>
     <t>There is no RTS scenario for India in IEA's ETP as there is currently no CCS commitment to NDCs.</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (fraction of potential achieved)</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>nuclear (NOT USED)</t>
+  </si>
+  <si>
+    <t>hydro (NOT USED)</t>
+  </si>
+  <si>
+    <t>onshore wind (NOT USED)</t>
+  </si>
+  <si>
+    <t>solar PV (NOT USED)</t>
+  </si>
+  <si>
+    <t>solar thermal (NOT USED)</t>
+  </si>
+  <si>
+    <t>geothermal (NOT USED)</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind (NOT USED)</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>coal mining</t>
+  </si>
+  <si>
+    <t>waste management</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>other industries</t>
+  </si>
+  <si>
+    <t>EPS-US 3.1.1 BAU Model Run Result (grams CO2)</t>
+  </si>
+  <si>
+    <t>Industrial Sector Pollutant Emissions[cement and other carbonates,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Pollutant Emissions[natural gas and petroleum systems,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Pollutant Emissions[iron and steel,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Pollutant Emissions[chemicals,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Pollutant Emissions[coal mining,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Pollutant Emissions[waste management,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Pollutant Emissions[agriculture,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Sector Pollutant Emissions[other industries,CO2] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>We assume all electricity sector CCS is for coal-fired power plants. For industry, we assign CCS to the ngps, chemicals, and other industries, based</t>
+  </si>
+  <si>
+    <t>on the types of industries using CCS listed in the Global CCS database. We split between industries based on their BAU share of CO2 emissions.</t>
   </si>
 </sst>
 </file>
@@ -962,7 +1053,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1044,6 +1135,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2015,6 +2113,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3191,6 +3290,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3345,7 +3445,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BAU Calculations'!$A$56</c:f>
+              <c:f>'BAU Calculations'!$A$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3368,7 +3468,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAU Calculations'!$B$55:$AH$55</c:f>
+              <c:f>'BAU Calculations'!$B$80:$AH$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3476,7 +3576,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAU Calculations'!$B$56:$AH$56</c:f>
+              <c:f>'BAU Calculations'!$B$81:$AH$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3505,76 +3605,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7460853967372895E-4</c:v>
+                  <c:v>4.642905882599727E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.328198698762336E-3</c:v>
+                  <c:v>1.6214800816513959E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2525963247789797E-3</c:v>
+                  <c:v>2.7307074134713164E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1102255004747288E-3</c:v>
+                  <c:v>3.8114741427793383E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.929671921941858E-3</c:v>
+                  <c:v>4.8387912047127106E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7011453999807129E-3</c:v>
+                  <c:v>5.8519941806813979E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4347712949410938E-3</c:v>
+                  <c:v>6.669580390696284E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1079125783944027E-3</c:v>
+                  <c:v>7.4900591671078036E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.8582401555642566E-3</c:v>
+                  <c:v>8.2297370278012066E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.5918427061665962E-3</c:v>
+                  <c:v>8.9249610199626395E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3179811179460977E-3</c:v>
+                  <c:v>9.598434279312321E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.0227161414297777E-3</c:v>
+                  <c:v>1.0255463381616597E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.7028162211125792E-3</c:v>
+                  <c:v>1.0945214770170271E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0393621113959906E-2</c:v>
+                  <c:v>1.1625125074811235E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1090065486425254E-2</c:v>
+                  <c:v>1.2337422168361249E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1783095541487024E-2</c:v>
+                  <c:v>1.3058544314166526E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2471546421713916E-2</c:v>
+                  <c:v>1.3815609633049668E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3212712814938502E-2</c:v>
+                  <c:v>1.4598815490102762E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.394820338788535E-2</c:v>
+                  <c:v>1.5386524630958024E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4677943773216228E-2</c:v>
+                  <c:v>1.6199450548471397E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.54086830740141E-2</c:v>
+                  <c:v>1.6996584268369471E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6134901423009378E-2</c:v>
+                  <c:v>1.7789202468770093E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6849932020891689E-2</c:v>
+                  <c:v>1.8588598870228533E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7564722957394308E-2</c:v>
+                  <c:v>1.9367074132053425E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.8277780593057246E-2</c:v>
@@ -3594,7 +3694,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BAU Calculations'!$A$57</c:f>
+              <c:f>'BAU Calculations'!$A$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3617,7 +3717,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAU Calculations'!$B$55:$AH$55</c:f>
+              <c:f>'BAU Calculations'!$B$80:$AH$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3725,7 +3825,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAU Calculations'!$B$57:$AH$57</c:f>
+              <c:f>'BAU Calculations'!$B$82:$AH$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3745,85 +3845,85 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0662021554832016E-4</c:v>
+                  <c:v>7.8290078090782918E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8798790400796422E-3</c:v>
+                  <c:v>1.8182245241646045E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8605124694651971E-3</c:v>
+                  <c:v>2.7463657189492935E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7544975015508975E-3</c:v>
+                  <c:v>3.6008364214057658E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5753099468792049E-3</c:v>
+                  <c:v>4.3516484036701776E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3191581759501807E-3</c:v>
+                  <c:v>5.0316395281102579E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0032047356167227E-3</c:v>
+                  <c:v>5.6517584093017043E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6353392522798841E-3</c:v>
+                  <c:v>6.1433578471327367E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2734673608300885E-3</c:v>
+                  <c:v>6.6615673149629838E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8753098687437181E-3</c:v>
+                  <c:v>7.1226081092425949E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4181587710956806E-3</c:v>
+                  <c:v>7.5474180260201992E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.9293255727669711E-3</c:v>
+                  <c:v>7.9400078839911292E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.4095902693635391E-3</c:v>
+                  <c:v>8.3032609436422822E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7873846147025021E-3</c:v>
+                  <c:v>8.6201791071407446E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0139333308698159E-2</c:v>
+                  <c:v>8.9552060874257024E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0422410138446874E-2</c:v>
+                  <c:v>9.1866695292031984E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0685713068101193E-2</c:v>
+                  <c:v>9.4836483683273173E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0930094265981453E-2</c:v>
+                  <c:v>9.7607015323059824E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1205164618204151E-2</c:v>
+                  <c:v>1.0025771379118174E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.146339142491389E-2</c:v>
+                  <c:v>1.034203689788105E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.175308655685481E-2</c:v>
+                  <c:v>1.064535351706496E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2029855590521058E-2</c:v>
+                  <c:v>1.0849604183502608E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2293216260740022E-2</c:v>
+                  <c:v>1.1128981276917048E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2528527566789342E-2</c:v>
+                  <c:v>1.1397659374620412E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2752201035262669E-2</c:v>
+                  <c:v>1.1634352607970688E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2967330188890815E-2</c:v>
+                  <c:v>1.1883733531128196E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3172119177537737E-2</c:v>
+                  <c:v>1.212377048689213E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.3368812089146174E-2</c:v>
@@ -5810,13 +5910,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3686175</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6274,7 +6374,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6295,18 +6395,18 @@
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -6319,32 +6419,32 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -6352,18 +6452,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -6376,26 +6476,26 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -6426,42 +6526,42 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -6471,14 +6571,18 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
       <c r="D35" s="2"/>
@@ -6532,7 +6636,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6626,7 +6730,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6659,7 +6763,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="48">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
@@ -6689,7 +6793,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="49">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
@@ -6718,7 +6822,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="48">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
@@ -6747,7 +6851,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="49">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
@@ -6780,7 +6884,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -6808,7 +6912,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="49">
         <f>B31/SUM(B31:B33)</f>
@@ -6833,7 +6937,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="49">
         <f>B32/SUM(B31:B33)</f>
@@ -6858,7 +6962,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="49">
         <f>B33/SUM(B31:B33)</f>
@@ -6882,12 +6986,12 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46">
@@ -6921,7 +7025,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="44"/>
       <c r="B22" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="44">
         <v>0</v>
@@ -6954,7 +7058,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="44"/>
       <c r="B23" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="44">
         <v>0</v>
@@ -6987,7 +7091,7 @@
     <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="44"/>
       <c r="B24" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="44">
         <v>0</v>
@@ -7020,7 +7124,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="44"/>
       <c r="B25" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="42">
         <v>0</v>
@@ -7052,20 +7156,20 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="34"/>
       <c r="B29" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
@@ -7107,7 +7211,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="39">
         <v>9.0692000334624094E-3</v>
@@ -7142,7 +7246,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="39">
         <v>8.8736984598062219E-5</v>
@@ -7177,7 +7281,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="39">
         <v>0</v>
@@ -7212,18 +7316,18 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A36" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -7275,7 +7379,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="33">
         <v>0</v>
@@ -7313,7 +7417,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="33">
         <v>0</v>
@@ -7351,7 +7455,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="33">
         <v>0</v>
@@ -7389,7 +7493,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="33">
         <v>0</v>
@@ -7450,7 +7554,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7544,7 +7648,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7577,7 +7681,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="48">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
@@ -7607,7 +7711,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="49">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
@@ -7636,7 +7740,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="48">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
@@ -7665,7 +7769,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="49">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
@@ -7698,7 +7802,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7726,7 +7830,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="49">
         <f>G31</f>
@@ -7751,7 +7855,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="49">
         <f>G32</f>
@@ -7776,7 +7880,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="49">
         <f>G33</f>
@@ -7800,12 +7904,12 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46">
@@ -7839,7 +7943,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="44"/>
       <c r="B22" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="44">
         <v>0</v>
@@ -7872,7 +7976,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="44"/>
       <c r="B23" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="44">
         <v>0</v>
@@ -7905,7 +8009,7 @@
     <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A24" s="44"/>
       <c r="B24" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="44">
         <v>0</v>
@@ -7938,7 +8042,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="44"/>
       <c r="B25" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="42">
         <v>0</v>
@@ -7970,20 +8074,20 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="34"/>
       <c r="B29" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
@@ -8025,7 +8129,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="39">
         <v>9.0692000334624094E-3</v>
@@ -8060,7 +8164,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="39">
         <v>8.8736984598062219E-5</v>
@@ -8095,7 +8199,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B33" s="39">
         <v>0</v>
@@ -8130,18 +8234,18 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A36" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" s="36"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -8193,7 +8297,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="33">
         <v>0</v>
@@ -8231,7 +8335,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="33">
         <v>0</v>
@@ -8269,7 +8373,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="33">
         <v>0</v>
@@ -8307,7 +8411,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="33">
         <v>0</v>
@@ -8407,33 +8511,33 @@
         <v>2047</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="28">
         <v>0</v>
@@ -8460,7 +8564,7 @@
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L2" s="27">
         <v>2012</v>
@@ -8529,7 +8633,7 @@
         <v>35000</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L3" s="27">
         <v>2017</v>
@@ -8565,7 +8669,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="28">
         <v>0</v>
@@ -8658,7 +8762,7 @@
         <v>8000</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" s="27">
         <v>2027</v>
@@ -8694,7 +8798,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="28">
         <v>0</v>
@@ -8787,7 +8891,7 @@
         <v>80000</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="27">
         <v>2037</v>
@@ -8823,7 +8927,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="28">
         <v>0</v>
@@ -8916,7 +9020,7 @@
         <v>90000</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L9" s="27">
         <v>2047</v>
@@ -8952,34 +9056,34 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>395.1</v>
@@ -8996,7 +9100,7 @@
     </row>
     <row r="14" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>3.29</v>
@@ -9013,7 +9117,7 @@
     </row>
     <row r="15" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <f>B14*10^6</f>
@@ -9034,7 +9138,7 @@
     </row>
     <row r="16" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="23">
         <f>B15/B13</f>
@@ -9055,7 +9159,7 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="25">
         <f>AVERAGE(B16:E16)</f>
@@ -9064,13 +9168,13 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:40" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
@@ -9078,7 +9182,7 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
@@ -9240,7 +9344,7 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="12">
         <f>N2</f>
@@ -9401,7 +9505,7 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="12">
         <f>P2</f>
@@ -9562,7 +9666,7 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="12">
         <f>R2</f>
@@ -9723,7 +9827,7 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="12">
         <f>T2</f>
@@ -9884,7 +9988,7 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <f t="shared" ref="E27:AN27" si="11">E24</f>
@@ -10041,7 +10145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -10986,10 +11090,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI78"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:AG62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11000,15 +11104,15 @@
   <sheetData>
     <row r="1" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>160</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>161</v>
       </c>
       <c r="C2" s="32"/>
     </row>
@@ -11018,7 +11122,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="32"/>
     </row>
@@ -11126,7 +11230,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" ref="B6" si="0">C6</f>
@@ -11263,7 +11367,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="14">
         <f>1-B6</f>
@@ -11412,7 +11516,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -11861,7 +11965,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -11899,7 +12003,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -11937,7 +12041,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -11975,7 +12079,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -12048,7 +12152,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -12187,7 +12291,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -12316,7 +12420,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="14">
         <v>0</v>
@@ -13043,7 +13147,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -13084,100 +13188,100 @@
         <v>110</v>
       </c>
       <c r="B44">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C44">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D44">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F44">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G44">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H44">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I44">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="J44">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="K44">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="L44">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="M44">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="N44">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O44">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="P44">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="Q44">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="R44">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="S44">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="T44">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="U44">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="V44">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="W44">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="X44">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="Y44">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="Z44">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AA44">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AB44">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AC44">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AD44">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AE44">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AF44">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AG44">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="AH44">
         <v>2050</v>
@@ -13188,100 +13292,100 @@
         <v>111</v>
       </c>
       <c r="B45" s="14">
-        <v>378452000000000</v>
+        <v>389248000000000</v>
       </c>
       <c r="C45" s="14">
-        <v>395780000000000</v>
+        <v>327081000000000</v>
       </c>
       <c r="D45" s="14">
-        <v>361708000000000</v>
+        <v>377306000000000</v>
       </c>
       <c r="E45" s="14">
-        <v>404767000000000</v>
+        <v>411342000000000</v>
       </c>
       <c r="F45" s="14">
-        <v>433227000000000</v>
+        <v>435660000000000</v>
       </c>
       <c r="G45" s="14">
-        <v>454315000000000</v>
+        <v>454928000000000</v>
       </c>
       <c r="H45" s="14">
-        <v>472172000000000</v>
+        <v>471557000000000</v>
       </c>
       <c r="I45" s="14">
-        <v>488578000000000</v>
+        <v>486706000000000</v>
       </c>
       <c r="J45" s="14">
-        <v>504203000000000</v>
+        <v>506774000000000</v>
       </c>
       <c r="K45" s="14">
-        <v>525003000000000</v>
+        <v>525929000000000</v>
       </c>
       <c r="L45" s="14">
-        <v>544172000000000</v>
+        <v>543058000000000</v>
       </c>
       <c r="M45" s="14">
-        <v>562284000000000</v>
+        <v>561377000000000</v>
       </c>
       <c r="N45" s="14">
-        <v>581193000000000</v>
+        <v>579489000000000</v>
       </c>
       <c r="O45" s="14">
-        <v>600044000000000</v>
+        <v>603196000000000</v>
       </c>
       <c r="P45" s="14">
-        <v>624320000000000</v>
+        <v>625637000000000</v>
       </c>
       <c r="Q45" s="14">
-        <v>647373000000000</v>
+        <v>647023000000000</v>
       </c>
       <c r="R45" s="14">
-        <v>670252000000000</v>
+        <v>668489000000000</v>
       </c>
       <c r="S45" s="14">
-        <v>692210000000000</v>
+        <v>689356000000000</v>
       </c>
       <c r="T45" s="14">
-        <v>713530000000000</v>
+        <v>716430000000000</v>
       </c>
       <c r="U45" s="14">
-        <v>740912000000000</v>
+        <v>743146000000000</v>
       </c>
       <c r="V45" s="14">
-        <v>767901000000000</v>
+        <v>769824000000000</v>
       </c>
       <c r="W45" s="14">
-        <v>794835000000000</v>
+        <v>796768000000000</v>
       </c>
       <c r="X45" s="14">
-        <v>821995000000000</v>
+        <v>824243000000000</v>
       </c>
       <c r="Y45" s="14">
-        <v>849667000000000</v>
+        <v>859133000000000</v>
       </c>
       <c r="Z45" s="14">
-        <v>884656000000000</v>
+        <v>894677000000000</v>
       </c>
       <c r="AA45" s="14">
-        <v>920281000000000</v>
+        <v>930952000000000</v>
       </c>
       <c r="AB45" s="14">
-        <v>956637000000000</v>
+        <v>967950000000000</v>
       </c>
       <c r="AC45" s="14">
-        <v>993738000000000</v>
+        <v>1005670000000000</v>
       </c>
       <c r="AD45" s="14">
-        <v>1031550000000000</v>
+        <v>1051730000000000</v>
       </c>
       <c r="AE45" s="14">
-        <v>1077640000000000</v>
+        <v>1098290000000000</v>
       </c>
       <c r="AF45" s="14">
-        <v>1124280000000000</v>
+        <v>1145260000000000</v>
       </c>
       <c r="AG45" s="14">
-        <v>1171380000000000</v>
+        <v>1192550000000000</v>
       </c>
       <c r="AH45" s="14">
         <v>1218880000000000</v>
@@ -13292,100 +13396,100 @@
         <v>112</v>
       </c>
       <c r="B46" s="14">
-        <v>1204390000000000</v>
+        <v>1012750000000000</v>
       </c>
       <c r="C46" s="14">
-        <v>1207600000000000</v>
+        <v>957188000000000</v>
       </c>
       <c r="D46" s="14">
-        <v>1133200000000000</v>
+        <v>1027720000000000</v>
       </c>
       <c r="E46" s="14">
-        <v>1213040000000000</v>
+        <v>1059480000000000</v>
       </c>
       <c r="F46" s="14">
-        <v>1255580000000000</v>
+        <v>1076100000000000</v>
       </c>
       <c r="G46" s="14">
-        <v>1273550000000000</v>
+        <v>1079450000000000</v>
       </c>
       <c r="H46" s="14">
-        <v>1296710000000000</v>
+        <v>1078020000000000</v>
       </c>
       <c r="I46" s="14">
-        <v>1307740000000000</v>
+        <v>1065920000000000</v>
       </c>
       <c r="J46" s="14">
-        <v>1307470000000000</v>
+        <v>1054920000000000</v>
       </c>
       <c r="K46" s="14">
-        <v>1306610000000000</v>
+        <v>1070280000000000</v>
       </c>
       <c r="L46" s="14">
-        <v>1323400000000000</v>
+        <v>1091690000000000</v>
       </c>
       <c r="M46" s="14">
-        <v>1358980000000000</v>
+        <v>1108950000000000</v>
       </c>
       <c r="N46" s="14">
-        <v>1392580000000000</v>
+        <v>1130940000000000</v>
       </c>
       <c r="O46" s="14">
-        <v>1429020000000000</v>
+        <v>1147990000000000</v>
       </c>
       <c r="P46" s="14">
-        <v>1465320000000000</v>
+        <v>1194030000000000</v>
       </c>
       <c r="Q46" s="14">
-        <v>1507770000000000</v>
+        <v>1229540000000000</v>
       </c>
       <c r="R46" s="14">
-        <v>1524440000000000</v>
+        <v>1270390000000000</v>
       </c>
       <c r="S46" s="14">
-        <v>1541210000000000</v>
+        <v>1311000000000000</v>
       </c>
       <c r="T46" s="14">
-        <v>1556420000000000</v>
+        <v>1348790000000000</v>
       </c>
       <c r="U46" s="14">
-        <v>1572910000000000</v>
+        <v>1383840000000000</v>
       </c>
       <c r="V46" s="14">
-        <v>1591040000000000</v>
+        <v>1410440000000000</v>
       </c>
       <c r="W46" s="14">
-        <v>1605140000000000</v>
+        <v>1435100000000000</v>
       </c>
       <c r="X46" s="14">
-        <v>1616660000000000</v>
+        <v>1453210000000000</v>
       </c>
       <c r="Y46" s="14">
-        <v>1627290000000000</v>
+        <v>1468350000000000</v>
       </c>
       <c r="Z46" s="14">
-        <v>1637340000000000</v>
+        <v>1478050000000000</v>
       </c>
       <c r="AA46" s="14">
-        <v>1639770000000000</v>
+        <v>1484080000000000</v>
       </c>
       <c r="AB46" s="14">
-        <v>1642610000000000</v>
+        <v>1489060000000000</v>
       </c>
       <c r="AC46" s="14">
-        <v>1645810000000000</v>
+        <v>1491230000000000</v>
       </c>
       <c r="AD46" s="14">
-        <v>1648600000000000</v>
+        <v>1494580000000000</v>
       </c>
       <c r="AE46" s="14">
-        <v>1651600000000000</v>
+        <v>1498010000000000</v>
       </c>
       <c r="AF46" s="14">
-        <v>1655440000000000</v>
+        <v>1500600000000000</v>
       </c>
       <c r="AG46" s="14">
-        <v>1658990000000000</v>
+        <v>1504600000000000</v>
       </c>
       <c r="AH46" s="14">
         <v>1662420000000000</v>
@@ -13396,100 +13500,100 @@
         <v>113</v>
       </c>
       <c r="B47" s="14">
-        <v>200189000000000</v>
+        <v>81938500000000</v>
       </c>
       <c r="C47" s="14">
-        <v>209359000000000</v>
+        <v>80777600000000</v>
       </c>
       <c r="D47" s="14">
-        <v>209301000000000</v>
+        <v>82741800000000</v>
       </c>
       <c r="E47" s="14">
-        <v>224093000000000</v>
+        <v>84189000000000</v>
       </c>
       <c r="F47" s="14">
-        <v>235979000000000</v>
+        <v>87704800000000</v>
       </c>
       <c r="G47" s="14">
-        <v>243110000000000</v>
+        <v>91090700000000</v>
       </c>
       <c r="H47" s="14">
-        <v>249732000000000</v>
+        <v>94418900000000</v>
       </c>
       <c r="I47" s="14">
-        <v>256169000000000</v>
+        <v>97714400000000</v>
       </c>
       <c r="J47" s="14">
-        <v>262563000000000</v>
+        <v>100985000000000</v>
       </c>
       <c r="K47" s="14">
-        <v>268969000000000</v>
+        <v>103761000000000</v>
       </c>
       <c r="L47" s="14">
-        <v>272124000000000</v>
+        <v>106526000000000</v>
       </c>
       <c r="M47" s="14">
-        <v>275262000000000</v>
+        <v>109289000000000</v>
       </c>
       <c r="N47" s="14">
-        <v>278381000000000</v>
+        <v>112057000000000</v>
       </c>
       <c r="O47" s="14">
-        <v>281484000000000</v>
+        <v>114819000000000</v>
       </c>
       <c r="P47" s="14">
-        <v>284576000000000</v>
+        <v>117378000000000</v>
       </c>
       <c r="Q47" s="14">
-        <v>288948000000000</v>
+        <v>119938000000000</v>
       </c>
       <c r="R47" s="14">
-        <v>293324000000000</v>
+        <v>122498000000000</v>
       </c>
       <c r="S47" s="14">
-        <v>297697000000000</v>
+        <v>125057000000000</v>
       </c>
       <c r="T47" s="14">
-        <v>302068000000000</v>
+        <v>127617000000000</v>
       </c>
       <c r="U47" s="14">
-        <v>306439000000000</v>
+        <v>130224000000000</v>
       </c>
       <c r="V47" s="14">
-        <v>310759000000000</v>
+        <v>132833000000000</v>
       </c>
       <c r="W47" s="14">
-        <v>315086000000000</v>
+        <v>135427000000000</v>
       </c>
       <c r="X47" s="14">
-        <v>319425000000000</v>
+        <v>138033000000000</v>
       </c>
       <c r="Y47" s="14">
-        <v>323774000000000</v>
+        <v>140640000000000</v>
       </c>
       <c r="Z47" s="14">
-        <v>328138000000000</v>
+        <v>142637000000000</v>
       </c>
       <c r="AA47" s="14">
-        <v>331514000000000</v>
+        <v>144627000000000</v>
       </c>
       <c r="AB47" s="14">
-        <v>334896000000000</v>
+        <v>146624000000000</v>
       </c>
       <c r="AC47" s="14">
-        <v>338286000000000</v>
+        <v>148614000000000</v>
       </c>
       <c r="AD47" s="14">
-        <v>341683000000000</v>
+        <v>150604000000000</v>
       </c>
       <c r="AE47" s="14">
-        <v>345090000000000</v>
+        <v>152600000000000</v>
       </c>
       <c r="AF47" s="14">
-        <v>348508000000000</v>
+        <v>154590000000000</v>
       </c>
       <c r="AG47" s="14">
-        <v>351938000000000</v>
+        <v>156587000000000</v>
       </c>
       <c r="AH47" s="14">
         <v>355381000000000</v>
@@ -13500,210 +13604,210 @@
         <v>114</v>
       </c>
       <c r="B48" s="14">
-        <v>39219700000000</v>
+        <v>6922340000000</v>
       </c>
       <c r="C48" s="14">
-        <v>41270200000000</v>
+        <v>7000990000000</v>
       </c>
       <c r="D48" s="14">
-        <v>40575500000000</v>
+        <v>7266160000000</v>
       </c>
       <c r="E48" s="14">
-        <v>44351400000000</v>
+        <v>7501740000000</v>
       </c>
       <c r="F48" s="14">
-        <v>47288900000000</v>
+        <v>7736810000000</v>
       </c>
       <c r="G48" s="14">
-        <v>49901500000000</v>
+        <v>7964060000000</v>
       </c>
       <c r="H48" s="14">
-        <v>52412500000000</v>
+        <v>8187290000000</v>
       </c>
       <c r="I48" s="14">
-        <v>54918700000000</v>
+        <v>8408450000000</v>
       </c>
       <c r="J48" s="14">
-        <v>57462400000000</v>
+        <v>8628540000000</v>
       </c>
       <c r="K48" s="14">
-        <v>60062500000000</v>
+        <v>8806410000000</v>
       </c>
       <c r="L48" s="14">
-        <v>63935300000000</v>
+        <v>8983920000000</v>
       </c>
       <c r="M48" s="14">
-        <v>67955400000000</v>
+        <v>9161360000000</v>
       </c>
       <c r="N48" s="14">
-        <v>72122500000000</v>
+        <v>9338720000000</v>
       </c>
       <c r="O48" s="14">
-        <v>76441900000000</v>
+        <v>9516020000000</v>
       </c>
       <c r="P48" s="14">
-        <v>80915300000000</v>
+        <v>9695370000000</v>
       </c>
       <c r="Q48" s="14">
-        <v>85545000000000</v>
+        <v>9874660000000</v>
       </c>
       <c r="R48" s="14">
-        <v>90332600000000</v>
+        <v>10053900000000</v>
       </c>
       <c r="S48" s="14">
-        <v>95280300000000</v>
+        <v>10233300000000</v>
       </c>
       <c r="T48" s="14">
-        <v>100390000000000</v>
+        <v>10412600000000</v>
       </c>
       <c r="U48" s="14">
-        <v>105663000000000</v>
+        <v>10588100000000</v>
       </c>
       <c r="V48" s="14">
-        <v>110938000000000</v>
+        <v>10763600000000</v>
       </c>
       <c r="W48" s="14">
-        <v>116361000000000</v>
+        <v>10939000000000</v>
       </c>
       <c r="X48" s="14">
-        <v>121932000000000</v>
+        <v>11114500000000</v>
       </c>
       <c r="Y48" s="14">
-        <v>127655000000000</v>
+        <v>11290000000000</v>
       </c>
       <c r="Z48" s="14">
-        <v>133529000000000</v>
+        <v>11360800000000</v>
       </c>
       <c r="AA48" s="14">
-        <v>139555000000000</v>
+        <v>11431600000000</v>
       </c>
       <c r="AB48" s="14">
-        <v>145735000000000</v>
+        <v>11502400000000</v>
       </c>
       <c r="AC48" s="14">
-        <v>152072000000000</v>
+        <v>11573200000000</v>
       </c>
       <c r="AD48" s="14">
-        <v>158563000000000</v>
+        <v>11643900000000</v>
       </c>
       <c r="AE48" s="14">
-        <v>165212000000000</v>
+        <v>11714800000000</v>
       </c>
       <c r="AF48" s="14">
-        <v>172020000000000</v>
+        <v>11785500000000</v>
       </c>
       <c r="AG48" s="14">
-        <v>178988000000000</v>
+        <v>11856300000000</v>
       </c>
       <c r="AH48" s="14">
         <v>186117000000000</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A49" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B49" s="14">
-        <v>1025250000000000</v>
+        <v>1027980000000000</v>
       </c>
       <c r="C49" s="14">
-        <v>1071830000000000</v>
+        <v>1001010000000000</v>
       </c>
       <c r="D49" s="14">
-        <v>1051140000000000</v>
+        <v>1092930000000000</v>
       </c>
       <c r="E49" s="14">
-        <v>1141180000000000</v>
+        <v>1166660000000000</v>
       </c>
       <c r="F49" s="14">
-        <v>1209920000000000</v>
+        <v>1243530000000000</v>
       </c>
       <c r="G49" s="14">
-        <v>1276700000000000</v>
+        <v>1315380000000000</v>
       </c>
       <c r="H49" s="14">
-        <v>1339460000000000</v>
+        <v>1384880000000000</v>
       </c>
       <c r="I49" s="14">
-        <v>1400530000000000</v>
+        <v>1458740000000000</v>
       </c>
       <c r="J49" s="14">
-        <v>1463430000000000</v>
+        <v>1525880000000000</v>
       </c>
       <c r="K49" s="14">
-        <v>1526160000000000</v>
+        <v>1604600000000000</v>
       </c>
       <c r="L49" s="14">
-        <v>1592520000000000</v>
+        <v>1683520000000000</v>
       </c>
       <c r="M49" s="14">
-        <v>1658960000000000</v>
+        <v>1762120000000000</v>
       </c>
       <c r="N49" s="14">
-        <v>1725200000000000</v>
+        <v>1863360000000000</v>
       </c>
       <c r="O49" s="14">
-        <v>1778450000000000</v>
+        <v>1941810000000000</v>
       </c>
       <c r="P49" s="14">
-        <v>1831510000000000</v>
+        <v>2025060000000000</v>
       </c>
       <c r="Q49" s="14">
-        <v>1890190000000000</v>
+        <v>2108260000000000</v>
       </c>
       <c r="R49" s="14">
-        <v>1948650000000000</v>
+        <v>2191450000000000</v>
       </c>
       <c r="S49" s="14">
-        <v>2007350000000000</v>
+        <v>2274810000000000</v>
       </c>
       <c r="T49" s="14">
-        <v>2081920000000000</v>
+        <v>2363820000000000</v>
       </c>
       <c r="U49" s="14">
-        <v>2156430000000000</v>
+        <v>2441570000000000</v>
       </c>
       <c r="V49" s="14">
-        <v>2240650000000000</v>
+        <v>2542050000000000</v>
       </c>
       <c r="W49" s="14">
-        <v>2324710000000000</v>
+        <v>2619370000000000</v>
       </c>
       <c r="X49" s="14">
-        <v>2408890000000000</v>
+        <v>2697490000000000</v>
       </c>
       <c r="Y49" s="14">
-        <v>2482570000000000</v>
+        <v>2774610000000000</v>
       </c>
       <c r="Z49" s="14">
-        <v>2556470000000000</v>
+        <v>2833660000000000</v>
       </c>
       <c r="AA49" s="14">
-        <v>2620080000000000</v>
+        <v>2892720000000000</v>
       </c>
       <c r="AB49" s="14">
-        <v>2683510000000000</v>
+        <v>2975430000000000</v>
       </c>
       <c r="AC49" s="14">
-        <v>2747080000000000</v>
+        <v>3034460000000000</v>
       </c>
       <c r="AD49" s="14">
-        <v>2814270000000000</v>
+        <v>3093500000000000</v>
       </c>
       <c r="AE49" s="14">
-        <v>2881610000000000</v>
+        <v>3158480000000000</v>
       </c>
       <c r="AF49" s="14">
-        <v>2948570000000000</v>
+        <v>3217430000000000</v>
       </c>
       <c r="AG49" s="14">
-        <v>3015710000000000</v>
+        <v>3276480000000000</v>
       </c>
       <c r="AH49" s="14">
         <v>3082660000000000</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -13807,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -13911,7 +14015,7 @@
         <v>-302644000000000</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -14015,457 +14119,1366 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A54" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
-      <c r="AB54" s="7"/>
-      <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="7"/>
-      <c r="AH54" s="7"/>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B55">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54">
+        <v>2019</v>
+      </c>
+      <c r="C54">
+        <v>2020</v>
+      </c>
+      <c r="D54">
+        <v>2021</v>
+      </c>
+      <c r="E54">
+        <v>2022</v>
+      </c>
+      <c r="F54">
+        <v>2023</v>
+      </c>
+      <c r="G54">
+        <v>2024</v>
+      </c>
+      <c r="H54">
+        <v>2025</v>
+      </c>
+      <c r="I54">
+        <v>2026</v>
+      </c>
+      <c r="J54">
+        <v>2027</v>
+      </c>
+      <c r="K54">
+        <v>2028</v>
+      </c>
+      <c r="L54">
+        <v>2029</v>
+      </c>
+      <c r="M54">
+        <v>2030</v>
+      </c>
+      <c r="N54">
+        <v>2031</v>
+      </c>
+      <c r="O54">
+        <v>2032</v>
+      </c>
+      <c r="P54">
+        <v>2033</v>
+      </c>
+      <c r="Q54">
+        <v>2034</v>
+      </c>
+      <c r="R54">
+        <v>2035</v>
+      </c>
+      <c r="S54">
+        <v>2036</v>
+      </c>
+      <c r="T54">
+        <v>2037</v>
+      </c>
+      <c r="U54">
+        <v>2038</v>
+      </c>
+      <c r="V54">
+        <v>2039</v>
+      </c>
+      <c r="W54">
+        <v>2040</v>
+      </c>
+      <c r="X54">
+        <v>2041</v>
+      </c>
+      <c r="Y54">
+        <v>2042</v>
+      </c>
+      <c r="Z54">
+        <v>2043</v>
+      </c>
+      <c r="AA54">
+        <v>2044</v>
+      </c>
+      <c r="AB54">
+        <v>2045</v>
+      </c>
+      <c r="AC54">
+        <v>2046</v>
+      </c>
+      <c r="AD54">
+        <v>2047</v>
+      </c>
+      <c r="AE54">
+        <v>2048</v>
+      </c>
+      <c r="AF54">
+        <v>2049</v>
+      </c>
+      <c r="AG54">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="14">
+        <v>192367000000000</v>
+      </c>
+      <c r="C55" s="14">
+        <v>187168000000000</v>
+      </c>
+      <c r="D55" s="14">
+        <v>204217000000000</v>
+      </c>
+      <c r="E55" s="14">
+        <v>217818000000000</v>
+      </c>
+      <c r="F55" s="14">
+        <v>233678000000000</v>
+      </c>
+      <c r="G55" s="14">
+        <v>248534000000000</v>
+      </c>
+      <c r="H55" s="14">
+        <v>263005000000000</v>
+      </c>
+      <c r="I55" s="14">
+        <v>277213000000000</v>
+      </c>
+      <c r="J55" s="14">
+        <v>291287000000000</v>
+      </c>
+      <c r="K55" s="14">
+        <v>309672000000000</v>
+      </c>
+      <c r="L55" s="14">
+        <v>328214000000000</v>
+      </c>
+      <c r="M55" s="14">
+        <v>346736000000000</v>
+      </c>
+      <c r="N55" s="14">
+        <v>365148000000000</v>
+      </c>
+      <c r="O55" s="14">
+        <v>383660000000000</v>
+      </c>
+      <c r="P55" s="14">
+        <v>403652000000000</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>423645000000000</v>
+      </c>
+      <c r="R55" s="14">
+        <v>443639000000000</v>
+      </c>
+      <c r="S55" s="14">
+        <v>463733000000000</v>
+      </c>
+      <c r="T55" s="14">
+        <v>483727000000000</v>
+      </c>
+      <c r="U55" s="14">
+        <v>498244000000000</v>
+      </c>
+      <c r="V55" s="14">
+        <v>512761000000000</v>
+      </c>
+      <c r="W55" s="14">
+        <v>527178000000000</v>
+      </c>
+      <c r="X55" s="14">
+        <v>541695000000000</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>556213000000000</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>565061000000000</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>573910000000000</v>
+      </c>
+      <c r="AB55" s="14">
+        <v>582664000000000</v>
+      </c>
+      <c r="AC55" s="14">
+        <v>591412000000000</v>
+      </c>
+      <c r="AD55" s="14">
+        <v>600260000000000</v>
+      </c>
+      <c r="AE55" s="14">
+        <v>609117000000000</v>
+      </c>
+      <c r="AF55" s="14">
+        <v>617965000000000</v>
+      </c>
+      <c r="AG55" s="14">
+        <v>626814000000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="14">
+        <v>1047430000000</v>
+      </c>
+      <c r="C56" s="14">
+        <v>969342000000</v>
+      </c>
+      <c r="D56" s="14">
+        <v>1008380000000</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1027910000000</v>
+      </c>
+      <c r="F56" s="14">
+        <v>1037670000000</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1042550000000</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1044990000000</v>
+      </c>
+      <c r="I56" s="14">
+        <v>1046210000000</v>
+      </c>
+      <c r="J56" s="14">
+        <v>1046820000000</v>
+      </c>
+      <c r="K56" s="14">
+        <v>1047120000000</v>
+      </c>
+      <c r="L56" s="14">
+        <v>1196880000000</v>
+      </c>
+      <c r="M56" s="14">
+        <v>1196970000000</v>
+      </c>
+      <c r="N56" s="14">
+        <v>1197020000000</v>
+      </c>
+      <c r="O56" s="14">
+        <v>1197060000000</v>
+      </c>
+      <c r="P56" s="14">
+        <v>1197060000000</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>1197060000000</v>
+      </c>
+      <c r="R56" s="14">
+        <v>1197060000000</v>
+      </c>
+      <c r="S56" s="14">
+        <v>1197060000000</v>
+      </c>
+      <c r="T56" s="14">
+        <v>1197060000000</v>
+      </c>
+      <c r="U56" s="14">
+        <v>1346690000000</v>
+      </c>
+      <c r="V56" s="14">
+        <v>1346690000000</v>
+      </c>
+      <c r="W56" s="14">
+        <v>1346690000000</v>
+      </c>
+      <c r="X56" s="14">
+        <v>1346690000000</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>1346690000000</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>1346690000000</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>1346690000000</v>
+      </c>
+      <c r="AB56" s="14">
+        <v>1496320000000</v>
+      </c>
+      <c r="AC56" s="14">
+        <v>1496320000000</v>
+      </c>
+      <c r="AD56" s="14">
+        <v>1496320000000</v>
+      </c>
+      <c r="AE56" s="14">
+        <v>1496320000000</v>
+      </c>
+      <c r="AF56" s="14">
+        <v>1496320000000</v>
+      </c>
+      <c r="AG56" s="14">
+        <v>1496320000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57" s="14">
+        <v>340211000000000</v>
+      </c>
+      <c r="C57" s="14">
+        <v>341892000000000</v>
+      </c>
+      <c r="D57" s="14">
+        <v>383736000000000</v>
+      </c>
+      <c r="E57" s="14">
+        <v>419792000000000</v>
+      </c>
+      <c r="F57" s="14">
+        <v>458275000000000</v>
+      </c>
+      <c r="G57" s="14">
+        <v>495090000000000</v>
+      </c>
+      <c r="H57" s="14">
+        <v>531048000000000</v>
+      </c>
+      <c r="I57" s="14">
+        <v>566449000000000</v>
+      </c>
+      <c r="J57" s="14">
+        <v>601494000000000</v>
+      </c>
+      <c r="K57" s="14">
+        <v>642381000000000</v>
+      </c>
+      <c r="L57" s="14">
+        <v>683249000000000</v>
+      </c>
+      <c r="M57" s="14">
+        <v>724020000000000</v>
+      </c>
+      <c r="N57" s="14">
+        <v>764766000000000</v>
+      </c>
+      <c r="O57" s="14">
+        <v>805423000000000</v>
+      </c>
+      <c r="P57" s="14">
+        <v>844684000000000</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>883800000000000</v>
+      </c>
+      <c r="R57" s="14">
+        <v>923011000000000</v>
+      </c>
+      <c r="S57" s="14">
+        <v>962187000000000</v>
+      </c>
+      <c r="T57" s="14">
+        <v>1001290000000000</v>
+      </c>
+      <c r="U57" s="14">
+        <v>1033950000000000</v>
+      </c>
+      <c r="V57" s="14">
+        <v>1066600000000000</v>
+      </c>
+      <c r="W57" s="14">
+        <v>1099060000000000</v>
+      </c>
+      <c r="X57" s="14">
+        <v>1132240000000000</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>1164420000000000</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>1188980000000000</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>1213550000000000</v>
+      </c>
+      <c r="AB57" s="14">
+        <v>1238970000000000</v>
+      </c>
+      <c r="AC57" s="14">
+        <v>1263610000000000</v>
+      </c>
+      <c r="AD57" s="14">
+        <v>1288180000000000</v>
+      </c>
+      <c r="AE57" s="14">
+        <v>1312750000000000</v>
+      </c>
+      <c r="AF57" s="14">
+        <v>1337220000000000</v>
+      </c>
+      <c r="AG57" s="14">
+        <v>1361800000000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="14">
+        <v>116331000000000</v>
+      </c>
+      <c r="C58" s="14">
+        <v>108917000000000</v>
+      </c>
+      <c r="D58" s="14">
+        <v>114603000000000</v>
+      </c>
+      <c r="E58" s="14">
+        <v>118146000000000</v>
+      </c>
+      <c r="F58" s="14">
+        <v>120379000000000</v>
+      </c>
+      <c r="G58" s="14">
+        <v>122052000000000</v>
+      </c>
+      <c r="H58" s="14">
+        <v>123456000000000</v>
+      </c>
+      <c r="I58" s="14">
+        <v>130632000000000</v>
+      </c>
+      <c r="J58" s="14">
+        <v>131829000000000</v>
+      </c>
+      <c r="K58" s="14">
+        <v>132708000000000</v>
+      </c>
+      <c r="L58" s="14">
+        <v>133568000000000</v>
+      </c>
+      <c r="M58" s="14">
+        <v>134409000000000</v>
+      </c>
+      <c r="N58" s="14">
+        <v>135264000000000</v>
+      </c>
+      <c r="O58" s="14">
+        <v>136110000000000</v>
+      </c>
+      <c r="P58" s="14">
+        <v>136967000000000</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>137824000000000</v>
+      </c>
+      <c r="R58" s="14">
+        <v>138681000000000</v>
+      </c>
+      <c r="S58" s="14">
+        <v>139538000000000</v>
+      </c>
+      <c r="T58" s="14">
+        <v>146313000000000</v>
+      </c>
+      <c r="U58" s="14">
+        <v>147243000000000</v>
+      </c>
+      <c r="V58" s="14">
+        <v>148162000000000</v>
+      </c>
+      <c r="W58" s="14">
+        <v>149092000000000</v>
+      </c>
+      <c r="X58" s="14">
+        <v>150011000000000</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>150931000000000</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>151812000000000</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>152692000000000</v>
+      </c>
+      <c r="AB58" s="14">
+        <v>153573000000000</v>
+      </c>
+      <c r="AC58" s="14">
+        <v>154454000000000</v>
+      </c>
+      <c r="AD58" s="14">
+        <v>155324000000000</v>
+      </c>
+      <c r="AE58" s="14">
+        <v>162124000000000</v>
+      </c>
+      <c r="AF58" s="14">
+        <v>163004000000000</v>
+      </c>
+      <c r="AG58" s="14">
+        <v>163885000000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="14">
+        <v>9812670000000</v>
+      </c>
+      <c r="C59" s="14">
+        <v>9283540000000</v>
+      </c>
+      <c r="D59" s="14">
+        <v>9868780000000</v>
+      </c>
+      <c r="E59" s="14">
+        <v>10275200000000</v>
+      </c>
+      <c r="F59" s="14">
+        <v>10473100000000</v>
+      </c>
+      <c r="G59" s="14">
+        <v>10623100000000</v>
+      </c>
+      <c r="H59" s="14">
+        <v>10749700000000</v>
+      </c>
+      <c r="I59" s="14">
+        <v>10863400000000</v>
+      </c>
+      <c r="J59" s="14">
+        <v>10970900000000</v>
+      </c>
+      <c r="K59" s="14">
+        <v>10957800000000</v>
+      </c>
+      <c r="L59" s="14">
+        <v>10943100000000</v>
+      </c>
+      <c r="M59" s="14">
+        <v>10926900000000</v>
+      </c>
+      <c r="N59" s="14">
+        <v>10911000000000</v>
+      </c>
+      <c r="O59" s="14">
+        <v>10895200000000</v>
+      </c>
+      <c r="P59" s="14">
+        <v>10881700000000</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>10867500000000</v>
+      </c>
+      <c r="R59" s="14">
+        <v>10854100000000</v>
+      </c>
+      <c r="S59" s="14">
+        <v>10840700000000</v>
+      </c>
+      <c r="T59" s="14">
+        <v>10826500000000</v>
+      </c>
+      <c r="U59" s="14">
+        <v>10451300000000</v>
+      </c>
+      <c r="V59" s="14">
+        <v>10075300000000</v>
+      </c>
+      <c r="W59" s="14">
+        <v>9700080000000</v>
+      </c>
+      <c r="X59" s="14">
+        <v>9324880000000</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>8948880000000</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>8639540000000</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>8329400000000</v>
+      </c>
+      <c r="AB59" s="14">
+        <v>8020050000000</v>
+      </c>
+      <c r="AC59" s="14">
+        <v>7709900000000</v>
+      </c>
+      <c r="AD59" s="14">
+        <v>7400560000000</v>
+      </c>
+      <c r="AE59" s="14">
+        <v>7090420000000</v>
+      </c>
+      <c r="AF59" s="14">
+        <v>6781070000000</v>
+      </c>
+      <c r="AG59" s="14">
+        <v>6470920000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="14">
+        <v>8046690000</v>
+      </c>
+      <c r="C60" s="14">
+        <v>7525510000</v>
+      </c>
+      <c r="D60" s="14">
+        <v>7909560000</v>
+      </c>
+      <c r="E60" s="14">
+        <v>8143350000</v>
+      </c>
+      <c r="F60" s="14">
+        <v>8300230000</v>
+      </c>
+      <c r="G60" s="14">
+        <v>8418260000</v>
+      </c>
+      <c r="H60" s="14">
+        <v>8515250000</v>
+      </c>
+      <c r="I60" s="14">
+        <v>8601630000</v>
+      </c>
+      <c r="J60" s="14">
+        <v>8680300000</v>
+      </c>
+      <c r="K60" s="14">
+        <v>8754610000</v>
+      </c>
+      <c r="L60" s="14">
+        <v>8825790000</v>
+      </c>
+      <c r="M60" s="14">
+        <v>8894450000</v>
+      </c>
+      <c r="N60" s="14">
+        <v>8959960000</v>
+      </c>
+      <c r="O60" s="14">
+        <v>9023590000</v>
+      </c>
+      <c r="P60" s="14">
+        <v>9085000000</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>9142630000</v>
+      </c>
+      <c r="R60" s="14">
+        <v>9198370000</v>
+      </c>
+      <c r="S60" s="14">
+        <v>9251280000</v>
+      </c>
+      <c r="T60" s="14">
+        <v>9301350000</v>
+      </c>
+      <c r="U60" s="14">
+        <v>9349540000</v>
+      </c>
+      <c r="V60" s="14">
+        <v>9394890000</v>
+      </c>
+      <c r="W60" s="14">
+        <v>9438350000</v>
+      </c>
+      <c r="X60" s="14">
+        <v>9476140000</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>9513930000</v>
+      </c>
+      <c r="Z60" s="14">
+        <v>9551720000</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>9589510000</v>
+      </c>
+      <c r="AB60" s="14">
+        <v>9617860000</v>
+      </c>
+      <c r="AC60" s="14">
+        <v>9655650000</v>
+      </c>
+      <c r="AD60" s="14">
+        <v>9683990000</v>
+      </c>
+      <c r="AE60" s="14">
+        <v>9702890000</v>
+      </c>
+      <c r="AF60" s="14">
+        <v>9731230000</v>
+      </c>
+      <c r="AG60" s="14">
+        <v>9750120000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="14">
+        <v>42785500000000</v>
+      </c>
+      <c r="C61" s="14">
+        <v>42149400000000</v>
+      </c>
+      <c r="D61" s="14">
+        <v>46503400000000</v>
+      </c>
+      <c r="E61" s="14">
+        <v>50111500000000</v>
+      </c>
+      <c r="F61" s="14">
+        <v>53998200000000</v>
+      </c>
+      <c r="G61" s="14">
+        <v>57679200000000</v>
+      </c>
+      <c r="H61" s="14">
+        <v>61249200000000</v>
+      </c>
+      <c r="I61" s="14">
+        <v>64759700000000</v>
+      </c>
+      <c r="J61" s="14">
+        <v>68238500000000</v>
+      </c>
+      <c r="K61" s="14">
+        <v>71765200000000</v>
+      </c>
+      <c r="L61" s="14">
+        <v>75283000000000</v>
+      </c>
+      <c r="M61" s="14">
+        <v>78796100000000</v>
+      </c>
+      <c r="N61" s="14">
+        <v>82306800000000</v>
+      </c>
+      <c r="O61" s="14">
+        <v>85817700000000</v>
+      </c>
+      <c r="P61" s="14">
+        <v>86998500000000</v>
+      </c>
+      <c r="Q61" s="14">
+        <v>88179600000000</v>
+      </c>
+      <c r="R61" s="14">
+        <v>89352600000000</v>
+      </c>
+      <c r="S61" s="14">
+        <v>90533500000000</v>
+      </c>
+      <c r="T61" s="14">
+        <v>91714600000000</v>
+      </c>
+      <c r="U61" s="14">
+        <v>93134800000000</v>
+      </c>
+      <c r="V61" s="14">
+        <v>94563100000000</v>
+      </c>
+      <c r="W61" s="14">
+        <v>95983400000000</v>
+      </c>
+      <c r="X61" s="14">
+        <v>97411800000000</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>98832000000000</v>
+      </c>
+      <c r="Z61" s="14">
+        <v>99859400000000</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>100887000000000</v>
+      </c>
+      <c r="AB61" s="14">
+        <v>101906000000000</v>
+      </c>
+      <c r="AC61" s="14">
+        <v>102934000000000</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>103961000000000</v>
+      </c>
+      <c r="AE61" s="14">
+        <v>104988000000000</v>
+      </c>
+      <c r="AF61" s="14">
+        <v>106008000000000</v>
+      </c>
+      <c r="AG61" s="14">
+        <v>107035000000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="14">
+        <v>325415000000000</v>
+      </c>
+      <c r="C62" s="14">
+        <v>310622000000000</v>
+      </c>
+      <c r="D62" s="14">
+        <v>332989000000000</v>
+      </c>
+      <c r="E62" s="14">
+        <v>349484000000000</v>
+      </c>
+      <c r="F62" s="14">
+        <v>365685000000000</v>
+      </c>
+      <c r="G62" s="14">
+        <v>380348000000000</v>
+      </c>
+      <c r="H62" s="14">
+        <v>394316000000000</v>
+      </c>
+      <c r="I62" s="14">
+        <v>407765000000000</v>
+      </c>
+      <c r="J62" s="14">
+        <v>421009000000000</v>
+      </c>
+      <c r="K62" s="14">
+        <v>436055000000000</v>
+      </c>
+      <c r="L62" s="14">
+        <v>451052000000000</v>
+      </c>
+      <c r="M62" s="14">
+        <v>466022000000000</v>
+      </c>
+      <c r="N62" s="14">
+        <v>503755000000000</v>
+      </c>
+      <c r="O62" s="14">
+        <v>518701000000000</v>
+      </c>
+      <c r="P62" s="14">
+        <v>540675000000000</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>562735000000000</v>
+      </c>
+      <c r="R62" s="14">
+        <v>584709000000000</v>
+      </c>
+      <c r="S62" s="14">
+        <v>606768000000000</v>
+      </c>
+      <c r="T62" s="14">
+        <v>628742000000000</v>
+      </c>
+      <c r="U62" s="14">
+        <v>657191000000000</v>
+      </c>
+      <c r="V62" s="14">
+        <v>708534000000000</v>
+      </c>
+      <c r="W62" s="14">
+        <v>737001000000000</v>
+      </c>
+      <c r="X62" s="14">
+        <v>765450000000000</v>
+      </c>
+      <c r="Y62" s="14">
+        <v>793916000000000</v>
+      </c>
+      <c r="Z62" s="14">
+        <v>817953000000000</v>
+      </c>
+      <c r="AA62" s="14">
+        <v>841988000000000</v>
+      </c>
+      <c r="AB62" s="14">
+        <v>888797000000000</v>
+      </c>
+      <c r="AC62" s="14">
+        <v>912841000000000</v>
+      </c>
+      <c r="AD62" s="14">
+        <v>936868000000000</v>
+      </c>
+      <c r="AE62" s="14">
+        <v>960903000000000</v>
+      </c>
+      <c r="AF62" s="14">
+        <v>984939000000000</v>
+      </c>
+      <c r="AG62" s="14">
+        <v>1008970000000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A79" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B80">
         <v>2018</v>
       </c>
-      <c r="C55">
+      <c r="C80">
         <v>2019</v>
       </c>
-      <c r="D55">
+      <c r="D80">
         <v>2020</v>
       </c>
-      <c r="E55">
+      <c r="E80">
         <v>2021</v>
       </c>
-      <c r="F55">
+      <c r="F80">
         <v>2022</v>
       </c>
-      <c r="G55">
+      <c r="G80">
         <v>2023</v>
       </c>
-      <c r="H55">
+      <c r="H80">
         <v>2024</v>
       </c>
-      <c r="I55">
+      <c r="I80">
         <v>2025</v>
       </c>
-      <c r="J55">
+      <c r="J80">
         <v>2026</v>
       </c>
-      <c r="K55">
+      <c r="K80">
         <v>2027</v>
       </c>
-      <c r="L55">
+      <c r="L80">
         <v>2028</v>
       </c>
-      <c r="M55">
+      <c r="M80">
         <v>2029</v>
       </c>
-      <c r="N55">
+      <c r="N80">
         <v>2030</v>
       </c>
-      <c r="O55">
+      <c r="O80">
         <v>2031</v>
       </c>
-      <c r="P55">
+      <c r="P80">
         <v>2032</v>
       </c>
-      <c r="Q55">
+      <c r="Q80">
         <v>2033</v>
       </c>
-      <c r="R55">
+      <c r="R80">
         <v>2034</v>
       </c>
-      <c r="S55">
+      <c r="S80">
         <v>2035</v>
       </c>
-      <c r="T55">
+      <c r="T80">
         <v>2036</v>
       </c>
-      <c r="U55">
+      <c r="U80">
         <v>2037</v>
       </c>
-      <c r="V55">
+      <c r="V80">
         <v>2038</v>
       </c>
-      <c r="W55">
+      <c r="W80">
         <v>2039</v>
       </c>
-      <c r="X55">
+      <c r="X80">
         <v>2040</v>
       </c>
-      <c r="Y55">
+      <c r="Y80">
         <v>2041</v>
       </c>
-      <c r="Z55">
+      <c r="Z80">
         <v>2042</v>
       </c>
-      <c r="AA55">
+      <c r="AA80">
         <v>2043</v>
       </c>
-      <c r="AB55">
+      <c r="AB80">
         <v>2044</v>
       </c>
-      <c r="AC55">
+      <c r="AC80">
         <v>2045</v>
       </c>
-      <c r="AD55">
+      <c r="AD80">
         <v>2046</v>
       </c>
-      <c r="AE55">
+      <c r="AE80">
         <v>2047</v>
       </c>
-      <c r="AF55">
+      <c r="AF80">
         <v>2048</v>
       </c>
-      <c r="AG55">
+      <c r="AG80">
         <v>2049</v>
       </c>
-      <c r="AH55">
+      <c r="AH80">
         <v>2050</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B81" s="17">
         <f>B23*10^6/B46</f>
         <v>0</v>
       </c>
-      <c r="C56" s="17">
-        <f t="shared" ref="C56:AH56" si="14">C23*10^6/C46</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="17">
+      <c r="C81" s="17">
+        <f t="shared" ref="C81:AH81" si="14">C23*10^6/C46</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E81" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F81" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G81" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H81" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I81" s="17">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J81" s="17">
         <f t="shared" si="14"/>
-        <v>3.7460853967372895E-4</v>
-      </c>
-      <c r="K56" s="17">
+        <v>4.642905882599727E-4</v>
+      </c>
+      <c r="K81" s="17">
         <f t="shared" si="14"/>
-        <v>1.328198698762336E-3</v>
-      </c>
-      <c r="L56" s="17">
+        <v>1.6214800816513959E-3</v>
+      </c>
+      <c r="L81" s="17">
         <f t="shared" si="14"/>
-        <v>2.2525963247789797E-3</v>
-      </c>
-      <c r="M56" s="17">
+        <v>2.7307074134713164E-3</v>
+      </c>
+      <c r="M81" s="17">
         <f t="shared" si="14"/>
-        <v>3.1102255004747288E-3</v>
-      </c>
-      <c r="N56" s="17">
+        <v>3.8114741427793383E-3</v>
+      </c>
+      <c r="N81" s="17">
         <f t="shared" si="14"/>
-        <v>3.929671921941858E-3</v>
-      </c>
-      <c r="O56" s="17">
+        <v>4.8387912047127106E-3</v>
+      </c>
+      <c r="O81" s="17">
         <f t="shared" si="14"/>
-        <v>4.7011453999807129E-3</v>
-      </c>
-      <c r="P56" s="17">
+        <v>5.8519941806813979E-3</v>
+      </c>
+      <c r="P81" s="17">
         <f t="shared" si="14"/>
-        <v>5.4347712949410938E-3</v>
-      </c>
-      <c r="Q56" s="17">
+        <v>6.669580390696284E-3</v>
+      </c>
+      <c r="Q81" s="17">
         <f t="shared" si="14"/>
-        <v>6.1079125783944027E-3</v>
-      </c>
-      <c r="R56" s="17">
+        <v>7.4900591671078036E-3</v>
+      </c>
+      <c r="R81" s="17">
         <f t="shared" si="14"/>
-        <v>6.8582401555642566E-3</v>
-      </c>
-      <c r="S56" s="17">
+        <v>8.2297370278012066E-3</v>
+      </c>
+      <c r="S81" s="17">
         <f t="shared" si="14"/>
-        <v>7.5918427061665962E-3</v>
-      </c>
-      <c r="T56" s="17">
+        <v>8.9249610199626395E-3</v>
+      </c>
+      <c r="T81" s="17">
         <f t="shared" si="14"/>
-        <v>8.3179811179460977E-3</v>
-      </c>
-      <c r="U56" s="17">
+        <v>9.598434279312321E-3</v>
+      </c>
+      <c r="U81" s="17">
         <f t="shared" si="14"/>
-        <v>9.0227161414297777E-3</v>
-      </c>
-      <c r="V56" s="17">
+        <v>1.0255463381616597E-2</v>
+      </c>
+      <c r="V81" s="17">
         <f t="shared" si="14"/>
-        <v>9.7028162211125792E-3</v>
-      </c>
-      <c r="W56" s="17">
+        <v>1.0945214770170271E-2</v>
+      </c>
+      <c r="W81" s="17">
         <f t="shared" si="14"/>
-        <v>1.0393621113959906E-2</v>
-      </c>
-      <c r="X56" s="17">
+        <v>1.1625125074811235E-2</v>
+      </c>
+      <c r="X81" s="17">
         <f t="shared" si="14"/>
-        <v>1.1090065486425254E-2</v>
-      </c>
-      <c r="Y56" s="17">
+        <v>1.2337422168361249E-2</v>
+      </c>
+      <c r="Y81" s="17">
         <f t="shared" si="14"/>
-        <v>1.1783095541487024E-2</v>
-      </c>
-      <c r="Z56" s="17">
+        <v>1.3058544314166526E-2</v>
+      </c>
+      <c r="Z81" s="17">
         <f t="shared" si="14"/>
-        <v>1.2471546421713916E-2</v>
-      </c>
-      <c r="AA56" s="17">
+        <v>1.3815609633049668E-2</v>
+      </c>
+      <c r="AA81" s="17">
         <f t="shared" si="14"/>
-        <v>1.3212712814938502E-2</v>
-      </c>
-      <c r="AB56" s="17">
+        <v>1.4598815490102762E-2</v>
+      </c>
+      <c r="AB81" s="17">
         <f t="shared" si="14"/>
-        <v>1.394820338788535E-2</v>
-      </c>
-      <c r="AC56" s="17">
+        <v>1.5386524630958024E-2</v>
+      </c>
+      <c r="AC81" s="17">
         <f t="shared" si="14"/>
-        <v>1.4677943773216228E-2</v>
-      </c>
-      <c r="AD56" s="17">
+        <v>1.6199450548471397E-2</v>
+      </c>
+      <c r="AD81" s="17">
         <f t="shared" si="14"/>
-        <v>1.54086830740141E-2</v>
-      </c>
-      <c r="AE56" s="17">
+        <v>1.6996584268369471E-2</v>
+      </c>
+      <c r="AE81" s="17">
         <f t="shared" si="14"/>
-        <v>1.6134901423009378E-2</v>
-      </c>
-      <c r="AF56" s="17">
+        <v>1.7789202468770093E-2</v>
+      </c>
+      <c r="AF81" s="17">
         <f t="shared" si="14"/>
-        <v>1.6849932020891689E-2</v>
-      </c>
-      <c r="AG56" s="17">
+        <v>1.8588598870228533E-2</v>
+      </c>
+      <c r="AG81" s="17">
         <f t="shared" si="14"/>
-        <v>1.7564722957394308E-2</v>
-      </c>
-      <c r="AH56" s="17">
+        <v>1.9367074132053425E-2</v>
+      </c>
+      <c r="AH81" s="17">
         <f t="shared" si="14"/>
         <v>1.8277780593057246E-2</v>
       </c>
-      <c r="AI56" s="10"/>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="AI81" s="10"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B82" s="18">
         <f>B24*10^6/B49</f>
         <v>0</v>
       </c>
-      <c r="C57" s="18">
-        <f t="shared" ref="C57:AH57" si="15">C24*10^6/C49</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="18">
+      <c r="C82" s="18">
+        <f t="shared" ref="C82:AH82" si="15">C24*10^6/C49</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E82" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F82" s="18">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G82" s="18">
         <f t="shared" si="15"/>
-        <v>8.0662021554832016E-4</v>
-      </c>
-      <c r="H57" s="18">
+        <v>7.8290078090782918E-4</v>
+      </c>
+      <c r="H82" s="18">
         <f t="shared" si="15"/>
-        <v>1.8798790400796422E-3</v>
-      </c>
-      <c r="I57" s="18">
+        <v>1.8182245241646045E-3</v>
+      </c>
+      <c r="I82" s="18">
         <f t="shared" si="15"/>
-        <v>2.8605124694651971E-3</v>
-      </c>
-      <c r="J57" s="18">
+        <v>2.7463657189492935E-3</v>
+      </c>
+      <c r="J82" s="18">
         <f t="shared" si="15"/>
-        <v>3.7544975015508975E-3</v>
-      </c>
-      <c r="K57" s="18">
+        <v>3.6008364214057658E-3</v>
+      </c>
+      <c r="K82" s="18">
         <f t="shared" si="15"/>
-        <v>4.5753099468792049E-3</v>
-      </c>
-      <c r="L57" s="18">
+        <v>4.3516484036701776E-3</v>
+      </c>
+      <c r="L82" s="18">
         <f t="shared" si="15"/>
-        <v>5.3191581759501807E-3</v>
-      </c>
-      <c r="M57" s="18">
+        <v>5.0316395281102579E-3</v>
+      </c>
+      <c r="M82" s="18">
         <f t="shared" si="15"/>
-        <v>6.0032047356167227E-3</v>
-      </c>
-      <c r="N57" s="18">
+        <v>5.6517584093017043E-3</v>
+      </c>
+      <c r="N82" s="18">
         <f t="shared" si="15"/>
-        <v>6.6353392522798841E-3</v>
-      </c>
-      <c r="O57" s="18">
+        <v>6.1433578471327367E-3</v>
+      </c>
+      <c r="O82" s="18">
         <f t="shared" si="15"/>
-        <v>7.2734673608300885E-3</v>
-      </c>
-      <c r="P57" s="18">
+        <v>6.6615673149629838E-3</v>
+      </c>
+      <c r="P82" s="18">
         <f t="shared" si="15"/>
-        <v>7.8753098687437181E-3</v>
-      </c>
-      <c r="Q57" s="18">
+        <v>7.1226081092425949E-3</v>
+      </c>
+      <c r="Q82" s="18">
         <f t="shared" si="15"/>
-        <v>8.4181587710956806E-3</v>
-      </c>
-      <c r="R57" s="18">
+        <v>7.5474180260201992E-3</v>
+      </c>
+      <c r="R82" s="18">
         <f t="shared" si="15"/>
-        <v>8.9293255727669711E-3</v>
-      </c>
-      <c r="S57" s="18">
+        <v>7.9400078839911292E-3</v>
+      </c>
+      <c r="S82" s="18">
         <f t="shared" si="15"/>
-        <v>9.4095902693635391E-3</v>
-      </c>
-      <c r="T57" s="18">
+        <v>8.3032609436422822E-3</v>
+      </c>
+      <c r="T82" s="18">
         <f t="shared" si="15"/>
-        <v>9.7873846147025021E-3</v>
-      </c>
-      <c r="U57" s="18">
+        <v>8.6201791071407446E-3</v>
+      </c>
+      <c r="U82" s="18">
         <f t="shared" si="15"/>
-        <v>1.0139333308698159E-2</v>
-      </c>
-      <c r="V57" s="18">
+        <v>8.9552060874257024E-3</v>
+      </c>
+      <c r="V82" s="18">
         <f t="shared" si="15"/>
-        <v>1.0422410138446874E-2</v>
-      </c>
-      <c r="W57" s="18">
+        <v>9.1866695292031984E-3</v>
+      </c>
+      <c r="W82" s="18">
         <f t="shared" si="15"/>
-        <v>1.0685713068101193E-2</v>
-      </c>
-      <c r="X57" s="18">
+        <v>9.4836483683273173E-3</v>
+      </c>
+      <c r="X82" s="18">
         <f t="shared" si="15"/>
-        <v>1.0930094265981453E-2</v>
-      </c>
-      <c r="Y57" s="18">
+        <v>9.7607015323059824E-3</v>
+      </c>
+      <c r="Y82" s="18">
         <f t="shared" si="15"/>
-        <v>1.1205164618204151E-2</v>
-      </c>
-      <c r="Z57" s="18">
+        <v>1.0025771379118174E-2</v>
+      </c>
+      <c r="Z82" s="18">
         <f t="shared" si="15"/>
-        <v>1.146339142491389E-2</v>
-      </c>
-      <c r="AA57" s="18">
+        <v>1.034203689788105E-2</v>
+      </c>
+      <c r="AA82" s="18">
         <f t="shared" si="15"/>
-        <v>1.175308655685481E-2</v>
-      </c>
-      <c r="AB57" s="18">
+        <v>1.064535351706496E-2</v>
+      </c>
+      <c r="AB82" s="18">
         <f t="shared" si="15"/>
-        <v>1.2029855590521058E-2</v>
-      </c>
-      <c r="AC57" s="18">
+        <v>1.0849604183502608E-2</v>
+      </c>
+      <c r="AC82" s="18">
         <f t="shared" si="15"/>
-        <v>1.2293216260740022E-2</v>
-      </c>
-      <c r="AD57" s="18">
+        <v>1.1128981276917048E-2</v>
+      </c>
+      <c r="AD82" s="18">
         <f t="shared" si="15"/>
-        <v>1.2528527566789342E-2</v>
-      </c>
-      <c r="AE57" s="18">
+        <v>1.1397659374620412E-2</v>
+      </c>
+      <c r="AE82" s="18">
         <f t="shared" si="15"/>
-        <v>1.2752201035262669E-2</v>
-      </c>
-      <c r="AF57" s="18">
+        <v>1.1634352607970688E-2</v>
+      </c>
+      <c r="AF82" s="18">
         <f t="shared" si="15"/>
-        <v>1.2967330188890815E-2</v>
-      </c>
-      <c r="AG57" s="18">
+        <v>1.1883733531128196E-2</v>
+      </c>
+      <c r="AG82" s="18">
         <f t="shared" si="15"/>
-        <v>1.3172119177537737E-2</v>
-      </c>
-      <c r="AH57" s="18">
+        <v>1.212377048689213E-2</v>
+      </c>
+      <c r="AH82" s="18">
         <f t="shared" si="15"/>
         <v>1.3368812089146174E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="16" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19">
+        <v>2018</v>
+      </c>
+      <c r="C101" s="19">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="20">
+        <v>0</v>
+      </c>
+      <c r="C102" s="21">
+        <f>AH81</f>
+        <v>1.8277780593057246E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="19">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="20">
-        <v>0</v>
-      </c>
-      <c r="C77" s="21">
-        <f>AH56</f>
-        <v>1.8277780593057246E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="21">
-        <v>0</v>
-      </c>
-      <c r="C78" s="21">
-        <f>AH57</f>
+      <c r="B103" s="21">
+        <v>0</v>
+      </c>
+      <c r="C103" s="21">
+        <f>AH82</f>
         <v>1.3368812089146174E-2</v>
       </c>
     </row>
@@ -14485,10 +15498,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14496,1005 +15509,2746 @@
     <col min="1" max="1" width="44.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,C39)</f>
+        <v>5.7118064353312015E-4</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,D39)</f>
+        <v>1.1423612870660182E-3</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,E39)</f>
+        <v>1.7135419305991384E-3</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,F39)</f>
+        <v>2.2847225741322585E-3</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,G39)</f>
+        <v>2.8559032176651566E-3</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,H39)</f>
+        <v>3.4270838611982768E-3</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,I39)</f>
+        <v>3.9982645047311749E-3</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,J39)</f>
+        <v>4.569445148264295E-3</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,K39)</f>
+        <v>5.1406257917974152E-3</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,L39)</f>
+        <v>5.7118064353303133E-3</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,M39)</f>
+        <v>6.2829870788634334E-3</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,N39)</f>
+        <v>6.8541677223965536E-3</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,O39)</f>
+        <v>7.4253483659294517E-3</v>
+      </c>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,P39)</f>
+        <v>7.9965290094625718E-3</v>
+      </c>
+      <c r="P2" cm="1">
+        <f t="array" ref="P2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Q39)</f>
+        <v>8.5677096529954699E-3</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,R39)</f>
+        <v>9.1388902965285901E-3</v>
+      </c>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,S39)</f>
+        <v>9.7100709400617102E-3</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" ref="S2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,T39)</f>
+        <v>1.0281251583594608E-2</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,U39)</f>
+        <v>1.0852432227127728E-2</v>
+      </c>
+      <c r="U2" cm="1">
+        <f t="array" ref="U2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,V39)</f>
+        <v>1.1423612870660849E-2</v>
+      </c>
+      <c r="V2" cm="1">
+        <f t="array" ref="V2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,W39)</f>
+        <v>1.1994793514193747E-2</v>
+      </c>
+      <c r="W2" cm="1">
+        <f t="array" ref="W2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,X39)</f>
+        <v>1.2565974157726867E-2</v>
+      </c>
+      <c r="X2" cm="1">
+        <f t="array" ref="X2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Y39)</f>
+        <v>1.3137154801259987E-2</v>
+      </c>
+      <c r="Y2" cm="1">
+        <f t="array" ref="Y2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Z39)</f>
+        <v>1.3708335444792885E-2</v>
+      </c>
+      <c r="Z2" cm="1">
+        <f t="array" ref="Z2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AA39)</f>
+        <v>1.4279516088326005E-2</v>
+      </c>
+      <c r="AA2" cm="1">
+        <f t="array" ref="AA2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AB39)</f>
+        <v>1.4850696731858903E-2</v>
+      </c>
+      <c r="AB2" cm="1">
+        <f t="array" ref="AB2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AC39)</f>
+        <v>1.5421877375392024E-2</v>
+      </c>
+      <c r="AC2" cm="1">
+        <f t="array" ref="AC2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AD39)</f>
+        <v>1.5993058018925144E-2</v>
+      </c>
+      <c r="AD2" cm="1">
+        <f t="array" ref="AD2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AE39)</f>
+        <v>1.6564238662458042E-2</v>
+      </c>
+      <c r="AE2" cm="1">
+        <f t="array" ref="AE2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AF39)</f>
+        <v>1.7135419305991162E-2</v>
+      </c>
+      <c r="AF2" cm="1">
+        <f t="array" ref="AF2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AG39)</f>
+        <v>1.7706599949524282E-2</v>
+      </c>
+      <c r="AG2" cm="1">
+        <f t="array" ref="AG2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AH39)</f>
+        <v>1.827778059305718E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B39" s="1">
         <v>2018</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C39" s="1">
         <v>2019</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D39" s="1">
         <v>2020</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E39" s="1">
         <v>2021</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F39" s="1">
         <v>2022</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G39" s="1">
         <v>2023</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H39" s="1">
         <v>2024</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I39" s="1">
         <v>2025</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J39" s="1">
         <v>2026</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K39" s="1">
         <v>2027</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L39" s="1">
         <v>2028</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M39" s="1">
         <v>2029</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N39" s="1">
         <v>2030</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O39" s="1">
         <v>2031</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P39" s="1">
         <v>2032</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q39" s="1">
         <v>2033</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R39" s="1">
         <v>2034</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S39" s="1">
         <v>2035</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T39" s="1">
         <v>2036</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U39" s="1">
         <v>2037</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V39" s="1">
         <v>2038</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W39" s="1">
         <v>2039</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X39" s="1">
         <v>2040</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y39" s="1">
         <v>2041</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z39" s="1">
         <v>2042</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA39" s="1">
         <v>2043</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB39" s="1">
         <v>2044</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC39" s="1">
         <v>2045</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD39" s="1">
         <v>2046</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE39" s="1">
         <v>2047</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF39" s="1">
         <v>2048</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG39" s="1">
         <v>2049</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH39" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A40" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7">
-        <v>0</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="7">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7">
+        <v>0</v>
+      </c>
+      <c r="V40" s="7">
+        <v>0</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0</v>
+      </c>
+      <c r="X40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" cm="1">
-        <f t="array" ref="B3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,B1)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" cm="1">
-        <f t="array" ref="C3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,C1)</f>
-        <v>5.7118064353312015E-4</v>
-      </c>
-      <c r="D3" cm="1">
-        <f t="array" ref="D3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,D1)</f>
+      <c r="B41" cm="1">
+        <f t="array" ref="B41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,B39)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" cm="1">
+        <f t="array" ref="D41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,D39)</f>
         <v>1.1423612870660182E-3</v>
       </c>
-      <c r="E3" cm="1">
-        <f t="array" ref="E3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,E1)</f>
+      <c r="E41" cm="1">
+        <f t="array" ref="E41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,E39)</f>
         <v>1.7135419305991384E-3</v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,F1)</f>
+      <c r="F41" cm="1">
+        <f t="array" ref="F41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,F39)</f>
         <v>2.2847225741322585E-3</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,G1)</f>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,G39)</f>
         <v>2.8559032176651566E-3</v>
       </c>
-      <c r="H3" cm="1">
-        <f t="array" ref="H3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,H1)</f>
+      <c r="H41" cm="1">
+        <f t="array" ref="H41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,H39)</f>
         <v>3.4270838611982768E-3</v>
       </c>
-      <c r="I3" cm="1">
-        <f t="array" ref="I3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,I1)</f>
+      <c r="I41" cm="1">
+        <f t="array" ref="I41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,I39)</f>
         <v>3.9982645047311749E-3</v>
       </c>
-      <c r="J3" cm="1">
-        <f t="array" ref="J3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,J1)</f>
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,J39)</f>
         <v>4.569445148264295E-3</v>
       </c>
-      <c r="K3" cm="1">
-        <f t="array" ref="K3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,K1)</f>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,K39)</f>
         <v>5.1406257917974152E-3</v>
       </c>
-      <c r="L3" cm="1">
-        <f t="array" ref="L3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,L1)</f>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,L39)</f>
         <v>5.7118064353303133E-3</v>
       </c>
-      <c r="M3" cm="1">
-        <f t="array" ref="M3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,M1)</f>
+      <c r="M41" cm="1">
+        <f t="array" ref="M41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,M39)</f>
         <v>6.2829870788634334E-3</v>
       </c>
-      <c r="N3" cm="1">
-        <f t="array" ref="N3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,N1)</f>
+      <c r="N41" cm="1">
+        <f t="array" ref="N41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,N39)</f>
         <v>6.8541677223965536E-3</v>
       </c>
-      <c r="O3" cm="1">
-        <f t="array" ref="O3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,O1)</f>
+      <c r="O41" cm="1">
+        <f t="array" ref="O41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,O39)</f>
         <v>7.4253483659294517E-3</v>
       </c>
-      <c r="P3" cm="1">
-        <f t="array" ref="P3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,P1)</f>
+      <c r="P41" cm="1">
+        <f t="array" ref="P41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,P39)</f>
         <v>7.9965290094625718E-3</v>
       </c>
-      <c r="Q3" cm="1">
-        <f t="array" ref="Q3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,Q1)</f>
+      <c r="Q41" cm="1">
+        <f t="array" ref="Q41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Q39)</f>
         <v>8.5677096529954699E-3</v>
       </c>
-      <c r="R3" cm="1">
-        <f t="array" ref="R3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,R1)</f>
+      <c r="R41" cm="1">
+        <f t="array" ref="R41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,R39)</f>
         <v>9.1388902965285901E-3</v>
       </c>
-      <c r="S3" cm="1">
-        <f t="array" ref="S3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,S1)</f>
+      <c r="S41" cm="1">
+        <f t="array" ref="S41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,S39)</f>
         <v>9.7100709400617102E-3</v>
       </c>
-      <c r="T3" cm="1">
-        <f t="array" ref="T3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,T1)</f>
+      <c r="T41" cm="1">
+        <f t="array" ref="T41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,T39)</f>
         <v>1.0281251583594608E-2</v>
       </c>
-      <c r="U3" cm="1">
-        <f t="array" ref="U3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,U1)</f>
+      <c r="U41" cm="1">
+        <f t="array" ref="U41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,U39)</f>
         <v>1.0852432227127728E-2</v>
       </c>
-      <c r="V3" cm="1">
-        <f t="array" ref="V3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,V1)</f>
+      <c r="V41" cm="1">
+        <f t="array" ref="V41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,V39)</f>
         <v>1.1423612870660849E-2</v>
       </c>
-      <c r="W3" cm="1">
-        <f t="array" ref="W3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,W1)</f>
+      <c r="W41" cm="1">
+        <f t="array" ref="W41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,W39)</f>
         <v>1.1994793514193747E-2</v>
       </c>
-      <c r="X3" cm="1">
-        <f t="array" ref="X3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,X1)</f>
+      <c r="X41" cm="1">
+        <f t="array" ref="X41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,X39)</f>
         <v>1.2565974157726867E-2</v>
       </c>
-      <c r="Y3" cm="1">
-        <f t="array" ref="Y3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,Y1)</f>
+      <c r="Y41" cm="1">
+        <f t="array" ref="Y41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Y39)</f>
         <v>1.3137154801259987E-2</v>
       </c>
-      <c r="Z3" cm="1">
-        <f t="array" ref="Z3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,Z1)</f>
+      <c r="Z41" cm="1">
+        <f t="array" ref="Z41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Z39)</f>
         <v>1.3708335444792885E-2</v>
       </c>
-      <c r="AA3" cm="1">
-        <f t="array" ref="AA3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,AA1)</f>
+      <c r="AA41" cm="1">
+        <f t="array" ref="AA41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AA39)</f>
         <v>1.4279516088326005E-2</v>
       </c>
-      <c r="AB3" cm="1">
-        <f t="array" ref="AB3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,AB1)</f>
+      <c r="AB41" cm="1">
+        <f t="array" ref="AB41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AB39)</f>
         <v>1.4850696731858903E-2</v>
       </c>
-      <c r="AC3" cm="1">
-        <f t="array" ref="AC3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,AC1)</f>
+      <c r="AC41" cm="1">
+        <f t="array" ref="AC41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AC39)</f>
         <v>1.5421877375392024E-2</v>
       </c>
-      <c r="AD3" cm="1">
-        <f t="array" ref="AD3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,AD1)</f>
+      <c r="AD41" cm="1">
+        <f t="array" ref="AD41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AD39)</f>
         <v>1.5993058018925144E-2</v>
       </c>
-      <c r="AE3" cm="1">
-        <f t="array" ref="AE3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,AE1)</f>
+      <c r="AE41" cm="1">
+        <f t="array" ref="AE41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AE39)</f>
         <v>1.6564238662458042E-2</v>
       </c>
-      <c r="AF3" cm="1">
-        <f t="array" ref="AF3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,AF1)</f>
+      <c r="AF41" cm="1">
+        <f t="array" ref="AF41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AF39)</f>
         <v>1.7135419305991162E-2</v>
       </c>
-      <c r="AG3" cm="1">
-        <f t="array" ref="AG3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,AG1)</f>
+      <c r="AG41" cm="1">
+        <f t="array" ref="AG41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AG39)</f>
         <v>1.7706599949524282E-2</v>
       </c>
-      <c r="AH3" cm="1">
-        <f t="array" ref="AH3">TREND('BAU Calculations'!$B77:$C77,'BAU Calculations'!$B76:$C76,AH1)</f>
+      <c r="AH41" cm="1">
+        <f t="array" ref="AH41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AH39)</f>
         <v>1.827778059305718E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0</v>
+      </c>
+      <c r="X42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0</v>
+      </c>
+      <c r="U43" s="7">
+        <v>0</v>
+      </c>
+      <c r="V43" s="7">
+        <v>0</v>
+      </c>
+      <c r="W43" s="7">
+        <v>0</v>
+      </c>
+      <c r="X43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" cm="1">
-        <f t="array" ref="B6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,B1)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" cm="1">
-        <f t="array" ref="C6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,C1)</f>
-        <v>4.1777537778586726E-4</v>
-      </c>
-      <c r="D6" cm="1">
-        <f t="array" ref="D6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,D1)</f>
+      <c r="B44" cm="1">
+        <f t="array" ref="B44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B39)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" cm="1">
+        <f t="array" ref="D44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D39)</f>
         <v>8.355507555716235E-4</v>
       </c>
-      <c r="E6" cm="1">
-        <f t="array" ref="E6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,E1)</f>
+      <c r="E44" cm="1">
+        <f t="array" ref="E44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E39)</f>
         <v>1.2533261333574908E-3</v>
       </c>
-      <c r="F6" cm="1">
-        <f t="array" ref="F6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,F1)</f>
+      <c r="F44" cm="1">
+        <f t="array" ref="F44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F39)</f>
         <v>1.671101511143358E-3</v>
       </c>
-      <c r="G6" cm="1">
-        <f t="array" ref="G6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,G1)</f>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G39)</f>
         <v>2.0888768889291143E-3</v>
       </c>
-      <c r="H6" cm="1">
-        <f t="array" ref="H6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,H1)</f>
+      <c r="H44" cm="1">
+        <f t="array" ref="H44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H39)</f>
         <v>2.5066522667149815E-3</v>
       </c>
-      <c r="I6" cm="1">
-        <f t="array" ref="I6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,I1)</f>
+      <c r="I44" cm="1">
+        <f t="array" ref="I44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I39)</f>
         <v>2.9244276445007378E-3</v>
       </c>
-      <c r="J6" cm="1">
-        <f t="array" ref="J6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,J1)</f>
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J39)</f>
         <v>3.342203022286605E-3</v>
       </c>
-      <c r="K6" cm="1">
-        <f t="array" ref="K6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,K1)</f>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K39)</f>
         <v>3.7599784000723613E-3</v>
       </c>
-      <c r="L6" cm="1">
-        <f t="array" ref="L6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,L1)</f>
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L39)</f>
         <v>4.1777537778582285E-3</v>
       </c>
-      <c r="M6" cm="1">
-        <f t="array" ref="M6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,M1)</f>
+      <c r="M44" cm="1">
+        <f t="array" ref="M44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M39)</f>
         <v>4.5955291556439848E-3</v>
       </c>
-      <c r="N6" cm="1">
-        <f t="array" ref="N6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,N1)</f>
+      <c r="N44" cm="1">
+        <f t="array" ref="N44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N39)</f>
         <v>5.0133045334298521E-3</v>
       </c>
-      <c r="O6" cm="1">
-        <f t="array" ref="O6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,O1)</f>
+      <c r="O44" cm="1">
+        <f t="array" ref="O44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O39)</f>
         <v>5.4310799112157193E-3</v>
       </c>
-      <c r="P6" cm="1">
-        <f t="array" ref="P6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,P1)</f>
+      <c r="P44" cm="1">
+        <f t="array" ref="P44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P39)</f>
         <v>5.8488552890014756E-3</v>
       </c>
-      <c r="Q6" cm="1">
-        <f t="array" ref="Q6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,Q1)</f>
+      <c r="Q44" cm="1">
+        <f t="array" ref="Q44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q39)</f>
         <v>6.2666306667873428E-3</v>
       </c>
-      <c r="R6" cm="1">
-        <f t="array" ref="R6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,R1)</f>
+      <c r="R44" cm="1">
+        <f t="array" ref="R44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R39)</f>
         <v>6.6844060445730991E-3</v>
       </c>
-      <c r="S6" cm="1">
-        <f t="array" ref="S6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,S1)</f>
+      <c r="S44" cm="1">
+        <f t="array" ref="S44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S39)</f>
         <v>7.1021814223589663E-3</v>
       </c>
-      <c r="T6" cm="1">
-        <f t="array" ref="T6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,T1)</f>
+      <c r="T44" cm="1">
+        <f t="array" ref="T44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T39)</f>
         <v>7.5199568001447226E-3</v>
       </c>
-      <c r="U6" cm="1">
-        <f t="array" ref="U6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,U1)</f>
+      <c r="U44" cm="1">
+        <f t="array" ref="U44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U39)</f>
         <v>7.9377321779305898E-3</v>
       </c>
-      <c r="V6" cm="1">
-        <f t="array" ref="V6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,V1)</f>
+      <c r="V44" cm="1">
+        <f t="array" ref="V44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V39)</f>
         <v>8.3555075557163461E-3</v>
       </c>
-      <c r="W6" cm="1">
-        <f t="array" ref="W6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,W1)</f>
+      <c r="W44" cm="1">
+        <f t="array" ref="W44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W39)</f>
         <v>8.7732829335022133E-3</v>
       </c>
-      <c r="X6" cm="1">
-        <f t="array" ref="X6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,X1)</f>
+      <c r="X44" cm="1">
+        <f t="array" ref="X44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X39)</f>
         <v>9.1910583112880806E-3</v>
       </c>
-      <c r="Y6" cm="1">
-        <f t="array" ref="Y6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,Y1)</f>
+      <c r="Y44" cm="1">
+        <f t="array" ref="Y44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y39)</f>
         <v>9.6088336890738368E-3</v>
       </c>
-      <c r="Z6" cm="1">
-        <f t="array" ref="Z6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,Z1)</f>
+      <c r="Z44" cm="1">
+        <f t="array" ref="Z44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z39)</f>
         <v>1.0026609066859704E-2</v>
       </c>
-      <c r="AA6" cm="1">
-        <f t="array" ref="AA6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,AA1)</f>
+      <c r="AA44" cm="1">
+        <f t="array" ref="AA44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA39)</f>
         <v>1.044438444464546E-2</v>
       </c>
-      <c r="AB6" cm="1">
-        <f t="array" ref="AB6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,AB1)</f>
+      <c r="AB44" cm="1">
+        <f t="array" ref="AB44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB39)</f>
         <v>1.0862159822431328E-2</v>
       </c>
-      <c r="AC6" cm="1">
-        <f t="array" ref="AC6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,AC1)</f>
+      <c r="AC44" cm="1">
+        <f t="array" ref="AC44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC39)</f>
         <v>1.1279935200217084E-2</v>
       </c>
-      <c r="AD6" cm="1">
-        <f t="array" ref="AD6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,AD1)</f>
+      <c r="AD44" cm="1">
+        <f t="array" ref="AD44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD39)</f>
         <v>1.1697710578002951E-2</v>
       </c>
-      <c r="AE6" cm="1">
-        <f t="array" ref="AE6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,AE1)</f>
+      <c r="AE44" cm="1">
+        <f t="array" ref="AE44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE39)</f>
         <v>1.2115485955788707E-2</v>
       </c>
-      <c r="AF6" cm="1">
-        <f t="array" ref="AF6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,AF1)</f>
+      <c r="AF44" cm="1">
+        <f t="array" ref="AF44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF39)</f>
         <v>1.2533261333574575E-2</v>
       </c>
-      <c r="AG6" cm="1">
-        <f t="array" ref="AG6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,AG1)</f>
+      <c r="AG44" cm="1">
+        <f t="array" ref="AG44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG39)</f>
         <v>1.2951036711360442E-2</v>
       </c>
-      <c r="AH6" cm="1">
-        <f t="array" ref="AH6">TREND('BAU Calculations'!$B78:$C78,'BAU Calculations'!$B76:$C76,AH1)</f>
+      <c r="AH44" cm="1">
+        <f t="array" ref="AH44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AH39)</f>
         <v>1.3368812089146198E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="B45" s="7">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
+      </c>
+      <c r="U45" s="7">
+        <v>0</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0</v>
+      </c>
+      <c r="X45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
+        <v>0</v>
+      </c>
+      <c r="U46" s="7">
+        <v>0</v>
+      </c>
+      <c r="V46" s="7">
+        <v>0</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0</v>
+      </c>
+      <c r="X46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="7">
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="7">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7">
+        <v>0</v>
+      </c>
+      <c r="U47" s="7">
+        <v>0</v>
+      </c>
+      <c r="V47" s="7">
+        <v>0</v>
+      </c>
+      <c r="W47" s="7">
+        <v>0</v>
+      </c>
+      <c r="X47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="7">
         <v>0</v>
       </c>
     </row>
@@ -15502,4 +18256,1027 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AG9"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:AG9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B56/SUM('BAU Calculations'!B56,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>
+        <v>9.8824967650096103E-7</v>
+      </c>
+      <c r="C3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,C$1)*('BAU Calculations'!C56/SUM('BAU Calculations'!C56,'BAU Calculations'!C58,'BAU Calculations'!C62))</f>
+        <v>1.9260841215542611E-6</v>
+      </c>
+      <c r="D3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D$1)*('BAU Calculations'!D56/SUM('BAU Calculations'!D56,'BAU Calculations'!D58,'BAU Calculations'!D62))</f>
+        <v>2.8172713682387574E-6</v>
+      </c>
+      <c r="E3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E$1)*('BAU Calculations'!E56/SUM('BAU Calculations'!E56,'BAU Calculations'!E58,'BAU Calculations'!E62))</f>
+        <v>3.6652362366387228E-6</v>
+      </c>
+      <c r="F3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F$1)*('BAU Calculations'!F56/SUM('BAU Calculations'!F56,'BAU Calculations'!F58,'BAU Calculations'!F62))</f>
+        <v>4.4499229110322577E-6</v>
+      </c>
+      <c r="G3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G$1)*('BAU Calculations'!G56/SUM('BAU Calculations'!G56,'BAU Calculations'!G58,'BAU Calculations'!G62))</f>
+        <v>5.1908809071932912E-6</v>
+      </c>
+      <c r="H3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H$1)*('BAU Calculations'!H56/SUM('BAU Calculations'!H56,'BAU Calculations'!H58,'BAU Calculations'!H62))</f>
+        <v>5.8903191358995895E-6</v>
+      </c>
+      <c r="I3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I$1)*('BAU Calculations'!I56/SUM('BAU Calculations'!I56,'BAU Calculations'!I58,'BAU Calculations'!I62))</f>
+        <v>6.4819542801298198E-6</v>
+      </c>
+      <c r="J3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J$1)*('BAU Calculations'!J56/SUM('BAU Calculations'!J56,'BAU Calculations'!J58,'BAU Calculations'!J62))</f>
+        <v>7.1062077288266346E-6</v>
+      </c>
+      <c r="K3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K$1)*('BAU Calculations'!K56/SUM('BAU Calculations'!K56,'BAU Calculations'!K58,'BAU Calculations'!K62))</f>
+        <v>7.6773110591137063E-6</v>
+      </c>
+      <c r="L3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L$1)*('BAU Calculations'!L56/SUM('BAU Calculations'!L56,'BAU Calculations'!L58,'BAU Calculations'!L62))</f>
+        <v>9.3891062609994649E-6</v>
+      </c>
+      <c r="M3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M$1)*('BAU Calculations'!M56/SUM('BAU Calculations'!M56,'BAU Calculations'!M58,'BAU Calculations'!M62))</f>
+        <v>9.9742289697394391E-6</v>
+      </c>
+      <c r="N3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N$1)*('BAU Calculations'!N56/SUM('BAU Calculations'!N56,'BAU Calculations'!N58,'BAU Calculations'!N62))</f>
+        <v>1.0154558886738636E-5</v>
+      </c>
+      <c r="O3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O$1)*('BAU Calculations'!O56/SUM('BAU Calculations'!O56,'BAU Calculations'!O58,'BAU Calculations'!O62))</f>
+        <v>1.0672781539074545E-5</v>
+      </c>
+      <c r="P3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P$1)*('BAU Calculations'!P56/SUM('BAU Calculations'!P56,'BAU Calculations'!P58,'BAU Calculations'!P62))</f>
+        <v>1.1050532221856028E-5</v>
+      </c>
+      <c r="Q3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q$1)*('BAU Calculations'!Q56/SUM('BAU Calculations'!Q56,'BAU Calculations'!Q58,'BAU Calculations'!Q62))</f>
+        <v>1.1402302816902891E-5</v>
+      </c>
+      <c r="R3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R$1)*('BAU Calculations'!R56/SUM('BAU Calculations'!R56,'BAU Calculations'!R58,'BAU Calculations'!R62))</f>
+        <v>1.1733217114654276E-5</v>
+      </c>
+      <c r="S3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S$1)*('BAU Calculations'!S56/SUM('BAU Calculations'!S56,'BAU Calculations'!S58,'BAU Calculations'!S62))</f>
+        <v>1.2042545333769259E-5</v>
+      </c>
+      <c r="T3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T$1)*('BAU Calculations'!T56/SUM('BAU Calculations'!T56,'BAU Calculations'!T58,'BAU Calculations'!T62))</f>
+        <v>1.2240794157652337E-5</v>
+      </c>
+      <c r="U3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U$1)*('BAU Calculations'!U56/SUM('BAU Calculations'!U56,'BAU Calculations'!U58,'BAU Calculations'!U62))</f>
+        <v>1.3964442943163165E-5</v>
+      </c>
+      <c r="V3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V$1)*('BAU Calculations'!V56/SUM('BAU Calculations'!V56,'BAU Calculations'!V58,'BAU Calculations'!V62))</f>
+        <v>1.3769585746040323E-5</v>
+      </c>
+      <c r="W3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W$1)*('BAU Calculations'!W56/SUM('BAU Calculations'!W56,'BAU Calculations'!W58,'BAU Calculations'!W62))</f>
+        <v>1.3947433788124291E-5</v>
+      </c>
+      <c r="X3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X$1)*('BAU Calculations'!X56/SUM('BAU Calculations'!X56,'BAU Calculations'!X58,'BAU Calculations'!X62))</f>
+        <v>1.4114323409240651E-5</v>
+      </c>
+      <c r="Y3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y$1)*('BAU Calculations'!Y56/SUM('BAU Calculations'!Y56,'BAU Calculations'!Y58,'BAU Calculations'!Y62))</f>
+        <v>1.4270581496109211E-5</v>
+      </c>
+      <c r="Z3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z$1)*('BAU Calculations'!Z56/SUM('BAU Calculations'!Z56,'BAU Calculations'!Z58,'BAU Calculations'!Z62))</f>
+        <v>1.4483759419845512E-5</v>
+      </c>
+      <c r="AA3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA$1)*('BAU Calculations'!AA56/SUM('BAU Calculations'!AA56,'BAU Calculations'!AA58,'BAU Calculations'!AA62))</f>
+        <v>1.4686315294693602E-5</v>
+      </c>
+      <c r="AB3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB$1)*('BAU Calculations'!AB56/SUM('BAU Calculations'!AB56,'BAU Calculations'!AB58,'BAU Calculations'!AB62))</f>
+        <v>1.6169113147350925E-5</v>
+      </c>
+      <c r="AC3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC$1)*('BAU Calculations'!AC56/SUM('BAU Calculations'!AC56,'BAU Calculations'!AC58,'BAU Calculations'!AC62))</f>
+        <v>1.6376927810451694E-5</v>
+      </c>
+      <c r="AD3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD$1)*('BAU Calculations'!AD56/SUM('BAU Calculations'!AD56,'BAU Calculations'!AD58,'BAU Calculations'!AD62))</f>
+        <v>1.65756949341525E-5</v>
+      </c>
+      <c r="AE3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE$1)*('BAU Calculations'!AE56/SUM('BAU Calculations'!AE56,'BAU Calculations'!AE58,'BAU Calculations'!AE62))</f>
+        <v>1.6677083760836818E-5</v>
+      </c>
+      <c r="AF3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF$1)*('BAU Calculations'!AF56/SUM('BAU Calculations'!AF56,'BAU Calculations'!AF58,'BAU Calculations'!AF62))</f>
+        <v>1.6859433042487928E-5</v>
+      </c>
+      <c r="AG3" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG$1)*('BAU Calculations'!AG56/SUM('BAU Calculations'!AG56,'BAU Calculations'!AG58,'BAU Calculations'!AG62))</f>
+        <v>1.7034102627168875E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A5" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B58/SUM('BAU Calculations'!B56,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>
+        <v>1.0975823980316898E-4</v>
+      </c>
+      <c r="C5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,C$1)*('BAU Calculations'!C58/SUM('BAU Calculations'!C56,'BAU Calculations'!C58,'BAU Calculations'!C62))</f>
+        <v>2.1641825513319906E-4</v>
+      </c>
+      <c r="D5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D$1)*('BAU Calculations'!D58/SUM('BAU Calculations'!D56,'BAU Calculations'!D58,'BAU Calculations'!D62))</f>
+        <v>3.2018460363579835E-4</v>
+      </c>
+      <c r="E5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E$1)*('BAU Calculations'!E58/SUM('BAU Calculations'!E56,'BAU Calculations'!E58,'BAU Calculations'!E62))</f>
+        <v>4.2127520932174855E-4</v>
+      </c>
+      <c r="F5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F$1)*('BAU Calculations'!F58/SUM('BAU Calculations'!F56,'BAU Calculations'!F58,'BAU Calculations'!F62))</f>
+        <v>5.1623085384289039E-4</v>
+      </c>
+      <c r="G5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G$1)*('BAU Calculations'!G58/SUM('BAU Calculations'!G56,'BAU Calculations'!G58,'BAU Calculations'!G62))</f>
+        <v>6.0769977121937142E-4</v>
+      </c>
+      <c r="H5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H$1)*('BAU Calculations'!H58/SUM('BAU Calculations'!H56,'BAU Calculations'!H58,'BAU Calculations'!H62))</f>
+        <v>6.9588727092280281E-4</v>
+      </c>
+      <c r="I5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I$1)*('BAU Calculations'!I58/SUM('BAU Calculations'!I56,'BAU Calculations'!I58,'BAU Calculations'!I62))</f>
+        <v>8.0935056204960621E-4</v>
+      </c>
+      <c r="J5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J$1)*('BAU Calculations'!J58/SUM('BAU Calculations'!J56,'BAU Calculations'!J58,'BAU Calculations'!J62))</f>
+        <v>8.9490481523422016E-4</v>
+      </c>
+      <c r="K5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K$1)*('BAU Calculations'!K58/SUM('BAU Calculations'!K56,'BAU Calculations'!K58,'BAU Calculations'!K62))</f>
+        <v>9.7299315840864635E-4</v>
+      </c>
+      <c r="L5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L$1)*('BAU Calculations'!L58/SUM('BAU Calculations'!L56,'BAU Calculations'!L58,'BAU Calculations'!L62))</f>
+        <v>1.0477943862953483E-3</v>
+      </c>
+      <c r="M5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M$1)*('BAU Calculations'!M58/SUM('BAU Calculations'!M56,'BAU Calculations'!M58,'BAU Calculations'!M62))</f>
+        <v>1.1200164929728467E-3</v>
+      </c>
+      <c r="N5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N$1)*('BAU Calculations'!N58/SUM('BAU Calculations'!N56,'BAU Calculations'!N58,'BAU Calculations'!N62))</f>
+        <v>1.1474714317687381E-3</v>
+      </c>
+      <c r="O5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O$1)*('BAU Calculations'!O58/SUM('BAU Calculations'!O56,'BAU Calculations'!O58,'BAU Calculations'!O62))</f>
+        <v>1.2135334029066515E-3</v>
+      </c>
+      <c r="P5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P$1)*('BAU Calculations'!P58/SUM('BAU Calculations'!P56,'BAU Calculations'!P58,'BAU Calculations'!P62))</f>
+        <v>1.2643963099852593E-3</v>
+      </c>
+      <c r="Q5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q$1)*('BAU Calculations'!Q58/SUM('BAU Calculations'!Q56,'BAU Calculations'!Q58,'BAU Calculations'!Q62))</f>
+        <v>1.3128088679237667E-3</v>
+      </c>
+      <c r="R5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R$1)*('BAU Calculations'!R58/SUM('BAU Calculations'!R56,'BAU Calculations'!R58,'BAU Calculations'!R62))</f>
+        <v>1.3593088756431336E-3</v>
+      </c>
+      <c r="S5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S$1)*('BAU Calculations'!S58/SUM('BAU Calculations'!S56,'BAU Calculations'!S58,'BAU Calculations'!S62))</f>
+        <v>1.403766470171499E-3</v>
+      </c>
+      <c r="T5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T$1)*('BAU Calculations'!T58/SUM('BAU Calculations'!T56,'BAU Calculations'!T58,'BAU Calculations'!T62))</f>
+        <v>1.4961550094302594E-3</v>
+      </c>
+      <c r="U5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U$1)*('BAU Calculations'!U58/SUM('BAU Calculations'!U56,'BAU Calculations'!U58,'BAU Calculations'!U62))</f>
+        <v>1.5268298363247472E-3</v>
+      </c>
+      <c r="V5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V$1)*('BAU Calculations'!V58/SUM('BAU Calculations'!V56,'BAU Calculations'!V58,'BAU Calculations'!V62))</f>
+        <v>1.5149212983721764E-3</v>
+      </c>
+      <c r="W5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W$1)*('BAU Calculations'!W58/SUM('BAU Calculations'!W56,'BAU Calculations'!W58,'BAU Calculations'!W62))</f>
+        <v>1.5441198778776309E-3</v>
+      </c>
+      <c r="X5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X$1)*('BAU Calculations'!X58/SUM('BAU Calculations'!X56,'BAU Calculations'!X58,'BAU Calculations'!X62))</f>
+        <v>1.5722280323932005E-3</v>
+      </c>
+      <c r="Y5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y$1)*('BAU Calculations'!Y58/SUM('BAU Calculations'!Y56,'BAU Calculations'!Y58,'BAU Calculations'!Y62))</f>
+        <v>1.5993830323157219E-3</v>
+      </c>
+      <c r="Z5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z$1)*('BAU Calculations'!Z58/SUM('BAU Calculations'!Z56,'BAU Calculations'!Z58,'BAU Calculations'!Z62))</f>
+        <v>1.63275028777639E-3</v>
+      </c>
+      <c r="AA5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA$1)*('BAU Calculations'!AA58/SUM('BAU Calculations'!AA56,'BAU Calculations'!AA58,'BAU Calculations'!AA62))</f>
+        <v>1.6651811886754602E-3</v>
+      </c>
+      <c r="AB5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB$1)*('BAU Calculations'!AB58/SUM('BAU Calculations'!AB56,'BAU Calculations'!AB58,'BAU Calculations'!AB62))</f>
+        <v>1.6594974426447041E-3</v>
+      </c>
+      <c r="AC5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC$1)*('BAU Calculations'!AC58/SUM('BAU Calculations'!AC56,'BAU Calculations'!AC58,'BAU Calculations'!AC62))</f>
+        <v>1.6904686217089301E-3</v>
+      </c>
+      <c r="AD5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD$1)*('BAU Calculations'!AD58/SUM('BAU Calculations'!AD56,'BAU Calculations'!AD58,'BAU Calculations'!AD62))</f>
+        <v>1.7206234227653862E-3</v>
+      </c>
+      <c r="AE5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE$1)*('BAU Calculations'!AE58/SUM('BAU Calculations'!AE56,'BAU Calculations'!AE58,'BAU Calculations'!AE62))</f>
+        <v>1.8069367031396417E-3</v>
+      </c>
+      <c r="AF5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF$1)*('BAU Calculations'!AF58/SUM('BAU Calculations'!AF56,'BAU Calculations'!AF58,'BAU Calculations'!AF62))</f>
+        <v>1.836609163586467E-3</v>
+      </c>
+      <c r="AG5" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG$1)*('BAU Calculations'!AG58/SUM('BAU Calculations'!AG56,'BAU Calculations'!AG58,'BAU Calculations'!AG62))</f>
+        <v>1.8656663742071026E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A9" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B58/SUM('BAU Calculations'!B62,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>
+        <v>6.3350753587848856E-5</v>
+      </c>
+      <c r="C9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,C$1)*('BAU Calculations'!C58/SUM('BAU Calculations'!C62,'BAU Calculations'!C58,'BAU Calculations'!C62))</f>
+        <v>1.2463782870434674E-4</v>
+      </c>
+      <c r="D9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D$1)*('BAU Calculations'!D58/SUM('BAU Calculations'!D62,'BAU Calculations'!D58,'BAU Calculations'!D62))</f>
+        <v>1.8401028831238335E-4</v>
+      </c>
+      <c r="E9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E$1)*('BAU Calculations'!E58/SUM('BAU Calculations'!E62,'BAU Calculations'!E58,'BAU Calculations'!E62))</f>
+        <v>2.4162351781458055E-4</v>
+      </c>
+      <c r="F9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F$1)*('BAU Calculations'!F58/SUM('BAU Calculations'!F62,'BAU Calculations'!F58,'BAU Calculations'!F62))</f>
+        <v>2.9522419282253086E-4</v>
+      </c>
+      <c r="G9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G$1)*('BAU Calculations'!G58/SUM('BAU Calculations'!G62,'BAU Calculations'!G58,'BAU Calculations'!G62))</f>
+        <v>3.4657900381206971E-4</v>
+      </c>
+      <c r="H9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H$1)*('BAU Calculations'!H58/SUM('BAU Calculations'!H62,'BAU Calculations'!H58,'BAU Calculations'!H62))</f>
+        <v>3.9583695792454573E-4</v>
+      </c>
+      <c r="I9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I$1)*('BAU Calculations'!I58/SUM('BAU Calculations'!I62,'BAU Calculations'!I58,'BAU Calculations'!I62))</f>
+        <v>4.6144176706245212E-4</v>
+      </c>
+      <c r="J9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J$1)*('BAU Calculations'!J58/SUM('BAU Calculations'!J62,'BAU Calculations'!J58,'BAU Calculations'!J62))</f>
+        <v>5.0898569539479946E-4</v>
+      </c>
+      <c r="K9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K$1)*('BAU Calculations'!K58/SUM('BAU Calculations'!K62,'BAU Calculations'!K58,'BAU Calculations'!K62))</f>
+        <v>5.5176295443752979E-4</v>
+      </c>
+      <c r="L9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L$1)*('BAU Calculations'!L58/SUM('BAU Calculations'!L62,'BAU Calculations'!L58,'BAU Calculations'!L62))</f>
+        <v>5.9267377920910853E-4</v>
+      </c>
+      <c r="M9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M$1)*('BAU Calculations'!M58/SUM('BAU Calculations'!M62,'BAU Calculations'!M58,'BAU Calculations'!M62))</f>
+        <v>6.3184523746829255E-4</v>
+      </c>
+      <c r="N9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N$1)*('BAU Calculations'!N58/SUM('BAU Calculations'!N62,'BAU Calculations'!N58,'BAU Calculations'!N62))</f>
+        <v>6.4284766113919558E-4</v>
+      </c>
+      <c r="O9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O$1)*('BAU Calculations'!O58/SUM('BAU Calculations'!O62,'BAU Calculations'!O58,'BAU Calculations'!O62))</f>
+        <v>6.7838053073678917E-4</v>
+      </c>
+      <c r="P9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P$1)*('BAU Calculations'!P58/SUM('BAU Calculations'!P62,'BAU Calculations'!P58,'BAU Calculations'!P62))</f>
+        <v>7.0451418024854119E-4</v>
+      </c>
+      <c r="Q9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q$1)*('BAU Calculations'!Q58/SUM('BAU Calculations'!Q62,'BAU Calculations'!Q58,'BAU Calculations'!Q62))</f>
+        <v>7.2926142187586013E-4</v>
+      </c>
+      <c r="R9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R$1)*('BAU Calculations'!R58/SUM('BAU Calculations'!R62,'BAU Calculations'!R58,'BAU Calculations'!R62))</f>
+        <v>7.5295342465223492E-4</v>
+      </c>
+      <c r="S9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S$1)*('BAU Calculations'!S58/SUM('BAU Calculations'!S62,'BAU Calculations'!S58,'BAU Calculations'!S62))</f>
+        <v>7.7550801506687304E-4</v>
+      </c>
+      <c r="T9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T$1)*('BAU Calculations'!T58/SUM('BAU Calculations'!T62,'BAU Calculations'!T58,'BAU Calculations'!T62))</f>
+        <v>8.2732290220705594E-4</v>
+      </c>
+      <c r="U9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U$1)*('BAU Calculations'!U58/SUM('BAU Calculations'!U62,'BAU Calculations'!U58,'BAU Calculations'!U62))</f>
+        <v>8.4172752862488119E-4</v>
+      </c>
+      <c r="V9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V$1)*('BAU Calculations'!V58/SUM('BAU Calculations'!V62,'BAU Calculations'!V58,'BAU Calculations'!V62))</f>
+        <v>8.304639867582112E-4</v>
+      </c>
+      <c r="W9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W$1)*('BAU Calculations'!W58/SUM('BAU Calculations'!W62,'BAU Calculations'!W58,'BAU Calculations'!W62))</f>
+        <v>8.4425995398083073E-4</v>
+      </c>
+      <c r="X9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X$1)*('BAU Calculations'!X58/SUM('BAU Calculations'!X62,'BAU Calculations'!X58,'BAU Calculations'!X62))</f>
+        <v>8.5752948879009964E-4</v>
+      </c>
+      <c r="Y9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y$1)*('BAU Calculations'!Y58/SUM('BAU Calculations'!Y62,'BAU Calculations'!Y58,'BAU Calculations'!Y62))</f>
+        <v>8.7034640895291768E-4</v>
+      </c>
+      <c r="Z9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z$1)*('BAU Calculations'!Z58/SUM('BAU Calculations'!Z62,'BAU Calculations'!Z58,'BAU Calculations'!Z62))</f>
+        <v>8.8693121136024613E-4</v>
+      </c>
+      <c r="AA9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA$1)*('BAU Calculations'!AA58/SUM('BAU Calculations'!AA62,'BAU Calculations'!AA58,'BAU Calculations'!AA62))</f>
+        <v>9.0302923969203159E-4</v>
+      </c>
+      <c r="AB9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB$1)*('BAU Calculations'!AB58/SUM('BAU Calculations'!AB62,'BAU Calculations'!AB58,'BAU Calculations'!AB62))</f>
+        <v>8.9701899861738439E-4</v>
+      </c>
+      <c r="AC9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC$1)*('BAU Calculations'!AC58/SUM('BAU Calculations'!AC62,'BAU Calculations'!AC58,'BAU Calculations'!AC62))</f>
+        <v>9.1244146342214273E-4</v>
+      </c>
+      <c r="AD9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD$1)*('BAU Calculations'!AD58/SUM('BAU Calculations'!AD62,'BAU Calculations'!AD58,'BAU Calculations'!AD62))</f>
+        <v>9.2743720767100293E-4</v>
+      </c>
+      <c r="AE9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE$1)*('BAU Calculations'!AE58/SUM('BAU Calculations'!AE62,'BAU Calculations'!AE58,'BAU Calculations'!AE62))</f>
+        <v>9.7505312579810471E-4</v>
+      </c>
+      <c r="AF9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF$1)*('BAU Calculations'!AF58/SUM('BAU Calculations'!AF62,'BAU Calculations'!AF58,'BAU Calculations'!AF62))</f>
+        <v>9.8977383094732722E-4</v>
+      </c>
+      <c r="AG9" s="14">
+        <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG$1)*('BAU Calculations'!AG58/SUM('BAU Calculations'!AG62,'BAU Calculations'!AG58,'BAU Calculations'!AG62))</f>
+        <v>1.0041812561638649E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -29,7 +29,7 @@
     <definedName name="Region">'BAU Calculations'!$B$2</definedName>
     <definedName name="Unit.GW">[1]Conversions!$F$55</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2113,7 +2113,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3290,7 +3289,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6374,7 +6372,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11092,8 +11090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:AG62"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15028,6 +15026,1000 @@
         <v>1008970000000000</v>
       </c>
     </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2024</v>
+      </c>
+      <c r="I64" s="1">
+        <v>2025</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2026</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2027</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2028</v>
+      </c>
+      <c r="M64" s="1">
+        <v>2029</v>
+      </c>
+      <c r="N64" s="1">
+        <v>2030</v>
+      </c>
+      <c r="O64" s="1">
+        <v>2031</v>
+      </c>
+      <c r="P64" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>2033</v>
+      </c>
+      <c r="R64" s="1">
+        <v>2034</v>
+      </c>
+      <c r="S64" s="1">
+        <v>2035</v>
+      </c>
+      <c r="T64" s="1">
+        <v>2036</v>
+      </c>
+      <c r="U64" s="1">
+        <v>2037</v>
+      </c>
+      <c r="V64" s="1">
+        <v>2038</v>
+      </c>
+      <c r="W64" s="1">
+        <v>2039</v>
+      </c>
+      <c r="X64" s="1">
+        <v>2040</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>2041</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AB64" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A65" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0</v>
+      </c>
+      <c r="M65" s="7">
+        <v>0</v>
+      </c>
+      <c r="N65" s="7">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="7">
+        <v>0</v>
+      </c>
+      <c r="T65" s="7">
+        <v>0</v>
+      </c>
+      <c r="U65" s="7">
+        <v>0</v>
+      </c>
+      <c r="V65" s="7">
+        <v>0</v>
+      </c>
+      <c r="W65" s="7">
+        <v>0</v>
+      </c>
+      <c r="X65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" cm="1">
+        <f t="array" ref="B66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,B64)</f>
+        <v>0</v>
+      </c>
+      <c r="D66" cm="1">
+        <f t="array" ref="D66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,D64)</f>
+        <v>1.1423612870660182E-3</v>
+      </c>
+      <c r="E66" cm="1">
+        <f t="array" ref="E66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,E64)</f>
+        <v>1.7135419305991384E-3</v>
+      </c>
+      <c r="F66" cm="1">
+        <f t="array" ref="F66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,F64)</f>
+        <v>2.2847225741322585E-3</v>
+      </c>
+      <c r="G66" cm="1">
+        <f t="array" ref="G66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,G64)</f>
+        <v>2.8559032176651566E-3</v>
+      </c>
+      <c r="H66" cm="1">
+        <f t="array" ref="H66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,H64)</f>
+        <v>3.4270838611982768E-3</v>
+      </c>
+      <c r="I66" cm="1">
+        <f t="array" ref="I66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,I64)</f>
+        <v>3.9982645047311749E-3</v>
+      </c>
+      <c r="J66" cm="1">
+        <f t="array" ref="J66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,J64)</f>
+        <v>4.569445148264295E-3</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,K64)</f>
+        <v>5.1406257917974152E-3</v>
+      </c>
+      <c r="L66" cm="1">
+        <f t="array" ref="L66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,L64)</f>
+        <v>5.7118064353303133E-3</v>
+      </c>
+      <c r="M66" cm="1">
+        <f t="array" ref="M66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,M64)</f>
+        <v>6.2829870788634334E-3</v>
+      </c>
+      <c r="N66" cm="1">
+        <f t="array" ref="N66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,N64)</f>
+        <v>6.8541677223965536E-3</v>
+      </c>
+      <c r="O66" cm="1">
+        <f t="array" ref="O66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,O64)</f>
+        <v>7.4253483659294517E-3</v>
+      </c>
+      <c r="P66" cm="1">
+        <f t="array" ref="P66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,P64)</f>
+        <v>7.9965290094625718E-3</v>
+      </c>
+      <c r="Q66" cm="1">
+        <f t="array" ref="Q66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Q64)</f>
+        <v>8.5677096529954699E-3</v>
+      </c>
+      <c r="R66" cm="1">
+        <f t="array" ref="R66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,R64)</f>
+        <v>9.1388902965285901E-3</v>
+      </c>
+      <c r="S66" cm="1">
+        <f t="array" ref="S66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,S64)</f>
+        <v>9.7100709400617102E-3</v>
+      </c>
+      <c r="T66" cm="1">
+        <f t="array" ref="T66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,T64)</f>
+        <v>1.0281251583594608E-2</v>
+      </c>
+      <c r="U66" cm="1">
+        <f t="array" ref="U66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,U64)</f>
+        <v>1.0852432227127728E-2</v>
+      </c>
+      <c r="V66" cm="1">
+        <f t="array" ref="V66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,V64)</f>
+        <v>1.1423612870660849E-2</v>
+      </c>
+      <c r="W66" cm="1">
+        <f t="array" ref="W66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,W64)</f>
+        <v>1.1994793514193747E-2</v>
+      </c>
+      <c r="X66" cm="1">
+        <f t="array" ref="X66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,X64)</f>
+        <v>1.2565974157726867E-2</v>
+      </c>
+      <c r="Y66" cm="1">
+        <f t="array" ref="Y66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Y64)</f>
+        <v>1.3137154801259987E-2</v>
+      </c>
+      <c r="Z66" cm="1">
+        <f t="array" ref="Z66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Z64)</f>
+        <v>1.3708335444792885E-2</v>
+      </c>
+      <c r="AA66" cm="1">
+        <f t="array" ref="AA66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AA64)</f>
+        <v>1.4279516088326005E-2</v>
+      </c>
+      <c r="AB66" cm="1">
+        <f t="array" ref="AB66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AB64)</f>
+        <v>1.4850696731858903E-2</v>
+      </c>
+      <c r="AC66" cm="1">
+        <f t="array" ref="AC66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AC64)</f>
+        <v>1.5421877375392024E-2</v>
+      </c>
+      <c r="AD66" cm="1">
+        <f t="array" ref="AD66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AD64)</f>
+        <v>1.5993058018925144E-2</v>
+      </c>
+      <c r="AE66" cm="1">
+        <f t="array" ref="AE66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AE64)</f>
+        <v>1.6564238662458042E-2</v>
+      </c>
+      <c r="AF66" cm="1">
+        <f t="array" ref="AF66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AF64)</f>
+        <v>1.7135419305991162E-2</v>
+      </c>
+      <c r="AG66" cm="1">
+        <f t="array" ref="AG66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AG64)</f>
+        <v>1.7706599949524282E-2</v>
+      </c>
+      <c r="AH66" cm="1">
+        <f t="array" ref="AH66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AH64)</f>
+        <v>1.827778059305718E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7">
+        <v>0</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7">
+        <v>0</v>
+      </c>
+      <c r="T67" s="7">
+        <v>0</v>
+      </c>
+      <c r="U67" s="7">
+        <v>0</v>
+      </c>
+      <c r="V67" s="7">
+        <v>0</v>
+      </c>
+      <c r="W67" s="7">
+        <v>0</v>
+      </c>
+      <c r="X67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="7">
+        <v>0</v>
+      </c>
+      <c r="T68" s="7">
+        <v>0</v>
+      </c>
+      <c r="U68" s="7">
+        <v>0</v>
+      </c>
+      <c r="V68" s="7">
+        <v>0</v>
+      </c>
+      <c r="W68" s="7">
+        <v>0</v>
+      </c>
+      <c r="X68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" cm="1">
+        <f t="array" ref="B69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B64)</f>
+        <v>0</v>
+      </c>
+      <c r="D69" cm="1">
+        <f t="array" ref="D69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D64)</f>
+        <v>8.355507555716235E-4</v>
+      </c>
+      <c r="E69" cm="1">
+        <f t="array" ref="E69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E64)</f>
+        <v>1.2533261333574908E-3</v>
+      </c>
+      <c r="F69" cm="1">
+        <f t="array" ref="F69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F64)</f>
+        <v>1.671101511143358E-3</v>
+      </c>
+      <c r="G69" cm="1">
+        <f t="array" ref="G69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G64)</f>
+        <v>2.0888768889291143E-3</v>
+      </c>
+      <c r="H69" cm="1">
+        <f t="array" ref="H69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H64)</f>
+        <v>2.5066522667149815E-3</v>
+      </c>
+      <c r="I69" cm="1">
+        <f t="array" ref="I69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I64)</f>
+        <v>2.9244276445007378E-3</v>
+      </c>
+      <c r="J69" cm="1">
+        <f t="array" ref="J69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J64)</f>
+        <v>3.342203022286605E-3</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K64)</f>
+        <v>3.7599784000723613E-3</v>
+      </c>
+      <c r="L69" cm="1">
+        <f t="array" ref="L69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L64)</f>
+        <v>4.1777537778582285E-3</v>
+      </c>
+      <c r="M69" cm="1">
+        <f t="array" ref="M69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M64)</f>
+        <v>4.5955291556439848E-3</v>
+      </c>
+      <c r="N69" cm="1">
+        <f t="array" ref="N69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N64)</f>
+        <v>5.0133045334298521E-3</v>
+      </c>
+      <c r="O69" cm="1">
+        <f t="array" ref="O69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O64)</f>
+        <v>5.4310799112157193E-3</v>
+      </c>
+      <c r="P69" cm="1">
+        <f t="array" ref="P69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P64)</f>
+        <v>5.8488552890014756E-3</v>
+      </c>
+      <c r="Q69" cm="1">
+        <f t="array" ref="Q69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q64)</f>
+        <v>6.2666306667873428E-3</v>
+      </c>
+      <c r="R69" cm="1">
+        <f t="array" ref="R69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R64)</f>
+        <v>6.6844060445730991E-3</v>
+      </c>
+      <c r="S69" cm="1">
+        <f t="array" ref="S69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S64)</f>
+        <v>7.1021814223589663E-3</v>
+      </c>
+      <c r="T69" cm="1">
+        <f t="array" ref="T69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T64)</f>
+        <v>7.5199568001447226E-3</v>
+      </c>
+      <c r="U69" cm="1">
+        <f t="array" ref="U69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U64)</f>
+        <v>7.9377321779305898E-3</v>
+      </c>
+      <c r="V69" cm="1">
+        <f t="array" ref="V69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V64)</f>
+        <v>8.3555075557163461E-3</v>
+      </c>
+      <c r="W69" cm="1">
+        <f t="array" ref="W69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W64)</f>
+        <v>8.7732829335022133E-3</v>
+      </c>
+      <c r="X69" cm="1">
+        <f t="array" ref="X69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X64)</f>
+        <v>9.1910583112880806E-3</v>
+      </c>
+      <c r="Y69" cm="1">
+        <f t="array" ref="Y69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y64)</f>
+        <v>9.6088336890738368E-3</v>
+      </c>
+      <c r="Z69" cm="1">
+        <f t="array" ref="Z69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z64)</f>
+        <v>1.0026609066859704E-2</v>
+      </c>
+      <c r="AA69" cm="1">
+        <f t="array" ref="AA69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA64)</f>
+        <v>1.044438444464546E-2</v>
+      </c>
+      <c r="AB69" cm="1">
+        <f t="array" ref="AB69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB64)</f>
+        <v>1.0862159822431328E-2</v>
+      </c>
+      <c r="AC69" cm="1">
+        <f t="array" ref="AC69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC64)</f>
+        <v>1.1279935200217084E-2</v>
+      </c>
+      <c r="AD69" cm="1">
+        <f t="array" ref="AD69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD64)</f>
+        <v>1.1697710578002951E-2</v>
+      </c>
+      <c r="AE69" cm="1">
+        <f t="array" ref="AE69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE64)</f>
+        <v>1.2115485955788707E-2</v>
+      </c>
+      <c r="AF69" cm="1">
+        <f t="array" ref="AF69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF64)</f>
+        <v>1.2533261333574575E-2</v>
+      </c>
+      <c r="AG69" cm="1">
+        <f t="array" ref="AG69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG64)</f>
+        <v>1.2951036711360442E-2</v>
+      </c>
+      <c r="AH69" cm="1">
+        <f t="array" ref="AH69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AH64)</f>
+        <v>1.3368812089146198E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0</v>
+      </c>
+      <c r="S70" s="7">
+        <v>0</v>
+      </c>
+      <c r="T70" s="7">
+        <v>0</v>
+      </c>
+      <c r="U70" s="7">
+        <v>0</v>
+      </c>
+      <c r="V70" s="7">
+        <v>0</v>
+      </c>
+      <c r="W70" s="7">
+        <v>0</v>
+      </c>
+      <c r="X70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0</v>
+      </c>
+      <c r="N71" s="7">
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+      <c r="P71" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>0</v>
+      </c>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="7">
+        <v>0</v>
+      </c>
+      <c r="T71" s="7">
+        <v>0</v>
+      </c>
+      <c r="U71" s="7">
+        <v>0</v>
+      </c>
+      <c r="V71" s="7">
+        <v>0</v>
+      </c>
+      <c r="W71" s="7">
+        <v>0</v>
+      </c>
+      <c r="X71" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>0</v>
+      </c>
+      <c r="P72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+      <c r="S72" s="7">
+        <v>0</v>
+      </c>
+      <c r="T72" s="7">
+        <v>0</v>
+      </c>
+      <c r="U72" s="7">
+        <v>0</v>
+      </c>
+      <c r="V72" s="7">
+        <v>0</v>
+      </c>
+      <c r="W72" s="7">
+        <v>0</v>
+      </c>
+      <c r="X72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="7">
+        <v>0</v>
+      </c>
+    </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A79" s="15" t="s">
         <v>120</v>
@@ -15498,10 +16490,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="A39" sqref="A39:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15615,131 +16607,131 @@
         <v>221</v>
       </c>
       <c r="B2" cm="1">
-        <f t="array" ref="B2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,C39)</f>
+        <f t="array" ref="B2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!C64)</f>
         <v>5.7118064353312015E-4</v>
       </c>
       <c r="C2" cm="1">
-        <f t="array" ref="C2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,D39)</f>
+        <f t="array" ref="C2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!D64)</f>
         <v>1.1423612870660182E-3</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" ref="D2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,E39)</f>
+        <f t="array" ref="D2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!E64)</f>
         <v>1.7135419305991384E-3</v>
       </c>
       <c r="E2" cm="1">
-        <f t="array" ref="E2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,F39)</f>
+        <f t="array" ref="E2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!F64)</f>
         <v>2.2847225741322585E-3</v>
       </c>
       <c r="F2" cm="1">
-        <f t="array" ref="F2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,G39)</f>
+        <f t="array" ref="F2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!G64)</f>
         <v>2.8559032176651566E-3</v>
       </c>
       <c r="G2" cm="1">
-        <f t="array" ref="G2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,H39)</f>
+        <f t="array" ref="G2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!H64)</f>
         <v>3.4270838611982768E-3</v>
       </c>
       <c r="H2" cm="1">
-        <f t="array" ref="H2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,I39)</f>
+        <f t="array" ref="H2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!I64)</f>
         <v>3.9982645047311749E-3</v>
       </c>
       <c r="I2" cm="1">
-        <f t="array" ref="I2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,J39)</f>
+        <f t="array" ref="I2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!J64)</f>
         <v>4.569445148264295E-3</v>
       </c>
       <c r="J2" cm="1">
-        <f t="array" ref="J2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,K39)</f>
+        <f t="array" ref="J2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!K64)</f>
         <v>5.1406257917974152E-3</v>
       </c>
       <c r="K2" cm="1">
-        <f t="array" ref="K2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,L39)</f>
+        <f t="array" ref="K2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!L64)</f>
         <v>5.7118064353303133E-3</v>
       </c>
       <c r="L2" cm="1">
-        <f t="array" ref="L2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,M39)</f>
+        <f t="array" ref="L2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!M64)</f>
         <v>6.2829870788634334E-3</v>
       </c>
       <c r="M2" cm="1">
-        <f t="array" ref="M2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,N39)</f>
+        <f t="array" ref="M2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!N64)</f>
         <v>6.8541677223965536E-3</v>
       </c>
       <c r="N2" cm="1">
-        <f t="array" ref="N2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,O39)</f>
+        <f t="array" ref="N2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!O64)</f>
         <v>7.4253483659294517E-3</v>
       </c>
       <c r="O2" cm="1">
-        <f t="array" ref="O2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,P39)</f>
+        <f t="array" ref="O2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!P64)</f>
         <v>7.9965290094625718E-3</v>
       </c>
       <c r="P2" cm="1">
-        <f t="array" ref="P2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Q39)</f>
+        <f t="array" ref="P2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!Q64)</f>
         <v>8.5677096529954699E-3</v>
       </c>
       <c r="Q2" cm="1">
-        <f t="array" ref="Q2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,R39)</f>
+        <f t="array" ref="Q2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!R64)</f>
         <v>9.1388902965285901E-3</v>
       </c>
       <c r="R2" cm="1">
-        <f t="array" ref="R2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,S39)</f>
+        <f t="array" ref="R2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!S64)</f>
         <v>9.7100709400617102E-3</v>
       </c>
       <c r="S2" cm="1">
-        <f t="array" ref="S2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,T39)</f>
+        <f t="array" ref="S2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!T64)</f>
         <v>1.0281251583594608E-2</v>
       </c>
       <c r="T2" cm="1">
-        <f t="array" ref="T2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,U39)</f>
+        <f t="array" ref="T2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!U64)</f>
         <v>1.0852432227127728E-2</v>
       </c>
       <c r="U2" cm="1">
-        <f t="array" ref="U2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,V39)</f>
+        <f t="array" ref="U2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!V64)</f>
         <v>1.1423612870660849E-2</v>
       </c>
       <c r="V2" cm="1">
-        <f t="array" ref="V2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,W39)</f>
+        <f t="array" ref="V2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!W64)</f>
         <v>1.1994793514193747E-2</v>
       </c>
       <c r="W2" cm="1">
-        <f t="array" ref="W2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,X39)</f>
+        <f t="array" ref="W2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!X64)</f>
         <v>1.2565974157726867E-2</v>
       </c>
       <c r="X2" cm="1">
-        <f t="array" ref="X2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Y39)</f>
+        <f t="array" ref="X2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!Y64)</f>
         <v>1.3137154801259987E-2</v>
       </c>
       <c r="Y2" cm="1">
-        <f t="array" ref="Y2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Z39)</f>
+        <f t="array" ref="Y2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!Z64)</f>
         <v>1.3708335444792885E-2</v>
       </c>
       <c r="Z2" cm="1">
-        <f t="array" ref="Z2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AA39)</f>
+        <f t="array" ref="Z2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AA64)</f>
         <v>1.4279516088326005E-2</v>
       </c>
       <c r="AA2" cm="1">
-        <f t="array" ref="AA2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AB39)</f>
+        <f t="array" ref="AA2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AB64)</f>
         <v>1.4850696731858903E-2</v>
       </c>
       <c r="AB2" cm="1">
-        <f t="array" ref="AB2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AC39)</f>
+        <f t="array" ref="AB2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AC64)</f>
         <v>1.5421877375392024E-2</v>
       </c>
       <c r="AC2" cm="1">
-        <f t="array" ref="AC2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AD39)</f>
+        <f t="array" ref="AC2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AD64)</f>
         <v>1.5993058018925144E-2</v>
       </c>
       <c r="AD2" cm="1">
-        <f t="array" ref="AD2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AE39)</f>
+        <f t="array" ref="AD2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AE64)</f>
         <v>1.6564238662458042E-2</v>
       </c>
       <c r="AE2" cm="1">
-        <f t="array" ref="AE2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AF39)</f>
+        <f t="array" ref="AE2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AF64)</f>
         <v>1.7135419305991162E-2</v>
       </c>
       <c r="AF2" cm="1">
-        <f t="array" ref="AF2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AG39)</f>
+        <f t="array" ref="AF2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AG64)</f>
         <v>1.7706599949524282E-2</v>
       </c>
       <c r="AG2" cm="1">
-        <f t="array" ref="AG2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AH39)</f>
+        <f t="array" ref="AG2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AH64)</f>
         <v>1.827778059305718E-2</v>
       </c>
     </row>
@@ -17255,1000 +18247,6 @@
         <v>0</v>
       </c>
       <c r="AG17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2021</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2022</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2023</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2024</v>
-      </c>
-      <c r="I39" s="1">
-        <v>2025</v>
-      </c>
-      <c r="J39" s="1">
-        <v>2026</v>
-      </c>
-      <c r="K39" s="1">
-        <v>2027</v>
-      </c>
-      <c r="L39" s="1">
-        <v>2028</v>
-      </c>
-      <c r="M39" s="1">
-        <v>2029</v>
-      </c>
-      <c r="N39" s="1">
-        <v>2030</v>
-      </c>
-      <c r="O39" s="1">
-        <v>2031</v>
-      </c>
-      <c r="P39" s="1">
-        <v>2032</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>2033</v>
-      </c>
-      <c r="R39" s="1">
-        <v>2034</v>
-      </c>
-      <c r="S39" s="1">
-        <v>2035</v>
-      </c>
-      <c r="T39" s="1">
-        <v>2036</v>
-      </c>
-      <c r="U39" s="1">
-        <v>2037</v>
-      </c>
-      <c r="V39" s="1">
-        <v>2038</v>
-      </c>
-      <c r="W39" s="1">
-        <v>2039</v>
-      </c>
-      <c r="X39" s="1">
-        <v>2040</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>2041</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>2042</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>2043</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>2044</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>2045</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>2046</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>2047</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>2048</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7">
-        <v>0</v>
-      </c>
-      <c r="V40" s="7">
-        <v>0</v>
-      </c>
-      <c r="W40" s="7">
-        <v>0</v>
-      </c>
-      <c r="X40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" cm="1">
-        <f t="array" ref="B41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,B39)</f>
-        <v>0</v>
-      </c>
-      <c r="D41" cm="1">
-        <f t="array" ref="D41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,D39)</f>
-        <v>1.1423612870660182E-3</v>
-      </c>
-      <c r="E41" cm="1">
-        <f t="array" ref="E41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,E39)</f>
-        <v>1.7135419305991384E-3</v>
-      </c>
-      <c r="F41" cm="1">
-        <f t="array" ref="F41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,F39)</f>
-        <v>2.2847225741322585E-3</v>
-      </c>
-      <c r="G41" cm="1">
-        <f t="array" ref="G41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,G39)</f>
-        <v>2.8559032176651566E-3</v>
-      </c>
-      <c r="H41" cm="1">
-        <f t="array" ref="H41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,H39)</f>
-        <v>3.4270838611982768E-3</v>
-      </c>
-      <c r="I41" cm="1">
-        <f t="array" ref="I41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,I39)</f>
-        <v>3.9982645047311749E-3</v>
-      </c>
-      <c r="J41" cm="1">
-        <f t="array" ref="J41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,J39)</f>
-        <v>4.569445148264295E-3</v>
-      </c>
-      <c r="K41" cm="1">
-        <f t="array" ref="K41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,K39)</f>
-        <v>5.1406257917974152E-3</v>
-      </c>
-      <c r="L41" cm="1">
-        <f t="array" ref="L41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,L39)</f>
-        <v>5.7118064353303133E-3</v>
-      </c>
-      <c r="M41" cm="1">
-        <f t="array" ref="M41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,M39)</f>
-        <v>6.2829870788634334E-3</v>
-      </c>
-      <c r="N41" cm="1">
-        <f t="array" ref="N41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,N39)</f>
-        <v>6.8541677223965536E-3</v>
-      </c>
-      <c r="O41" cm="1">
-        <f t="array" ref="O41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,O39)</f>
-        <v>7.4253483659294517E-3</v>
-      </c>
-      <c r="P41" cm="1">
-        <f t="array" ref="P41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,P39)</f>
-        <v>7.9965290094625718E-3</v>
-      </c>
-      <c r="Q41" cm="1">
-        <f t="array" ref="Q41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Q39)</f>
-        <v>8.5677096529954699E-3</v>
-      </c>
-      <c r="R41" cm="1">
-        <f t="array" ref="R41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,R39)</f>
-        <v>9.1388902965285901E-3</v>
-      </c>
-      <c r="S41" cm="1">
-        <f t="array" ref="S41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,S39)</f>
-        <v>9.7100709400617102E-3</v>
-      </c>
-      <c r="T41" cm="1">
-        <f t="array" ref="T41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,T39)</f>
-        <v>1.0281251583594608E-2</v>
-      </c>
-      <c r="U41" cm="1">
-        <f t="array" ref="U41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,U39)</f>
-        <v>1.0852432227127728E-2</v>
-      </c>
-      <c r="V41" cm="1">
-        <f t="array" ref="V41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,V39)</f>
-        <v>1.1423612870660849E-2</v>
-      </c>
-      <c r="W41" cm="1">
-        <f t="array" ref="W41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,W39)</f>
-        <v>1.1994793514193747E-2</v>
-      </c>
-      <c r="X41" cm="1">
-        <f t="array" ref="X41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,X39)</f>
-        <v>1.2565974157726867E-2</v>
-      </c>
-      <c r="Y41" cm="1">
-        <f t="array" ref="Y41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Y39)</f>
-        <v>1.3137154801259987E-2</v>
-      </c>
-      <c r="Z41" cm="1">
-        <f t="array" ref="Z41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Z39)</f>
-        <v>1.3708335444792885E-2</v>
-      </c>
-      <c r="AA41" cm="1">
-        <f t="array" ref="AA41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AA39)</f>
-        <v>1.4279516088326005E-2</v>
-      </c>
-      <c r="AB41" cm="1">
-        <f t="array" ref="AB41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AB39)</f>
-        <v>1.4850696731858903E-2</v>
-      </c>
-      <c r="AC41" cm="1">
-        <f t="array" ref="AC41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AC39)</f>
-        <v>1.5421877375392024E-2</v>
-      </c>
-      <c r="AD41" cm="1">
-        <f t="array" ref="AD41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AD39)</f>
-        <v>1.5993058018925144E-2</v>
-      </c>
-      <c r="AE41" cm="1">
-        <f t="array" ref="AE41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AE39)</f>
-        <v>1.6564238662458042E-2</v>
-      </c>
-      <c r="AF41" cm="1">
-        <f t="array" ref="AF41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AF39)</f>
-        <v>1.7135419305991162E-2</v>
-      </c>
-      <c r="AG41" cm="1">
-        <f t="array" ref="AG41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AG39)</f>
-        <v>1.7706599949524282E-2</v>
-      </c>
-      <c r="AH41" cm="1">
-        <f t="array" ref="AH41">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AH39)</f>
-        <v>1.827778059305718E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A42" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-      <c r="S42" s="7">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7">
-        <v>0</v>
-      </c>
-      <c r="U42" s="7">
-        <v>0</v>
-      </c>
-      <c r="V42" s="7">
-        <v>0</v>
-      </c>
-      <c r="W42" s="7">
-        <v>0</v>
-      </c>
-      <c r="X42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="7">
-        <v>0</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
-      <c r="K43" s="7">
-        <v>0</v>
-      </c>
-      <c r="L43" s="7">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-      <c r="S43" s="7">
-        <v>0</v>
-      </c>
-      <c r="T43" s="7">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7">
-        <v>0</v>
-      </c>
-      <c r="V43" s="7">
-        <v>0</v>
-      </c>
-      <c r="W43" s="7">
-        <v>0</v>
-      </c>
-      <c r="X43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" cm="1">
-        <f t="array" ref="B44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B39)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" cm="1">
-        <f t="array" ref="D44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D39)</f>
-        <v>8.355507555716235E-4</v>
-      </c>
-      <c r="E44" cm="1">
-        <f t="array" ref="E44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E39)</f>
-        <v>1.2533261333574908E-3</v>
-      </c>
-      <c r="F44" cm="1">
-        <f t="array" ref="F44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F39)</f>
-        <v>1.671101511143358E-3</v>
-      </c>
-      <c r="G44" cm="1">
-        <f t="array" ref="G44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G39)</f>
-        <v>2.0888768889291143E-3</v>
-      </c>
-      <c r="H44" cm="1">
-        <f t="array" ref="H44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H39)</f>
-        <v>2.5066522667149815E-3</v>
-      </c>
-      <c r="I44" cm="1">
-        <f t="array" ref="I44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I39)</f>
-        <v>2.9244276445007378E-3</v>
-      </c>
-      <c r="J44" cm="1">
-        <f t="array" ref="J44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J39)</f>
-        <v>3.342203022286605E-3</v>
-      </c>
-      <c r="K44" cm="1">
-        <f t="array" ref="K44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K39)</f>
-        <v>3.7599784000723613E-3</v>
-      </c>
-      <c r="L44" cm="1">
-        <f t="array" ref="L44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L39)</f>
-        <v>4.1777537778582285E-3</v>
-      </c>
-      <c r="M44" cm="1">
-        <f t="array" ref="M44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M39)</f>
-        <v>4.5955291556439848E-3</v>
-      </c>
-      <c r="N44" cm="1">
-        <f t="array" ref="N44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N39)</f>
-        <v>5.0133045334298521E-3</v>
-      </c>
-      <c r="O44" cm="1">
-        <f t="array" ref="O44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O39)</f>
-        <v>5.4310799112157193E-3</v>
-      </c>
-      <c r="P44" cm="1">
-        <f t="array" ref="P44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P39)</f>
-        <v>5.8488552890014756E-3</v>
-      </c>
-      <c r="Q44" cm="1">
-        <f t="array" ref="Q44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q39)</f>
-        <v>6.2666306667873428E-3</v>
-      </c>
-      <c r="R44" cm="1">
-        <f t="array" ref="R44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R39)</f>
-        <v>6.6844060445730991E-3</v>
-      </c>
-      <c r="S44" cm="1">
-        <f t="array" ref="S44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S39)</f>
-        <v>7.1021814223589663E-3</v>
-      </c>
-      <c r="T44" cm="1">
-        <f t="array" ref="T44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T39)</f>
-        <v>7.5199568001447226E-3</v>
-      </c>
-      <c r="U44" cm="1">
-        <f t="array" ref="U44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U39)</f>
-        <v>7.9377321779305898E-3</v>
-      </c>
-      <c r="V44" cm="1">
-        <f t="array" ref="V44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V39)</f>
-        <v>8.3555075557163461E-3</v>
-      </c>
-      <c r="W44" cm="1">
-        <f t="array" ref="W44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W39)</f>
-        <v>8.7732829335022133E-3</v>
-      </c>
-      <c r="X44" cm="1">
-        <f t="array" ref="X44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X39)</f>
-        <v>9.1910583112880806E-3</v>
-      </c>
-      <c r="Y44" cm="1">
-        <f t="array" ref="Y44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y39)</f>
-        <v>9.6088336890738368E-3</v>
-      </c>
-      <c r="Z44" cm="1">
-        <f t="array" ref="Z44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z39)</f>
-        <v>1.0026609066859704E-2</v>
-      </c>
-      <c r="AA44" cm="1">
-        <f t="array" ref="AA44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA39)</f>
-        <v>1.044438444464546E-2</v>
-      </c>
-      <c r="AB44" cm="1">
-        <f t="array" ref="AB44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB39)</f>
-        <v>1.0862159822431328E-2</v>
-      </c>
-      <c r="AC44" cm="1">
-        <f t="array" ref="AC44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC39)</f>
-        <v>1.1279935200217084E-2</v>
-      </c>
-      <c r="AD44" cm="1">
-        <f t="array" ref="AD44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD39)</f>
-        <v>1.1697710578002951E-2</v>
-      </c>
-      <c r="AE44" cm="1">
-        <f t="array" ref="AE44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE39)</f>
-        <v>1.2115485955788707E-2</v>
-      </c>
-      <c r="AF44" cm="1">
-        <f t="array" ref="AF44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF39)</f>
-        <v>1.2533261333574575E-2</v>
-      </c>
-      <c r="AG44" cm="1">
-        <f t="array" ref="AG44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG39)</f>
-        <v>1.2951036711360442E-2</v>
-      </c>
-      <c r="AH44" cm="1">
-        <f t="array" ref="AH44">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AH39)</f>
-        <v>1.3368812089146198E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A45" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="7">
-        <v>0</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0</v>
-      </c>
-      <c r="R45" s="7">
-        <v>0</v>
-      </c>
-      <c r="S45" s="7">
-        <v>0</v>
-      </c>
-      <c r="T45" s="7">
-        <v>0</v>
-      </c>
-      <c r="U45" s="7">
-        <v>0</v>
-      </c>
-      <c r="V45" s="7">
-        <v>0</v>
-      </c>
-      <c r="W45" s="7">
-        <v>0</v>
-      </c>
-      <c r="X45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A46" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="7">
-        <v>0</v>
-      </c>
-      <c r="C46" s="7">
-        <v>0</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7">
-        <v>0</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>0</v>
-      </c>
-      <c r="R46" s="7">
-        <v>0</v>
-      </c>
-      <c r="S46" s="7">
-        <v>0</v>
-      </c>
-      <c r="T46" s="7">
-        <v>0</v>
-      </c>
-      <c r="U46" s="7">
-        <v>0</v>
-      </c>
-      <c r="V46" s="7">
-        <v>0</v>
-      </c>
-      <c r="W46" s="7">
-        <v>0</v>
-      </c>
-      <c r="X46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0</v>
-      </c>
-      <c r="C47" s="7">
-        <v>0</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="7">
-        <v>0</v>
-      </c>
-      <c r="L47" s="7">
-        <v>0</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-      <c r="P47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>0</v>
-      </c>
-      <c r="R47" s="7">
-        <v>0</v>
-      </c>
-      <c r="S47" s="7">
-        <v>0</v>
-      </c>
-      <c r="T47" s="7">
-        <v>0</v>
-      </c>
-      <c r="U47" s="7">
-        <v>0</v>
-      </c>
-      <c r="V47" s="7">
-        <v>0</v>
-      </c>
-      <c r="W47" s="7">
-        <v>0</v>
-      </c>
-      <c r="X47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="7">
         <v>0</v>
       </c>
     </row>
@@ -18265,8 +18263,8 @@
   </sheetPr>
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:AG9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18379,6 +18377,9 @@
       <c r="A2" s="54" t="s">
         <v>187</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>0</v>
       </c>

--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Downloads\eps-india-3.1.3.4 - LG\eps-india-3.1.3.4\InputData - LG\ccs\BFoCPAbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{681F232B-BC59-48A9-A3EC-0E983E8889B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -29,12 +30,15 @@
     <definedName name="Region">'BAU Calculations'!$B$2</definedName>
     <definedName name="Unit.GW">[1]Conversions!$F$55</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,14 +46,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="250">
   <si>
     <t>Source:</t>
   </si>
@@ -522,9 +526,6 @@
   </si>
   <si>
     <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GW)</t>
   </si>
   <si>
     <t>Lev 4 CO2
@@ -834,7 +835,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -989,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1047,13 +1048,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1142,6 +1152,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2031,7 +2042,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2039,6 +2049,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3320,7 +3331,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3328,6 +3338,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3402,7 +3413,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4081,7 +4091,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4113,7 +4122,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4121,6 +4129,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6066,7 +6075,7 @@
       <sheetData sheetId="53" refreshError="1"/>
       <sheetData sheetId="54" refreshError="1"/>
       <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56">
+      <sheetData sheetId="56" refreshError="1">
         <row r="55">
           <cell r="F55">
             <v>1</v>
@@ -6158,6 +6167,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6193,6 +6219,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6368,46 +6411,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="103.73046875" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" customWidth="1"/>
-    <col min="4" max="4" width="75.73046875" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="103.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="4" max="4" width="75.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="51">
         <v>2017</v>
       </c>
@@ -6415,56 +6458,56 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>194</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="D9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>197</v>
-      </c>
       <c r="D12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="51">
         <v>2015</v>
       </c>
@@ -6472,143 +6515,143 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>198</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="52" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="D15" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -6616,25 +6659,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="4" width="12.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="3" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6646,7 +6689,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>2025</v>
       </c>
@@ -6666,7 +6709,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6696,7 +6739,7 @@
       </c>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6726,9 +6769,9 @@
       </c>
       <c r="H4" s="49"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6737,7 +6780,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>2025</v>
       </c>
@@ -6759,9 +6802,9 @@
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="48">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
@@ -6789,9 +6832,9 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="49">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
@@ -6818,9 +6861,9 @@
         <v>0.21792159249022533</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="48">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
@@ -6847,9 +6890,9 @@
         <v>0.25804018454667765</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="49">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
@@ -6876,13 +6919,13 @@
         <v>0.14036492570317538</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -6891,7 +6934,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>2020</v>
       </c>
@@ -6908,9 +6951,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="49">
         <f>B31/SUM(B31:B33)</f>
@@ -6933,9 +6976,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="49">
         <f>B32/SUM(B31:B33)</f>
@@ -6958,9 +7001,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="49">
         <f>B33/SUM(B31:B33)</f>
@@ -6982,14 +7025,14 @@
       <c r="G17" s="48"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46">
@@ -7020,10 +7063,10 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="44">
         <v>0</v>
@@ -7053,10 +7096,10 @@
         <v>338.82942754525209</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="44">
         <v>0</v>
@@ -7086,10 +7129,10 @@
         <v>858.4271853516816</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="44">
         <v>0</v>
@@ -7119,10 +7162,10 @@
         <v>556.22745588473765</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="42">
         <v>0</v>
@@ -7152,29 +7195,29 @@
         <v>1753.4840687816713</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="40">
         <v>2020</v>
@@ -7207,9 +7250,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="39">
         <v>9.0692000334624094E-3</v>
@@ -7242,9 +7285,9 @@
         <v>1.1836798147928469</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="39">
         <v>8.8736984598062219E-5</v>
@@ -7277,9 +7320,9 @@
         <v>1.7581577119173859</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="39">
         <v>0</v>
@@ -7312,20 +7355,20 @@
         <v>1.3736678542573124</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -7339,7 +7382,7 @@
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="35"/>
       <c r="B38" s="35">
         <v>2014</v>
@@ -7375,9 +7418,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="33">
         <v>0</v>
@@ -7413,9 +7456,9 @@
         <v>0.74110405537417889</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="33">
         <v>0</v>
@@ -7451,9 +7494,9 @@
         <v>0.50590832725411927</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" s="33">
         <v>0</v>
@@ -7489,9 +7532,9 @@
         <v>0.28914007666781549</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="33">
         <v>0</v>
@@ -7533,26 +7576,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.265625" customWidth="1"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="4" width="12.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.1328125" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7564,7 +7607,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>2025</v>
       </c>
@@ -7584,7 +7627,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7614,7 +7657,7 @@
       </c>
       <c r="H3" s="49"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7644,9 +7687,9 @@
       </c>
       <c r="H4" s="49"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7655,7 +7698,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>2025</v>
       </c>
@@ -7677,9 +7720,9 @@
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="48">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
@@ -7707,9 +7750,9 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="49">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
@@ -7736,9 +7779,9 @@
         <v>0.47287986290994544</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="48">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
@@ -7765,9 +7808,9 @@
         <v>0.17391885026730866</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="49">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
@@ -7794,13 +7837,13 @@
         <v>9.4605832572315834E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7809,7 +7852,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>2020</v>
       </c>
@@ -7826,9 +7869,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="49">
         <f>G31</f>
@@ -7851,9 +7894,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="49">
         <f>G32</f>
@@ -7876,9 +7919,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="49">
         <f>G33</f>
@@ -7900,14 +7943,14 @@
       <c r="G17" s="48"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46">
@@ -7938,10 +7981,10 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="44">
         <v>0</v>
@@ -7971,10 +8014,10 @@
         <v>3224.4254691476872</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C23" s="44">
         <v>0</v>
@@ -8004,10 +8047,10 @@
         <v>3279.952284652592</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="44">
         <v>0</v>
@@ -8037,10 +8080,10 @@
         <v>1812.7160215516324</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="42">
         <v>0</v>
@@ -8070,29 +8113,29 @@
         <v>8317.093775351912</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="34"/>
       <c r="B29" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="40">
         <v>2020</v>
@@ -8125,9 +8168,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="39">
         <v>9.0692000334624094E-3</v>
@@ -8160,9 +8203,9 @@
         <v>1.1836798147928469</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="39">
         <v>8.8736984598062219E-5</v>
@@ -8195,9 +8238,9 @@
         <v>1.7581577119173859</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="39">
         <v>0</v>
@@ -8230,20 +8273,20 @@
         <v>1.3736678542573124</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="23.25" x14ac:dyDescent="0.7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -8257,7 +8300,7 @@
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="35"/>
       <c r="B38" s="35">
         <v>2014</v>
@@ -8293,9 +8336,9 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="33">
         <v>0</v>
@@ -8331,9 +8374,9 @@
         <v>0.74110405537417889</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="33">
         <v>0</v>
@@ -8369,9 +8412,9 @@
         <v>0.50590832725411927</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" s="33">
         <v>0</v>
@@ -8407,9 +8450,9 @@
         <v>0.28914007666781549</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="33">
         <v>0</v>
@@ -8451,29 +8494,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.73046875" customWidth="1"/>
-    <col min="14" max="15" width="10.265625" customWidth="1"/>
-    <col min="16" max="16" width="9.73046875" customWidth="1"/>
-    <col min="17" max="17" width="9.86328125" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" customWidth="1"/>
+    <col min="14" max="15" width="10.26953125" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" customWidth="1"/>
+    <col min="17" max="17" width="9.81640625" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="11.1328125" customWidth="1"/>
+    <col min="19" max="19" width="11.08984375" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
     <col min="21" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="12" bestFit="1" customWidth="1"/>
@@ -8483,7 +8526,7 @@
     <col min="36" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="26.5" x14ac:dyDescent="0.35">
       <c r="B1" s="30">
         <v>2012</v>
       </c>
@@ -8509,60 +8552,60 @@
         <v>2047</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="28">
         <v>0</v>
       </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="C2" s="56">
+        <v>0</v>
+      </c>
+      <c r="D2" s="56">
         <v>1</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="56">
         <v>5</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="56">
         <v>15</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="56">
         <v>20</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="56">
         <v>30</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="56">
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L2" s="27">
         <v>2012</v>
@@ -8596,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="28">
         <f t="shared" ref="B3:I3" si="4">B2*1000</f>
@@ -8665,7 +8708,7 @@
         <v>39484272.231763646</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>132</v>
       </c>
@@ -8725,7 +8768,7 @@
         <v>236905633.39058188</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
       <c r="B5" s="28">
         <f t="shared" ref="B5:I5" si="5">B4*1000</f>
@@ -8794,7 +8837,7 @@
         <v>355358450.08587283</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>131</v>
       </c>
@@ -8854,7 +8897,7 @@
         <v>473811266.78116375</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
       <c r="B7" s="28">
         <f t="shared" ref="B7:I7" si="6">B6*1000</f>
@@ -8923,7 +8966,7 @@
         <v>552779811.24469101</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>130</v>
       </c>
@@ -8983,7 +9026,7 @@
         <v>671232627.93998206</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="28"/>
       <c r="B9" s="28">
         <f t="shared" ref="B9:I9" si="7">B8*1000</f>
@@ -9052,17 +9095,17 @@
         <v>710716900.17174566</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -9079,7 +9122,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>141</v>
       </c>
@@ -9096,7 +9139,7 @@
         <v>553.70000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>140</v>
       </c>
@@ -9113,7 +9156,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>139</v>
       </c>
@@ -9134,7 +9177,7 @@
         <v>4780000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>138</v>
       </c>
@@ -9155,7 +9198,7 @@
         <v>8632.8336644392257</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>137</v>
       </c>
@@ -9164,26 +9207,26 @@
         <v>7896.8544463527296</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B18" s="25"/>
     </row>
-    <row r="19" spans="1:40" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="24"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B22" s="12">
         <v>2012</v>
       </c>
@@ -9340,7 +9383,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>133</v>
       </c>
@@ -9501,7 +9544,7 @@
         <v>276389905.62234551</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -9662,7 +9705,7 @@
         <v>63174835.570821837</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>131</v>
       </c>
@@ -9823,7 +9866,7 @@
         <v>631748355.70821834</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -9984,7 +10027,7 @@
         <v>710716900.17174566</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>129</v>
       </c>
@@ -10140,50 +10183,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.86328125" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="86.3984375" customWidth="1"/>
+    <col min="7" max="7" width="86.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -10212,7 +10255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -10242,7 +10285,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
@@ -10272,7 +10315,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -10302,7 +10345,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
@@ -10332,7 +10375,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
@@ -10362,7 +10405,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -10392,7 +10435,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
@@ -10421,7 +10464,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -10451,7 +10494,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
@@ -10480,7 +10523,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>59</v>
       </c>
@@ -10510,7 +10553,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>61</v>
       </c>
@@ -10540,7 +10583,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>63</v>
       </c>
@@ -10570,7 +10613,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>66</v>
       </c>
@@ -10600,7 +10643,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>68</v>
       </c>
@@ -10631,7 +10674,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>70</v>
       </c>
@@ -10661,7 +10704,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>72</v>
       </c>
@@ -10691,7 +10734,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
@@ -10722,7 +10765,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>76</v>
       </c>
@@ -10752,7 +10795,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>79</v>
       </c>
@@ -10781,7 +10824,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>83</v>
       </c>
@@ -10811,7 +10854,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>85</v>
       </c>
@@ -10841,7 +10884,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>87</v>
       </c>
@@ -10870,7 +10913,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>90</v>
       </c>
@@ -10901,7 +10944,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>92</v>
       </c>
@@ -10931,7 +10974,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>94</v>
       </c>
@@ -10961,7 +11004,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>97</v>
       </c>
@@ -10991,7 +11034,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>99</v>
       </c>
@@ -11019,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>101</v>
       </c>
@@ -11049,7 +11092,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>103</v>
       </c>
@@ -11080,51 +11123,51 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:H36"/>
+  <autoFilter ref="A7:H36" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI103"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>160</v>
-      </c>
       <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2018</v>
@@ -11226,7 +11269,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>121</v>
       </c>
@@ -11363,7 +11406,7 @@
         <v>0.37730512812328371</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
@@ -11500,19 +11543,19 @@
         <v>0.62269487187671624</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>119</v>
       </c>
@@ -11550,7 +11593,7 @@
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>2018</v>
       </c>
@@ -11651,7 +11694,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -11789,7 +11832,7 @@
       </c>
       <c r="AI13" s="10"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -11926,7 +11969,7 @@
         <v>39338646.141605519</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -11961,9 +12004,9 @@
       <c r="AG15" s="14"/>
       <c r="AH15" s="14"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -11999,7 +12042,7 @@
       <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -12037,7 +12080,7 @@
       <c r="AG17" s="14"/>
       <c r="AH17" s="14"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -12075,7 +12118,7 @@
       <c r="AG18" s="14"/>
       <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -12113,7 +12156,7 @@
       <c r="AG19" s="14"/>
       <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -12148,7 +12191,7 @@
       <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -12186,7 +12229,7 @@
       <c r="AG21" s="14"/>
       <c r="AH21" s="14"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>2018</v>
       </c>
@@ -12287,7 +12330,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -12416,7 +12459,7 @@
         <v>30385348.013510227</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -12548,7 +12591,7 @@
         <v>41211502.274727345</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -12583,7 +12626,7 @@
       <c r="AG25" s="14"/>
       <c r="AH25" s="14"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -12618,7 +12661,7 @@
       <c r="AG26" s="14"/>
       <c r="AH26" s="14"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -12653,7 +12696,7 @@
       <c r="AG27" s="14"/>
       <c r="AH27" s="14"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -12688,7 +12731,7 @@
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -12723,7 +12766,7 @@
       <c r="AG29" s="14"/>
       <c r="AH29" s="14"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -12758,7 +12801,7 @@
       <c r="AG30" s="14"/>
       <c r="AH30" s="14"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -12793,7 +12836,7 @@
       <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -12828,7 +12871,7 @@
       <c r="AG32" s="14"/>
       <c r="AH32" s="14"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -12863,7 +12906,7 @@
       <c r="AG33" s="14"/>
       <c r="AH33" s="14"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -12898,7 +12941,7 @@
       <c r="AG34" s="14"/>
       <c r="AH34" s="14"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -12933,7 +12976,7 @@
       <c r="AG35" s="14"/>
       <c r="AH35" s="14"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -12968,7 +13011,7 @@
       <c r="AG36" s="14"/>
       <c r="AH36" s="14"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -13003,7 +13046,7 @@
       <c r="AG37" s="14"/>
       <c r="AH37" s="14"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -13038,7 +13081,7 @@
       <c r="AG38" s="14"/>
       <c r="AH38" s="14"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -13073,7 +13116,7 @@
       <c r="AG39" s="14"/>
       <c r="AH39" s="14"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -13108,7 +13151,7 @@
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -13143,9 +13186,9 @@
       <c r="AG41" s="14"/>
       <c r="AH41" s="14"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -13181,7 +13224,7 @@
       <c r="AG43" s="7"/>
       <c r="AH43" s="7"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -13285,7 +13328,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -13389,7 +13432,7 @@
         <v>1218880000000000</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>112</v>
       </c>
@@ -13493,7 +13536,7 @@
         <v>1662420000000000</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -13597,7 +13640,7 @@
         <v>355381000000000</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -13701,7 +13744,7 @@
         <v>186117000000000</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>115</v>
       </c>
@@ -13805,7 +13848,7 @@
         <v>3082660000000000</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -13909,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -14013,7 +14056,7 @@
         <v>-302644000000000</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -14117,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -14218,9 +14261,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B55" s="14">
         <v>192367000000000</v>
@@ -14319,9 +14362,9 @@
         <v>626814000000000</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B56" s="14">
         <v>1047430000000</v>
@@ -14420,9 +14463,9 @@
         <v>1496320000000</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" s="14">
         <v>340211000000000</v>
@@ -14521,9 +14564,9 @@
         <v>1361800000000000</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B58" s="14">
         <v>116331000000000</v>
@@ -14622,9 +14665,9 @@
         <v>163885000000000</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B59" s="14">
         <v>9812670000000</v>
@@ -14723,9 +14766,9 @@
         <v>6470920000000</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B60" s="14">
         <v>8046690000</v>
@@ -14824,9 +14867,9 @@
         <v>9750120000</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B61" s="14">
         <v>42785500000000</v>
@@ -14925,9 +14968,9 @@
         <v>107035000000000</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B62" s="14">
         <v>325415000000000</v>
@@ -15026,7 +15069,7 @@
         <v>1008970000000000</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>15</v>
       </c>
@@ -15130,7 +15173,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -15234,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -15367,7 +15410,7 @@
         <v>1.827778059305718E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>4</v>
       </c>
@@ -15471,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>5</v>
       </c>
@@ -15575,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -15708,7 +15751,7 @@
         <v>1.3368812089146198E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>6</v>
       </c>
@@ -15812,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>7</v>
       </c>
@@ -15916,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>8</v>
       </c>
@@ -16020,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
         <v>120</v>
       </c>
@@ -16058,7 +16101,7 @@
       <c r="AG79" s="7"/>
       <c r="AH79" s="7"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>2018</v>
       </c>
@@ -16159,7 +16202,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -16297,7 +16340,7 @@
       </c>
       <c r="AI81" s="10"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -16434,14 +16477,14 @@
         <v>1.3368812089146174E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="19"/>
       <c r="B101" s="19">
         <v>2018</v>
@@ -16450,7 +16493,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
         <v>109</v>
       </c>
@@ -16462,7 +16505,7 @@
         <v>1.8277780593057246E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>128</v>
       </c>
@@ -16476,7 +16519,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -16486,7 +16529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16496,14 +16539,14 @@
       <selection activeCell="A39" sqref="A39:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -16602,9 +16645,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!C64)</f>
@@ -16735,1423 +16778,1423 @@
         <v>1.827778059305718E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="53" t="s">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="53" t="s">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="53" t="s">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="53" t="s">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="53" t="s">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="53" t="s">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="53" t="s">
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -18257,7 +18300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18267,14 +18310,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -18373,9 +18416,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -18474,9 +18517,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B56/SUM('BAU Calculations'!B56,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>
@@ -18607,9 +18650,9 @@
         <v>1.7034102627168875E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -18708,9 +18751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B58/SUM('BAU Calculations'!B56,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>
@@ -18841,312 +18884,312 @@
         <v>1.8656663742071026E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="55" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A8" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="55" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" s="55" t="s">
         <v>238</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A9" s="55" t="s">
-        <v>239</v>
       </c>
       <c r="B9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B58/SUM('BAU Calculations'!B62,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>

--- a/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
+++ b/InputData/ccs/BFoCPAbS/BAU Fraction of CCS Potential Achieved by Sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\Downloads\eps-india-3.1.3.4 - LG\eps-india-3.1.3.4\InputData - LG\ccs\BFoCPAbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\ccs\BFoCPAbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{681F232B-BC59-48A9-A3EC-0E983E8889B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AE9025-8A63-4101-8C37-B34F86D37EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>Electricity Sector</t>
   </si>
   <si>
-    <t>Time (Year)</t>
-  </si>
-  <si>
     <t>Total Pollutant Emissions by Sector[transportation sector,CO2] : MostRecentRun</t>
   </si>
   <si>
@@ -830,6 +827,9 @@
   </si>
   <si>
     <t>on the types of industries using CCS listed in the Global CCS database. We split between industries based on their BAU share of CO2 emissions.</t>
+  </si>
+  <si>
+    <t>Time (Time)</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1063,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1085,8 +1085,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1153,6 +1151,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3476,107 +3475,104 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAU Calculations'!$B$80:$AH$80</c:f>
+              <c:f>'BAU Calculations'!$B$80:$AG$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2022</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2043</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2044</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2045</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2046</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2047</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2048</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
@@ -3584,10 +3580,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAU Calculations'!$B$81:$AH$81</c:f>
+              <c:f>'BAU Calculations'!$B$81:$AG$81</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3610,82 +3606,79 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.9392805050236979E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.642905882599727E-4</c:v>
+                  <c:v>1.7837285857930307E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6214800816513959E-3</c:v>
+                  <c:v>3.0531557169101659E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7307074134713164E-3</c:v>
+                  <c:v>4.2802935640014975E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8114741427793383E-3</c:v>
+                  <c:v>5.4863892768816716E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8387912047127106E-3</c:v>
+                  <c:v>6.7001414218840084E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8519941806813979E-3</c:v>
+                  <c:v>7.8541141810770584E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.669580390696284E-3</c:v>
+                  <c:v>8.9184952192267446E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4900591671078036E-3</c:v>
+                  <c:v>1.008262430708763E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2297370278012066E-3</c:v>
+                  <c:v>1.1243248546307242E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9249610199626395E-3</c:v>
+                  <c:v>1.2397912501645869E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.598434279312321E-3</c:v>
+                  <c:v>1.3547208780168112E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0255463381616597E-2</c:v>
+                  <c:v>1.4690134668505403E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0945214770170271E-2</c:v>
+                  <c:v>1.5836292093691008E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1625125074811235E-2</c:v>
+                  <c:v>1.698034329294059E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2337422168361249E-2</c:v>
+                  <c:v>1.8114284473473987E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3058544314166526E-2</c:v>
+                  <c:v>1.9246691063959456E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3815609633049668E-2</c:v>
+                  <c:v>2.036911239733722E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4598815490102762E-2</c:v>
+                  <c:v>2.1523009052967428E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5386524630958024E-2</c:v>
+                  <c:v>2.2674213104371128E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6199450548471397E-2</c:v>
+                  <c:v>2.3824389135587005E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6996584268369471E-2</c:v>
+                  <c:v>2.4980458008982527E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7789202468770093E-2</c:v>
+                  <c:v>2.6122917648122249E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8588598870228533E-2</c:v>
+                  <c:v>2.7274148014870443E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9367074132053425E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.8277780593057246E-2</c:v>
+                  <c:v>2.8412391544649748E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3725,107 +3718,104 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BAU Calculations'!$B$80:$AH$80</c:f>
+              <c:f>'BAU Calculations'!$B$80:$AG$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2022</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2023</c:v>
+                  <c:v>2024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2024</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2025</c:v>
+                  <c:v>2026</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2026</c:v>
+                  <c:v>2027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2027</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2028</c:v>
+                  <c:v>2029</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2029</c:v>
+                  <c:v>2030</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2030</c:v>
+                  <c:v>2031</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2031</c:v>
+                  <c:v>2032</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2032</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2033</c:v>
+                  <c:v>2034</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2034</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2035</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2036</c:v>
+                  <c:v>2037</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2037</c:v>
+                  <c:v>2038</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2038</c:v>
+                  <c:v>2039</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2039</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2040</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2041</c:v>
+                  <c:v>2042</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2042</c:v>
+                  <c:v>2043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2043</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2044</c:v>
+                  <c:v>2045</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2045</c:v>
+                  <c:v>2046</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2046</c:v>
+                  <c:v>2047</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2047</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2048</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
@@ -3833,10 +3823,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BAU Calculations'!$B$82:$AH$82</c:f>
+              <c:f>'BAU Calculations'!$B$82:$AG$82</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3850,91 +3840,88 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.7657872299982003E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8290078090782918E-4</c:v>
+                  <c:v>2.2862226632029323E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8182245241646045E-3</c:v>
+                  <c:v>3.4966035599913528E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7463657189492935E-3</c:v>
+                  <c:v>4.6215686144781432E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6008364214057658E-3</c:v>
+                  <c:v>5.6713300860359375E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3516484036701776E-3</c:v>
+                  <c:v>6.5997660932631472E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0316395281102579E-3</c:v>
+                  <c:v>7.4566311232395315E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6517584093017043E-3</c:v>
+                  <c:v>8.2496431115610704E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1433578471327367E-3</c:v>
+                  <c:v>8.9862921963418975E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6615673149629838E-3</c:v>
+                  <c:v>9.6709301536778355E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.1226081092425949E-3</c:v>
+                  <c:v>1.0292914547119397E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5474180260201992E-3</c:v>
+                  <c:v>1.0871751949323244E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9400078839911292E-3</c:v>
+                  <c:v>1.1412343226434311E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3032609436422822E-3</c:v>
+                  <c:v>1.1918412194775269E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6201791071407446E-3</c:v>
+                  <c:v>1.2393444426928598E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.9552060874257024E-3</c:v>
+                  <c:v>1.2860699883641174E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1866695292031984E-3</c:v>
+                  <c:v>1.3301981293799945E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.4836483683273173E-3</c:v>
+                  <c:v>1.3718156408490584E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7607015323059824E-3</c:v>
+                  <c:v>1.4114736772620066E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0025771379118174E-2</c:v>
+                  <c:v>1.4488822226311825E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.034203689788105E-2</c:v>
+                  <c:v>1.4927976491576735E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.064535351706496E-2</c:v>
+                  <c:v>1.5350272831576748E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0849604183502608E-2</c:v>
+                  <c:v>1.5754448706843182E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1128981276917048E-2</c:v>
+                  <c:v>1.6146736309734316E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1397659374620412E-2</c:v>
+                  <c:v>1.6523467582117729E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1634352607970688E-2</c:v>
+                  <c:v>1.6887615233960571E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1883733531128196E-2</c:v>
+                  <c:v>1.7237271219306717E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.212377048689213E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.3368812089146174E-2</c:v>
+                  <c:v>1.7575850303536939E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6414,7 +6401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -6436,56 +6423,56 @@
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="51">
+      <c r="B5" s="49">
         <v>2017</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <v>2014</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -6493,50 +6480,50 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="51">
+      <c r="B13" s="49">
         <v>2015</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="49">
         <v>2017</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -6567,42 +6554,42 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -6613,7 +6600,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -6622,7 +6609,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="4"/>
@@ -6677,7 +6664,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -6713,65 +6700,65 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <f t="shared" ref="B3:G3" si="0">D23/D25</f>
         <v>0.21803644250297027</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="47">
         <f t="shared" si="0"/>
         <v>0.45387106293645746</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="47">
         <f t="shared" si="0"/>
         <v>0.57375467270212188</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="47">
         <f t="shared" si="0"/>
         <v>0.59382245522742239</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="47">
         <f t="shared" si="0"/>
         <v>0.60434543955945319</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="47">
         <f t="shared" si="0"/>
         <v>0.56028199067132201</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <f t="shared" ref="B4:G4" si="1">SUM(D22,D24)/D25</f>
         <v>0.78196355749702962</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="47">
         <f t="shared" si="1"/>
         <v>0.54612893706354271</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="47">
         <f t="shared" si="1"/>
         <v>0.42624532729787801</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="47">
         <f t="shared" si="1"/>
         <v>0.40617754477257761</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="47">
         <f t="shared" si="1"/>
         <v>0.39565456044054664</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="47">
         <f t="shared" si="1"/>
         <v>0.43971800932867816</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6804,29 +6791,29 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="48">
+        <v>185</v>
+      </c>
+      <c r="B8" s="46">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
         <v>0.29305349924260793</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <f t="shared" si="2"/>
         <v>0.33275814655315439</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="46">
         <f t="shared" si="2"/>
         <v>0.27778376598364735</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <f t="shared" si="2"/>
         <v>0.32736698959883581</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="46">
         <f t="shared" si="2"/>
         <v>0.35934243065340959</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="46">
         <f t="shared" si="2"/>
         <v>0.38367083769308907</v>
       </c>
@@ -6834,87 +6821,87 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="49">
+        <v>184</v>
+      </c>
+      <c r="B9" s="47">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
         <v>8.8852453196402434E-2</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="47">
         <f t="shared" si="3"/>
         <v>0.11760289017955526</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <f t="shared" si="3"/>
         <v>0.16029232107960878</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <f t="shared" si="3"/>
         <v>0.17273948243196502</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="47">
         <f t="shared" si="3"/>
         <v>0.19873531530551919</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="47">
         <f t="shared" si="3"/>
         <v>0.21792159249022533</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="48">
+        <v>183</v>
+      </c>
+      <c r="B10" s="46">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
         <v>2.4929787372755252E-3</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <f t="shared" si="4"/>
         <v>0.16235589840065001</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <f t="shared" si="4"/>
         <v>0.28012369548232957</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <f t="shared" si="4"/>
         <v>0.29779009961409042</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="46">
         <f t="shared" si="4"/>
         <v>0.28793480415473521</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="46">
         <f t="shared" si="4"/>
         <v>0.25804018454667765</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="49">
+        <v>182</v>
+      </c>
+      <c r="B11" s="47">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
         <v>0.60906693840985171</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="47">
         <f t="shared" si="5"/>
         <v>0.38103420834619267</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <f t="shared" si="5"/>
         <v>0.27591691183820882</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <f t="shared" si="5"/>
         <v>0.1994127226137235</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <f t="shared" si="5"/>
         <v>0.15396517468671694</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="47">
         <f t="shared" si="5"/>
         <v>0.14036492570317538</v>
       </c>
@@ -6925,7 +6912,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -6953,620 +6940,620 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="49">
+        <v>180</v>
+      </c>
+      <c r="B15" s="47">
         <f>B31/SUM(B31:B33)</f>
         <v>0.99031037400420396</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="47">
         <f>C31/SUM(C31:C33)</f>
         <v>0.38683189211801422</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <f>D31/SUM(D31:D33)</f>
         <v>0.35477104291503592</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="47">
         <f>E31/SUM(E31:E33)</f>
         <v>0.28108145583275146</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="49">
+        <v>179</v>
+      </c>
+      <c r="B16" s="47">
         <f>B32/SUM(B31:B33)</f>
         <v>9.6896259957961056E-3</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="47">
         <f>C32/SUM(C31:C33)</f>
         <v>0.59862093333506916</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47">
         <f>D32/SUM(D31:D33)</f>
         <v>0.57372188670355717</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="47">
         <f>E32/SUM(E31:E33)</f>
         <v>0.43585744423879202</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="49">
+        <v>178</v>
+      </c>
+      <c r="B17" s="47">
         <f>B33/SUM(B31:B33)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="47">
         <f>C33/SUM(C31:C33)</f>
         <v>1.4547174546916692E-2</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <f>D33/SUM(D31:D33)</f>
         <v>7.1507070381406954E-2</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="47">
         <f>E33/SUM(E31:E33)</f>
         <v>0.28306109992845646</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
       <c r="I17" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46">
+      <c r="A21" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44">
         <v>2014</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="44">
         <v>2025</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="44">
         <v>2030</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="44">
         <v>2035</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="44">
         <v>2040</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="44">
         <v>2045</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="44">
         <v>2050</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="44">
         <v>2055</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="44">
         <v>2060</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="44">
-        <v>0</v>
-      </c>
-      <c r="D22" s="44">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="42">
+        <v>0</v>
+      </c>
+      <c r="D22" s="42">
         <v>32.40429913151911</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="42">
         <v>93.876808800194539</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="42">
         <v>151.71633290315154</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="42">
         <v>187.21216357345642</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="42">
         <v>237.97861280972978</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="42">
         <v>268.62433402842748</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="42">
         <v>301.62694877193803</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="42">
         <v>338.82942754525209</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="44">
-        <v>0</v>
-      </c>
-      <c r="D23" s="44">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="42">
+        <v>0</v>
+      </c>
+      <c r="D23" s="42">
         <v>16.985652732884223</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="42">
         <v>136.39566547228313</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="42">
         <v>386.88874151414149</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="42">
         <v>571.47749466737059</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="42">
         <v>803.61468594996381</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="42">
         <v>817.9399604957988</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="42">
         <v>895.52328791931473</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="42">
         <v>858.4271853516816</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="44">
-        <v>0</v>
-      </c>
-      <c r="D24" s="44">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="42">
+        <v>0</v>
+      </c>
+      <c r="D24" s="42">
         <v>28.512863545240073</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="42">
         <v>70.243854285306412</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="42">
         <v>135.70532325157922</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="42">
         <v>203.68131583846389</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="42">
         <v>288.13409446059916</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="42">
         <v>373.30765230696636</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="42">
         <v>469.46789166999571</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="42">
         <v>556.22745588473765</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="42">
-        <v>0</v>
-      </c>
-      <c r="D25" s="42">
+      <c r="A25" s="42"/>
+      <c r="B25" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="40">
+        <v>0</v>
+      </c>
+      <c r="D25" s="40">
         <v>77.902815409643409</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="40">
         <v>300.51632855778405</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="40">
         <v>674.31039766887227</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="40">
         <v>962.37097407929093</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="40">
         <v>1329.7273932202929</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="40">
         <v>1459.8719468311924</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="40">
         <v>1666.6181283612484</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="40">
         <v>1753.4840687816713</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="40" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="40">
+      <c r="A30" s="33"/>
+      <c r="B30" s="38">
         <v>2020</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="38">
         <v>2030</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="38">
         <v>2040</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="38">
         <v>2050</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="38">
         <v>2060</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="38">
         <v>2020</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="38">
         <v>2030</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="38">
         <v>2040</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="38">
         <v>2050</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="38">
         <v>2060</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="39">
+      <c r="A31" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="37">
         <v>9.0692000334624094E-3</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="37">
         <v>5.1350318772354832E-2</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="37">
         <v>0.31707111991587944</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="37">
         <v>0.43250423067250798</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="37">
         <v>0.30164318885759717</v>
       </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39">
+      <c r="G31" s="37">
+        <v>0</v>
+      </c>
+      <c r="H31" s="37">
         <v>0.25314566757024587</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="37">
         <v>1.6159505949355208</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="37">
         <v>1.3631258357215936</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="37">
         <v>1.1836798147928469</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="39">
+      <c r="A32" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="37">
         <v>8.8736984598062219E-5</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>7.9464429838640188E-2</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="37">
         <v>0.51275504235816094</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="37">
         <v>0.67066035375720856</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="37">
         <v>0.29118624343037608</v>
       </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39">
+      <c r="G32" s="37">
+        <v>0</v>
+      </c>
+      <c r="H32" s="37">
         <v>7.2967083539768385E-2</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="37">
         <v>0.51828833623970194</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="37">
         <v>1.0630754575373591</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="37">
         <v>1.7581577119173859</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="39">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39">
+      <c r="A33" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="37">
+        <v>0</v>
+      </c>
+      <c r="C33" s="37">
         <v>1.9310766910432609E-3</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="37">
         <v>6.3908335644987324E-2</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="37">
         <v>0.43555033858482695</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="37">
         <v>0.83998846288335016</v>
       </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
-      <c r="H33" s="39">
+      <c r="G33" s="37">
+        <v>0</v>
+      </c>
+      <c r="H33" s="37">
         <v>1.0989011883988391E-2</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="37">
         <v>0.18918889400984115</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="37">
         <v>0.73816487009111909</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="37">
         <v>1.3736678542573124</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
-        <v>168</v>
+      <c r="A35" s="36" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="36"/>
+      <c r="A36" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="34"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
+      <c r="A37" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33">
         <v>2014</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="33">
         <v>2015</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>2020</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="33">
         <v>2025</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="33">
         <v>2030</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="33">
         <v>2035</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="33">
         <v>2040</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="33">
         <v>2045</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="33">
         <v>2050</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="33">
         <v>2055</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="33">
         <v>2060</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="33">
-        <v>0</v>
-      </c>
-      <c r="C39" s="33">
-        <v>0</v>
-      </c>
-      <c r="D39" s="33">
-        <v>0</v>
-      </c>
-      <c r="E39" s="33">
+      <c r="A39" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0</v>
+      </c>
+      <c r="D39" s="31">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
         <v>9.4041235044908286E-2</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="31">
         <v>0.19875544489630168</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="31">
         <v>0.23517493229217079</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="31">
         <v>0.38600636209402522</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="31">
         <v>0.52098845994441834</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="31">
         <v>0.65724216697011595</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="31">
         <v>0.65648081566706651</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="31">
         <v>0.74110405537417889</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="33">
-        <v>0</v>
-      </c>
-      <c r="C40" s="33">
-        <v>0</v>
-      </c>
-      <c r="D40" s="33">
+      <c r="A40" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0</v>
+      </c>
+      <c r="D40" s="31">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="31">
         <v>9.6974692137267671E-2</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="31">
         <v>0.23715594352755537</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="31">
         <v>0.3511315333305714</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <v>0.41745893995374145</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="31">
         <v>0.44203226671215384</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="31">
         <v>0.46148047621402866</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="31">
         <v>0.50590832725411927</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="33">
-        <v>0</v>
-      </c>
-      <c r="C41" s="33">
-        <v>0</v>
-      </c>
-      <c r="D41" s="33">
+      <c r="A41" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0</v>
+      </c>
+      <c r="D41" s="31">
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="31">
         <v>0.19545034357588661</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="31">
         <v>0.22759059210128213</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="31">
         <v>0.23359443209375855</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="31">
         <v>0.23513238065241418</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="31">
         <v>0.22322462476598964</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="31">
         <v>0.24045024764053377</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="31">
         <v>0.27864135643363158</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="31">
         <v>0.28914007666781549</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="33">
-        <v>0</v>
-      </c>
-      <c r="C42" s="33">
-        <v>0</v>
-      </c>
-      <c r="D42" s="33">
+      <c r="A42" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0</v>
+      </c>
+      <c r="C42" s="31">
+        <v>0</v>
+      </c>
+      <c r="D42" s="31">
         <v>1.5376939060841825E-4</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="31">
         <v>2.0968106357788581E-3</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="31">
         <v>3.7324232950562601E-3</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="31">
         <v>4.980874224401988E-3</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="31">
         <v>3.1726764386671349E-3</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="31">
         <v>3.2295440099746402E-5</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="31">
         <v>4.2133278740787309E-6</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="31">
         <v>2.8577172778101513E-5</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="31">
         <v>7.283691725614275E-5</v>
       </c>
     </row>
@@ -7595,7 +7582,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -7631,65 +7618,65 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="47">
         <f t="shared" ref="B3:G3" si="0">D23/D25</f>
         <v>4.4936433006002231E-2</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="47">
         <f t="shared" si="0"/>
         <v>0.18309937593197775</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="47">
         <f t="shared" si="0"/>
         <v>0.33562779707770829</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="47">
         <f t="shared" si="0"/>
         <v>0.41029460344152446</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="47">
         <f t="shared" si="0"/>
         <v>0.43562759311159638</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="47">
         <f t="shared" si="0"/>
         <v>0.37730512812328371</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <f t="shared" ref="B4:G4" si="1">SUM(D22,D24)/D25</f>
         <v>0.95506356699399775</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="47">
         <f t="shared" si="1"/>
         <v>0.81690062406802222</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="47">
         <f t="shared" si="1"/>
         <v>0.66437220292229171</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="47">
         <f t="shared" si="1"/>
         <v>0.58970539655847543</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="47">
         <f t="shared" si="1"/>
         <v>0.56437240688840373</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="47">
         <f t="shared" si="1"/>
         <v>0.62269487187671635</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7722,29 +7709,29 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="48">
+        <v>185</v>
+      </c>
+      <c r="B8" s="46">
         <f t="shared" ref="B8:G8" si="2">E39/SUM(E39:E42,D24/1000)</f>
         <v>0.29900648346859349</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="46">
         <f t="shared" si="2"/>
         <v>0.30366522968423609</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="46">
         <f t="shared" si="2"/>
         <v>0.2325252012134289</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <f t="shared" si="2"/>
         <v>0.23905776935811326</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="46">
         <f t="shared" si="2"/>
         <v>0.2459021549943784</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="46">
         <f t="shared" si="2"/>
         <v>0.2585937965046165</v>
       </c>
@@ -7752,87 +7739,87 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="49">
+        <v>184</v>
+      </c>
+      <c r="B9" s="47">
         <f t="shared" ref="B9:G9" si="3">(D24/1000)/SUM(E39:E42,D24/1000)</f>
         <v>7.0343727016078286E-2</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="47">
         <f t="shared" si="3"/>
         <v>0.19475053037197726</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <f t="shared" si="3"/>
         <v>0.29710364351198437</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <f t="shared" si="3"/>
         <v>0.39589799738148052</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="47">
         <f t="shared" si="3"/>
         <v>0.45168536782870344</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="47">
         <f t="shared" si="3"/>
         <v>0.47287986290994544</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="48">
+        <v>183</v>
+      </c>
+      <c r="B10" s="46">
         <f t="shared" ref="B10:G10" si="4">E40/SUM(E39:E42,D24/1000)</f>
         <v>2.5436202178825617E-3</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="46">
         <f t="shared" si="4"/>
         <v>0.14816118459942337</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <f t="shared" si="4"/>
         <v>0.23448389226788868</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <f t="shared" si="4"/>
         <v>0.21745942386528264</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="46">
         <f t="shared" si="4"/>
         <v>0.19703709553805757</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="46">
         <f t="shared" si="4"/>
         <v>0.17391885026730866</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="49">
+        <v>182</v>
+      </c>
+      <c r="B11" s="47">
         <f t="shared" ref="B11:G11" si="5">E41/SUM(E39:E42,D24/1000)</f>
         <v>0.62143930688964777</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="47">
         <f t="shared" si="5"/>
         <v>0.34772053394796387</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="47">
         <f t="shared" si="5"/>
         <v>0.23096250861234377</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <f t="shared" si="5"/>
         <v>0.14561993775879004</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <f t="shared" si="5"/>
         <v>0.10536013846376642</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="47">
         <f t="shared" si="5"/>
         <v>9.4605832572315834E-2</v>
       </c>
@@ -7843,7 +7830,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7871,620 +7858,620 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="49">
+        <v>180</v>
+      </c>
+      <c r="B15" s="47">
         <f>G31</f>
         <v>0</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="47">
         <f t="shared" ref="C15:E17" si="6">H31/SUM(H31:H33)</f>
         <v>0.75094732617802884</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <f t="shared" si="6"/>
         <v>0.69550281589091678</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="47">
         <f t="shared" si="6"/>
         <v>0.43077373646242967</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="49">
+        <v>179</v>
+      </c>
+      <c r="B16" s="47">
         <f>G32</f>
         <v>0</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="47">
         <f t="shared" si="6"/>
         <v>0.86911001722361103</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47">
         <f t="shared" si="6"/>
         <v>0.73258659654232261</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="47">
         <f t="shared" si="6"/>
         <v>0.59019079310588696</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="49">
+        <v>178</v>
+      </c>
+      <c r="B17" s="47">
         <f>G33</f>
         <v>0</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="47">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="47">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
       <c r="I17" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46">
+      <c r="A21" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44">
         <v>2014</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="44">
         <v>2025</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="44">
         <v>2030</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="44">
         <v>2035</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="44">
         <v>2040</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="44">
         <v>2045</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="44">
         <v>2050</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="44">
         <v>2055</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="44">
         <v>2060</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" s="44">
-        <v>0</v>
-      </c>
-      <c r="D22" s="44">
+      <c r="A22" s="42"/>
+      <c r="B22" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="42">
+        <v>0</v>
+      </c>
+      <c r="D22" s="42">
         <v>617.46579618378519</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="42">
         <v>1081.7934339086667</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="42">
         <v>1514.8251281587777</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="42">
         <v>1927.6720378022803</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="42">
         <v>2198.1141550802454</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="42">
         <v>2676.6122372335317</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="42">
         <v>2950.0831196290765</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="42">
         <v>3224.4254691476872</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="44">
-        <v>0</v>
-      </c>
-      <c r="D23" s="44">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="42">
+        <v>0</v>
+      </c>
+      <c r="D23" s="42">
         <v>30.093162117441675</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="42">
         <v>271.04287232984956</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="42">
         <v>917.06120698826567</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="42">
         <v>1785.9710678442866</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="42">
         <v>2435.3512473822343</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="42">
         <v>2350.0625653690722</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="42">
         <v>2648.502745099659</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="42">
         <v>3279.952284652592</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C24" s="44">
-        <v>0</v>
-      </c>
-      <c r="D24" s="44">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="42">
+        <v>0</v>
+      </c>
+      <c r="D24" s="42">
         <v>22.123971659459748</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="42">
         <v>127.4684241858147</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="42">
         <v>300.48927549386389</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="42">
         <v>639.25613520056368</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="42">
         <v>956.97764084208234</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="42">
         <v>1201.8717773452677</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="42">
         <v>1637.288722767227</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="42">
         <v>1812.7160215516324</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="42">
-        <v>0</v>
-      </c>
-      <c r="D25" s="42">
+      <c r="A25" s="42"/>
+      <c r="B25" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="40">
+        <v>0</v>
+      </c>
+      <c r="D25" s="40">
         <v>669.68292996068658</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="40">
         <v>1480.304730424331</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="40">
         <v>2732.3756106409073</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="40">
         <v>4352.8992408471313</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="40">
         <v>5590.4430433045618</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="40">
         <v>6228.5465799478716</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="40">
         <v>7235.8745874959623</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="40">
         <v>8317.093775351912</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
-      <c r="B29" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="40" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="40">
+      <c r="A30" s="33"/>
+      <c r="B30" s="38">
         <v>2020</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="38">
         <v>2030</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="38">
         <v>2040</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="38">
         <v>2050</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="38">
         <v>2060</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="38">
         <v>2020</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="38">
         <v>2030</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="38">
         <v>2040</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="38">
         <v>2050</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="38">
         <v>2060</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B31" s="39">
+      <c r="A31" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="37">
         <v>9.0692000334624094E-3</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="37">
         <v>5.1350318772354832E-2</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="37">
         <v>0.31707111991587944</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="37">
         <v>0.43250423067250798</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="37">
         <v>0.30164318885759717</v>
       </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39">
+      <c r="G31" s="37">
+        <v>0</v>
+      </c>
+      <c r="H31" s="37">
         <v>0.25314566757024587</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="37">
         <v>1.6159505949355208</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="37">
         <v>1.3631258357215936</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="37">
         <v>1.1836798147928469</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="39">
+      <c r="A32" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="37">
         <v>8.8736984598062219E-5</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <v>7.9464429838640188E-2</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="37">
         <v>0.51275504235816094</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="37">
         <v>0.67066035375720856</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="37">
         <v>0.29118624343037608</v>
       </c>
-      <c r="G32" s="39">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39">
+      <c r="G32" s="37">
+        <v>0</v>
+      </c>
+      <c r="H32" s="37">
         <v>7.2967083539768385E-2</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="37">
         <v>0.51828833623970194</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="37">
         <v>1.0630754575373591</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="37">
         <v>1.7581577119173859</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="39">
-        <v>0</v>
-      </c>
-      <c r="C33" s="39">
+      <c r="A33" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="37">
+        <v>0</v>
+      </c>
+      <c r="C33" s="37">
         <v>1.9310766910432609E-3</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="37">
         <v>6.3908335644987324E-2</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="37">
         <v>0.43555033858482695</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="37">
         <v>0.83998846288335016</v>
       </c>
-      <c r="G33" s="39">
-        <v>0</v>
-      </c>
-      <c r="H33" s="39">
+      <c r="G33" s="37">
+        <v>0</v>
+      </c>
+      <c r="H33" s="37">
         <v>1.0989011883988391E-2</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="37">
         <v>0.18918889400984115</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="37">
         <v>0.73816487009111909</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="37">
         <v>1.3736678542573124</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="38" t="s">
-        <v>168</v>
+      <c r="A35" s="36" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="36"/>
+      <c r="A36" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="34"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
+      <c r="A37" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33">
         <v>2014</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="33">
         <v>2015</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>2020</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="33">
         <v>2025</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="33">
         <v>2030</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="33">
         <v>2035</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="33">
         <v>2040</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="33">
         <v>2045</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="33">
         <v>2050</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="33">
         <v>2055</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="33">
         <v>2060</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="33">
-        <v>0</v>
-      </c>
-      <c r="C39" s="33">
-        <v>0</v>
-      </c>
-      <c r="D39" s="33">
-        <v>0</v>
-      </c>
-      <c r="E39" s="33">
+      <c r="A39" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0</v>
+      </c>
+      <c r="D39" s="31">
+        <v>0</v>
+      </c>
+      <c r="E39" s="31">
         <v>9.4041235044908286E-2</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="31">
         <v>0.19875544489630168</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="31">
         <v>0.23517493229217079</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="31">
         <v>0.38600636209402522</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="31">
         <v>0.52098845994441834</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="31">
         <v>0.65724216697011595</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="31">
         <v>0.65648081566706651</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="31">
         <v>0.74110405537417889</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="33">
-        <v>0</v>
-      </c>
-      <c r="C40" s="33">
-        <v>0</v>
-      </c>
-      <c r="D40" s="33">
+      <c r="A40" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0</v>
+      </c>
+      <c r="D40" s="31">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="31">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="31">
         <v>9.6974692137267671E-2</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="31">
         <v>0.23715594352755537</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="31">
         <v>0.3511315333305714</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <v>0.41745893995374145</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="31">
         <v>0.44203226671215384</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="31">
         <v>0.46148047621402866</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="31">
         <v>0.50590832725411927</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="33">
-        <v>0</v>
-      </c>
-      <c r="C41" s="33">
-        <v>0</v>
-      </c>
-      <c r="D41" s="33">
+      <c r="A41" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0</v>
+      </c>
+      <c r="D41" s="31">
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="31">
         <v>0.19545034357588661</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="31">
         <v>0.22759059210128213</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="31">
         <v>0.23359443209375855</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="31">
         <v>0.23513238065241418</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="31">
         <v>0.22322462476598964</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="31">
         <v>0.24045024764053377</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="31">
         <v>0.27864135643363158</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="31">
         <v>0.28914007666781549</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="33">
-        <v>0</v>
-      </c>
-      <c r="C42" s="33">
-        <v>0</v>
-      </c>
-      <c r="D42" s="33">
+      <c r="A42" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0</v>
+      </c>
+      <c r="C42" s="31">
+        <v>0</v>
+      </c>
+      <c r="D42" s="31">
         <v>1.5376939060841825E-4</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="31">
         <v>2.0968106357788581E-3</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="31">
         <v>3.7324232950562601E-3</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="31">
         <v>4.980874224401988E-3</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="31">
         <v>3.1726764386671349E-3</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="31">
         <v>3.2295440099746402E-5</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="31">
         <v>4.2133278740787309E-6</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="31">
         <v>2.8577172778101513E-5</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="31">
         <v>7.283691725614275E-5</v>
       </c>
     </row>
@@ -8497,7 +8484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -8527,107 +8514,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="30">
+      <c r="B1" s="28">
         <v>2012</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="28">
         <v>2017</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="28">
         <v>2022</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="28">
         <v>2027</v>
       </c>
-      <c r="F1" s="30">
+      <c r="F1" s="28">
         <v>2032</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="28">
         <v>2037</v>
       </c>
-      <c r="H1" s="30">
+      <c r="H1" s="28">
         <v>2042</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="28">
         <v>2047</v>
       </c>
-      <c r="M1" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="29" t="s">
+      <c r="M1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="N1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="O1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="P1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="Q1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="R1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="S1" s="24" t="s">
         <v>150</v>
       </c>
+      <c r="T1" s="27" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="56">
-        <v>0</v>
-      </c>
-      <c r="D2" s="56">
+      <c r="A2" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54">
+        <v>0</v>
+      </c>
+      <c r="D2" s="54">
         <v>1</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="54">
         <v>5</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="54">
         <v>15</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="54">
         <v>20</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="54">
         <v>30</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="54">
         <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" s="27">
+        <v>148</v>
+      </c>
+      <c r="L2" s="25">
         <v>2012</v>
       </c>
-      <c r="M2" s="26">
-        <v>0</v>
-      </c>
-      <c r="N2" s="26">
+      <c r="M2" s="24">
+        <v>0</v>
+      </c>
+      <c r="N2" s="24">
         <f t="shared" ref="N2:N9" si="0">M2*$B$17</f>
         <v>0</v>
       </c>
-      <c r="O2" s="26">
-        <v>0</v>
-      </c>
-      <c r="P2" s="26">
+      <c r="O2" s="24">
+        <v>0</v>
+      </c>
+      <c r="P2" s="24">
         <f t="shared" ref="P2:P9" si="1">O2*$B$17</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="26">
-        <v>0</v>
-      </c>
-      <c r="R2" s="26">
+      <c r="Q2" s="24">
+        <v>0</v>
+      </c>
+      <c r="R2" s="24">
         <f t="shared" ref="R2:R9" si="2">Q2*$B$17</f>
         <v>0</v>
       </c>
@@ -8640,63 +8627,63 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26">
         <f t="shared" ref="B3:I3" si="4">B2*1000</f>
         <v>0</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <f t="shared" si="4"/>
         <v>20000</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="26">
         <f t="shared" si="4"/>
         <v>30000</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="26">
         <f t="shared" si="4"/>
         <v>35000</v>
       </c>
       <c r="J3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="27">
+        <v>148</v>
+      </c>
+      <c r="L3" s="25">
         <v>2017</v>
       </c>
-      <c r="M3" s="26">
-        <v>0</v>
-      </c>
-      <c r="N3" s="26">
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="26">
-        <v>0</v>
-      </c>
-      <c r="P3" s="26">
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="24">
         <v>3000</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="24">
         <f t="shared" si="2"/>
         <v>23690563.339058191</v>
       </c>
@@ -8709,54 +8696,54 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="28">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="A4" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
         <v>1</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <v>2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <v>5</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="26">
         <v>7</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <v>8</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="25">
         <v>2022</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="24">
         <v>1000</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="24">
         <f t="shared" si="0"/>
         <v>7896854.4463527296</v>
       </c>
-      <c r="O4" s="26">
-        <v>0</v>
-      </c>
-      <c r="P4" s="26">
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="24">
         <v>15000</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="24">
         <f t="shared" si="2"/>
         <v>118452816.69529094</v>
       </c>
@@ -8769,63 +8756,63 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26">
         <f t="shared" ref="B5:I5" si="5">B4*1000</f>
         <v>0</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <f t="shared" si="5"/>
         <v>7000</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <f t="shared" si="5"/>
         <v>8000</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="27">
+        <v>148</v>
+      </c>
+      <c r="L5" s="25">
         <v>2027</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="24">
         <v>5000</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="24">
         <f t="shared" si="0"/>
         <v>39484272.231763646</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="24">
         <v>1000</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="24">
         <f t="shared" si="1"/>
         <v>7896854.4463527296</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="24">
         <v>30000</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="24">
         <f t="shared" si="2"/>
         <v>236905633.39058188</v>
       </c>
@@ -8838,54 +8825,54 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="A6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
         <v>3</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>15</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <v>30</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <v>40</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <v>55</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>70</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <v>80</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="25">
         <v>2032</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="24">
         <v>15000</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="24">
         <f t="shared" si="0"/>
         <v>118452816.69529094</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="24">
         <v>2000</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="24">
         <f t="shared" si="1"/>
         <v>15793708.892705459</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="24">
         <v>40000</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="24">
         <f t="shared" si="2"/>
         <v>315874177.85410917</v>
       </c>
@@ -8898,63 +8885,63 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26">
         <f t="shared" ref="B7:I7" si="6">B6*1000</f>
         <v>0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <f t="shared" si="6"/>
         <v>15000</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <f t="shared" si="6"/>
         <v>30000</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <f t="shared" si="6"/>
         <v>55000</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <f t="shared" si="6"/>
         <v>70000</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <f t="shared" si="6"/>
         <v>80000</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="27">
+        <v>148</v>
+      </c>
+      <c r="L7" s="25">
         <v>2037</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="24">
         <v>20000</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="24">
         <f t="shared" si="0"/>
         <v>157937088.92705458</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="24">
         <v>5000</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="24">
         <f t="shared" si="1"/>
         <v>39484272.231763646</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="24">
         <v>55000</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="24">
         <f t="shared" si="2"/>
         <v>434326994.54940015</v>
       </c>
@@ -8967,54 +8954,54 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="28">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="A8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>30</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>45</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <v>60</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>70</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>85</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <v>90</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="25">
         <v>2042</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="24">
         <v>30000</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="24">
         <f t="shared" si="0"/>
         <v>236905633.39058188</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="24">
         <v>7000</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="24">
         <f t="shared" si="1"/>
         <v>55277981.124469109</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="24">
         <v>70000</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="24">
         <f t="shared" si="2"/>
         <v>552779811.24469101</v>
       </c>
@@ -9027,63 +9014,63 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26">
         <f t="shared" ref="B9:I9" si="7">B8*1000</f>
         <v>0</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <f t="shared" si="7"/>
         <v>5000</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <f t="shared" si="7"/>
         <v>45000</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <f t="shared" si="7"/>
         <v>70000</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <f t="shared" si="7"/>
         <v>85000</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <f t="shared" si="7"/>
         <v>90000</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="27">
+        <v>148</v>
+      </c>
+      <c r="L9" s="25">
         <v>2047</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="24">
         <v>35000</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="24">
         <f t="shared" si="0"/>
         <v>276389905.62234551</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="24">
         <v>8000</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="24">
         <f t="shared" si="1"/>
         <v>63174835.570821837</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="24">
         <v>80000</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="24">
         <f t="shared" si="2"/>
         <v>631748355.70821834</v>
       </c>
@@ -9097,34 +9084,34 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>395.1</v>
@@ -9141,7 +9128,7 @@
     </row>
     <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>3.29</v>
@@ -9158,7 +9145,7 @@
     </row>
     <row r="15" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15">
         <f>B14*10^6</f>
@@ -9179,51 +9166,51 @@
     </row>
     <row r="16" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="23">
+        <v>137</v>
+      </c>
+      <c r="B16" s="21">
         <f>B15/B13</f>
         <v>8327.0058213110606</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="21">
         <f>C15/C13</f>
         <v>6555.090655509066</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <f>D15/D13</f>
         <v>8072.4876441515653</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <f>E15/E13</f>
         <v>8632.8336644392257</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="25">
+        <v>136</v>
+      </c>
+      <c r="B17" s="23">
         <f>AVERAGE(B16:E16)</f>
         <v>7896.8544463527296</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="25"/>
+      <c r="A18" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:40" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
-        <v>135</v>
+      <c r="A19" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
@@ -9385,7 +9372,7 @@
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="12">
         <f>N2</f>
@@ -9546,7 +9533,7 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="12">
         <f>P2</f>
@@ -9707,7 +9694,7 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="12">
         <f>R2</f>
@@ -9868,7 +9855,7 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="12">
         <f>T2</f>
@@ -10029,7 +10016,7 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27">
         <f t="shared" ref="E27:AN27" si="11">E24</f>
@@ -10212,17 +10199,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11133,8 +11120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI103"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="F61" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81:AG82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11145,34 +11132,34 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="C3" s="32"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="32"/>
+        <v>188</v>
+      </c>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>2018</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>2019</v>
       </c>
       <c r="D5">
@@ -11271,7 +11258,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" ref="B6" si="0">C6</f>
@@ -11408,7 +11395,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="14">
         <f>1-B6</f>
@@ -11545,19 +11532,19 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="C8" s="32"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="C9" s="32"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="C10" s="32"/>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -12006,7 +11993,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -12044,7 +12031,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -12082,7 +12069,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -12120,7 +12107,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -12193,7 +12180,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -12332,7 +12319,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="14">
         <v>0</v>
@@ -12461,7 +12448,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="14">
         <v>0</v>
@@ -13188,7 +13175,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -13226,7 +13213,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -13330,103 +13317,103 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="14">
-        <v>389248000000000</v>
+        <v>356819000000000</v>
       </c>
       <c r="C45" s="14">
-        <v>327081000000000</v>
+        <v>284355000000000</v>
       </c>
       <c r="D45" s="14">
-        <v>377306000000000</v>
+        <v>342720000000000</v>
       </c>
       <c r="E45" s="14">
-        <v>411342000000000</v>
+        <v>382543000000000</v>
       </c>
       <c r="F45" s="14">
-        <v>435660000000000</v>
+        <v>413392000000000</v>
       </c>
       <c r="G45" s="14">
-        <v>454928000000000</v>
+        <v>437049000000000</v>
       </c>
       <c r="H45" s="14">
-        <v>471557000000000</v>
+        <v>456165000000000</v>
       </c>
       <c r="I45" s="14">
-        <v>486706000000000</v>
+        <v>475047000000000</v>
       </c>
       <c r="J45" s="14">
-        <v>506774000000000</v>
+        <v>492023000000000</v>
       </c>
       <c r="K45" s="14">
-        <v>525929000000000</v>
+        <v>512682000000000</v>
       </c>
       <c r="L45" s="14">
-        <v>543058000000000</v>
+        <v>533002000000000</v>
       </c>
       <c r="M45" s="14">
-        <v>561377000000000</v>
+        <v>552317000000000</v>
       </c>
       <c r="N45" s="14">
-        <v>579489000000000</v>
+        <v>570235000000000</v>
       </c>
       <c r="O45" s="14">
-        <v>603196000000000</v>
+        <v>586891000000000</v>
       </c>
       <c r="P45" s="14">
-        <v>625637000000000</v>
+        <v>602482000000000</v>
       </c>
       <c r="Q45" s="14">
-        <v>647023000000000</v>
+        <v>617113000000000</v>
       </c>
       <c r="R45" s="14">
-        <v>668489000000000</v>
+        <v>631208000000000</v>
       </c>
       <c r="S45" s="14">
-        <v>689356000000000</v>
+        <v>644823000000000</v>
       </c>
       <c r="T45" s="14">
-        <v>716430000000000</v>
+        <v>658413000000000</v>
       </c>
       <c r="U45" s="14">
-        <v>743146000000000</v>
+        <v>674583000000000</v>
       </c>
       <c r="V45" s="14">
-        <v>769824000000000</v>
+        <v>690513000000000</v>
       </c>
       <c r="W45" s="14">
-        <v>796768000000000</v>
+        <v>706321000000000</v>
       </c>
       <c r="X45" s="14">
-        <v>824243000000000</v>
+        <v>722098000000000</v>
       </c>
       <c r="Y45" s="14">
-        <v>859133000000000</v>
+        <v>737994000000000</v>
       </c>
       <c r="Z45" s="14">
-        <v>894677000000000</v>
+        <v>752352000000000</v>
       </c>
       <c r="AA45" s="14">
-        <v>930952000000000</v>
+        <v>766819000000000</v>
       </c>
       <c r="AB45" s="14">
-        <v>967950000000000</v>
+        <v>781452000000000</v>
       </c>
       <c r="AC45" s="14">
-        <v>1005670000000000</v>
+        <v>796174000000000</v>
       </c>
       <c r="AD45" s="14">
-        <v>1051730000000000</v>
+        <v>810887000000000</v>
       </c>
       <c r="AE45" s="14">
-        <v>1098290000000000</v>
+        <v>825823000000000</v>
       </c>
       <c r="AF45" s="14">
-        <v>1145260000000000</v>
+        <v>840705000000000</v>
       </c>
       <c r="AG45" s="14">
-        <v>1192550000000000</v>
+        <v>855487000000000</v>
       </c>
       <c r="AH45" s="14">
         <v>1218880000000000</v>
@@ -13434,103 +13421,103 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="14">
-        <v>1012750000000000</v>
+        <v>950048000000000</v>
       </c>
       <c r="C46" s="14">
-        <v>957188000000000</v>
+        <v>881867000000000</v>
       </c>
       <c r="D46" s="14">
-        <v>1027720000000000</v>
+        <v>925947000000000</v>
       </c>
       <c r="E46" s="14">
-        <v>1059480000000000</v>
+        <v>949751000000000</v>
       </c>
       <c r="F46" s="14">
-        <v>1076100000000000</v>
+        <v>1002050000000000</v>
       </c>
       <c r="G46" s="14">
-        <v>1079450000000000</v>
+        <v>1017210000000000</v>
       </c>
       <c r="H46" s="14">
-        <v>1078020000000000</v>
+        <v>1006950000000000</v>
       </c>
       <c r="I46" s="14">
-        <v>1065920000000000</v>
+        <v>991621000000000</v>
       </c>
       <c r="J46" s="14">
-        <v>1054920000000000</v>
+        <v>972927000000000</v>
       </c>
       <c r="K46" s="14">
-        <v>1070280000000000</v>
+        <v>976395000000000</v>
       </c>
       <c r="L46" s="14">
-        <v>1091690000000000</v>
+        <v>987487000000000</v>
       </c>
       <c r="M46" s="14">
-        <v>1108950000000000</v>
+        <v>997447000000000</v>
       </c>
       <c r="N46" s="14">
-        <v>1130940000000000</v>
+        <v>1002670000000000</v>
       </c>
       <c r="O46" s="14">
-        <v>1147990000000000</v>
+        <v>1013950000000000</v>
       </c>
       <c r="P46" s="14">
-        <v>1194030000000000</v>
+        <v>1032610000000000</v>
       </c>
       <c r="Q46" s="14">
-        <v>1229540000000000</v>
+        <v>1036930000000000</v>
       </c>
       <c r="R46" s="14">
-        <v>1270390000000000</v>
+        <v>1040680000000000</v>
       </c>
       <c r="S46" s="14">
-        <v>1311000000000000</v>
+        <v>1044230000000000</v>
       </c>
       <c r="T46" s="14">
-        <v>1348790000000000</v>
+        <v>1047590000000000</v>
       </c>
       <c r="U46" s="14">
-        <v>1383840000000000</v>
+        <v>1050880000000000</v>
       </c>
       <c r="V46" s="14">
-        <v>1410440000000000</v>
+        <v>1053480000000000</v>
       </c>
       <c r="W46" s="14">
-        <v>1435100000000000</v>
+        <v>1055860000000000</v>
       </c>
       <c r="X46" s="14">
-        <v>1453210000000000</v>
+        <v>1058530000000000</v>
       </c>
       <c r="Y46" s="14">
-        <v>1468350000000000</v>
+        <v>1060970000000000</v>
       </c>
       <c r="Z46" s="14">
-        <v>1478050000000000</v>
+        <v>1063660000000000</v>
       </c>
       <c r="AA46" s="14">
-        <v>1484080000000000</v>
+        <v>1064510000000000</v>
       </c>
       <c r="AB46" s="14">
-        <v>1489060000000000</v>
+        <v>1065400000000000</v>
       </c>
       <c r="AC46" s="14">
-        <v>1491230000000000</v>
+        <v>1066250000000000</v>
       </c>
       <c r="AD46" s="14">
-        <v>1494580000000000</v>
+        <v>1066770000000000</v>
       </c>
       <c r="AE46" s="14">
-        <v>1498010000000000</v>
+        <v>1067800000000000</v>
       </c>
       <c r="AF46" s="14">
-        <v>1500600000000000</v>
+        <v>1068400000000000</v>
       </c>
       <c r="AG46" s="14">
-        <v>1504600000000000</v>
+        <v>1069440000000000</v>
       </c>
       <c r="AH46" s="14">
         <v>1662420000000000</v>
@@ -13538,103 +13525,103 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="14">
-        <v>81938500000000</v>
+        <v>85872900000000</v>
       </c>
       <c r="C47" s="14">
-        <v>80777600000000</v>
+        <v>84632000000000</v>
       </c>
       <c r="D47" s="14">
-        <v>82741800000000</v>
+        <v>84426900000000</v>
       </c>
       <c r="E47" s="14">
-        <v>84189000000000</v>
+        <v>84054600000000</v>
       </c>
       <c r="F47" s="14">
-        <v>87704800000000</v>
+        <v>86196700000000</v>
       </c>
       <c r="G47" s="14">
-        <v>91090700000000</v>
+        <v>88305000000000</v>
       </c>
       <c r="H47" s="14">
-        <v>94418900000000</v>
+        <v>90392600000000</v>
       </c>
       <c r="I47" s="14">
-        <v>97714400000000</v>
+        <v>92462900000000</v>
       </c>
       <c r="J47" s="14">
-        <v>100985000000000</v>
+        <v>94534400000000</v>
       </c>
       <c r="K47" s="14">
-        <v>103761000000000</v>
+        <v>98212300000000</v>
       </c>
       <c r="L47" s="14">
-        <v>106526000000000</v>
+        <v>101895000000000</v>
       </c>
       <c r="M47" s="14">
-        <v>109289000000000</v>
+        <v>105571000000000</v>
       </c>
       <c r="N47" s="14">
-        <v>112057000000000</v>
+        <v>109244000000000</v>
       </c>
       <c r="O47" s="14">
-        <v>114819000000000</v>
+        <v>112921000000000</v>
       </c>
       <c r="P47" s="14">
-        <v>117378000000000</v>
+        <v>114316000000000</v>
       </c>
       <c r="Q47" s="14">
-        <v>119938000000000</v>
+        <v>115704000000000</v>
       </c>
       <c r="R47" s="14">
-        <v>122498000000000</v>
+        <v>117091000000000</v>
       </c>
       <c r="S47" s="14">
-        <v>125057000000000</v>
+        <v>118479000000000</v>
       </c>
       <c r="T47" s="14">
-        <v>127617000000000</v>
+        <v>119874000000000</v>
       </c>
       <c r="U47" s="14">
-        <v>130224000000000</v>
+        <v>120294000000000</v>
       </c>
       <c r="V47" s="14">
-        <v>132833000000000</v>
+        <v>120720000000000</v>
       </c>
       <c r="W47" s="14">
-        <v>135427000000000</v>
+        <v>121134000000000</v>
       </c>
       <c r="X47" s="14">
-        <v>138033000000000</v>
+        <v>121560000000000</v>
       </c>
       <c r="Y47" s="14">
-        <v>140640000000000</v>
+        <v>121974000000000</v>
       </c>
       <c r="Z47" s="14">
-        <v>142637000000000</v>
+        <v>122351000000000</v>
       </c>
       <c r="AA47" s="14">
-        <v>144627000000000</v>
+        <v>122722000000000</v>
       </c>
       <c r="AB47" s="14">
-        <v>146624000000000</v>
+        <v>123099000000000</v>
       </c>
       <c r="AC47" s="14">
-        <v>148614000000000</v>
+        <v>123469000000000</v>
       </c>
       <c r="AD47" s="14">
-        <v>150604000000000</v>
+        <v>123840000000000</v>
       </c>
       <c r="AE47" s="14">
-        <v>152600000000000</v>
+        <v>124210000000000</v>
       </c>
       <c r="AF47" s="14">
-        <v>154590000000000</v>
+        <v>124581000000000</v>
       </c>
       <c r="AG47" s="14">
-        <v>156587000000000</v>
+        <v>124958000000000</v>
       </c>
       <c r="AH47" s="14">
         <v>355381000000000</v>
@@ -13642,103 +13629,103 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="14">
-        <v>6922340000000</v>
+        <v>7381860000000</v>
       </c>
       <c r="C48" s="14">
-        <v>7000990000000</v>
+        <v>7290960000000</v>
       </c>
       <c r="D48" s="14">
-        <v>7266160000000</v>
+        <v>7547310000000</v>
       </c>
       <c r="E48" s="14">
-        <v>7501740000000</v>
+        <v>7747640000000</v>
       </c>
       <c r="F48" s="14">
-        <v>7736810000000</v>
+        <v>7894170000000</v>
       </c>
       <c r="G48" s="14">
-        <v>7964060000000</v>
+        <v>8026050000000</v>
       </c>
       <c r="H48" s="14">
-        <v>8187290000000</v>
+        <v>8150420000000</v>
       </c>
       <c r="I48" s="14">
-        <v>8408450000000</v>
+        <v>8271080000000</v>
       </c>
       <c r="J48" s="14">
-        <v>8628540000000</v>
+        <v>8389830000000</v>
       </c>
       <c r="K48" s="14">
-        <v>8806410000000</v>
+        <v>8695310000000</v>
       </c>
       <c r="L48" s="14">
-        <v>8983920000000</v>
+        <v>9000330000000</v>
       </c>
       <c r="M48" s="14">
-        <v>9161360000000</v>
+        <v>9305100000000</v>
       </c>
       <c r="N48" s="14">
-        <v>9338720000000</v>
+        <v>9609750000000</v>
       </c>
       <c r="O48" s="14">
-        <v>9516020000000</v>
+        <v>9914400000000</v>
       </c>
       <c r="P48" s="14">
-        <v>9695370000000</v>
+        <v>9950350000000</v>
       </c>
       <c r="Q48" s="14">
-        <v>9874660000000</v>
+        <v>9986300000000</v>
       </c>
       <c r="R48" s="14">
-        <v>10053900000000</v>
+        <v>10022300000000</v>
       </c>
       <c r="S48" s="14">
-        <v>10233300000000</v>
+        <v>10058200000000</v>
       </c>
       <c r="T48" s="14">
-        <v>10412600000000</v>
+        <v>10094200000000</v>
       </c>
       <c r="U48" s="14">
-        <v>10588100000000</v>
+        <v>10027900000000</v>
       </c>
       <c r="V48" s="14">
-        <v>10763600000000</v>
+        <v>9961670000000</v>
       </c>
       <c r="W48" s="14">
-        <v>10939000000000</v>
+        <v>9895360000000</v>
       </c>
       <c r="X48" s="14">
-        <v>11114500000000</v>
+        <v>9829120000000</v>
       </c>
       <c r="Y48" s="14">
-        <v>11290000000000</v>
+        <v>9762880000000</v>
       </c>
       <c r="Z48" s="14">
-        <v>11360800000000</v>
+        <v>9728990000000</v>
       </c>
       <c r="AA48" s="14">
-        <v>11431600000000</v>
+        <v>9695170000000</v>
       </c>
       <c r="AB48" s="14">
-        <v>11502400000000</v>
+        <v>9661290000000</v>
       </c>
       <c r="AC48" s="14">
-        <v>11573200000000</v>
+        <v>9627470000000</v>
       </c>
       <c r="AD48" s="14">
-        <v>11643900000000</v>
+        <v>9593580000000</v>
       </c>
       <c r="AE48" s="14">
-        <v>11714800000000</v>
+        <v>9559700000000</v>
       </c>
       <c r="AF48" s="14">
-        <v>11785500000000</v>
+        <v>9525880000000</v>
       </c>
       <c r="AG48" s="14">
-        <v>11856300000000</v>
+        <v>9491990000000</v>
       </c>
       <c r="AH48" s="14">
         <v>186117000000000</v>
@@ -13746,103 +13733,103 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="14">
-        <v>1027980000000000</v>
+        <v>923610000000000</v>
       </c>
       <c r="C49" s="14">
-        <v>1001010000000000</v>
+        <v>878414000000000</v>
       </c>
       <c r="D49" s="14">
-        <v>1092930000000000</v>
+        <v>949839000000000</v>
       </c>
       <c r="E49" s="14">
-        <v>1166660000000000</v>
+        <v>1002610000000000</v>
       </c>
       <c r="F49" s="14">
-        <v>1243530000000000</v>
+        <v>1054510000000000</v>
       </c>
       <c r="G49" s="14">
-        <v>1315380000000000</v>
+        <v>1101390000000000</v>
       </c>
       <c r="H49" s="14">
-        <v>1384880000000000</v>
+        <v>1145750000000000</v>
       </c>
       <c r="I49" s="14">
-        <v>1458740000000000</v>
+        <v>1188870000000000</v>
       </c>
       <c r="J49" s="14">
-        <v>1525880000000000</v>
+        <v>1231220000000000</v>
       </c>
       <c r="K49" s="14">
-        <v>1604600000000000</v>
+        <v>1283510000000000</v>
       </c>
       <c r="L49" s="14">
-        <v>1683520000000000</v>
+        <v>1335600000000000</v>
       </c>
       <c r="M49" s="14">
-        <v>1762120000000000</v>
+        <v>1387610000000000</v>
       </c>
       <c r="N49" s="14">
-        <v>1863360000000000</v>
+        <v>1439470000000000</v>
       </c>
       <c r="O49" s="14">
-        <v>1941810000000000</v>
+        <v>1491450000000000</v>
       </c>
       <c r="P49" s="14">
-        <v>2025060000000000</v>
+        <v>1545910000000000</v>
       </c>
       <c r="Q49" s="14">
-        <v>2108260000000000</v>
+        <v>1600490000000000</v>
       </c>
       <c r="R49" s="14">
-        <v>2191450000000000</v>
+        <v>1655080000000000</v>
       </c>
       <c r="S49" s="14">
-        <v>2274810000000000</v>
+        <v>1709670000000000</v>
       </c>
       <c r="T49" s="14">
-        <v>2363820000000000</v>
+        <v>1764220000000000</v>
       </c>
       <c r="U49" s="14">
-        <v>2441570000000000</v>
+        <v>1815840000000000</v>
       </c>
       <c r="V49" s="14">
-        <v>2542050000000000</v>
+        <v>1867480000000000</v>
       </c>
       <c r="W49" s="14">
-        <v>2619370000000000</v>
+        <v>1919310000000000</v>
       </c>
       <c r="X49" s="14">
-        <v>2697490000000000</v>
+        <v>1970820000000000</v>
       </c>
       <c r="Y49" s="14">
-        <v>2774610000000000</v>
+        <v>2022650000000000</v>
       </c>
       <c r="Z49" s="14">
-        <v>2833660000000000</v>
+        <v>2062840000000000</v>
       </c>
       <c r="AA49" s="14">
-        <v>2892720000000000</v>
+        <v>2103040000000000</v>
       </c>
       <c r="AB49" s="14">
-        <v>2975430000000000</v>
+        <v>2143550000000000</v>
       </c>
       <c r="AC49" s="14">
-        <v>3034460000000000</v>
+        <v>2183640000000000</v>
       </c>
       <c r="AD49" s="14">
-        <v>3093500000000000</v>
+        <v>2223920000000000</v>
       </c>
       <c r="AE49" s="14">
-        <v>3158480000000000</v>
+        <v>2264090000000000</v>
       </c>
       <c r="AF49" s="14">
-        <v>3217430000000000</v>
+        <v>2304500000000000</v>
       </c>
       <c r="AG49" s="14">
-        <v>3276480000000000</v>
+        <v>2344780000000000</v>
       </c>
       <c r="AH49" s="14">
         <v>3082660000000000</v>
@@ -13850,7 +13837,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="14">
         <v>0</v>
@@ -13954,7 +13941,7 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="14">
         <v>-302644000000000</v>
@@ -14058,7 +14045,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -14162,7 +14149,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="B54">
         <v>2019</v>
@@ -14263,810 +14250,810 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B55" s="14">
-        <v>192367000000000</v>
+        <v>243924000000000</v>
       </c>
       <c r="C55" s="14">
-        <v>187168000000000</v>
+        <v>232539000000000</v>
       </c>
       <c r="D55" s="14">
-        <v>204217000000000</v>
+        <v>252016000000000</v>
       </c>
       <c r="E55" s="14">
-        <v>217818000000000</v>
+        <v>266485000000000</v>
       </c>
       <c r="F55" s="14">
-        <v>233678000000000</v>
+        <v>281294000000000</v>
       </c>
       <c r="G55" s="14">
-        <v>248534000000000</v>
+        <v>294732000000000</v>
       </c>
       <c r="H55" s="14">
-        <v>263005000000000</v>
+        <v>307602000000000</v>
       </c>
       <c r="I55" s="14">
-        <v>277213000000000</v>
+        <v>320023000000000</v>
       </c>
       <c r="J55" s="14">
-        <v>291287000000000</v>
+        <v>332261000000000</v>
       </c>
       <c r="K55" s="14">
-        <v>309672000000000</v>
+        <v>348279000000000</v>
       </c>
       <c r="L55" s="14">
-        <v>328214000000000</v>
+        <v>364249000000000</v>
       </c>
       <c r="M55" s="14">
-        <v>346736000000000</v>
+        <v>380194000000000</v>
       </c>
       <c r="N55" s="14">
-        <v>365148000000000</v>
+        <v>396125000000000</v>
       </c>
       <c r="O55" s="14">
-        <v>383660000000000</v>
+        <v>412058000000000</v>
       </c>
       <c r="P55" s="14">
-        <v>403652000000000</v>
+        <v>431136000000000</v>
       </c>
       <c r="Q55" s="14">
-        <v>423645000000000</v>
+        <v>450215000000000</v>
       </c>
       <c r="R55" s="14">
-        <v>443639000000000</v>
+        <v>469294000000000</v>
       </c>
       <c r="S55" s="14">
-        <v>463733000000000</v>
+        <v>488474000000000</v>
       </c>
       <c r="T55" s="14">
-        <v>483727000000000</v>
+        <v>507553000000000</v>
       </c>
       <c r="U55" s="14">
-        <v>498244000000000</v>
+        <v>525512000000000</v>
       </c>
       <c r="V55" s="14">
-        <v>512761000000000</v>
+        <v>543474000000000</v>
       </c>
       <c r="W55" s="14">
-        <v>527178000000000</v>
+        <v>561535000000000</v>
       </c>
       <c r="X55" s="14">
-        <v>541695000000000</v>
+        <v>579395000000000</v>
       </c>
       <c r="Y55" s="14">
-        <v>556213000000000</v>
+        <v>597456000000000</v>
       </c>
       <c r="Z55" s="14">
-        <v>565061000000000</v>
+        <v>613403000000000</v>
       </c>
       <c r="AA55" s="14">
-        <v>573910000000000</v>
+        <v>629349000000000</v>
       </c>
       <c r="AB55" s="14">
-        <v>582664000000000</v>
+        <v>645397000000000</v>
       </c>
       <c r="AC55" s="14">
-        <v>591412000000000</v>
+        <v>661243000000000</v>
       </c>
       <c r="AD55" s="14">
-        <v>600260000000000</v>
+        <v>677190000000000</v>
       </c>
       <c r="AE55" s="14">
-        <v>609117000000000</v>
+        <v>693136000000000</v>
       </c>
       <c r="AF55" s="14">
-        <v>617965000000000</v>
+        <v>709184000000000</v>
       </c>
       <c r="AG55" s="14">
-        <v>626814000000000</v>
+        <v>725130000000000</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="14">
-        <v>1047430000000</v>
+        <v>30870200000000</v>
       </c>
       <c r="C56" s="14">
-        <v>969342000000</v>
+        <v>28896900000000</v>
       </c>
       <c r="D56" s="14">
-        <v>1008380000000</v>
+        <v>30780900000000</v>
       </c>
       <c r="E56" s="14">
-        <v>1027910000000</v>
+        <v>32038700000000</v>
       </c>
       <c r="F56" s="14">
-        <v>1037670000000</v>
+        <v>33284000000000</v>
       </c>
       <c r="G56" s="14">
-        <v>1042550000000</v>
+        <v>34370900000000</v>
       </c>
       <c r="H56" s="14">
-        <v>1044990000000</v>
+        <v>35376200000000</v>
       </c>
       <c r="I56" s="14">
-        <v>1046210000000</v>
+        <v>36339500000000</v>
       </c>
       <c r="J56" s="14">
-        <v>1046820000000</v>
+        <v>37276000000000</v>
       </c>
       <c r="K56" s="14">
-        <v>1047120000000</v>
+        <v>38348100000000</v>
       </c>
       <c r="L56" s="14">
-        <v>1196880000000</v>
+        <v>39409300000000</v>
       </c>
       <c r="M56" s="14">
-        <v>1196970000000</v>
+        <v>40467600000000</v>
       </c>
       <c r="N56" s="14">
-        <v>1197020000000</v>
+        <v>41524500000000</v>
       </c>
       <c r="O56" s="14">
-        <v>1197060000000</v>
+        <v>42581300000000</v>
       </c>
       <c r="P56" s="14">
-        <v>1197060000000</v>
+        <v>43788300000000</v>
       </c>
       <c r="Q56" s="14">
-        <v>1197060000000</v>
+        <v>45000600000000</v>
       </c>
       <c r="R56" s="14">
-        <v>1197060000000</v>
+        <v>46207600000000</v>
       </c>
       <c r="S56" s="14">
-        <v>1197060000000</v>
+        <v>47419900000000</v>
       </c>
       <c r="T56" s="14">
-        <v>1197060000000</v>
+        <v>48626900000000</v>
       </c>
       <c r="U56" s="14">
-        <v>1346690000000</v>
+        <v>50125400000000</v>
       </c>
       <c r="V56" s="14">
-        <v>1346690000000</v>
+        <v>51618600000000</v>
       </c>
       <c r="W56" s="14">
-        <v>1346690000000</v>
+        <v>53117100000000</v>
       </c>
       <c r="X56" s="14">
-        <v>1346690000000</v>
+        <v>54610400000000</v>
       </c>
       <c r="Y56" s="14">
-        <v>1346690000000</v>
+        <v>56108900000000</v>
       </c>
       <c r="Z56" s="14">
-        <v>1346690000000</v>
+        <v>57987400000000</v>
       </c>
       <c r="AA56" s="14">
-        <v>1346690000000</v>
+        <v>59871300000000</v>
       </c>
       <c r="AB56" s="14">
-        <v>1496320000000</v>
+        <v>61755000000000</v>
       </c>
       <c r="AC56" s="14">
-        <v>1496320000000</v>
+        <v>63638900000000</v>
       </c>
       <c r="AD56" s="14">
-        <v>1496320000000</v>
+        <v>65522800000000</v>
       </c>
       <c r="AE56" s="14">
-        <v>1496320000000</v>
+        <v>67406600000000</v>
       </c>
       <c r="AF56" s="14">
-        <v>1496320000000</v>
+        <v>69290500000000</v>
       </c>
       <c r="AG56" s="14">
-        <v>1496320000000</v>
+        <v>71174300000000</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" s="14">
-        <v>340211000000000</v>
+        <v>305450000000000</v>
       </c>
       <c r="C57" s="14">
-        <v>341892000000000</v>
+        <v>296764000000000</v>
       </c>
       <c r="D57" s="14">
-        <v>383736000000000</v>
+        <v>327172000000000</v>
       </c>
       <c r="E57" s="14">
-        <v>419792000000000</v>
+        <v>351579000000000</v>
       </c>
       <c r="F57" s="14">
-        <v>458275000000000</v>
+        <v>377486000000000</v>
       </c>
       <c r="G57" s="14">
-        <v>495090000000000</v>
+        <v>401683000000000</v>
       </c>
       <c r="H57" s="14">
-        <v>531048000000000</v>
+        <v>425024000000000</v>
       </c>
       <c r="I57" s="14">
-        <v>566449000000000</v>
+        <v>447997000000000</v>
       </c>
       <c r="J57" s="14">
-        <v>601494000000000</v>
+        <v>470623000000000</v>
       </c>
       <c r="K57" s="14">
-        <v>642381000000000</v>
+        <v>499406000000000</v>
       </c>
       <c r="L57" s="14">
-        <v>683249000000000</v>
+        <v>528112000000000</v>
       </c>
       <c r="M57" s="14">
-        <v>724020000000000</v>
+        <v>556793000000000</v>
       </c>
       <c r="N57" s="14">
-        <v>764766000000000</v>
+        <v>585354000000000</v>
       </c>
       <c r="O57" s="14">
-        <v>805423000000000</v>
+        <v>614009000000000</v>
       </c>
       <c r="P57" s="14">
-        <v>844684000000000</v>
+        <v>640330000000000</v>
       </c>
       <c r="Q57" s="14">
-        <v>883800000000000</v>
+        <v>666652000000000</v>
       </c>
       <c r="R57" s="14">
-        <v>923011000000000</v>
+        <v>692984000000000</v>
       </c>
       <c r="S57" s="14">
-        <v>962187000000000</v>
+        <v>719305000000000</v>
       </c>
       <c r="T57" s="14">
-        <v>1001290000000000</v>
+        <v>745627000000000</v>
       </c>
       <c r="U57" s="14">
-        <v>1033950000000000</v>
+        <v>766629000000000</v>
       </c>
       <c r="V57" s="14">
-        <v>1066600000000000</v>
+        <v>787731000000000</v>
       </c>
       <c r="W57" s="14">
-        <v>1099060000000000</v>
+        <v>808834000000000</v>
       </c>
       <c r="X57" s="14">
-        <v>1132240000000000</v>
+        <v>829837000000000</v>
       </c>
       <c r="Y57" s="14">
-        <v>1164420000000000</v>
+        <v>850939000000000</v>
       </c>
       <c r="Z57" s="14">
-        <v>1188980000000000</v>
+        <v>864899000000000</v>
       </c>
       <c r="AA57" s="14">
-        <v>1213550000000000</v>
+        <v>878869000000000</v>
       </c>
       <c r="AB57" s="14">
-        <v>1238970000000000</v>
+        <v>892931000000000</v>
       </c>
       <c r="AC57" s="14">
-        <v>1263610000000000</v>
+        <v>906891000000000</v>
       </c>
       <c r="AD57" s="14">
-        <v>1288180000000000</v>
+        <v>920952000000000</v>
       </c>
       <c r="AE57" s="14">
-        <v>1312750000000000</v>
+        <v>934912000000000</v>
       </c>
       <c r="AF57" s="14">
-        <v>1337220000000000</v>
+        <v>948882000000000</v>
       </c>
       <c r="AG57" s="14">
-        <v>1361800000000000</v>
+        <v>962943000000000</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B58" s="14">
-        <v>116331000000000</v>
+        <v>90602800000000</v>
       </c>
       <c r="C58" s="14">
-        <v>108917000000000</v>
+        <v>84107000000000</v>
       </c>
       <c r="D58" s="14">
-        <v>114603000000000</v>
+        <v>88852000000000</v>
       </c>
       <c r="E58" s="14">
-        <v>118146000000000</v>
+        <v>91748300000000</v>
       </c>
       <c r="F58" s="14">
-        <v>120379000000000</v>
+        <v>93626200000000</v>
       </c>
       <c r="G58" s="14">
-        <v>122052000000000</v>
+        <v>95022200000000</v>
       </c>
       <c r="H58" s="14">
-        <v>123456000000000</v>
+        <v>96170300000000</v>
       </c>
       <c r="I58" s="14">
-        <v>130632000000000</v>
+        <v>97206600000000</v>
       </c>
       <c r="J58" s="14">
-        <v>131829000000000</v>
+        <v>98184300000000</v>
       </c>
       <c r="K58" s="14">
-        <v>132708000000000</v>
+        <v>98927300000000</v>
       </c>
       <c r="L58" s="14">
-        <v>133568000000000</v>
+        <v>99653800000000</v>
       </c>
       <c r="M58" s="14">
-        <v>134409000000000</v>
+        <v>100374000000000</v>
       </c>
       <c r="N58" s="14">
-        <v>135264000000000</v>
+        <v>101094000000000</v>
       </c>
       <c r="O58" s="14">
-        <v>136110000000000</v>
+        <v>101820000000000</v>
       </c>
       <c r="P58" s="14">
-        <v>136967000000000</v>
+        <v>102461000000000</v>
       </c>
       <c r="Q58" s="14">
-        <v>137824000000000</v>
+        <v>103091000000000</v>
       </c>
       <c r="R58" s="14">
-        <v>138681000000000</v>
+        <v>103741000000000</v>
       </c>
       <c r="S58" s="14">
-        <v>139538000000000</v>
+        <v>104383000000000</v>
       </c>
       <c r="T58" s="14">
-        <v>146313000000000</v>
+        <v>105018000000000</v>
       </c>
       <c r="U58" s="14">
-        <v>147243000000000</v>
+        <v>105847000000000</v>
       </c>
       <c r="V58" s="14">
-        <v>148162000000000</v>
+        <v>106679000000000</v>
       </c>
       <c r="W58" s="14">
-        <v>149092000000000</v>
+        <v>107506000000000</v>
       </c>
       <c r="X58" s="14">
-        <v>150011000000000</v>
+        <v>108334000000000</v>
       </c>
       <c r="Y58" s="14">
-        <v>150931000000000</v>
+        <v>109162000000000</v>
       </c>
       <c r="Z58" s="14">
-        <v>151812000000000</v>
+        <v>109574000000000</v>
       </c>
       <c r="AA58" s="14">
-        <v>152692000000000</v>
+        <v>109986000000000</v>
       </c>
       <c r="AB58" s="14">
-        <v>153573000000000</v>
+        <v>110403000000000</v>
       </c>
       <c r="AC58" s="14">
-        <v>154454000000000</v>
+        <v>110815000000000</v>
       </c>
       <c r="AD58" s="14">
-        <v>155324000000000</v>
+        <v>111217000000000</v>
       </c>
       <c r="AE58" s="14">
-        <v>162124000000000</v>
+        <v>111623000000000</v>
       </c>
       <c r="AF58" s="14">
-        <v>163004000000000</v>
+        <v>112037000000000</v>
       </c>
       <c r="AG58" s="14">
-        <v>163885000000000</v>
+        <v>112439000000000</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" s="14">
-        <v>9812670000000</v>
+        <v>5203230000000</v>
       </c>
       <c r="C59" s="14">
-        <v>9283540000000</v>
+        <v>4882240000000</v>
       </c>
       <c r="D59" s="14">
-        <v>9868780000000</v>
+        <v>5212340000000</v>
       </c>
       <c r="E59" s="14">
-        <v>10275200000000</v>
+        <v>5438040000000</v>
       </c>
       <c r="F59" s="14">
-        <v>10473100000000</v>
+        <v>5547770000000</v>
       </c>
       <c r="G59" s="14">
-        <v>10623100000000</v>
+        <v>5630350000000</v>
       </c>
       <c r="H59" s="14">
-        <v>10749700000000</v>
+        <v>5698020000000</v>
       </c>
       <c r="I59" s="14">
-        <v>10863400000000</v>
+        <v>5759370000000</v>
       </c>
       <c r="J59" s="14">
-        <v>10970900000000</v>
+        <v>5817130000000</v>
       </c>
       <c r="K59" s="14">
-        <v>10957800000000</v>
+        <v>5809860000000</v>
       </c>
       <c r="L59" s="14">
-        <v>10943100000000</v>
+        <v>5802460000000</v>
       </c>
       <c r="M59" s="14">
-        <v>10926900000000</v>
+        <v>5793780000000</v>
       </c>
       <c r="N59" s="14">
-        <v>10911000000000</v>
+        <v>5785680000000</v>
       </c>
       <c r="O59" s="14">
-        <v>10895200000000</v>
+        <v>5776770000000</v>
       </c>
       <c r="P59" s="14">
-        <v>10881700000000</v>
+        <v>5769290000000</v>
       </c>
       <c r="Q59" s="14">
-        <v>10867500000000</v>
+        <v>5762600000000</v>
       </c>
       <c r="R59" s="14">
-        <v>10854100000000</v>
+        <v>5755120000000</v>
       </c>
       <c r="S59" s="14">
-        <v>10840700000000</v>
+        <v>5747640000000</v>
       </c>
       <c r="T59" s="14">
-        <v>10826500000000</v>
+        <v>5740950000000</v>
       </c>
       <c r="U59" s="14">
-        <v>10451300000000</v>
+        <v>5541210000000</v>
       </c>
       <c r="V59" s="14">
-        <v>10075300000000</v>
+        <v>5342260000000</v>
       </c>
       <c r="W59" s="14">
-        <v>9700080000000</v>
+        <v>5143310000000</v>
       </c>
       <c r="X59" s="14">
-        <v>9324880000000</v>
+        <v>4944370000000</v>
       </c>
       <c r="Y59" s="14">
-        <v>8948880000000</v>
+        <v>4745420000000</v>
       </c>
       <c r="Z59" s="14">
-        <v>8639540000000</v>
+        <v>4580630000000</v>
       </c>
       <c r="AA59" s="14">
-        <v>8329400000000</v>
+        <v>4416640000000</v>
       </c>
       <c r="AB59" s="14">
-        <v>8020050000000</v>
+        <v>4252650000000</v>
       </c>
       <c r="AC59" s="14">
-        <v>7709900000000</v>
+        <v>4087860000000</v>
       </c>
       <c r="AD59" s="14">
-        <v>7400560000000</v>
+        <v>3923870000000</v>
       </c>
       <c r="AE59" s="14">
-        <v>7090420000000</v>
+        <v>3759880000000</v>
       </c>
       <c r="AF59" s="14">
-        <v>6781070000000</v>
+        <v>3595890000000</v>
       </c>
       <c r="AG59" s="14">
-        <v>6470920000000</v>
+        <v>3431100000000</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B60" s="14">
-        <v>8046690000</v>
+        <v>56545200000</v>
       </c>
       <c r="C60" s="14">
-        <v>7525510000</v>
+        <v>52450000000</v>
       </c>
       <c r="D60" s="14">
-        <v>7909560000</v>
+        <v>55358200000</v>
       </c>
       <c r="E60" s="14">
-        <v>8143350000</v>
+        <v>57107600000</v>
       </c>
       <c r="F60" s="14">
-        <v>8300230000</v>
+        <v>58266300000</v>
       </c>
       <c r="G60" s="14">
-        <v>8418260000</v>
+        <v>59121600000</v>
       </c>
       <c r="H60" s="14">
-        <v>8515250000</v>
+        <v>59818600000</v>
       </c>
       <c r="I60" s="14">
-        <v>8601630000</v>
+        <v>60430700000</v>
       </c>
       <c r="J60" s="14">
-        <v>8680300000</v>
+        <v>60984800000</v>
       </c>
       <c r="K60" s="14">
-        <v>8754610000</v>
+        <v>61509700000</v>
       </c>
       <c r="L60" s="14">
-        <v>8825790000</v>
+        <v>62014900000</v>
       </c>
       <c r="M60" s="14">
-        <v>8894450000</v>
+        <v>62495000000</v>
       </c>
       <c r="N60" s="14">
-        <v>8959960000</v>
+        <v>62962600000</v>
       </c>
       <c r="O60" s="14">
-        <v>9023590000</v>
+        <v>63399800000</v>
       </c>
       <c r="P60" s="14">
-        <v>9085000000</v>
+        <v>63834500000</v>
       </c>
       <c r="Q60" s="14">
-        <v>9142630000</v>
+        <v>64238900000</v>
       </c>
       <c r="R60" s="14">
-        <v>9198370000</v>
+        <v>64633200000</v>
       </c>
       <c r="S60" s="14">
-        <v>9251280000</v>
+        <v>65007300000</v>
       </c>
       <c r="T60" s="14">
-        <v>9301350000</v>
+        <v>65361100000</v>
       </c>
       <c r="U60" s="14">
-        <v>9349540000</v>
+        <v>65694800000</v>
       </c>
       <c r="V60" s="14">
-        <v>9394890000</v>
+        <v>66008200000</v>
       </c>
       <c r="W60" s="14">
-        <v>9438350000</v>
+        <v>66311500000</v>
       </c>
       <c r="X60" s="14">
-        <v>9476140000</v>
+        <v>66604700000</v>
       </c>
       <c r="Y60" s="14">
-        <v>9513930000</v>
+        <v>66877600000</v>
       </c>
       <c r="Z60" s="14">
-        <v>9551720000</v>
+        <v>67130400000</v>
       </c>
       <c r="AA60" s="14">
-        <v>9589510000</v>
+        <v>67373000000</v>
       </c>
       <c r="AB60" s="14">
-        <v>9617860000</v>
+        <v>67605600000</v>
       </c>
       <c r="AC60" s="14">
-        <v>9655650000</v>
+        <v>67817900000</v>
       </c>
       <c r="AD60" s="14">
-        <v>9683990000</v>
+        <v>68020100000</v>
       </c>
       <c r="AE60" s="14">
-        <v>9702890000</v>
+        <v>68202100000</v>
       </c>
       <c r="AF60" s="14">
-        <v>9731230000</v>
+        <v>68373900000</v>
       </c>
       <c r="AG60" s="14">
-        <v>9750120000</v>
+        <v>68535700000</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B61" s="14">
-        <v>42785500000000</v>
+        <v>2638680000000</v>
       </c>
       <c r="C61" s="14">
-        <v>42149400000000</v>
+        <v>2554320000000</v>
       </c>
       <c r="D61" s="14">
-        <v>46503400000000</v>
+        <v>2805990000000</v>
       </c>
       <c r="E61" s="14">
-        <v>50111500000000</v>
+        <v>3006430000000</v>
       </c>
       <c r="F61" s="14">
-        <v>53998200000000</v>
+        <v>3202870000000</v>
       </c>
       <c r="G61" s="14">
-        <v>57679200000000</v>
+        <v>3386060000000</v>
       </c>
       <c r="H61" s="14">
-        <v>61249200000000</v>
+        <v>3561010000000</v>
       </c>
       <c r="I61" s="14">
-        <v>64759700000000</v>
+        <v>3732820000000</v>
       </c>
       <c r="J61" s="14">
-        <v>68238500000000</v>
+        <v>3901750000000</v>
       </c>
       <c r="K61" s="14">
-        <v>71765200000000</v>
+        <v>4033730000000</v>
       </c>
       <c r="L61" s="14">
-        <v>75283000000000</v>
+        <v>4165130000000</v>
       </c>
       <c r="M61" s="14">
-        <v>78796100000000</v>
+        <v>4296220000000</v>
       </c>
       <c r="N61" s="14">
-        <v>82306800000000</v>
+        <v>4427960000000</v>
       </c>
       <c r="O61" s="14">
-        <v>85817700000000</v>
+        <v>4558910000000</v>
       </c>
       <c r="P61" s="14">
-        <v>86998500000000</v>
+        <v>4571530000000</v>
       </c>
       <c r="Q61" s="14">
-        <v>88179600000000</v>
+        <v>4584960000000</v>
       </c>
       <c r="R61" s="14">
-        <v>89352600000000</v>
+        <v>4598380000000</v>
       </c>
       <c r="S61" s="14">
-        <v>90533500000000</v>
+        <v>4611800000000</v>
       </c>
       <c r="T61" s="14">
-        <v>91714600000000</v>
+        <v>4625220000000</v>
       </c>
       <c r="U61" s="14">
-        <v>93134800000000</v>
+        <v>4637800000000</v>
       </c>
       <c r="V61" s="14">
-        <v>94563100000000</v>
+        <v>4651170000000</v>
       </c>
       <c r="W61" s="14">
-        <v>95983400000000</v>
+        <v>4663740000000</v>
       </c>
       <c r="X61" s="14">
-        <v>97411800000000</v>
+        <v>4676320000000</v>
       </c>
       <c r="Y61" s="14">
-        <v>98832000000000</v>
+        <v>4689690000000</v>
       </c>
       <c r="Z61" s="14">
-        <v>99859400000000</v>
+        <v>4688810000000</v>
       </c>
       <c r="AA61" s="14">
-        <v>100887000000000</v>
+        <v>4687930000000</v>
       </c>
       <c r="AB61" s="14">
-        <v>101906000000000</v>
+        <v>4687050000000</v>
       </c>
       <c r="AC61" s="14">
-        <v>102934000000000</v>
+        <v>4686170000000</v>
       </c>
       <c r="AD61" s="14">
-        <v>103961000000000</v>
+        <v>4686090000000</v>
       </c>
       <c r="AE61" s="14">
-        <v>104988000000000</v>
+        <v>4685210000000</v>
       </c>
       <c r="AF61" s="14">
-        <v>106008000000000</v>
+        <v>4684330000000</v>
       </c>
       <c r="AG61" s="14">
-        <v>107035000000000</v>
+        <v>4683450000000</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B62" s="14">
-        <v>325415000000000</v>
+        <v>244865000000000</v>
       </c>
       <c r="C62" s="14">
-        <v>310622000000000</v>
+        <v>228619000000000</v>
       </c>
       <c r="D62" s="14">
-        <v>332989000000000</v>
+        <v>242944000000000</v>
       </c>
       <c r="E62" s="14">
-        <v>349484000000000</v>
+        <v>252259000000000</v>
       </c>
       <c r="F62" s="14">
-        <v>365685000000000</v>
+        <v>260006000000000</v>
       </c>
       <c r="G62" s="14">
-        <v>380348000000000</v>
+        <v>266509000000000</v>
       </c>
       <c r="H62" s="14">
-        <v>394316000000000</v>
+        <v>272256000000000</v>
       </c>
       <c r="I62" s="14">
-        <v>407765000000000</v>
+        <v>277752000000000</v>
       </c>
       <c r="J62" s="14">
-        <v>421009000000000</v>
+        <v>283094000000000</v>
       </c>
       <c r="K62" s="14">
-        <v>436055000000000</v>
+        <v>288644000000000</v>
       </c>
       <c r="L62" s="14">
-        <v>451052000000000</v>
+        <v>294151000000000</v>
       </c>
       <c r="M62" s="14">
-        <v>466022000000000</v>
+        <v>299630000000000</v>
       </c>
       <c r="N62" s="14">
-        <v>503755000000000</v>
+        <v>305096000000000</v>
       </c>
       <c r="O62" s="14">
-        <v>518701000000000</v>
+        <v>310578000000000</v>
       </c>
       <c r="P62" s="14">
-        <v>540675000000000</v>
+        <v>317790000000000</v>
       </c>
       <c r="Q62" s="14">
-        <v>562735000000000</v>
+        <v>325118000000000</v>
       </c>
       <c r="R62" s="14">
-        <v>584709000000000</v>
+        <v>332432000000000</v>
       </c>
       <c r="S62" s="14">
-        <v>606768000000000</v>
+        <v>339659000000000</v>
       </c>
       <c r="T62" s="14">
-        <v>628742000000000</v>
+        <v>346962000000000</v>
       </c>
       <c r="U62" s="14">
-        <v>657191000000000</v>
+        <v>357487000000000</v>
       </c>
       <c r="V62" s="14">
-        <v>708534000000000</v>
+        <v>367919000000000</v>
       </c>
       <c r="W62" s="14">
-        <v>737001000000000</v>
+        <v>378440000000000</v>
       </c>
       <c r="X62" s="14">
-        <v>765450000000000</v>
+        <v>388958000000000</v>
       </c>
       <c r="Y62" s="14">
-        <v>793916000000000</v>
+        <v>399487000000000</v>
       </c>
       <c r="Z62" s="14">
-        <v>817953000000000</v>
+        <v>407644000000000</v>
       </c>
       <c r="AA62" s="14">
-        <v>841988000000000</v>
+        <v>415791000000000</v>
       </c>
       <c r="AB62" s="14">
-        <v>888797000000000</v>
+        <v>424059000000000</v>
       </c>
       <c r="AC62" s="14">
-        <v>912841000000000</v>
+        <v>432215000000000</v>
       </c>
       <c r="AD62" s="14">
-        <v>936868000000000</v>
+        <v>440362000000000</v>
       </c>
       <c r="AE62" s="14">
-        <v>960903000000000</v>
+        <v>448504000000000</v>
       </c>
       <c r="AF62" s="14">
-        <v>984939000000000</v>
+        <v>456755000000000</v>
       </c>
       <c r="AG62" s="14">
-        <v>1008970000000000</v>
+        <v>464908000000000</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
@@ -15287,127 +15274,127 @@
       </c>
       <c r="D66" cm="1">
         <f t="array" ref="D66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,D64)</f>
-        <v>1.1423612870660182E-3</v>
+        <v>1.7757744715405366E-3</v>
       </c>
       <c r="E66" cm="1">
         <f t="array" ref="E66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,E64)</f>
-        <v>1.7135419305991384E-3</v>
+        <v>2.6636617073110269E-3</v>
       </c>
       <c r="F66" cm="1">
         <f t="array" ref="F66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,F64)</f>
-        <v>2.2847225741322585E-3</v>
+        <v>3.5515489430812952E-3</v>
       </c>
       <c r="G66" cm="1">
         <f t="array" ref="G66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,G64)</f>
-        <v>2.8559032176651566E-3</v>
+        <v>4.4394361788515635E-3</v>
       </c>
       <c r="H66" cm="1">
         <f t="array" ref="H66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,H64)</f>
-        <v>3.4270838611982768E-3</v>
+        <v>5.3273234146218318E-3</v>
       </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,I64)</f>
-        <v>3.9982645047311749E-3</v>
+        <v>6.2152106503921001E-3</v>
       </c>
       <c r="J66" cm="1">
         <f t="array" ref="J66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,J64)</f>
-        <v>4.569445148264295E-3</v>
+        <v>7.1030978861623684E-3</v>
       </c>
       <c r="K66" cm="1">
         <f t="array" ref="K66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,K64)</f>
-        <v>5.1406257917974152E-3</v>
+        <v>7.9909851219328587E-3</v>
       </c>
       <c r="L66" cm="1">
         <f t="array" ref="L66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,L64)</f>
-        <v>5.7118064353303133E-3</v>
+        <v>8.878872357703127E-3</v>
       </c>
       <c r="M66" cm="1">
         <f t="array" ref="M66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,M64)</f>
-        <v>6.2829870788634334E-3</v>
+        <v>9.7667595934733953E-3</v>
       </c>
       <c r="N66" cm="1">
         <f t="array" ref="N66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,N64)</f>
-        <v>6.8541677223965536E-3</v>
+        <v>1.0654646829243664E-2</v>
       </c>
       <c r="O66" cm="1">
         <f t="array" ref="O66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,O64)</f>
-        <v>7.4253483659294517E-3</v>
+        <v>1.1542534065013932E-2</v>
       </c>
       <c r="P66" cm="1">
         <f t="array" ref="P66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,P64)</f>
-        <v>7.9965290094625718E-3</v>
+        <v>1.24304213007842E-2</v>
       </c>
       <c r="Q66" cm="1">
         <f t="array" ref="Q66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Q64)</f>
-        <v>8.5677096529954699E-3</v>
+        <v>1.331830853655469E-2</v>
       </c>
       <c r="R66" cm="1">
         <f t="array" ref="R66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,R64)</f>
-        <v>9.1388902965285901E-3</v>
+        <v>1.4206195772324959E-2</v>
       </c>
       <c r="S66" cm="1">
         <f t="array" ref="S66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,S64)</f>
-        <v>9.7100709400617102E-3</v>
+        <v>1.5094083008095227E-2</v>
       </c>
       <c r="T66" cm="1">
         <f t="array" ref="T66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,T64)</f>
-        <v>1.0281251583594608E-2</v>
+        <v>1.5981970243865495E-2</v>
       </c>
       <c r="U66" cm="1">
         <f t="array" ref="U66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,U64)</f>
-        <v>1.0852432227127728E-2</v>
+        <v>1.6869857479635764E-2</v>
       </c>
       <c r="V66" cm="1">
         <f t="array" ref="V66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,V64)</f>
-        <v>1.1423612870660849E-2</v>
+        <v>1.7757744715406032E-2</v>
       </c>
       <c r="W66" cm="1">
         <f t="array" ref="W66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,W64)</f>
-        <v>1.1994793514193747E-2</v>
+        <v>1.8645631951176522E-2</v>
       </c>
       <c r="X66" cm="1">
         <f t="array" ref="X66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,X64)</f>
-        <v>1.2565974157726867E-2</v>
+        <v>1.9533519186946791E-2</v>
       </c>
       <c r="Y66" cm="1">
         <f t="array" ref="Y66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Y64)</f>
-        <v>1.3137154801259987E-2</v>
+        <v>2.0421406422717059E-2</v>
       </c>
       <c r="Z66" cm="1">
         <f t="array" ref="Z66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,Z64)</f>
-        <v>1.3708335444792885E-2</v>
+        <v>2.1309293658487327E-2</v>
       </c>
       <c r="AA66" cm="1">
         <f t="array" ref="AA66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AA64)</f>
-        <v>1.4279516088326005E-2</v>
+        <v>2.2197180894257595E-2</v>
       </c>
       <c r="AB66" cm="1">
         <f t="array" ref="AB66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AB64)</f>
-        <v>1.4850696731858903E-2</v>
+        <v>2.3085068130027864E-2</v>
       </c>
       <c r="AC66" cm="1">
         <f t="array" ref="AC66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AC64)</f>
-        <v>1.5421877375392024E-2</v>
+        <v>2.3972955365798354E-2</v>
       </c>
       <c r="AD66" cm="1">
         <f t="array" ref="AD66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AD64)</f>
-        <v>1.5993058018925144E-2</v>
+        <v>2.4860842601568622E-2</v>
       </c>
       <c r="AE66" cm="1">
         <f t="array" ref="AE66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AE64)</f>
-        <v>1.6564238662458042E-2</v>
+        <v>2.5748729837338891E-2</v>
       </c>
       <c r="AF66" cm="1">
         <f t="array" ref="AF66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AF64)</f>
-        <v>1.7135419305991162E-2</v>
+        <v>2.6636617073109159E-2</v>
       </c>
       <c r="AG66" cm="1">
         <f t="array" ref="AG66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AG64)</f>
-        <v>1.7706599949524282E-2</v>
+        <v>2.7524504308879427E-2</v>
       </c>
       <c r="AH66" cm="1">
         <f t="array" ref="AH66">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,AH64)</f>
-        <v>1.827778059305718E-2</v>
+        <v>2.8412391544649696E-2</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
@@ -15624,131 +15611,131 @@
       </c>
       <c r="B69" cm="1">
         <f t="array" ref="B69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B64)</f>
-        <v>0</v>
+        <v>-2.2204460492503131E-16</v>
       </c>
       <c r="D69" cm="1">
         <f t="array" ref="D69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D64)</f>
-        <v>8.355507555716235E-4</v>
+        <v>1.0984906439708286E-3</v>
       </c>
       <c r="E69" cm="1">
         <f t="array" ref="E69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E64)</f>
-        <v>1.2533261333574908E-3</v>
+        <v>1.647735965956576E-3</v>
       </c>
       <c r="F69" cm="1">
         <f t="array" ref="F69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F64)</f>
-        <v>1.671101511143358E-3</v>
+        <v>2.1969812879421013E-3</v>
       </c>
       <c r="G69" cm="1">
         <f t="array" ref="G69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G64)</f>
-        <v>2.0888768889291143E-3</v>
+        <v>2.7462266099276267E-3</v>
       </c>
       <c r="H69" cm="1">
         <f t="array" ref="H69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H64)</f>
-        <v>2.5066522667149815E-3</v>
+        <v>3.295471931913152E-3</v>
       </c>
       <c r="I69" cm="1">
         <f t="array" ref="I69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I64)</f>
-        <v>2.9244276445007378E-3</v>
+        <v>3.8447172538986774E-3</v>
       </c>
       <c r="J69" cm="1">
         <f t="array" ref="J69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J64)</f>
-        <v>3.342203022286605E-3</v>
+        <v>4.3939625758842027E-3</v>
       </c>
       <c r="K69" cm="1">
         <f t="array" ref="K69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K64)</f>
-        <v>3.7599784000723613E-3</v>
+        <v>4.943207897869728E-3</v>
       </c>
       <c r="L69" cm="1">
         <f t="array" ref="L69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L64)</f>
-        <v>4.1777537778582285E-3</v>
+        <v>5.4924532198552534E-3</v>
       </c>
       <c r="M69" cm="1">
         <f t="array" ref="M69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M64)</f>
-        <v>4.5955291556439848E-3</v>
+        <v>6.0416985418407787E-3</v>
       </c>
       <c r="N69" cm="1">
         <f t="array" ref="N69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N64)</f>
-        <v>5.0133045334298521E-3</v>
+        <v>6.590943863826304E-3</v>
       </c>
       <c r="O69" cm="1">
         <f t="array" ref="O69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O64)</f>
-        <v>5.4310799112157193E-3</v>
+        <v>7.1401891858118294E-3</v>
       </c>
       <c r="P69" cm="1">
         <f t="array" ref="P69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P64)</f>
-        <v>5.8488552890014756E-3</v>
+        <v>7.6894345077973547E-3</v>
       </c>
       <c r="Q69" cm="1">
         <f t="array" ref="Q69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q64)</f>
-        <v>6.2666306667873428E-3</v>
+        <v>8.23867982978288E-3</v>
       </c>
       <c r="R69" cm="1">
         <f t="array" ref="R69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R64)</f>
-        <v>6.6844060445730991E-3</v>
+        <v>8.7879251517684054E-3</v>
       </c>
       <c r="S69" cm="1">
         <f t="array" ref="S69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S64)</f>
-        <v>7.1021814223589663E-3</v>
+        <v>9.3371704737539307E-3</v>
       </c>
       <c r="T69" cm="1">
         <f t="array" ref="T69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T64)</f>
-        <v>7.5199568001447226E-3</v>
+        <v>9.8864157957394561E-3</v>
       </c>
       <c r="U69" cm="1">
         <f t="array" ref="U69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U64)</f>
-        <v>7.9377321779305898E-3</v>
+        <v>1.0435661117724981E-2</v>
       </c>
       <c r="V69" cm="1">
         <f t="array" ref="V69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V64)</f>
-        <v>8.3555075557163461E-3</v>
+        <v>1.0984906439710507E-2</v>
       </c>
       <c r="W69" cm="1">
         <f t="array" ref="W69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W64)</f>
-        <v>8.7732829335022133E-3</v>
+        <v>1.1534151761696032E-2</v>
       </c>
       <c r="X69" cm="1">
         <f t="array" ref="X69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X64)</f>
-        <v>9.1910583112880806E-3</v>
+        <v>1.2083397083681557E-2</v>
       </c>
       <c r="Y69" cm="1">
         <f t="array" ref="Y69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y64)</f>
-        <v>9.6088336890738368E-3</v>
+        <v>1.2632642405667083E-2</v>
       </c>
       <c r="Z69" cm="1">
         <f t="array" ref="Z69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z64)</f>
-        <v>1.0026609066859704E-2</v>
+        <v>1.3181887727652608E-2</v>
       </c>
       <c r="AA69" cm="1">
         <f t="array" ref="AA69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA64)</f>
-        <v>1.044438444464546E-2</v>
+        <v>1.3731133049638133E-2</v>
       </c>
       <c r="AB69" cm="1">
         <f t="array" ref="AB69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB64)</f>
-        <v>1.0862159822431328E-2</v>
+        <v>1.4280378371623659E-2</v>
       </c>
       <c r="AC69" cm="1">
         <f t="array" ref="AC69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC64)</f>
-        <v>1.1279935200217084E-2</v>
+        <v>1.4829623693609184E-2</v>
       </c>
       <c r="AD69" cm="1">
         <f t="array" ref="AD69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD64)</f>
-        <v>1.1697710578002951E-2</v>
+        <v>1.5378869015594709E-2</v>
       </c>
       <c r="AE69" cm="1">
         <f t="array" ref="AE69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE64)</f>
-        <v>1.2115485955788707E-2</v>
+        <v>1.5928114337580235E-2</v>
       </c>
       <c r="AF69" cm="1">
         <f t="array" ref="AF69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF64)</f>
-        <v>1.2533261333574575E-2</v>
+        <v>1.647735965956576E-2</v>
       </c>
       <c r="AG69" cm="1">
         <f t="array" ref="AG69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG64)</f>
-        <v>1.2951036711360442E-2</v>
+        <v>1.7026604981551285E-2</v>
       </c>
       <c r="AH69" cm="1">
         <f t="array" ref="AH69">TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AH64)</f>
-        <v>1.3368812089146198E-2</v>
+        <v>1.7575850303536811E-2</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
@@ -16065,7 +16052,7 @@
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -16103,418 +16090,407 @@
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B80">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C80">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D80">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E80">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F80">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G80">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H80">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I80">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="J80">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="K80">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="L80">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="M80">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="N80">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O80">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="P80">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="Q80">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="R80">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="S80">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="T80">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="U80">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="V80">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="W80">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="X80">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="Y80">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="Z80">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AA80">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AB80">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AC80">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AD80">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AE80">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AF80">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AG80">
-        <v>2049</v>
-      </c>
-      <c r="AH80">
         <v>2050</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="17">
-        <f>B23*10^6/B46</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="17">
-        <f t="shared" ref="C81:AH81" si="14">C23*10^6/C46</f>
-        <v>0</v>
-      </c>
-      <c r="D81" s="17">
+      <c r="B81" s="55">
+        <f>C23*10^6/B46</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="55">
+        <f t="shared" ref="C81:AG81" si="14">D23*10^6/C46</f>
+        <v>0</v>
+      </c>
+      <c r="D81" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="55">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="55">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="17">
+        <v>4.9392805050236979E-4</v>
+      </c>
+      <c r="J81" s="55">
         <f t="shared" si="14"/>
-        <v>4.642905882599727E-4</v>
-      </c>
-      <c r="K81" s="17">
+        <v>1.7837285857930307E-3</v>
+      </c>
+      <c r="K81" s="55">
         <f t="shared" si="14"/>
-        <v>1.6214800816513959E-3</v>
-      </c>
-      <c r="L81" s="17">
+        <v>3.0531557169101659E-3</v>
+      </c>
+      <c r="L81" s="55">
         <f t="shared" si="14"/>
-        <v>2.7307074134713164E-3</v>
-      </c>
-      <c r="M81" s="17">
+        <v>4.2802935640014975E-3</v>
+      </c>
+      <c r="M81" s="55">
         <f t="shared" si="14"/>
-        <v>3.8114741427793383E-3</v>
-      </c>
-      <c r="N81" s="17">
+        <v>5.4863892768816716E-3</v>
+      </c>
+      <c r="N81" s="55">
         <f t="shared" si="14"/>
-        <v>4.8387912047127106E-3</v>
-      </c>
-      <c r="O81" s="17">
+        <v>6.7001414218840084E-3</v>
+      </c>
+      <c r="O81" s="55">
         <f t="shared" si="14"/>
-        <v>5.8519941806813979E-3</v>
-      </c>
-      <c r="P81" s="17">
+        <v>7.8541141810770584E-3</v>
+      </c>
+      <c r="P81" s="55">
         <f t="shared" si="14"/>
-        <v>6.669580390696284E-3</v>
-      </c>
-      <c r="Q81" s="17">
+        <v>8.9184952192267446E-3</v>
+      </c>
+      <c r="Q81" s="55">
         <f t="shared" si="14"/>
-        <v>7.4900591671078036E-3</v>
-      </c>
-      <c r="R81" s="17">
+        <v>1.008262430708763E-2</v>
+      </c>
+      <c r="R81" s="55">
         <f t="shared" si="14"/>
-        <v>8.2297370278012066E-3</v>
-      </c>
-      <c r="S81" s="17">
+        <v>1.1243248546307242E-2</v>
+      </c>
+      <c r="S81" s="55">
         <f t="shared" si="14"/>
-        <v>8.9249610199626395E-3</v>
-      </c>
-      <c r="T81" s="17">
+        <v>1.2397912501645869E-2</v>
+      </c>
+      <c r="T81" s="55">
         <f t="shared" si="14"/>
-        <v>9.598434279312321E-3</v>
-      </c>
-      <c r="U81" s="17">
+        <v>1.3547208780168112E-2</v>
+      </c>
+      <c r="U81" s="55">
         <f t="shared" si="14"/>
-        <v>1.0255463381616597E-2</v>
-      </c>
-      <c r="V81" s="17">
+        <v>1.4690134668505403E-2</v>
+      </c>
+      <c r="V81" s="55">
         <f t="shared" si="14"/>
-        <v>1.0945214770170271E-2</v>
-      </c>
-      <c r="W81" s="17">
+        <v>1.5836292093691008E-2</v>
+      </c>
+      <c r="W81" s="55">
         <f t="shared" si="14"/>
-        <v>1.1625125074811235E-2</v>
-      </c>
-      <c r="X81" s="17">
+        <v>1.698034329294059E-2</v>
+      </c>
+      <c r="X81" s="55">
         <f t="shared" si="14"/>
-        <v>1.2337422168361249E-2</v>
-      </c>
-      <c r="Y81" s="17">
+        <v>1.8114284473473987E-2</v>
+      </c>
+      <c r="Y81" s="55">
         <f t="shared" si="14"/>
-        <v>1.3058544314166526E-2</v>
-      </c>
-      <c r="Z81" s="17">
+        <v>1.9246691063959456E-2</v>
+      </c>
+      <c r="Z81" s="55">
         <f t="shared" si="14"/>
-        <v>1.3815609633049668E-2</v>
-      </c>
-      <c r="AA81" s="17">
+        <v>2.036911239733722E-2</v>
+      </c>
+      <c r="AA81" s="55">
         <f t="shared" si="14"/>
-        <v>1.4598815490102762E-2</v>
-      </c>
-      <c r="AB81" s="17">
+        <v>2.1523009052967428E-2</v>
+      </c>
+      <c r="AB81" s="55">
         <f t="shared" si="14"/>
-        <v>1.5386524630958024E-2</v>
-      </c>
-      <c r="AC81" s="17">
+        <v>2.2674213104371128E-2</v>
+      </c>
+      <c r="AC81" s="55">
         <f t="shared" si="14"/>
-        <v>1.6199450548471397E-2</v>
-      </c>
-      <c r="AD81" s="17">
+        <v>2.3824389135587005E-2</v>
+      </c>
+      <c r="AD81" s="55">
         <f t="shared" si="14"/>
-        <v>1.6996584268369471E-2</v>
-      </c>
-      <c r="AE81" s="17">
+        <v>2.4980458008982527E-2</v>
+      </c>
+      <c r="AE81" s="55">
         <f t="shared" si="14"/>
-        <v>1.7789202468770093E-2</v>
-      </c>
-      <c r="AF81" s="17">
+        <v>2.6122917648122249E-2</v>
+      </c>
+      <c r="AF81" s="55">
         <f t="shared" si="14"/>
-        <v>1.8588598870228533E-2</v>
-      </c>
-      <c r="AG81" s="17">
+        <v>2.7274148014870443E-2</v>
+      </c>
+      <c r="AG81" s="55">
         <f t="shared" si="14"/>
-        <v>1.9367074132053425E-2</v>
-      </c>
-      <c r="AH81" s="17">
-        <f t="shared" si="14"/>
-        <v>1.8277780593057246E-2</v>
-      </c>
-      <c r="AI81" s="10"/>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+        <v>2.8412391544649748E-2</v>
+      </c>
+      <c r="AH81" s="10"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="18">
-        <f>B24*10^6/B49</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="18">
-        <f t="shared" ref="C82:AH82" si="15">C24*10^6/C49</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="18">
+      <c r="B82" s="14">
+        <f>C24*10^6/B49</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="14">
+        <f t="shared" ref="C82:AG82" si="15">D24*10^6/C49</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="18">
+        <v>9.7657872299982003E-4</v>
+      </c>
+      <c r="G82" s="14">
         <f t="shared" si="15"/>
-        <v>7.8290078090782918E-4</v>
-      </c>
-      <c r="H82" s="18">
+        <v>2.2862226632029323E-3</v>
+      </c>
+      <c r="H82" s="14">
         <f t="shared" si="15"/>
-        <v>1.8182245241646045E-3</v>
-      </c>
-      <c r="I82" s="18">
+        <v>3.4966035599913528E-3</v>
+      </c>
+      <c r="I82" s="14">
         <f t="shared" si="15"/>
-        <v>2.7463657189492935E-3</v>
-      </c>
-      <c r="J82" s="18">
+        <v>4.6215686144781432E-3</v>
+      </c>
+      <c r="J82" s="14">
         <f t="shared" si="15"/>
-        <v>3.6008364214057658E-3</v>
-      </c>
-      <c r="K82" s="18">
+        <v>5.6713300860359375E-3</v>
+      </c>
+      <c r="K82" s="14">
         <f t="shared" si="15"/>
-        <v>4.3516484036701776E-3</v>
-      </c>
-      <c r="L82" s="18">
+        <v>6.5997660932631472E-3</v>
+      </c>
+      <c r="L82" s="14">
         <f t="shared" si="15"/>
-        <v>5.0316395281102579E-3</v>
-      </c>
-      <c r="M82" s="18">
+        <v>7.4566311232395315E-3</v>
+      </c>
+      <c r="M82" s="14">
         <f t="shared" si="15"/>
-        <v>5.6517584093017043E-3</v>
-      </c>
-      <c r="N82" s="18">
+        <v>8.2496431115610704E-3</v>
+      </c>
+      <c r="N82" s="14">
         <f t="shared" si="15"/>
-        <v>6.1433578471327367E-3</v>
-      </c>
-      <c r="O82" s="18">
+        <v>8.9862921963418975E-3</v>
+      </c>
+      <c r="O82" s="14">
         <f t="shared" si="15"/>
-        <v>6.6615673149629838E-3</v>
-      </c>
-      <c r="P82" s="18">
+        <v>9.6709301536778355E-3</v>
+      </c>
+      <c r="P82" s="14">
         <f t="shared" si="15"/>
-        <v>7.1226081092425949E-3</v>
-      </c>
-      <c r="Q82" s="18">
+        <v>1.0292914547119397E-2</v>
+      </c>
+      <c r="Q82" s="14">
         <f t="shared" si="15"/>
-        <v>7.5474180260201992E-3</v>
-      </c>
-      <c r="R82" s="18">
+        <v>1.0871751949323244E-2</v>
+      </c>
+      <c r="R82" s="14">
         <f t="shared" si="15"/>
-        <v>7.9400078839911292E-3</v>
-      </c>
-      <c r="S82" s="18">
+        <v>1.1412343226434311E-2</v>
+      </c>
+      <c r="S82" s="14">
         <f t="shared" si="15"/>
-        <v>8.3032609436422822E-3</v>
-      </c>
-      <c r="T82" s="18">
+        <v>1.1918412194775269E-2</v>
+      </c>
+      <c r="T82" s="14">
         <f t="shared" si="15"/>
-        <v>8.6201791071407446E-3</v>
-      </c>
-      <c r="U82" s="18">
+        <v>1.2393444426928598E-2</v>
+      </c>
+      <c r="U82" s="14">
         <f t="shared" si="15"/>
-        <v>8.9552060874257024E-3</v>
-      </c>
-      <c r="V82" s="18">
+        <v>1.2860699883641174E-2</v>
+      </c>
+      <c r="V82" s="14">
         <f t="shared" si="15"/>
-        <v>9.1866695292031984E-3</v>
-      </c>
-      <c r="W82" s="18">
+        <v>1.3301981293799945E-2</v>
+      </c>
+      <c r="W82" s="14">
         <f t="shared" si="15"/>
-        <v>9.4836483683273173E-3</v>
-      </c>
-      <c r="X82" s="18">
+        <v>1.3718156408490584E-2</v>
+      </c>
+      <c r="X82" s="14">
         <f t="shared" si="15"/>
-        <v>9.7607015323059824E-3</v>
-      </c>
-      <c r="Y82" s="18">
+        <v>1.4114736772620066E-2</v>
+      </c>
+      <c r="Y82" s="14">
         <f t="shared" si="15"/>
-        <v>1.0025771379118174E-2</v>
-      </c>
-      <c r="Z82" s="18">
+        <v>1.4488822226311825E-2</v>
+      </c>
+      <c r="Z82" s="14">
         <f t="shared" si="15"/>
-        <v>1.034203689788105E-2</v>
-      </c>
-      <c r="AA82" s="18">
+        <v>1.4927976491576735E-2</v>
+      </c>
+      <c r="AA82" s="14">
         <f t="shared" si="15"/>
-        <v>1.064535351706496E-2</v>
-      </c>
-      <c r="AB82" s="18">
+        <v>1.5350272831576748E-2</v>
+      </c>
+      <c r="AB82" s="14">
         <f t="shared" si="15"/>
-        <v>1.0849604183502608E-2</v>
-      </c>
-      <c r="AC82" s="18">
+        <v>1.5754448706843182E-2</v>
+      </c>
+      <c r="AC82" s="14">
         <f t="shared" si="15"/>
-        <v>1.1128981276917048E-2</v>
-      </c>
-      <c r="AD82" s="18">
+        <v>1.6146736309734316E-2</v>
+      </c>
+      <c r="AD82" s="14">
         <f t="shared" si="15"/>
-        <v>1.1397659374620412E-2</v>
-      </c>
-      <c r="AE82" s="18">
+        <v>1.6523467582117729E-2</v>
+      </c>
+      <c r="AE82" s="14">
         <f t="shared" si="15"/>
-        <v>1.1634352607970688E-2</v>
-      </c>
-      <c r="AF82" s="18">
+        <v>1.6887615233960571E-2</v>
+      </c>
+      <c r="AF82" s="14">
         <f t="shared" si="15"/>
-        <v>1.1883733531128196E-2</v>
-      </c>
-      <c r="AG82" s="18">
+        <v>1.7237271219306717E-2</v>
+      </c>
+      <c r="AG82" s="14">
         <f t="shared" si="15"/>
-        <v>1.212377048689213E-2</v>
-      </c>
-      <c r="AH82" s="18">
-        <f t="shared" si="15"/>
-        <v>1.3368812089146174E-2</v>
+        <v>1.7575850303536939E-2</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17">
         <v>2018</v>
       </c>
-      <c r="C101" s="19">
+      <c r="C101" s="17">
         <v>2050</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="20">
-        <v>0</v>
-      </c>
-      <c r="C102" s="21">
-        <f>AH81</f>
-        <v>1.8277780593057246E-2</v>
+      <c r="B102" s="18">
+        <v>0</v>
+      </c>
+      <c r="C102" s="19">
+        <f>AG81</f>
+        <v>2.8412391544649748E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B103" s="21">
-        <v>0</v>
-      </c>
-      <c r="C103" s="21">
-        <f>AH82</f>
-        <v>1.3368812089146174E-2</v>
+      <c r="A103" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="19">
+        <v>0</v>
+      </c>
+      <c r="C103" s="19">
+        <f>AG82</f>
+        <v>1.7575850303536939E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16535,7 +16511,7 @@
   </sheetPr>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD47"/>
     </sheetView>
   </sheetViews>
@@ -16546,7 +16522,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -16647,645 +16623,645 @@
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" cm="1">
         <f t="array" ref="B2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!C64)</f>
-        <v>5.7118064353312015E-4</v>
+        <v>8.8788723577026829E-4</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" ref="C2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!D64)</f>
-        <v>1.1423612870660182E-3</v>
+        <v>1.7757744715405366E-3</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" ref="D2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!E64)</f>
-        <v>1.7135419305991384E-3</v>
+        <v>2.6636617073110269E-3</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" ref="E2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!F64)</f>
-        <v>2.2847225741322585E-3</v>
+        <v>3.5515489430812952E-3</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!G64)</f>
-        <v>2.8559032176651566E-3</v>
+        <v>4.4394361788515635E-3</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!H64)</f>
-        <v>3.4270838611982768E-3</v>
+        <v>5.3273234146218318E-3</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!I64)</f>
-        <v>3.9982645047311749E-3</v>
+        <v>6.2152106503921001E-3</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!J64)</f>
-        <v>4.569445148264295E-3</v>
+        <v>7.1030978861623684E-3</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" ref="J2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!K64)</f>
-        <v>5.1406257917974152E-3</v>
+        <v>7.9909851219328587E-3</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" ref="K2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!L64)</f>
-        <v>5.7118064353303133E-3</v>
+        <v>8.878872357703127E-3</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" ref="L2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!M64)</f>
-        <v>6.2829870788634334E-3</v>
+        <v>9.7667595934733953E-3</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" ref="M2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!N64)</f>
-        <v>6.8541677223965536E-3</v>
+        <v>1.0654646829243664E-2</v>
       </c>
       <c r="N2" cm="1">
         <f t="array" ref="N2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!O64)</f>
-        <v>7.4253483659294517E-3</v>
+        <v>1.1542534065013932E-2</v>
       </c>
       <c r="O2" cm="1">
         <f t="array" ref="O2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!P64)</f>
-        <v>7.9965290094625718E-3</v>
+        <v>1.24304213007842E-2</v>
       </c>
       <c r="P2" cm="1">
         <f t="array" ref="P2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!Q64)</f>
-        <v>8.5677096529954699E-3</v>
+        <v>1.331830853655469E-2</v>
       </c>
       <c r="Q2" cm="1">
         <f t="array" ref="Q2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!R64)</f>
-        <v>9.1388902965285901E-3</v>
+        <v>1.4206195772324959E-2</v>
       </c>
       <c r="R2" cm="1">
         <f t="array" ref="R2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!S64)</f>
-        <v>9.7100709400617102E-3</v>
+        <v>1.5094083008095227E-2</v>
       </c>
       <c r="S2" cm="1">
         <f t="array" ref="S2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!T64)</f>
-        <v>1.0281251583594608E-2</v>
+        <v>1.5981970243865495E-2</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" ref="T2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!U64)</f>
-        <v>1.0852432227127728E-2</v>
+        <v>1.6869857479635764E-2</v>
       </c>
       <c r="U2" cm="1">
         <f t="array" ref="U2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!V64)</f>
-        <v>1.1423612870660849E-2</v>
+        <v>1.7757744715406032E-2</v>
       </c>
       <c r="V2" cm="1">
         <f t="array" ref="V2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!W64)</f>
-        <v>1.1994793514193747E-2</v>
+        <v>1.8645631951176522E-2</v>
       </c>
       <c r="W2" cm="1">
         <f t="array" ref="W2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!X64)</f>
-        <v>1.2565974157726867E-2</v>
+        <v>1.9533519186946791E-2</v>
       </c>
       <c r="X2" cm="1">
         <f t="array" ref="X2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!Y64)</f>
-        <v>1.3137154801259987E-2</v>
+        <v>2.0421406422717059E-2</v>
       </c>
       <c r="Y2" cm="1">
         <f t="array" ref="Y2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!Z64)</f>
-        <v>1.3708335444792885E-2</v>
+        <v>2.1309293658487327E-2</v>
       </c>
       <c r="Z2" cm="1">
         <f t="array" ref="Z2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AA64)</f>
-        <v>1.4279516088326005E-2</v>
+        <v>2.2197180894257595E-2</v>
       </c>
       <c r="AA2" cm="1">
         <f t="array" ref="AA2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AB64)</f>
-        <v>1.4850696731858903E-2</v>
+        <v>2.3085068130027864E-2</v>
       </c>
       <c r="AB2" cm="1">
         <f t="array" ref="AB2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AC64)</f>
-        <v>1.5421877375392024E-2</v>
+        <v>2.3972955365798354E-2</v>
       </c>
       <c r="AC2" cm="1">
         <f t="array" ref="AC2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AD64)</f>
-        <v>1.5993058018925144E-2</v>
+        <v>2.4860842601568622E-2</v>
       </c>
       <c r="AD2" cm="1">
         <f t="array" ref="AD2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AE64)</f>
-        <v>1.6564238662458042E-2</v>
+        <v>2.5748729837338891E-2</v>
       </c>
       <c r="AE2" cm="1">
         <f t="array" ref="AE2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AF64)</f>
-        <v>1.7135419305991162E-2</v>
+        <v>2.6636617073109159E-2</v>
       </c>
       <c r="AF2" cm="1">
         <f t="array" ref="AF2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AG64)</f>
-        <v>1.7706599949524282E-2</v>
+        <v>2.7524504308879427E-2</v>
       </c>
       <c r="AG2" cm="1">
         <f t="array" ref="AG2">TREND('BAU Calculations'!$B102:$C102,'BAU Calculations'!$B101:$C101,'BAU Calculations'!AH64)</f>
-        <v>1.827778059305718E-2</v>
+        <v>2.8412391544649696E-2</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
         <v>225</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
-        <v>226</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -17386,7 +17362,7 @@
     </row>
     <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -17486,8 +17462,8 @@
       </c>
     </row>
     <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
-        <v>227</v>
+      <c r="A10" s="51" t="s">
+        <v>226</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
@@ -17588,7 +17564,7 @@
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -17689,7 +17665,7 @@
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -17790,108 +17766,108 @@
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="51" t="s">
         <v>230</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
-        <v>231</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -17992,7 +17968,7 @@
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -18093,7 +18069,7 @@
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -18194,7 +18170,7 @@
     </row>
     <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -18317,7 +18293,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -18417,8 +18393,8 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
-        <v>186</v>
+      <c r="A2" s="52" t="s">
+        <v>185</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -18518,141 +18494,141 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
-        <v>185</v>
+      <c r="A3" s="53" t="s">
+        <v>184</v>
       </c>
       <c r="B3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B56/SUM('BAU Calculations'!B56,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>
-        <v>9.8824967650096103E-7</v>
+        <v>4.6283249181768498E-5</v>
       </c>
       <c r="C3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,C$1)*('BAU Calculations'!C56/SUM('BAU Calculations'!C56,'BAU Calculations'!C58,'BAU Calculations'!C62))</f>
-        <v>1.9260841215542611E-6</v>
+        <v>9.2918168804727785E-5</v>
       </c>
       <c r="D3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D$1)*('BAU Calculations'!D56/SUM('BAU Calculations'!D56,'BAU Calculations'!D58,'BAU Calculations'!D62))</f>
-        <v>2.8172713682387574E-6</v>
+        <v>1.3988424523049528E-4</v>
       </c>
       <c r="E3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E$1)*('BAU Calculations'!E56/SUM('BAU Calculations'!E56,'BAU Calculations'!E58,'BAU Calculations'!E62))</f>
-        <v>3.6652362366387228E-6</v>
+        <v>1.8718035663187644E-4</v>
       </c>
       <c r="F3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F$1)*('BAU Calculations'!F56/SUM('BAU Calculations'!F56,'BAU Calculations'!F58,'BAU Calculations'!F62))</f>
-        <v>4.4499229110322577E-6</v>
+        <v>2.3624083583171531E-4</v>
       </c>
       <c r="G3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G$1)*('BAU Calculations'!G56/SUM('BAU Calculations'!G56,'BAU Calculations'!G58,'BAU Calculations'!G62))</f>
-        <v>5.1908809071932912E-6</v>
+        <v>2.8610188282556155E-4</v>
       </c>
       <c r="H3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H$1)*('BAU Calculations'!H56/SUM('BAU Calculations'!H56,'BAU Calculations'!H58,'BAU Calculations'!H62))</f>
-        <v>5.8903191358995895E-6</v>
+        <v>3.3682675693530971E-4</v>
       </c>
       <c r="I3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I$1)*('BAU Calculations'!I56/SUM('BAU Calculations'!I56,'BAU Calculations'!I58,'BAU Calculations'!I62))</f>
-        <v>6.4819542801298198E-6</v>
+        <v>3.8822061912356025E-4</v>
       </c>
       <c r="J3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J$1)*('BAU Calculations'!J56/SUM('BAU Calculations'!J56,'BAU Calculations'!J58,'BAU Calculations'!J62))</f>
-        <v>7.1062077288266346E-6</v>
+        <v>4.4023682853333964E-4</v>
       </c>
       <c r="K3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K$1)*('BAU Calculations'!K56/SUM('BAU Calculations'!K56,'BAU Calculations'!K58,'BAU Calculations'!K62))</f>
-        <v>7.6773110591137063E-6</v>
+        <v>4.9451878763994133E-4</v>
       </c>
       <c r="L3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L$1)*('BAU Calculations'!L56/SUM('BAU Calculations'!L56,'BAU Calculations'!L58,'BAU Calculations'!L62))</f>
-        <v>9.3891062609994649E-6</v>
+        <v>5.4961071291300496E-4</v>
       </c>
       <c r="M3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M$1)*('BAU Calculations'!M56/SUM('BAU Calculations'!M56,'BAU Calculations'!M58,'BAU Calculations'!M62))</f>
-        <v>9.9742289697394391E-6</v>
+        <v>6.0553207040766612E-4</v>
       </c>
       <c r="N3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N$1)*('BAU Calculations'!N56/SUM('BAU Calculations'!N56,'BAU Calculations'!N58,'BAU Calculations'!N62))</f>
-        <v>1.0154558886738636E-5</v>
+        <v>6.622362819302107E-4</v>
       </c>
       <c r="O3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O$1)*('BAU Calculations'!O56/SUM('BAU Calculations'!O56,'BAU Calculations'!O58,'BAU Calculations'!O62))</f>
-        <v>1.0672781539074545E-5</v>
+        <v>7.1965058104153635E-4</v>
       </c>
       <c r="P3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P$1)*('BAU Calculations'!P56/SUM('BAU Calculations'!P56,'BAU Calculations'!P58,'BAU Calculations'!P62))</f>
-        <v>1.1050532221856028E-5</v>
+        <v>7.774293771895649E-4</v>
       </c>
       <c r="Q3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q$1)*('BAU Calculations'!Q56/SUM('BAU Calculations'!Q56,'BAU Calculations'!Q58,'BAU Calculations'!Q62))</f>
-        <v>1.1402302816902891E-5</v>
+        <v>8.3570135640669441E-4</v>
       </c>
       <c r="R3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R$1)*('BAU Calculations'!R56/SUM('BAU Calculations'!R56,'BAU Calculations'!R58,'BAU Calculations'!R62))</f>
-        <v>1.1733217114654276E-5</v>
+        <v>8.9441457302186721E-4</v>
       </c>
       <c r="S3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S$1)*('BAU Calculations'!S56/SUM('BAU Calculations'!S56,'BAU Calculations'!S58,'BAU Calculations'!S62))</f>
-        <v>1.2042545333769259E-5</v>
+        <v>9.5391493906727136E-4</v>
       </c>
       <c r="T3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T$1)*('BAU Calculations'!T56/SUM('BAU Calculations'!T56,'BAU Calculations'!T58,'BAU Calculations'!T62))</f>
-        <v>1.2240794157652337E-5</v>
+        <v>1.0136772977070449E-3</v>
       </c>
       <c r="U3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U$1)*('BAU Calculations'!U56/SUM('BAU Calculations'!U56,'BAU Calculations'!U58,'BAU Calculations'!U62))</f>
-        <v>1.3964442943163165E-5</v>
+        <v>1.0723785157172407E-3</v>
       </c>
       <c r="V3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V$1)*('BAU Calculations'!V56/SUM('BAU Calculations'!V56,'BAU Calculations'!V58,'BAU Calculations'!V62))</f>
-        <v>1.3769585746040323E-5</v>
+        <v>1.1314290847652521E-3</v>
       </c>
       <c r="W3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W$1)*('BAU Calculations'!W56/SUM('BAU Calculations'!W56,'BAU Calculations'!W58,'BAU Calculations'!W62))</f>
-        <v>1.3947433788124291E-5</v>
+        <v>1.1906491303775414E-3</v>
       </c>
       <c r="X3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X$1)*('BAU Calculations'!X56/SUM('BAU Calculations'!X56,'BAU Calculations'!X58,'BAU Calculations'!X62))</f>
-        <v>1.4114323409240651E-5</v>
+        <v>1.2499921269239665E-3</v>
       </c>
       <c r="Y3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y$1)*('BAU Calculations'!Y56/SUM('BAU Calculations'!Y56,'BAU Calculations'!Y58,'BAU Calculations'!Y62))</f>
-        <v>1.4270581496109211E-5</v>
+        <v>1.3096252754004635E-3</v>
       </c>
       <c r="Z3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z$1)*('BAU Calculations'!Z56/SUM('BAU Calculations'!Z56,'BAU Calculations'!Z58,'BAU Calculations'!Z62))</f>
-        <v>1.4483759419845512E-5</v>
+        <v>1.3842580486945815E-3</v>
       </c>
       <c r="AA3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA$1)*('BAU Calculations'!AA56/SUM('BAU Calculations'!AA56,'BAU Calculations'!AA58,'BAU Calculations'!AA62))</f>
-        <v>1.4686315294693602E-5</v>
+        <v>1.4598946459863224E-3</v>
       </c>
       <c r="AB3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB$1)*('BAU Calculations'!AB56/SUM('BAU Calculations'!AB56,'BAU Calculations'!AB58,'BAU Calculations'!AB62))</f>
-        <v>1.6169113147350925E-5</v>
+        <v>1.5360236477638765E-3</v>
       </c>
       <c r="AC3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC$1)*('BAU Calculations'!AC56/SUM('BAU Calculations'!AC56,'BAU Calculations'!AC58,'BAU Calculations'!AC62))</f>
-        <v>1.6376927810451694E-5</v>
+        <v>1.6132264360288291E-3</v>
       </c>
       <c r="AD3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD$1)*('BAU Calculations'!AD56/SUM('BAU Calculations'!AD56,'BAU Calculations'!AD58,'BAU Calculations'!AD62))</f>
-        <v>1.65756949341525E-5</v>
+        <v>1.691219585031841E-3</v>
       </c>
       <c r="AE3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE$1)*('BAU Calculations'!AE56/SUM('BAU Calculations'!AE56,'BAU Calculations'!AE58,'BAU Calculations'!AE62))</f>
-        <v>1.6677083760836818E-5</v>
+        <v>1.7699176452519599E-3</v>
       </c>
       <c r="AF3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF$1)*('BAU Calculations'!AF56/SUM('BAU Calculations'!AF56,'BAU Calculations'!AF58,'BAU Calculations'!AF62))</f>
-        <v>1.6859433042487928E-5</v>
+        <v>1.8489489564032541E-3</v>
       </c>
       <c r="AG3" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG$1)*('BAU Calculations'!AG56/SUM('BAU Calculations'!AG56,'BAU Calculations'!AG58,'BAU Calculations'!AG62))</f>
-        <v>1.7034102627168875E-5</v>
+        <v>1.9289248360216079E-3</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
-        <v>184</v>
+      <c r="A4" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -18752,572 +18728,572 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="s">
-        <v>183</v>
+      <c r="A5" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="B5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B58/SUM('BAU Calculations'!B56,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>
-        <v>1.0975823980316898E-4</v>
+        <v>1.3583948173208905E-4</v>
       </c>
       <c r="C5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,C$1)*('BAU Calculations'!C58/SUM('BAU Calculations'!C56,'BAU Calculations'!C58,'BAU Calculations'!C62))</f>
-        <v>2.1641825513319906E-4</v>
+        <v>2.7044660235731998E-4</v>
       </c>
       <c r="D5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D$1)*('BAU Calculations'!D58/SUM('BAU Calculations'!D56,'BAU Calculations'!D58,'BAU Calculations'!D62))</f>
-        <v>3.2018460363579835E-4</v>
+        <v>4.03789199055907E-4</v>
       </c>
       <c r="E5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E$1)*('BAU Calculations'!E58/SUM('BAU Calculations'!E56,'BAU Calculations'!E58,'BAU Calculations'!E62))</f>
-        <v>4.2127520932174855E-4</v>
+        <v>5.3602298203011948E-4</v>
       </c>
       <c r="F5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F$1)*('BAU Calculations'!F58/SUM('BAU Calculations'!F56,'BAU Calculations'!F58,'BAU Calculations'!F62))</f>
-        <v>5.1623085384289039E-4</v>
+        <v>6.6453346183593747E-4</v>
       </c>
       <c r="G5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G$1)*('BAU Calculations'!G58/SUM('BAU Calculations'!G56,'BAU Calculations'!G58,'BAU Calculations'!G62))</f>
-        <v>6.0769977121937142E-4</v>
+        <v>7.9096067691643442E-4</v>
       </c>
       <c r="H5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H$1)*('BAU Calculations'!H58/SUM('BAU Calculations'!H56,'BAU Calculations'!H58,'BAU Calculations'!H62))</f>
-        <v>6.9588727092280281E-4</v>
+        <v>9.1566449371316915E-4</v>
       </c>
       <c r="I5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I$1)*('BAU Calculations'!I58/SUM('BAU Calculations'!I56,'BAU Calculations'!I58,'BAU Calculations'!I62))</f>
-        <v>8.0935056204960621E-4</v>
+        <v>1.0384734637211923E-3</v>
       </c>
       <c r="J5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J$1)*('BAU Calculations'!J58/SUM('BAU Calculations'!J56,'BAU Calculations'!J58,'BAU Calculations'!J62))</f>
-        <v>8.9490481523422016E-4</v>
+        <v>1.1595757281834419E-3</v>
       </c>
       <c r="K5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K$1)*('BAU Calculations'!K58/SUM('BAU Calculations'!K56,'BAU Calculations'!K58,'BAU Calculations'!K62))</f>
-        <v>9.7299315840864635E-4</v>
+        <v>1.2757192262587396E-3</v>
       </c>
       <c r="L5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L$1)*('BAU Calculations'!L58/SUM('BAU Calculations'!L56,'BAU Calculations'!L58,'BAU Calculations'!L62))</f>
-        <v>1.0477943862953483E-3</v>
+        <v>1.389793679727628E-3</v>
       </c>
       <c r="M5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M$1)*('BAU Calculations'!M58/SUM('BAU Calculations'!M56,'BAU Calculations'!M58,'BAU Calculations'!M62))</f>
-        <v>1.1200164929728467E-3</v>
+        <v>1.5019342890386154E-3</v>
       </c>
       <c r="N5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N$1)*('BAU Calculations'!N58/SUM('BAU Calculations'!N56,'BAU Calculations'!N58,'BAU Calculations'!N62))</f>
-        <v>1.1474714317687381E-3</v>
+        <v>1.6122557691351544E-3</v>
       </c>
       <c r="O5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O$1)*('BAU Calculations'!O58/SUM('BAU Calculations'!O56,'BAU Calculations'!O58,'BAU Calculations'!O62))</f>
-        <v>1.2135334029066515E-3</v>
+        <v>1.7208216320696932E-3</v>
       </c>
       <c r="P5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P$1)*('BAU Calculations'!P58/SUM('BAU Calculations'!P56,'BAU Calculations'!P58,'BAU Calculations'!P62))</f>
-        <v>1.2643963099852593E-3</v>
+        <v>1.8191204366513431E-3</v>
       </c>
       <c r="Q5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q$1)*('BAU Calculations'!Q58/SUM('BAU Calculations'!Q56,'BAU Calculations'!Q58,'BAU Calculations'!Q62))</f>
-        <v>1.3128088679237667E-3</v>
+        <v>1.914491996402771E-3</v>
       </c>
       <c r="R5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R$1)*('BAU Calculations'!R58/SUM('BAU Calculations'!R56,'BAU Calculations'!R58,'BAU Calculations'!R62))</f>
-        <v>1.3593088756431336E-3</v>
+        <v>2.0080562985279808E-3</v>
       </c>
       <c r="S5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S$1)*('BAU Calculations'!S58/SUM('BAU Calculations'!S56,'BAU Calculations'!S58,'BAU Calculations'!S62))</f>
-        <v>1.403766470171499E-3</v>
+        <v>2.0998041557375485E-3</v>
       </c>
       <c r="T5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T$1)*('BAU Calculations'!T58/SUM('BAU Calculations'!T56,'BAU Calculations'!T58,'BAU Calculations'!T62))</f>
-        <v>1.4961550094302594E-3</v>
+        <v>2.1892072587518111E-3</v>
       </c>
       <c r="U5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U$1)*('BAU Calculations'!U58/SUM('BAU Calculations'!U56,'BAU Calculations'!U58,'BAU Calculations'!U62))</f>
-        <v>1.5268298363247472E-3</v>
+        <v>2.2644816550715366E-3</v>
       </c>
       <c r="V5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V$1)*('BAU Calculations'!V58/SUM('BAU Calculations'!V56,'BAU Calculations'!V58,'BAU Calculations'!V62))</f>
-        <v>1.5149212983721764E-3</v>
+        <v>2.3382990498322766E-3</v>
       </c>
       <c r="W5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W$1)*('BAU Calculations'!W58/SUM('BAU Calculations'!W56,'BAU Calculations'!W58,'BAU Calculations'!W62))</f>
-        <v>1.5441198778776309E-3</v>
+        <v>2.4098063601056528E-3</v>
       </c>
       <c r="X5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X$1)*('BAU Calculations'!X58/SUM('BAU Calculations'!X56,'BAU Calculations'!X58,'BAU Calculations'!X62))</f>
-        <v>1.5722280323932005E-3</v>
+        <v>2.4796860502428286E-3</v>
       </c>
       <c r="Y5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y$1)*('BAU Calculations'!Y58/SUM('BAU Calculations'!Y56,'BAU Calculations'!Y58,'BAU Calculations'!Y62))</f>
-        <v>1.5993830323157219E-3</v>
+        <v>2.5479258070157389E-3</v>
       </c>
       <c r="Z5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z$1)*('BAU Calculations'!Z58/SUM('BAU Calculations'!Z56,'BAU Calculations'!Z58,'BAU Calculations'!Z62))</f>
-        <v>1.63275028777639E-3</v>
+        <v>2.615718094407752E-3</v>
       </c>
       <c r="AA5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA$1)*('BAU Calculations'!AA58/SUM('BAU Calculations'!AA56,'BAU Calculations'!AA58,'BAU Calculations'!AA62))</f>
-        <v>1.6651811886754602E-3</v>
+        <v>2.6818855199979234E-3</v>
       </c>
       <c r="AB5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB$1)*('BAU Calculations'!AB58/SUM('BAU Calculations'!AB56,'BAU Calculations'!AB58,'BAU Calculations'!AB62))</f>
-        <v>1.6594974426447041E-3</v>
+        <v>2.7460386816302368E-3</v>
       </c>
       <c r="AC5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC$1)*('BAU Calculations'!AC58/SUM('BAU Calculations'!AC56,'BAU Calculations'!AC58,'BAU Calculations'!AC62))</f>
-        <v>1.6904686217089301E-3</v>
+        <v>2.8091259828270871E-3</v>
       </c>
       <c r="AD5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD$1)*('BAU Calculations'!AD58/SUM('BAU Calculations'!AD56,'BAU Calculations'!AD58,'BAU Calculations'!AD62))</f>
-        <v>1.7206234227653862E-3</v>
+        <v>2.870639969422648E-3</v>
       </c>
       <c r="AE5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE$1)*('BAU Calculations'!AE58/SUM('BAU Calculations'!AE56,'BAU Calculations'!AE58,'BAU Calculations'!AE62))</f>
-        <v>1.8069367031396417E-3</v>
+        <v>2.9309224514507412E-3</v>
       </c>
       <c r="AF5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF$1)*('BAU Calculations'!AF58/SUM('BAU Calculations'!AF56,'BAU Calculations'!AF58,'BAU Calculations'!AF62))</f>
-        <v>1.836609163586467E-3</v>
+        <v>2.9895973362661747E-3</v>
       </c>
       <c r="AG5" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG$1)*('BAU Calculations'!AG58/SUM('BAU Calculations'!AG56,'BAU Calculations'!AG58,'BAU Calculations'!AG62))</f>
-        <v>1.8656663742071026E-3</v>
+        <v>3.0472569401797222E-3</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A8" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" s="53" t="s">
         <v>237</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A9" s="55" t="s">
-        <v>238</v>
       </c>
       <c r="B9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,B$1)*('BAU Calculations'!B58/SUM('BAU Calculations'!B62,'BAU Calculations'!B58,'BAU Calculations'!B62))</f>
-        <v>6.3350753587848856E-5</v>
+        <v>8.5749356332728469E-5</v>
       </c>
       <c r="C9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,C$1)*('BAU Calculations'!C58/SUM('BAU Calculations'!C62,'BAU Calculations'!C58,'BAU Calculations'!C62))</f>
-        <v>1.2463782870434674E-4</v>
+        <v>1.7066889431407788E-4</v>
       </c>
       <c r="D9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,D$1)*('BAU Calculations'!D58/SUM('BAU Calculations'!D62,'BAU Calculations'!D58,'BAU Calculations'!D62))</f>
-        <v>1.8401028831238335E-4</v>
+        <v>2.547319414816677E-4</v>
       </c>
       <c r="E9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,E$1)*('BAU Calculations'!E58/SUM('BAU Calculations'!E62,'BAU Calculations'!E58,'BAU Calculations'!E62))</f>
-        <v>2.4162351781458055E-4</v>
+        <v>3.3805247470886465E-4</v>
       </c>
       <c r="F9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,F$1)*('BAU Calculations'!F58/SUM('BAU Calculations'!F62,'BAU Calculations'!F58,'BAU Calculations'!F62))</f>
-        <v>2.9522419282253086E-4</v>
+        <v>4.1900709868845514E-4</v>
       </c>
       <c r="G9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,G$1)*('BAU Calculations'!G58/SUM('BAU Calculations'!G62,'BAU Calculations'!G58,'BAU Calculations'!G62))</f>
-        <v>3.4657900381206971E-4</v>
+        <v>4.9860342221507141E-4</v>
       </c>
       <c r="H9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,H$1)*('BAU Calculations'!H58/SUM('BAU Calculations'!H62,'BAU Calculations'!H58,'BAU Calculations'!H62))</f>
-        <v>3.9583695792454573E-4</v>
+        <v>5.7711538421244344E-4</v>
       </c>
       <c r="I9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,I$1)*('BAU Calculations'!I58/SUM('BAU Calculations'!I62,'BAU Calculations'!I58,'BAU Calculations'!I62))</f>
-        <v>4.6144176706245212E-4</v>
+        <v>6.5438214505623982E-4</v>
       </c>
       <c r="J9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,J$1)*('BAU Calculations'!J58/SUM('BAU Calculations'!J62,'BAU Calculations'!J58,'BAU Calculations'!J62))</f>
-        <v>5.0898569539479946E-4</v>
+        <v>7.3053227415834576E-4</v>
       </c>
       <c r="K9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,K$1)*('BAU Calculations'!K58/SUM('BAU Calculations'!K62,'BAU Calculations'!K58,'BAU Calculations'!K62))</f>
-        <v>5.5176295443752979E-4</v>
+        <v>8.0352155211008483E-4</v>
       </c>
       <c r="L9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,L$1)*('BAU Calculations'!L58/SUM('BAU Calculations'!L62,'BAU Calculations'!L58,'BAU Calculations'!L62))</f>
-        <v>5.9267377920910853E-4</v>
+        <v>8.7516991374866318E-4</v>
       </c>
       <c r="M9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,M$1)*('BAU Calculations'!M58/SUM('BAU Calculations'!M62,'BAU Calculations'!M58,'BAU Calculations'!M62))</f>
-        <v>6.3184523746829255E-4</v>
+        <v>9.455792591379227E-4</v>
       </c>
       <c r="N9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,N$1)*('BAU Calculations'!N58/SUM('BAU Calculations'!N62,'BAU Calculations'!N58,'BAU Calculations'!N62))</f>
-        <v>6.4284766113919558E-4</v>
+        <v>1.0148242557149461E-3</v>
       </c>
       <c r="O9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,O$1)*('BAU Calculations'!O58/SUM('BAU Calculations'!O62,'BAU Calculations'!O58,'BAU Calculations'!O62))</f>
-        <v>6.7838053073678917E-4</v>
+        <v>1.0829380526932106E-3</v>
       </c>
       <c r="P9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,P$1)*('BAU Calculations'!P58/SUM('BAU Calculations'!P62,'BAU Calculations'!P58,'BAU Calculations'!P62))</f>
-        <v>7.0451418024854119E-4</v>
+        <v>1.1437621677378134E-3</v>
       </c>
       <c r="Q9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Q$1)*('BAU Calculations'!Q58/SUM('BAU Calculations'!Q62,'BAU Calculations'!Q58,'BAU Calculations'!Q62))</f>
-        <v>7.2926142187586013E-4</v>
+        <v>1.2026065597289845E-3</v>
       </c>
       <c r="R9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,R$1)*('BAU Calculations'!R58/SUM('BAU Calculations'!R62,'BAU Calculations'!R58,'BAU Calculations'!R62))</f>
-        <v>7.5295342465223492E-4</v>
+        <v>1.2602668498353595E-3</v>
       </c>
       <c r="S9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,S$1)*('BAU Calculations'!S58/SUM('BAU Calculations'!S62,'BAU Calculations'!S58,'BAU Calculations'!S62))</f>
-        <v>7.7550801506687304E-4</v>
+        <v>1.316795231863519E-3</v>
       </c>
       <c r="T9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,T$1)*('BAU Calculations'!T58/SUM('BAU Calculations'!T62,'BAU Calculations'!T58,'BAU Calculations'!T62))</f>
-        <v>8.2732290220705594E-4</v>
+        <v>1.3717294362560013E-3</v>
       </c>
       <c r="U9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,U$1)*('BAU Calculations'!U58/SUM('BAU Calculations'!U62,'BAU Calculations'!U58,'BAU Calculations'!U62))</f>
-        <v>8.4172752862488119E-4</v>
+        <v>1.4165322182595693E-3</v>
       </c>
       <c r="V9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,V$1)*('BAU Calculations'!V58/SUM('BAU Calculations'!V62,'BAU Calculations'!V58,'BAU Calculations'!V62))</f>
-        <v>8.304639867582112E-4</v>
+        <v>1.4604474162372642E-3</v>
       </c>
       <c r="W9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,W$1)*('BAU Calculations'!W58/SUM('BAU Calculations'!W62,'BAU Calculations'!W58,'BAU Calculations'!W62))</f>
-        <v>8.4425995398083073E-4</v>
+        <v>1.5028444316292368E-3</v>
       </c>
       <c r="X9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,X$1)*('BAU Calculations'!X58/SUM('BAU Calculations'!X62,'BAU Calculations'!X58,'BAU Calculations'!X62))</f>
-        <v>8.5752948879009964E-4</v>
+        <v>1.5441971028214813E-3</v>
       </c>
       <c r="Y9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Y$1)*('BAU Calculations'!Y58/SUM('BAU Calculations'!Y62,'BAU Calculations'!Y58,'BAU Calculations'!Y62))</f>
-        <v>8.7034640895291768E-4</v>
+        <v>1.5845217325665033E-3</v>
       </c>
       <c r="Z9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,Z$1)*('BAU Calculations'!Z58/SUM('BAU Calculations'!Z62,'BAU Calculations'!Z58,'BAU Calculations'!Z62))</f>
-        <v>8.8693121136024613E-4</v>
+        <v>1.6268104568909186E-3</v>
       </c>
       <c r="AA9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AA$1)*('BAU Calculations'!AA58/SUM('BAU Calculations'!AA62,'BAU Calculations'!AA58,'BAU Calculations'!AA62))</f>
-        <v>9.0302923969203159E-4</v>
+        <v>1.6681128666027304E-3</v>
       </c>
       <c r="AB9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AB$1)*('BAU Calculations'!AB58/SUM('BAU Calculations'!AB62,'BAU Calculations'!AB58,'BAU Calculations'!AB62))</f>
-        <v>8.9701899861738439E-4</v>
+        <v>1.7080845851531001E-3</v>
       </c>
       <c r="AC9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AC$1)*('BAU Calculations'!AC58/SUM('BAU Calculations'!AC62,'BAU Calculations'!AC58,'BAU Calculations'!AC62))</f>
-        <v>9.1244146342214273E-4</v>
+        <v>1.7474679387878202E-3</v>
       </c>
       <c r="AD9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AD$1)*('BAU Calculations'!AD58/SUM('BAU Calculations'!AD62,'BAU Calculations'!AD58,'BAU Calculations'!AD62))</f>
-        <v>9.2743720767100293E-4</v>
+        <v>1.785869413889194E-3</v>
       </c>
       <c r="AE9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AE$1)*('BAU Calculations'!AE58/SUM('BAU Calculations'!AE62,'BAU Calculations'!AE58,'BAU Calculations'!AE62))</f>
-        <v>9.7505312579810471E-4</v>
+        <v>1.8235135716428593E-3</v>
       </c>
       <c r="AF9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AF$1)*('BAU Calculations'!AF58/SUM('BAU Calculations'!AF62,'BAU Calculations'!AF58,'BAU Calculations'!AF62))</f>
-        <v>9.8977383094732722E-4</v>
+        <v>1.8600900225129236E-3</v>
       </c>
       <c r="AG9" s="14">
         <f>TREND('BAU Calculations'!$B103:$C103,'BAU Calculations'!$B101:$C101,AG$1)*('BAU Calculations'!AG58/SUM('BAU Calculations'!AG62,'BAU Calculations'!AG58,'BAU Calculations'!AG62))</f>
-        <v>1.0041812561638649E-3</v>
+        <v>1.8960916784082353E-3</v>
       </c>
     </row>
   </sheetData>
